--- a/outputs-HGR-r202/train-g__Eubacterium_G_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-g__Eubacterium_G_split_pruned.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="1151">
   <si>
     <t>Row</t>
   </si>
@@ -2786,6 +2787,690 @@
   </si>
   <si>
     <t>label_UMGS1529_93.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_84.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_36_0.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_36_6.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_36_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_100.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_102.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_109.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_111.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_112.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_118.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_119.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_121.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_124.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_131.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_141.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_143.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_144.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_146.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_149.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_158.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_159.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_164.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_166.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_168.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_174.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_181.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_184.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_201.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_203.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_78.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_85.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_89.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_93.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_98.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_102.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_106.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_108.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_113.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_121.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_127.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_129.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_138.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_141.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_151.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_153.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_161.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_192.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_200.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_202.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_216.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_217.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_218.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_225.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_228.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_231.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_237.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_244.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_78.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_85.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_94.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000153885_12.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000153885_13.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000153885_2.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000153885_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_106.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_114.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_115.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_125.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_127.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_133.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_136.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_137.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_138.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_143.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_144.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_160.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_162.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_177.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_179.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_188.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_191.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_193.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_77.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_84.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_93.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_97.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_103.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_105.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_117.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_129.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_130.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_81.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_84.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_91.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_96.fasta</t>
   </si>
 </sst>
 </file>
@@ -2806,7 +3491,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2822,11 +3507,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -2836,6 +3523,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -34989,4 +35678,8041 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K229"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="true"/>
+    <col min="2" max="2" width="28.85546875" customWidth="true"/>
+    <col min="3" max="3" width="28.85546875" customWidth="true"/>
+    <col min="4" max="4" width="28.85546875" customWidth="true"/>
+    <col min="5" max="5" width="28.85546875" customWidth="true"/>
+    <col min="6" max="6" width="28.85546875" customWidth="true"/>
+    <col min="7" max="7" width="28.85546875" customWidth="true"/>
+    <col min="8" max="8" width="28.85546875" customWidth="true"/>
+    <col min="9" max="9" width="28" customWidth="true"/>
+    <col min="10" max="10" width="10.28515625" customWidth="true"/>
+    <col min="11" max="11" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="B2">
+        <v>0.8264215201435402</v>
+      </c>
+      <c r="C2">
+        <v>0.0001907742051726342</v>
+      </c>
+      <c r="D2">
+        <v>0.011480081942162809</v>
+      </c>
+      <c r="E2">
+        <v>0.034514327083871511</v>
+      </c>
+      <c r="F2">
+        <v>0.001114990887310024</v>
+      </c>
+      <c r="G2">
+        <v>0.057214719034353795</v>
+      </c>
+      <c r="H2">
+        <v>0.0027806448892254794</v>
+      </c>
+      <c r="I2">
+        <v>0.066282941814363505</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B3">
+        <v>0.8283653289631655</v>
+      </c>
+      <c r="C3">
+        <v>0.00017515142887476639</v>
+      </c>
+      <c r="D3">
+        <v>0.0094459413125263202</v>
+      </c>
+      <c r="E3">
+        <v>0.015104372231501795</v>
+      </c>
+      <c r="F3">
+        <v>0.0019941108381231584</v>
+      </c>
+      <c r="G3">
+        <v>0.058179148224258272</v>
+      </c>
+      <c r="H3">
+        <v>0.014215912592530055</v>
+      </c>
+      <c r="I3">
+        <v>0.072520034409020107</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="B4">
+        <v>0.69186311635976216</v>
+      </c>
+      <c r="C4">
+        <v>0.0029949904475280718</v>
+      </c>
+      <c r="D4">
+        <v>0.010402602264948243</v>
+      </c>
+      <c r="E4">
+        <v>0.05118441233674087</v>
+      </c>
+      <c r="F4">
+        <v>0.012891970560568712</v>
+      </c>
+      <c r="G4">
+        <v>0.097726692501396123</v>
+      </c>
+      <c r="H4">
+        <v>0.02657311497861093</v>
+      </c>
+      <c r="I4">
+        <v>0.10636310055044484</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="B5">
+        <v>0.81434288130140198</v>
+      </c>
+      <c r="C5">
+        <v>0.00076392922552953612</v>
+      </c>
+      <c r="D5">
+        <v>0.0054316568049946178</v>
+      </c>
+      <c r="E5">
+        <v>0.025962299435382197</v>
+      </c>
+      <c r="F5">
+        <v>0.012233734171926587</v>
+      </c>
+      <c r="G5">
+        <v>0.075917901223648929</v>
+      </c>
+      <c r="H5">
+        <v>0.0081226335717737453</v>
+      </c>
+      <c r="I5">
+        <v>0.057224964265342473</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="B6">
+        <v>0.76532405805372938</v>
+      </c>
+      <c r="C6">
+        <v>0.00011568155205221107</v>
+      </c>
+      <c r="D6">
+        <v>0.0080770245760229831</v>
+      </c>
+      <c r="E6">
+        <v>0.052644046054435061</v>
+      </c>
+      <c r="F6">
+        <v>0.016773068649437315</v>
+      </c>
+      <c r="G6">
+        <v>0.053473488644221787</v>
+      </c>
+      <c r="H6">
+        <v>0.0057159325116827673</v>
+      </c>
+      <c r="I6">
+        <v>0.097876699958418509</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="B7">
+        <v>0.77481150347173777</v>
+      </c>
+      <c r="C7">
+        <v>0.0023943667117995999</v>
+      </c>
+      <c r="D7">
+        <v>0.0079492472379114592</v>
+      </c>
+      <c r="E7">
+        <v>0.036092587743937872</v>
+      </c>
+      <c r="F7">
+        <v>0.0030610458390168561</v>
+      </c>
+      <c r="G7">
+        <v>0.088021103522624128</v>
+      </c>
+      <c r="H7">
+        <v>0.013786059410581135</v>
+      </c>
+      <c r="I7">
+        <v>0.073884086062391149</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="B8">
+        <v>0.53241504798717532</v>
+      </c>
+      <c r="C8">
+        <v>0.00014749079797678606</v>
+      </c>
+      <c r="D8">
+        <v>0.007784496804161295</v>
+      </c>
+      <c r="E8">
+        <v>0.027544013668958783</v>
+      </c>
+      <c r="F8">
+        <v>0.0084716750779336141</v>
+      </c>
+      <c r="G8">
+        <v>0.15926374721441083</v>
+      </c>
+      <c r="H8">
+        <v>0.053613752771837941</v>
+      </c>
+      <c r="I8">
+        <v>0.21075977567754531</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>930</v>
+      </c>
+      <c r="B9">
+        <v>0.24488263381376499</v>
+      </c>
+      <c r="C9">
+        <v>0.00014898635874955297</v>
+      </c>
+      <c r="D9">
+        <v>0.028475502077624715</v>
+      </c>
+      <c r="E9">
+        <v>0.067441046459579421</v>
+      </c>
+      <c r="F9">
+        <v>0.19482534414563341</v>
+      </c>
+      <c r="G9">
+        <v>0.12216048296867135</v>
+      </c>
+      <c r="H9">
+        <v>0.074635451563285243</v>
+      </c>
+      <c r="I9">
+        <v>0.26743055261269139</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>931</v>
+      </c>
+      <c r="B10">
+        <v>0.41468461069491003</v>
+      </c>
+      <c r="C10">
+        <v>0.00055464123166789529</v>
+      </c>
+      <c r="D10">
+        <v>0.013187926859774461</v>
+      </c>
+      <c r="E10">
+        <v>0.041459315857947654</v>
+      </c>
+      <c r="F10">
+        <v>0.0079864763617774424</v>
+      </c>
+      <c r="G10">
+        <v>0.15378809929988094</v>
+      </c>
+      <c r="H10">
+        <v>0.052605029211184158</v>
+      </c>
+      <c r="I10">
+        <v>0.31573390048285749</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>932</v>
+      </c>
+      <c r="B11">
+        <v>0.58347671872126738</v>
+      </c>
+      <c r="C11">
+        <v>0.00016338527575069075</v>
+      </c>
+      <c r="D11">
+        <v>0.011366851185632821</v>
+      </c>
+      <c r="E11">
+        <v>0.022579768579455733</v>
+      </c>
+      <c r="F11">
+        <v>0.0072753333965110767</v>
+      </c>
+      <c r="G11">
+        <v>0.10613234940256353</v>
+      </c>
+      <c r="H11">
+        <v>0.062213382033486753</v>
+      </c>
+      <c r="I11">
+        <v>0.20679221140533213</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>933</v>
+      </c>
+      <c r="B12">
+        <v>0.775973402518782</v>
+      </c>
+      <c r="C12">
+        <v>6.8561387218939011e-05</v>
+      </c>
+      <c r="D12">
+        <v>0.0033811914303406082</v>
+      </c>
+      <c r="E12">
+        <v>0.023691113703121085</v>
+      </c>
+      <c r="F12">
+        <v>0.0069173660141777782</v>
+      </c>
+      <c r="G12">
+        <v>0.083314382870004325</v>
+      </c>
+      <c r="H12">
+        <v>0.0079106099964244073</v>
+      </c>
+      <c r="I12">
+        <v>0.098743372079930877</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="B13">
+        <v>0.5908374006255277</v>
+      </c>
+      <c r="C13">
+        <v>0.0001817671310532399</v>
+      </c>
+      <c r="D13">
+        <v>0.010032776773835128</v>
+      </c>
+      <c r="E13">
+        <v>0.042531801877933435</v>
+      </c>
+      <c r="F13">
+        <v>0.010006332346020327</v>
+      </c>
+      <c r="G13">
+        <v>0.1144686800798632</v>
+      </c>
+      <c r="H13">
+        <v>0.07994631610327077</v>
+      </c>
+      <c r="I13">
+        <v>0.15199492506249626</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>935</v>
+      </c>
+      <c r="B14">
+        <v>0.5305902457431072</v>
+      </c>
+      <c r="C14">
+        <v>9.4926740761861023e-05</v>
+      </c>
+      <c r="D14">
+        <v>0.015294799996085007</v>
+      </c>
+      <c r="E14">
+        <v>0.04151199284762476</v>
+      </c>
+      <c r="F14">
+        <v>0.015573776320101117</v>
+      </c>
+      <c r="G14">
+        <v>0.16249801342761735</v>
+      </c>
+      <c r="H14">
+        <v>0.043680412520079794</v>
+      </c>
+      <c r="I14">
+        <v>0.19075583240462304</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>936</v>
+      </c>
+      <c r="B15">
+        <v>0.49868563023447438</v>
+      </c>
+      <c r="C15">
+        <v>8.7263439581134857e-06</v>
+      </c>
+      <c r="D15">
+        <v>0.0070766376421507451</v>
+      </c>
+      <c r="E15">
+        <v>0.020739585953850951</v>
+      </c>
+      <c r="F15">
+        <v>0.026297843105437139</v>
+      </c>
+      <c r="G15">
+        <v>0.1718928713740244</v>
+      </c>
+      <c r="H15">
+        <v>0.12400746277359509</v>
+      </c>
+      <c r="I15">
+        <v>0.15129124257250925</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="B16">
+        <v>0.55920162777200877</v>
+      </c>
+      <c r="C16">
+        <v>2.7267508824948699e-05</v>
+      </c>
+      <c r="D16">
+        <v>0.016094901475417627</v>
+      </c>
+      <c r="E16">
+        <v>0.024145580545133678</v>
+      </c>
+      <c r="F16">
+        <v>0.016456538332070187</v>
+      </c>
+      <c r="G16">
+        <v>0.097639326428866524</v>
+      </c>
+      <c r="H16">
+        <v>0.12412709629711993</v>
+      </c>
+      <c r="I16">
+        <v>0.16230766164055829</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>938</v>
+      </c>
+      <c r="B17">
+        <v>0.24293604553931566</v>
+      </c>
+      <c r="C17">
+        <v>3.8058884358517495e-05</v>
+      </c>
+      <c r="D17">
+        <v>0.020546487686060749</v>
+      </c>
+      <c r="E17">
+        <v>0.029752247857001646</v>
+      </c>
+      <c r="F17">
+        <v>0.017890759424479097</v>
+      </c>
+      <c r="G17">
+        <v>0.19354361958926619</v>
+      </c>
+      <c r="H17">
+        <v>0.21106648495424138</v>
+      </c>
+      <c r="I17">
+        <v>0.28422629606527666</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>939</v>
+      </c>
+      <c r="B18">
+        <v>0.4485032239343833</v>
+      </c>
+      <c r="C18">
+        <v>3.7233473287617052e-05</v>
+      </c>
+      <c r="D18">
+        <v>0.0061604541153914465</v>
+      </c>
+      <c r="E18">
+        <v>0.015901286773943486</v>
+      </c>
+      <c r="F18">
+        <v>0.0025707915913428473</v>
+      </c>
+      <c r="G18">
+        <v>0.17224428059051211</v>
+      </c>
+      <c r="H18">
+        <v>0.082745991571241642</v>
+      </c>
+      <c r="I18">
+        <v>0.27183673794989754</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>940</v>
+      </c>
+      <c r="B19">
+        <v>0.15717218319005014</v>
+      </c>
+      <c r="C19">
+        <v>3.1539359397076842e-06</v>
+      </c>
+      <c r="D19">
+        <v>0.029891974847519268</v>
+      </c>
+      <c r="E19">
+        <v>0.0520583944865326</v>
+      </c>
+      <c r="F19">
+        <v>0.039603704547909992</v>
+      </c>
+      <c r="G19">
+        <v>0.23472664411996347</v>
+      </c>
+      <c r="H19">
+        <v>0.22337308477593973</v>
+      </c>
+      <c r="I19">
+        <v>0.26317086009614526</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>941</v>
+      </c>
+      <c r="B20">
+        <v>0.0031309663348068131</v>
+      </c>
+      <c r="C20">
+        <v>0.79046461712019311</v>
+      </c>
+      <c r="D20">
+        <v>0.019078141133177649</v>
+      </c>
+      <c r="E20">
+        <v>0.030383995214674421</v>
+      </c>
+      <c r="F20">
+        <v>0.0078790966008597963</v>
+      </c>
+      <c r="G20">
+        <v>0.045815383579177485</v>
+      </c>
+      <c r="H20">
+        <v>0.0052938455988470459</v>
+      </c>
+      <c r="I20">
+        <v>0.097953954418263711</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>942</v>
+      </c>
+      <c r="B21">
+        <v>0.012839170080987478</v>
+      </c>
+      <c r="C21">
+        <v>0.59955408697406232</v>
+      </c>
+      <c r="D21">
+        <v>0.025008747828292394</v>
+      </c>
+      <c r="E21">
+        <v>0.094682335446612462</v>
+      </c>
+      <c r="F21">
+        <v>0.022692125127928495</v>
+      </c>
+      <c r="G21">
+        <v>0.078457198229438918</v>
+      </c>
+      <c r="H21">
+        <v>0.021469712337608242</v>
+      </c>
+      <c r="I21">
+        <v>0.14529662397506973</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>943</v>
+      </c>
+      <c r="B22">
+        <v>0.014180245013952252</v>
+      </c>
+      <c r="C22">
+        <v>0.2675534644309604</v>
+      </c>
+      <c r="D22">
+        <v>0.092495588699029629</v>
+      </c>
+      <c r="E22">
+        <v>0.077799886912893954</v>
+      </c>
+      <c r="F22">
+        <v>0.0017572875718790473</v>
+      </c>
+      <c r="G22">
+        <v>0.12467302552613117</v>
+      </c>
+      <c r="H22">
+        <v>0.18452118721248364</v>
+      </c>
+      <c r="I22">
+        <v>0.23701931463266993</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>944</v>
+      </c>
+      <c r="B23">
+        <v>0.014099622735639607</v>
+      </c>
+      <c r="C23">
+        <v>0.0083771585561677984</v>
+      </c>
+      <c r="D23">
+        <v>0.3470059634654169</v>
+      </c>
+      <c r="E23">
+        <v>0.089008869368530447</v>
+      </c>
+      <c r="F23">
+        <v>0.0044481135249564638</v>
+      </c>
+      <c r="G23">
+        <v>0.16431836784103712</v>
+      </c>
+      <c r="H23">
+        <v>0.046192816515639376</v>
+      </c>
+      <c r="I23">
+        <v>0.32654908799261217</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="B24">
+        <v>0.0046138999144866967</v>
+      </c>
+      <c r="C24">
+        <v>0.001491494403291264</v>
+      </c>
+      <c r="D24">
+        <v>0.29550590763274542</v>
+      </c>
+      <c r="E24">
+        <v>0.031376002022548123</v>
+      </c>
+      <c r="F24">
+        <v>0.011289956270810718</v>
+      </c>
+      <c r="G24">
+        <v>0.12308041055926087</v>
+      </c>
+      <c r="H24">
+        <v>0.23164400167860838</v>
+      </c>
+      <c r="I24">
+        <v>0.30099832751824862</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="B25">
+        <v>0.011454391457189964</v>
+      </c>
+      <c r="C25">
+        <v>9.5231480891341366e-05</v>
+      </c>
+      <c r="D25">
+        <v>0.14811204592477559</v>
+      </c>
+      <c r="E25">
+        <v>0.12547080479749179</v>
+      </c>
+      <c r="F25">
+        <v>0.017633284532459985</v>
+      </c>
+      <c r="G25">
+        <v>0.13196911012104282</v>
+      </c>
+      <c r="H25">
+        <v>0.3161930674804283</v>
+      </c>
+      <c r="I25">
+        <v>0.24907206420572031</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="B26">
+        <v>0.021606537481527209</v>
+      </c>
+      <c r="C26">
+        <v>0.00093856454412844144</v>
+      </c>
+      <c r="D26">
+        <v>0.13159979005373518</v>
+      </c>
+      <c r="E26">
+        <v>0.094925849400166268</v>
+      </c>
+      <c r="F26">
+        <v>0.077957011286043418</v>
+      </c>
+      <c r="G26">
+        <v>0.19620839939023837</v>
+      </c>
+      <c r="H26">
+        <v>0.15341000308025046</v>
+      </c>
+      <c r="I26">
+        <v>0.3233538447639106</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="B27">
+        <v>0.00098453435164586392</v>
+      </c>
+      <c r="C27">
+        <v>5.1953232418990407e-05</v>
+      </c>
+      <c r="D27">
+        <v>0.16917410827657994</v>
+      </c>
+      <c r="E27">
+        <v>0.011490335902179174</v>
+      </c>
+      <c r="F27">
+        <v>0.0068566035525215226</v>
+      </c>
+      <c r="G27">
+        <v>0.081618365724039618</v>
+      </c>
+      <c r="H27">
+        <v>0.49644257357131732</v>
+      </c>
+      <c r="I27">
+        <v>0.23338152538929763</v>
+      </c>
+      <c r="J27">
+        <v>7</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="B28">
+        <v>0.0048612893486030297</v>
+      </c>
+      <c r="C28">
+        <v>0.00015550155879065798</v>
+      </c>
+      <c r="D28">
+        <v>0.020970409026435384</v>
+      </c>
+      <c r="E28">
+        <v>0.093026544830218785</v>
+      </c>
+      <c r="F28">
+        <v>0.18548254973125591</v>
+      </c>
+      <c r="G28">
+        <v>0.21998880459378481</v>
+      </c>
+      <c r="H28">
+        <v>0.3048496900425825</v>
+      </c>
+      <c r="I28">
+        <v>0.17066521086832895</v>
+      </c>
+      <c r="J28">
+        <v>7</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="B29">
+        <v>0.018097908983055879</v>
+      </c>
+      <c r="C29">
+        <v>9.5173689035854569e-05</v>
+      </c>
+      <c r="D29">
+        <v>0.048776725187414972</v>
+      </c>
+      <c r="E29">
+        <v>0.036682348525748261</v>
+      </c>
+      <c r="F29">
+        <v>0.023075790329623123</v>
+      </c>
+      <c r="G29">
+        <v>0.19954866251979791</v>
+      </c>
+      <c r="H29">
+        <v>0.37963701808467493</v>
+      </c>
+      <c r="I29">
+        <v>0.29408637268064908</v>
+      </c>
+      <c r="J29">
+        <v>7</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="B30">
+        <v>0.01299238108323387</v>
+      </c>
+      <c r="C30">
+        <v>0.00018816234692094392</v>
+      </c>
+      <c r="D30">
+        <v>0.076241993847078901</v>
+      </c>
+      <c r="E30">
+        <v>0.050128528783518728</v>
+      </c>
+      <c r="F30">
+        <v>0.03711590066372232</v>
+      </c>
+      <c r="G30">
+        <v>0.21687582019457952</v>
+      </c>
+      <c r="H30">
+        <v>0.29884525187480809</v>
+      </c>
+      <c r="I30">
+        <v>0.30761196120613771</v>
+      </c>
+      <c r="J30">
+        <v>8</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="B31">
+        <v>0.00074237584246494327</v>
+      </c>
+      <c r="C31">
+        <v>0.00017056118481412492</v>
+      </c>
+      <c r="D31">
+        <v>0.35570252981193695</v>
+      </c>
+      <c r="E31">
+        <v>0.055424580720894255</v>
+      </c>
+      <c r="F31">
+        <v>0.045320868883228782</v>
+      </c>
+      <c r="G31">
+        <v>0.1486836296462454</v>
+      </c>
+      <c r="H31">
+        <v>0.15048205087594926</v>
+      </c>
+      <c r="I31">
+        <v>0.24347340303446638</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="B32">
+        <v>0.022560044399939163</v>
+      </c>
+      <c r="C32">
+        <v>0.0031183642376442122</v>
+      </c>
+      <c r="D32">
+        <v>0.060701558939184212</v>
+      </c>
+      <c r="E32">
+        <v>0.42016601917789698</v>
+      </c>
+      <c r="F32">
+        <v>0.020235743778444334</v>
+      </c>
+      <c r="G32">
+        <v>0.13778084199108542</v>
+      </c>
+      <c r="H32">
+        <v>0.0082390092039127238</v>
+      </c>
+      <c r="I32">
+        <v>0.327198418271893</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="B33">
+        <v>0.010572439037726727</v>
+      </c>
+      <c r="C33">
+        <v>0.043149822558402426</v>
+      </c>
+      <c r="D33">
+        <v>0.020600326493480637</v>
+      </c>
+      <c r="E33">
+        <v>0.32463078193942929</v>
+      </c>
+      <c r="F33">
+        <v>0.0037804928953374985</v>
+      </c>
+      <c r="G33">
+        <v>0.15026880015149083</v>
+      </c>
+      <c r="H33">
+        <v>0.014728797377245048</v>
+      </c>
+      <c r="I33">
+        <v>0.43226853954688743</v>
+      </c>
+      <c r="J33">
+        <v>8</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="B34">
+        <v>0.091458836290740433</v>
+      </c>
+      <c r="C34">
+        <v>0.060329357426954812</v>
+      </c>
+      <c r="D34">
+        <v>0.090457259387862865</v>
+      </c>
+      <c r="E34">
+        <v>0.27046161062461416</v>
+      </c>
+      <c r="F34">
+        <v>0.0035197968581705142</v>
+      </c>
+      <c r="G34">
+        <v>0.22096663287144458</v>
+      </c>
+      <c r="H34">
+        <v>0.0092071983444410952</v>
+      </c>
+      <c r="I34">
+        <v>0.25359930819577159</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="B35">
+        <v>0.020582729259270224</v>
+      </c>
+      <c r="C35">
+        <v>0.0021282181039931091</v>
+      </c>
+      <c r="D35">
+        <v>0.03086612383325477</v>
+      </c>
+      <c r="E35">
+        <v>0.34123128141538084</v>
+      </c>
+      <c r="F35">
+        <v>0.0042354670225929897</v>
+      </c>
+      <c r="G35">
+        <v>0.15808087768770143</v>
+      </c>
+      <c r="H35">
+        <v>0.035439933250193303</v>
+      </c>
+      <c r="I35">
+        <v>0.40743536942761327</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>957</v>
+      </c>
+      <c r="B36">
+        <v>0.052309782288351703</v>
+      </c>
+      <c r="C36">
+        <v>0.064258807284343855</v>
+      </c>
+      <c r="D36">
+        <v>0.02730509062996498</v>
+      </c>
+      <c r="E36">
+        <v>0.36163416084098443</v>
+      </c>
+      <c r="F36">
+        <v>0.039870300798522988</v>
+      </c>
+      <c r="G36">
+        <v>0.18759931090832174</v>
+      </c>
+      <c r="H36">
+        <v>0.030201002308556213</v>
+      </c>
+      <c r="I36">
+        <v>0.23682154494095412</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="B37">
+        <v>0.024434419469235861</v>
+      </c>
+      <c r="C37">
+        <v>0.0033076329455432826</v>
+      </c>
+      <c r="D37">
+        <v>0.094915470666671151</v>
+      </c>
+      <c r="E37">
+        <v>0.31839212356838342</v>
+      </c>
+      <c r="F37">
+        <v>0.10600510676131994</v>
+      </c>
+      <c r="G37">
+        <v>0.14905651490813268</v>
+      </c>
+      <c r="H37">
+        <v>0.070896737737475832</v>
+      </c>
+      <c r="I37">
+        <v>0.23299199394323791</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="B38">
+        <v>0.15510684428167981</v>
+      </c>
+      <c r="C38">
+        <v>0.00030647339879491634</v>
+      </c>
+      <c r="D38">
+        <v>0.053026726385536696</v>
+      </c>
+      <c r="E38">
+        <v>0.24954108730306235</v>
+      </c>
+      <c r="F38">
+        <v>0.10048735885830214</v>
+      </c>
+      <c r="G38">
+        <v>0.20060427991045465</v>
+      </c>
+      <c r="H38">
+        <v>0.030286831280604078</v>
+      </c>
+      <c r="I38">
+        <v>0.21064039858156525</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="B39">
+        <v>0.0055341288427223868</v>
+      </c>
+      <c r="C39">
+        <v>0.014759263989585797</v>
+      </c>
+      <c r="D39">
+        <v>0.016610146712379627</v>
+      </c>
+      <c r="E39">
+        <v>0.34760741935143702</v>
+      </c>
+      <c r="F39">
+        <v>0.0090369023212886687</v>
+      </c>
+      <c r="G39">
+        <v>0.18124379584765346</v>
+      </c>
+      <c r="H39">
+        <v>0.15484574141153776</v>
+      </c>
+      <c r="I39">
+        <v>0.27036260152339547</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="B40">
+        <v>0.0039478341673910749</v>
+      </c>
+      <c r="C40">
+        <v>0.0011969498949097525</v>
+      </c>
+      <c r="D40">
+        <v>0.026675650835690068</v>
+      </c>
+      <c r="E40">
+        <v>0.23003592249894428</v>
+      </c>
+      <c r="F40">
+        <v>0.0035597920393018118</v>
+      </c>
+      <c r="G40">
+        <v>0.23556773968563166</v>
+      </c>
+      <c r="H40">
+        <v>0.090014924137548788</v>
+      </c>
+      <c r="I40">
+        <v>0.40900118674058256</v>
+      </c>
+      <c r="J40">
+        <v>8</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>962</v>
+      </c>
+      <c r="B41">
+        <v>0.042179031415646093</v>
+      </c>
+      <c r="C41">
+        <v>0.017275292874559364</v>
+      </c>
+      <c r="D41">
+        <v>0.055405815222244914</v>
+      </c>
+      <c r="E41">
+        <v>0.14834766623326753</v>
+      </c>
+      <c r="F41">
+        <v>0.0060614528592036355</v>
+      </c>
+      <c r="G41">
+        <v>0.29793813192684793</v>
+      </c>
+      <c r="H41">
+        <v>0.068541449559191087</v>
+      </c>
+      <c r="I41">
+        <v>0.36425115990903961</v>
+      </c>
+      <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="B42">
+        <v>0.17499001644284404</v>
+      </c>
+      <c r="C42">
+        <v>0.00016136718393973585</v>
+      </c>
+      <c r="D42">
+        <v>0.041864792067033647</v>
+      </c>
+      <c r="E42">
+        <v>0.15633897391213439</v>
+      </c>
+      <c r="F42">
+        <v>0.045582969685030179</v>
+      </c>
+      <c r="G42">
+        <v>0.19375604582809919</v>
+      </c>
+      <c r="H42">
+        <v>0.042742269184870389</v>
+      </c>
+      <c r="I42">
+        <v>0.3445635656960484</v>
+      </c>
+      <c r="J42">
+        <v>8</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="B43">
+        <v>0.03745457956337795</v>
+      </c>
+      <c r="C43">
+        <v>0.0004764608963327102</v>
+      </c>
+      <c r="D43">
+        <v>0.028828743136485872</v>
+      </c>
+      <c r="E43">
+        <v>0.22152982261541265</v>
+      </c>
+      <c r="F43">
+        <v>0.0085250398793700593</v>
+      </c>
+      <c r="G43">
+        <v>0.19833285710347229</v>
+      </c>
+      <c r="H43">
+        <v>0.13481828814650335</v>
+      </c>
+      <c r="I43">
+        <v>0.37003420865904518</v>
+      </c>
+      <c r="J43">
+        <v>8</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="B44">
+        <v>0.050917096192231205</v>
+      </c>
+      <c r="C44">
+        <v>0.004895570876962743</v>
+      </c>
+      <c r="D44">
+        <v>0.051510653061317392</v>
+      </c>
+      <c r="E44">
+        <v>0.43885335584004498</v>
+      </c>
+      <c r="F44">
+        <v>0.0070597487604177091</v>
+      </c>
+      <c r="G44">
+        <v>0.17767800238859241</v>
+      </c>
+      <c r="H44">
+        <v>0.023481009744673424</v>
+      </c>
+      <c r="I44">
+        <v>0.24560456313576023</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>966</v>
+      </c>
+      <c r="B45">
+        <v>0.059904657928431623</v>
+      </c>
+      <c r="C45">
+        <v>0.00090956207662550839</v>
+      </c>
+      <c r="D45">
+        <v>0.051821164469230151</v>
+      </c>
+      <c r="E45">
+        <v>0.13360448688382676</v>
+      </c>
+      <c r="F45">
+        <v>0.10456810512052921</v>
+      </c>
+      <c r="G45">
+        <v>0.21807428786679395</v>
+      </c>
+      <c r="H45">
+        <v>0.14518152712205337</v>
+      </c>
+      <c r="I45">
+        <v>0.28593620853250934</v>
+      </c>
+      <c r="J45">
+        <v>8</v>
+      </c>
+      <c r="K45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="B46">
+        <v>0.10738101958599636</v>
+      </c>
+      <c r="C46">
+        <v>9.6101795523602566e-05</v>
+      </c>
+      <c r="D46">
+        <v>0.03302571611110415</v>
+      </c>
+      <c r="E46">
+        <v>0.12780333885218736</v>
+      </c>
+      <c r="F46">
+        <v>0.24207494204685506</v>
+      </c>
+      <c r="G46">
+        <v>0.17706473688103233</v>
+      </c>
+      <c r="H46">
+        <v>0.040989219640328256</v>
+      </c>
+      <c r="I46">
+        <v>0.27156492508697283</v>
+      </c>
+      <c r="J46">
+        <v>8</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>968</v>
+      </c>
+      <c r="B47">
+        <v>0.039361737901137624</v>
+      </c>
+      <c r="C47">
+        <v>0.00022855668688243633</v>
+      </c>
+      <c r="D47">
+        <v>0.031499606039531884</v>
+      </c>
+      <c r="E47">
+        <v>0.14530262903110192</v>
+      </c>
+      <c r="F47">
+        <v>0.033837594383475687</v>
+      </c>
+      <c r="G47">
+        <v>0.19530155577701044</v>
+      </c>
+      <c r="H47">
+        <v>0.11847930347075081</v>
+      </c>
+      <c r="I47">
+        <v>0.43598901671010909</v>
+      </c>
+      <c r="J47">
+        <v>8</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>969</v>
+      </c>
+      <c r="B48">
+        <v>0.021844349665708303</v>
+      </c>
+      <c r="C48">
+        <v>0.12342670960964609</v>
+      </c>
+      <c r="D48">
+        <v>0.042161707079719543</v>
+      </c>
+      <c r="E48">
+        <v>0.36789334480884872</v>
+      </c>
+      <c r="F48">
+        <v>0.0080840255252666807</v>
+      </c>
+      <c r="G48">
+        <v>0.17651578520699648</v>
+      </c>
+      <c r="H48">
+        <v>0.024217555217133899</v>
+      </c>
+      <c r="I48">
+        <v>0.23585652288668027</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="B49">
+        <v>0.021865325380030384</v>
+      </c>
+      <c r="C49">
+        <v>5.6278440636921121e-05</v>
+      </c>
+      <c r="D49">
+        <v>0.020395573444876313</v>
+      </c>
+      <c r="E49">
+        <v>0.069599201315923259</v>
+      </c>
+      <c r="F49">
+        <v>0.0098734749890894338</v>
+      </c>
+      <c r="G49">
+        <v>0.22536861990146281</v>
+      </c>
+      <c r="H49">
+        <v>0.25810436017431843</v>
+      </c>
+      <c r="I49">
+        <v>0.39473716635366241</v>
+      </c>
+      <c r="J49">
+        <v>8</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>971</v>
+      </c>
+      <c r="B50">
+        <v>0.031555082012982495</v>
+      </c>
+      <c r="C50">
+        <v>0.019762685720030013</v>
+      </c>
+      <c r="D50">
+        <v>0.058381535044281591</v>
+      </c>
+      <c r="E50">
+        <v>0.42500016827045445</v>
+      </c>
+      <c r="F50">
+        <v>0.0070121932661237583</v>
+      </c>
+      <c r="G50">
+        <v>0.11526175690236906</v>
+      </c>
+      <c r="H50">
+        <v>0.016875401327118077</v>
+      </c>
+      <c r="I50">
+        <v>0.32615117745664063</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="B51">
+        <v>0.0027584391254597347</v>
+      </c>
+      <c r="C51">
+        <v>5.9726980332760357e-06</v>
+      </c>
+      <c r="D51">
+        <v>0.053245880123539535</v>
+      </c>
+      <c r="E51">
+        <v>0.059729616117175824</v>
+      </c>
+      <c r="F51">
+        <v>0.029841391440458904</v>
+      </c>
+      <c r="G51">
+        <v>0.22710522721454476</v>
+      </c>
+      <c r="H51">
+        <v>0.30837111001235279</v>
+      </c>
+      <c r="I51">
+        <v>0.31894236326843495</v>
+      </c>
+      <c r="J51">
+        <v>8</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="B52">
+        <v>0.017504752318417336</v>
+      </c>
+      <c r="C52">
+        <v>2.8273248152726769e-09</v>
+      </c>
+      <c r="D52">
+        <v>0.045682125429941739</v>
+      </c>
+      <c r="E52">
+        <v>0.074378362179841714</v>
+      </c>
+      <c r="F52">
+        <v>0.00042246063900116279</v>
+      </c>
+      <c r="G52">
+        <v>0.1207901450832158</v>
+      </c>
+      <c r="H52">
+        <v>0.21838996623607612</v>
+      </c>
+      <c r="I52">
+        <v>0.52283218528618125</v>
+      </c>
+      <c r="J52">
+        <v>8</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="B53">
+        <v>0.00021717580097354905</v>
+      </c>
+      <c r="C53">
+        <v>5.3190952534284952e-05</v>
+      </c>
+      <c r="D53">
+        <v>0.016835364678983698</v>
+      </c>
+      <c r="E53">
+        <v>0.03345781176339508</v>
+      </c>
+      <c r="F53">
+        <v>0.77859314504165333</v>
+      </c>
+      <c r="G53">
+        <v>0.062208005060131605</v>
+      </c>
+      <c r="H53">
+        <v>0.024459842412615746</v>
+      </c>
+      <c r="I53">
+        <v>0.084175464289712579</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="B54">
+        <v>0.020238230789372438</v>
+      </c>
+      <c r="C54">
+        <v>0.0011491755697314297</v>
+      </c>
+      <c r="D54">
+        <v>0.063876695617954032</v>
+      </c>
+      <c r="E54">
+        <v>0.12571533115393491</v>
+      </c>
+      <c r="F54">
+        <v>0.16470939860067313</v>
+      </c>
+      <c r="G54">
+        <v>0.17955439454096608</v>
+      </c>
+      <c r="H54">
+        <v>0.068170432111612472</v>
+      </c>
+      <c r="I54">
+        <v>0.37658634161575533</v>
+      </c>
+      <c r="J54">
+        <v>8</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="B55">
+        <v>0.00059926134461507597</v>
+      </c>
+      <c r="C55">
+        <v>2.020505190002778e-05</v>
+      </c>
+      <c r="D55">
+        <v>0.0059450284573750551</v>
+      </c>
+      <c r="E55">
+        <v>0.041679065281572232</v>
+      </c>
+      <c r="F55">
+        <v>0.70884798737461796</v>
+      </c>
+      <c r="G55">
+        <v>0.060400613547226256</v>
+      </c>
+      <c r="H55">
+        <v>0.014738157179166215</v>
+      </c>
+      <c r="I55">
+        <v>0.16776968176352725</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="B56">
+        <v>0.0027191488416315611</v>
+      </c>
+      <c r="C56">
+        <v>8.0422220680193883e-05</v>
+      </c>
+      <c r="D56">
+        <v>0.033885386837868403</v>
+      </c>
+      <c r="E56">
+        <v>0.178659658322745</v>
+      </c>
+      <c r="F56">
+        <v>0.52660580936718115</v>
+      </c>
+      <c r="G56">
+        <v>0.11735682227925491</v>
+      </c>
+      <c r="H56">
+        <v>0.045454683861069184</v>
+      </c>
+      <c r="I56">
+        <v>0.095238068269569584</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="B57">
+        <v>0.0030554239147920007</v>
+      </c>
+      <c r="C57">
+        <v>1.1244125898893141e-05</v>
+      </c>
+      <c r="D57">
+        <v>0.015397916974078633</v>
+      </c>
+      <c r="E57">
+        <v>0.061453781281288616</v>
+      </c>
+      <c r="F57">
+        <v>0.55306419635643489</v>
+      </c>
+      <c r="G57">
+        <v>0.076426580553168935</v>
+      </c>
+      <c r="H57">
+        <v>0.11088590971382886</v>
+      </c>
+      <c r="I57">
+        <v>0.17970494708050919</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>979</v>
+      </c>
+      <c r="B58">
+        <v>0.011575655160783651</v>
+      </c>
+      <c r="C58">
+        <v>1.471932310522497e-05</v>
+      </c>
+      <c r="D58">
+        <v>0.047039189378131847</v>
+      </c>
+      <c r="E58">
+        <v>0.037901136516616009</v>
+      </c>
+      <c r="F58">
+        <v>0.59972659135420847</v>
+      </c>
+      <c r="G58">
+        <v>0.14268513339659031</v>
+      </c>
+      <c r="H58">
+        <v>0.049661796702859091</v>
+      </c>
+      <c r="I58">
+        <v>0.11139577816770525</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>980</v>
+      </c>
+      <c r="B59">
+        <v>0.0018613549896388162</v>
+      </c>
+      <c r="C59">
+        <v>1.0065232112472378e-05</v>
+      </c>
+      <c r="D59">
+        <v>0.0066822987469702172</v>
+      </c>
+      <c r="E59">
+        <v>0.045821939780059197</v>
+      </c>
+      <c r="F59">
+        <v>0.76349312463585062</v>
+      </c>
+      <c r="G59">
+        <v>0.047584812735279071</v>
+      </c>
+      <c r="H59">
+        <v>0.020261974529367205</v>
+      </c>
+      <c r="I59">
+        <v>0.11428442935072246</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>981</v>
+      </c>
+      <c r="B60">
+        <v>0.0048608392707783039</v>
+      </c>
+      <c r="C60">
+        <v>1.2457270943295682e-05</v>
+      </c>
+      <c r="D60">
+        <v>0.00489587573222801</v>
+      </c>
+      <c r="E60">
+        <v>0.030486797657002008</v>
+      </c>
+      <c r="F60">
+        <v>0.78818199758667862</v>
+      </c>
+      <c r="G60">
+        <v>0.076327347160720468</v>
+      </c>
+      <c r="H60">
+        <v>0.011237517255138357</v>
+      </c>
+      <c r="I60">
+        <v>0.08399716806651096</v>
+      </c>
+      <c r="J60">
+        <v>5</v>
+      </c>
+      <c r="K60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>982</v>
+      </c>
+      <c r="B61">
+        <v>0.0042671117632698151</v>
+      </c>
+      <c r="C61">
+        <v>6.0936164084331818e-06</v>
+      </c>
+      <c r="D61">
+        <v>0.030926741401999389</v>
+      </c>
+      <c r="E61">
+        <v>0.047856795889833249</v>
+      </c>
+      <c r="F61">
+        <v>0.54434280613339914</v>
+      </c>
+      <c r="G61">
+        <v>0.088096555483925393</v>
+      </c>
+      <c r="H61">
+        <v>0.015028445054438141</v>
+      </c>
+      <c r="I61">
+        <v>0.26947545065672657</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+      <c r="K61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="B62">
+        <v>0.0021598010982711601</v>
+      </c>
+      <c r="C62">
+        <v>0.0001000492229641496</v>
+      </c>
+      <c r="D62">
+        <v>0.023777161141553545</v>
+      </c>
+      <c r="E62">
+        <v>0.020745513358723967</v>
+      </c>
+      <c r="F62">
+        <v>0.52622322300088253</v>
+      </c>
+      <c r="G62">
+        <v>0.15584307264338917</v>
+      </c>
+      <c r="H62">
+        <v>0.075474528304890112</v>
+      </c>
+      <c r="I62">
+        <v>0.19567665122932534</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+      <c r="K62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="B63">
+        <v>0.0007566263935777722</v>
+      </c>
+      <c r="C63">
+        <v>5.5476328336810847e-05</v>
+      </c>
+      <c r="D63">
+        <v>0.0063683639159950916</v>
+      </c>
+      <c r="E63">
+        <v>0.019322258673761319</v>
+      </c>
+      <c r="F63">
+        <v>0.7719491146985048</v>
+      </c>
+      <c r="G63">
+        <v>0.076783408285110391</v>
+      </c>
+      <c r="H63">
+        <v>0.010906905034742969</v>
+      </c>
+      <c r="I63">
+        <v>0.11385784666997081</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
+      <c r="K63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="B64">
+        <v>0.00082834181479877176</v>
+      </c>
+      <c r="C64">
+        <v>2.9315732785226975e-06</v>
+      </c>
+      <c r="D64">
+        <v>0.01095040422917771</v>
+      </c>
+      <c r="E64">
+        <v>0.045106232594090377</v>
+      </c>
+      <c r="F64">
+        <v>0.73272837529074575</v>
+      </c>
+      <c r="G64">
+        <v>0.051433706691286267</v>
+      </c>
+      <c r="H64">
+        <v>0.029938454765600475</v>
+      </c>
+      <c r="I64">
+        <v>0.12901155304102219</v>
+      </c>
+      <c r="J64">
+        <v>5</v>
+      </c>
+      <c r="K64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="B65">
+        <v>0.031326613849316676</v>
+      </c>
+      <c r="C65">
+        <v>5.2231203668600562e-05</v>
+      </c>
+      <c r="D65">
+        <v>0.014799009956513058</v>
+      </c>
+      <c r="E65">
+        <v>0.034505578246835818</v>
+      </c>
+      <c r="F65">
+        <v>0.69339487020729051</v>
+      </c>
+      <c r="G65">
+        <v>0.073079782053915104</v>
+      </c>
+      <c r="H65">
+        <v>0.070537923121335139</v>
+      </c>
+      <c r="I65">
+        <v>0.082303991361125151</v>
+      </c>
+      <c r="J65">
+        <v>5</v>
+      </c>
+      <c r="K65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="B66">
+        <v>0.012245761052664695</v>
+      </c>
+      <c r="C66">
+        <v>2.2952690979933241e-05</v>
+      </c>
+      <c r="D66">
+        <v>0.010834351331929552</v>
+      </c>
+      <c r="E66">
+        <v>0.02586689493408606</v>
+      </c>
+      <c r="F66">
+        <v>0.60582342099047226</v>
+      </c>
+      <c r="G66">
+        <v>0.096950617754083604</v>
+      </c>
+      <c r="H66">
+        <v>0.050640637248525161</v>
+      </c>
+      <c r="I66">
+        <v>0.19761536399725874</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+      <c r="K66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>988</v>
+      </c>
+      <c r="B67">
+        <v>0.0077964195350506563</v>
+      </c>
+      <c r="C67">
+        <v>7.7992971828152967e-05</v>
+      </c>
+      <c r="D67">
+        <v>0.011635701479977695</v>
+      </c>
+      <c r="E67">
+        <v>0.038457625758944534</v>
+      </c>
+      <c r="F67">
+        <v>0.15251997132170378</v>
+      </c>
+      <c r="G67">
+        <v>0.22921994277710706</v>
+      </c>
+      <c r="H67">
+        <v>0.41122692170422925</v>
+      </c>
+      <c r="I67">
+        <v>0.14906542445115886</v>
+      </c>
+      <c r="J67">
+        <v>7</v>
+      </c>
+      <c r="K67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>989</v>
+      </c>
+      <c r="B68">
+        <v>0.016861626958850014</v>
+      </c>
+      <c r="C68">
+        <v>0.00025216527740479667</v>
+      </c>
+      <c r="D68">
+        <v>0.046434493228940686</v>
+      </c>
+      <c r="E68">
+        <v>0.028049845190751318</v>
+      </c>
+      <c r="F68">
+        <v>0.2638235004111037</v>
+      </c>
+      <c r="G68">
+        <v>0.20485524811228834</v>
+      </c>
+      <c r="H68">
+        <v>0.14337837670415288</v>
+      </c>
+      <c r="I68">
+        <v>0.29634474411650824</v>
+      </c>
+      <c r="J68">
+        <v>8</v>
+      </c>
+      <c r="K68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="B69">
+        <v>0.0017848924169548122</v>
+      </c>
+      <c r="C69">
+        <v>4.9454098847184271e-06</v>
+      </c>
+      <c r="D69">
+        <v>0.035960905067840034</v>
+      </c>
+      <c r="E69">
+        <v>0.055869755039254121</v>
+      </c>
+      <c r="F69">
+        <v>0.25888630556933145</v>
+      </c>
+      <c r="G69">
+        <v>0.1768668956262342</v>
+      </c>
+      <c r="H69">
+        <v>0.078096085116000608</v>
+      </c>
+      <c r="I69">
+        <v>0.39253021575449981</v>
+      </c>
+      <c r="J69">
+        <v>8</v>
+      </c>
+      <c r="K69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="B70">
+        <v>0.025092317239500596</v>
+      </c>
+      <c r="C70">
+        <v>5.6342640106773437e-05</v>
+      </c>
+      <c r="D70">
+        <v>0.036339511598403658</v>
+      </c>
+      <c r="E70">
+        <v>0.07207310441117383</v>
+      </c>
+      <c r="F70">
+        <v>0.019270796577962143</v>
+      </c>
+      <c r="G70">
+        <v>0.31137783929056867</v>
+      </c>
+      <c r="H70">
+        <v>0.16829612175784897</v>
+      </c>
+      <c r="I70">
+        <v>0.36749396648443522</v>
+      </c>
+      <c r="J70">
+        <v>8</v>
+      </c>
+      <c r="K70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="B71">
+        <v>0.062849836138975337</v>
+      </c>
+      <c r="C71">
+        <v>8.4617134623510791e-05</v>
+      </c>
+      <c r="D71">
+        <v>0.05344390988184871</v>
+      </c>
+      <c r="E71">
+        <v>0.075263063691055898</v>
+      </c>
+      <c r="F71">
+        <v>0.076235827916088642</v>
+      </c>
+      <c r="G71">
+        <v>0.18394130660901817</v>
+      </c>
+      <c r="H71">
+        <v>0.21030701643318003</v>
+      </c>
+      <c r="I71">
+        <v>0.33787442219520963</v>
+      </c>
+      <c r="J71">
+        <v>8</v>
+      </c>
+      <c r="K71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="B72">
+        <v>0.041484520825878259</v>
+      </c>
+      <c r="C72">
+        <v>7.8795028526560011e-06</v>
+      </c>
+      <c r="D72">
+        <v>0.03311415761850945</v>
+      </c>
+      <c r="E72">
+        <v>0.056561688135752075</v>
+      </c>
+      <c r="F72">
+        <v>0.046472593296566028</v>
+      </c>
+      <c r="G72">
+        <v>0.3140179878008964</v>
+      </c>
+      <c r="H72">
+        <v>0.15706862773171051</v>
+      </c>
+      <c r="I72">
+        <v>0.35127254508783473</v>
+      </c>
+      <c r="J72">
+        <v>8</v>
+      </c>
+      <c r="K72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="B73">
+        <v>0.00026416572819714843</v>
+      </c>
+      <c r="C73">
+        <v>8.9975835619034063e-10</v>
+      </c>
+      <c r="D73">
+        <v>0.0053233729736541606</v>
+      </c>
+      <c r="E73">
+        <v>0.022398963410539121</v>
+      </c>
+      <c r="F73">
+        <v>6.8384977949565405e-05</v>
+      </c>
+      <c r="G73">
+        <v>0.068627658527600346</v>
+      </c>
+      <c r="H73">
+        <v>0.75143358381081626</v>
+      </c>
+      <c r="I73">
+        <v>0.15188386967148512</v>
+      </c>
+      <c r="J73">
+        <v>7</v>
+      </c>
+      <c r="K73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="B74">
+        <v>0.086571450418823401</v>
+      </c>
+      <c r="C74">
+        <v>8.346296185601188e-05</v>
+      </c>
+      <c r="D74">
+        <v>0.030231346880614074</v>
+      </c>
+      <c r="E74">
+        <v>0.069855204263985046</v>
+      </c>
+      <c r="F74">
+        <v>0.047308377637390354</v>
+      </c>
+      <c r="G74">
+        <v>0.20430901576122987</v>
+      </c>
+      <c r="H74">
+        <v>0.1905861913266651</v>
+      </c>
+      <c r="I74">
+        <v>0.37105495074943612</v>
+      </c>
+      <c r="J74">
+        <v>8</v>
+      </c>
+      <c r="K74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>996</v>
+      </c>
+      <c r="B75">
+        <v>0.010869315275178879</v>
+      </c>
+      <c r="C75">
+        <v>0.00010042150542186768</v>
+      </c>
+      <c r="D75">
+        <v>0.031682874191070222</v>
+      </c>
+      <c r="E75">
+        <v>0.026575981701350077</v>
+      </c>
+      <c r="F75">
+        <v>0.031692351178155768</v>
+      </c>
+      <c r="G75">
+        <v>0.11142699015992107</v>
+      </c>
+      <c r="H75">
+        <v>0.40989489965311199</v>
+      </c>
+      <c r="I75">
+        <v>0.37775716633579015</v>
+      </c>
+      <c r="J75">
+        <v>7</v>
+      </c>
+      <c r="K75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="B76">
+        <v>3.1912449244936914e-07</v>
+      </c>
+      <c r="C76">
+        <v>1.7061670463612468e-13</v>
+      </c>
+      <c r="D76">
+        <v>0.0077143069610962258</v>
+      </c>
+      <c r="E76">
+        <v>0.0073989828687160307</v>
+      </c>
+      <c r="F76">
+        <v>9.6742599246160095e-06</v>
+      </c>
+      <c r="G76">
+        <v>0.13812721934372679</v>
+      </c>
+      <c r="H76">
+        <v>0.62076389092068263</v>
+      </c>
+      <c r="I76">
+        <v>0.22598560652119065</v>
+      </c>
+      <c r="J76">
+        <v>7</v>
+      </c>
+      <c r="K76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="B77">
+        <v>0.027621775527948325</v>
+      </c>
+      <c r="C77">
+        <v>9.1984896676083812e-05</v>
+      </c>
+      <c r="D77">
+        <v>0.024138713333360325</v>
+      </c>
+      <c r="E77">
+        <v>0.03805971518136636</v>
+      </c>
+      <c r="F77">
+        <v>0.006573908789042366</v>
+      </c>
+      <c r="G77">
+        <v>0.22273514884136086</v>
+      </c>
+      <c r="H77">
+        <v>0.14636057453513218</v>
+      </c>
+      <c r="I77">
+        <v>0.53441817889511345</v>
+      </c>
+      <c r="J77">
+        <v>8</v>
+      </c>
+      <c r="K77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="B78">
+        <v>0.012774539008490082</v>
+      </c>
+      <c r="C78">
+        <v>8.7341330368278608e-05</v>
+      </c>
+      <c r="D78">
+        <v>0.033177548778778709</v>
+      </c>
+      <c r="E78">
+        <v>0.057226597733411932</v>
+      </c>
+      <c r="F78">
+        <v>0.065988234586560335</v>
+      </c>
+      <c r="G78">
+        <v>0.29199322583130011</v>
+      </c>
+      <c r="H78">
+        <v>0.18097090024781953</v>
+      </c>
+      <c r="I78">
+        <v>0.35778161248327095</v>
+      </c>
+      <c r="J78">
+        <v>8</v>
+      </c>
+      <c r="K78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B79">
+        <v>0.00071029583422075649</v>
+      </c>
+      <c r="C79">
+        <v>1.5479942375416168e-08</v>
+      </c>
+      <c r="D79">
+        <v>0.0063245897637148937</v>
+      </c>
+      <c r="E79">
+        <v>0.053935112792651549</v>
+      </c>
+      <c r="F79">
+        <v>0.0012344818347544205</v>
+      </c>
+      <c r="G79">
+        <v>0.19730934033864916</v>
+      </c>
+      <c r="H79">
+        <v>0.40079552496476201</v>
+      </c>
+      <c r="I79">
+        <v>0.33969063899130469</v>
+      </c>
+      <c r="J79">
+        <v>7</v>
+      </c>
+      <c r="K79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B80">
+        <v>0.00065880808674169248</v>
+      </c>
+      <c r="C80">
+        <v>1.0029761128533727e-07</v>
+      </c>
+      <c r="D80">
+        <v>0.047567361705109411</v>
+      </c>
+      <c r="E80">
+        <v>0.03477003418104848</v>
+      </c>
+      <c r="F80">
+        <v>0.0005859577639673409</v>
+      </c>
+      <c r="G80">
+        <v>0.18504587710013215</v>
+      </c>
+      <c r="H80">
+        <v>0.50882138097374807</v>
+      </c>
+      <c r="I80">
+        <v>0.22255047989164167</v>
+      </c>
+      <c r="J80">
+        <v>7</v>
+      </c>
+      <c r="K80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B81">
+        <v>0.0019154079598010831</v>
+      </c>
+      <c r="C81">
+        <v>1.8907556976731857e-06</v>
+      </c>
+      <c r="D81">
+        <v>0.01023443029915316</v>
+      </c>
+      <c r="E81">
+        <v>0.061769384097174251</v>
+      </c>
+      <c r="F81">
+        <v>0.0022197780814835776</v>
+      </c>
+      <c r="G81">
+        <v>0.13973275074139177</v>
+      </c>
+      <c r="H81">
+        <v>0.39657492765680707</v>
+      </c>
+      <c r="I81">
+        <v>0.38755143040849144</v>
+      </c>
+      <c r="J81">
+        <v>7</v>
+      </c>
+      <c r="K81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B82">
+        <v>0.0033482608392431919</v>
+      </c>
+      <c r="C82">
+        <v>1.1402179740581781e-06</v>
+      </c>
+      <c r="D82">
+        <v>0.044979540445100295</v>
+      </c>
+      <c r="E82">
+        <v>0.045948241393768019</v>
+      </c>
+      <c r="F82">
+        <v>0.0022878182825055151</v>
+      </c>
+      <c r="G82">
+        <v>0.18666380759722137</v>
+      </c>
+      <c r="H82">
+        <v>0.3014211850390664</v>
+      </c>
+      <c r="I82">
+        <v>0.41535000618512097</v>
+      </c>
+      <c r="J82">
+        <v>8</v>
+      </c>
+      <c r="K82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B83">
+        <v>0.048032230570042113</v>
+      </c>
+      <c r="C83">
+        <v>0.0026449316451684452</v>
+      </c>
+      <c r="D83">
+        <v>0.028276350259633872</v>
+      </c>
+      <c r="E83">
+        <v>0.060374312511427893</v>
+      </c>
+      <c r="F83">
+        <v>0.0046621759827302697</v>
+      </c>
+      <c r="G83">
+        <v>0.19426072724258525</v>
+      </c>
+      <c r="H83">
+        <v>0.11603706286748174</v>
+      </c>
+      <c r="I83">
+        <v>0.54571220892093042</v>
+      </c>
+      <c r="J83">
+        <v>8</v>
+      </c>
+      <c r="K83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B84">
+        <v>0.00026156728539224243</v>
+      </c>
+      <c r="C84">
+        <v>3.7114947023556037e-08</v>
+      </c>
+      <c r="D84">
+        <v>0.015032264264283496</v>
+      </c>
+      <c r="E84">
+        <v>0.11454195964996507</v>
+      </c>
+      <c r="F84">
+        <v>0.0023692627253022666</v>
+      </c>
+      <c r="G84">
+        <v>0.21754682251638852</v>
+      </c>
+      <c r="H84">
+        <v>0.19961035873742025</v>
+      </c>
+      <c r="I84">
+        <v>0.45063772770630123</v>
+      </c>
+      <c r="J84">
+        <v>8</v>
+      </c>
+      <c r="K84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B85">
+        <v>0.021603058518078672</v>
+      </c>
+      <c r="C85">
+        <v>1.8727823724881977e-06</v>
+      </c>
+      <c r="D85">
+        <v>0.027257288117984453</v>
+      </c>
+      <c r="E85">
+        <v>0.0090053348353710972</v>
+      </c>
+      <c r="F85">
+        <v>0.0096032246231435442</v>
+      </c>
+      <c r="G85">
+        <v>0.17679992333158956</v>
+      </c>
+      <c r="H85">
+        <v>0.24032446550667069</v>
+      </c>
+      <c r="I85">
+        <v>0.51540483228478962</v>
+      </c>
+      <c r="J85">
+        <v>8</v>
+      </c>
+      <c r="K85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B86">
+        <v>0.078215950868606873</v>
+      </c>
+      <c r="C86">
+        <v>7.1003230019083276e-07</v>
+      </c>
+      <c r="D86">
+        <v>0.031410055070612029</v>
+      </c>
+      <c r="E86">
+        <v>0.033889679988453963</v>
+      </c>
+      <c r="F86">
+        <v>0.028269500532531463</v>
+      </c>
+      <c r="G86">
+        <v>0.48330129936433702</v>
+      </c>
+      <c r="H86">
+        <v>0.083593014534495413</v>
+      </c>
+      <c r="I86">
+        <v>0.26131978960866292</v>
+      </c>
+      <c r="J86">
+        <v>6</v>
+      </c>
+      <c r="K86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B87">
+        <v>0.1777697210320989</v>
+      </c>
+      <c r="C87">
+        <v>1.9191006337608708e-05</v>
+      </c>
+      <c r="D87">
+        <v>0.022668972751496264</v>
+      </c>
+      <c r="E87">
+        <v>0.025380958579499468</v>
+      </c>
+      <c r="F87">
+        <v>0.0060554377189051892</v>
+      </c>
+      <c r="G87">
+        <v>0.15326419495416566</v>
+      </c>
+      <c r="H87">
+        <v>0.090470281756903428</v>
+      </c>
+      <c r="I87">
+        <v>0.52437124220059361</v>
+      </c>
+      <c r="J87">
+        <v>8</v>
+      </c>
+      <c r="K87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B88">
+        <v>0.1413108891961587</v>
+      </c>
+      <c r="C88">
+        <v>4.2678061259220875e-05</v>
+      </c>
+      <c r="D88">
+        <v>0.010400309684076908</v>
+      </c>
+      <c r="E88">
+        <v>0.025353911402630987</v>
+      </c>
+      <c r="F88">
+        <v>0.020479934595177721</v>
+      </c>
+      <c r="G88">
+        <v>0.28375176363772248</v>
+      </c>
+      <c r="H88">
+        <v>0.35489088937762869</v>
+      </c>
+      <c r="I88">
+        <v>0.16376962404534515</v>
+      </c>
+      <c r="J88">
+        <v>7</v>
+      </c>
+      <c r="K88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B89">
+        <v>0.048047349914301977</v>
+      </c>
+      <c r="C89">
+        <v>8.8659471879072759e-06</v>
+      </c>
+      <c r="D89">
+        <v>0.047870455208100661</v>
+      </c>
+      <c r="E89">
+        <v>0.029241944822305677</v>
+      </c>
+      <c r="F89">
+        <v>0.061859531422608492</v>
+      </c>
+      <c r="G89">
+        <v>0.24237864497339209</v>
+      </c>
+      <c r="H89">
+        <v>0.11811133755144895</v>
+      </c>
+      <c r="I89">
+        <v>0.45248187016065428</v>
+      </c>
+      <c r="J89">
+        <v>8</v>
+      </c>
+      <c r="K89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B90">
+        <v>0.13380801905827516</v>
+      </c>
+      <c r="C90">
+        <v>4.8268853581179433e-06</v>
+      </c>
+      <c r="D90">
+        <v>0.043392795015327987</v>
+      </c>
+      <c r="E90">
+        <v>0.039313706404190005</v>
+      </c>
+      <c r="F90">
+        <v>0.020001399660724659</v>
+      </c>
+      <c r="G90">
+        <v>0.30577936468197503</v>
+      </c>
+      <c r="H90">
+        <v>0.14899776869436895</v>
+      </c>
+      <c r="I90">
+        <v>0.30870211959978017</v>
+      </c>
+      <c r="J90">
+        <v>8</v>
+      </c>
+      <c r="K90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B91">
+        <v>0.024638516805834329</v>
+      </c>
+      <c r="C91">
+        <v>5.9993995493841401e-06</v>
+      </c>
+      <c r="D91">
+        <v>0.058022734416776647</v>
+      </c>
+      <c r="E91">
+        <v>0.03051088092744577</v>
+      </c>
+      <c r="F91">
+        <v>0.013397745202444562</v>
+      </c>
+      <c r="G91">
+        <v>0.28000261812690325</v>
+      </c>
+      <c r="H91">
+        <v>0.20132164471243263</v>
+      </c>
+      <c r="I91">
+        <v>0.39209986040861333</v>
+      </c>
+      <c r="J91">
+        <v>8</v>
+      </c>
+      <c r="K91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B92">
+        <v>0.0066060943200710312</v>
+      </c>
+      <c r="C92">
+        <v>1.4026732780450443e-06</v>
+      </c>
+      <c r="D92">
+        <v>0.070492565566705689</v>
+      </c>
+      <c r="E92">
+        <v>0.034700315264387126</v>
+      </c>
+      <c r="F92">
+        <v>0.0090770179337391621</v>
+      </c>
+      <c r="G92">
+        <v>0.33227077311271108</v>
+      </c>
+      <c r="H92">
+        <v>0.20519784188391868</v>
+      </c>
+      <c r="I92">
+        <v>0.34165398924518908</v>
+      </c>
+      <c r="J92">
+        <v>8</v>
+      </c>
+      <c r="K92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B93">
+        <v>0.068722339318952066</v>
+      </c>
+      <c r="C93">
+        <v>8.9824601596769373e-07</v>
+      </c>
+      <c r="D93">
+        <v>0.088100721079151942</v>
+      </c>
+      <c r="E93">
+        <v>0.079935296854294027</v>
+      </c>
+      <c r="F93">
+        <v>0.010428249434290379</v>
+      </c>
+      <c r="G93">
+        <v>0.37088908530718079</v>
+      </c>
+      <c r="H93">
+        <v>0.058687158629511085</v>
+      </c>
+      <c r="I93">
+        <v>0.32323625113060367</v>
+      </c>
+      <c r="J93">
+        <v>6</v>
+      </c>
+      <c r="K93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B94">
+        <v>6.0755924703006013e-07</v>
+      </c>
+      <c r="C94">
+        <v>2.235858346203094e-14</v>
+      </c>
+      <c r="D94">
+        <v>0.032230938279065306</v>
+      </c>
+      <c r="E94">
+        <v>0.0050739525783490037</v>
+      </c>
+      <c r="F94">
+        <v>9.5897412926439908e-06</v>
+      </c>
+      <c r="G94">
+        <v>0.11493987405427154</v>
+      </c>
+      <c r="H94">
+        <v>0.55334702681977332</v>
+      </c>
+      <c r="I94">
+        <v>0.2943980109679788</v>
+      </c>
+      <c r="J94">
+        <v>7</v>
+      </c>
+      <c r="K94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B95">
+        <v>0.043749108747053518</v>
+      </c>
+      <c r="C95">
+        <v>0.0040327469099118041</v>
+      </c>
+      <c r="D95">
+        <v>0.013394656385787372</v>
+      </c>
+      <c r="E95">
+        <v>0.0063540698325934321</v>
+      </c>
+      <c r="F95">
+        <v>0.0014883582332560514</v>
+      </c>
+      <c r="G95">
+        <v>0.23877612854375191</v>
+      </c>
+      <c r="H95">
+        <v>0.27629571328076552</v>
+      </c>
+      <c r="I95">
+        <v>0.41590921806688036</v>
+      </c>
+      <c r="J95">
+        <v>8</v>
+      </c>
+      <c r="K95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B96">
+        <v>0.0017529844163131269</v>
+      </c>
+      <c r="C96">
+        <v>3.9196692339975323e-05</v>
+      </c>
+      <c r="D96">
+        <v>0.022566730496246381</v>
+      </c>
+      <c r="E96">
+        <v>0.053797884405618314</v>
+      </c>
+      <c r="F96">
+        <v>0.026978914196986579</v>
+      </c>
+      <c r="G96">
+        <v>0.21806160272937439</v>
+      </c>
+      <c r="H96">
+        <v>0.1104047555830633</v>
+      </c>
+      <c r="I96">
+        <v>0.5663979314800579</v>
+      </c>
+      <c r="J96">
+        <v>8</v>
+      </c>
+      <c r="K96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B97">
+        <v>0.0021506254154601092</v>
+      </c>
+      <c r="C97">
+        <v>2.9341469406979736e-05</v>
+      </c>
+      <c r="D97">
+        <v>0.028240797988154813</v>
+      </c>
+      <c r="E97">
+        <v>0.10486397707753561</v>
+      </c>
+      <c r="F97">
+        <v>0.021905598790934643</v>
+      </c>
+      <c r="G97">
+        <v>0.14715928958473434</v>
+      </c>
+      <c r="H97">
+        <v>0.059622497185407977</v>
+      </c>
+      <c r="I97">
+        <v>0.63602787248836556</v>
+      </c>
+      <c r="J97">
+        <v>8</v>
+      </c>
+      <c r="K97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B98">
+        <v>0.0027107224575625638</v>
+      </c>
+      <c r="C98">
+        <v>0.0002063643288239728</v>
+      </c>
+      <c r="D98">
+        <v>0.015553247549061951</v>
+      </c>
+      <c r="E98">
+        <v>0.14391987194765965</v>
+      </c>
+      <c r="F98">
+        <v>0.0024867150397032589</v>
+      </c>
+      <c r="G98">
+        <v>0.22298476835448727</v>
+      </c>
+      <c r="H98">
+        <v>0.037411503819616415</v>
+      </c>
+      <c r="I98">
+        <v>0.57472680650308505</v>
+      </c>
+      <c r="J98">
+        <v>8</v>
+      </c>
+      <c r="K98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B99">
+        <v>0.021969801165851378</v>
+      </c>
+      <c r="C99">
+        <v>0.0003472208879729755</v>
+      </c>
+      <c r="D99">
+        <v>0.016120755079005265</v>
+      </c>
+      <c r="E99">
+        <v>0.065851629748903934</v>
+      </c>
+      <c r="F99">
+        <v>0.011358678862717566</v>
+      </c>
+      <c r="G99">
+        <v>0.20686913083167807</v>
+      </c>
+      <c r="H99">
+        <v>0.3551230340132866</v>
+      </c>
+      <c r="I99">
+        <v>0.32235974941058426</v>
+      </c>
+      <c r="J99">
+        <v>7</v>
+      </c>
+      <c r="K99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B100">
+        <v>0.0082560715929516741</v>
+      </c>
+      <c r="C100">
+        <v>8.9421370965282401e-05</v>
+      </c>
+      <c r="D100">
+        <v>0.029361067402885358</v>
+      </c>
+      <c r="E100">
+        <v>0.026141132673288603</v>
+      </c>
+      <c r="F100">
+        <v>0.006998491468168536</v>
+      </c>
+      <c r="G100">
+        <v>0.30263351236441588</v>
+      </c>
+      <c r="H100">
+        <v>0.052683653447380872</v>
+      </c>
+      <c r="I100">
+        <v>0.57383664967994374</v>
+      </c>
+      <c r="J100">
+        <v>8</v>
+      </c>
+      <c r="K100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B101">
+        <v>0.03944052229408028</v>
+      </c>
+      <c r="C101">
+        <v>6.6536008249555432e-05</v>
+      </c>
+      <c r="D101">
+        <v>0.050828437057247551</v>
+      </c>
+      <c r="E101">
+        <v>0.074079960747865908</v>
+      </c>
+      <c r="F101">
+        <v>0.064690499713791427</v>
+      </c>
+      <c r="G101">
+        <v>0.1843232293034455</v>
+      </c>
+      <c r="H101">
+        <v>0.28592864463067968</v>
+      </c>
+      <c r="I101">
+        <v>0.30064217024464013</v>
+      </c>
+      <c r="J101">
+        <v>8</v>
+      </c>
+      <c r="K101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B102">
+        <v>0.00018571819898105383</v>
+      </c>
+      <c r="C102">
+        <v>1.0606002924145811e-07</v>
+      </c>
+      <c r="D102">
+        <v>0.0086001156690521229</v>
+      </c>
+      <c r="E102">
+        <v>0.0247827014611787</v>
+      </c>
+      <c r="F102">
+        <v>0.00030353871876052094</v>
+      </c>
+      <c r="G102">
+        <v>0.15386904812219621</v>
+      </c>
+      <c r="H102">
+        <v>0.5505289727460464</v>
+      </c>
+      <c r="I102">
+        <v>0.26172979902375582</v>
+      </c>
+      <c r="J102">
+        <v>7</v>
+      </c>
+      <c r="K102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B103">
+        <v>0.016953677898130966</v>
+      </c>
+      <c r="C103">
+        <v>8.7757516065420398e-05</v>
+      </c>
+      <c r="D103">
+        <v>0.01222489167061111</v>
+      </c>
+      <c r="E103">
+        <v>0.03452954177342988</v>
+      </c>
+      <c r="F103">
+        <v>0.0098316139944161079</v>
+      </c>
+      <c r="G103">
+        <v>0.17781647487462027</v>
+      </c>
+      <c r="H103">
+        <v>0.35028330213715747</v>
+      </c>
+      <c r="I103">
+        <v>0.39827274013556885</v>
+      </c>
+      <c r="J103">
+        <v>8</v>
+      </c>
+      <c r="K103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B104">
+        <v>0.0098212207704166266</v>
+      </c>
+      <c r="C104">
+        <v>2.7464629957511194e-05</v>
+      </c>
+      <c r="D104">
+        <v>0.016772182686176682</v>
+      </c>
+      <c r="E104">
+        <v>0.11118309250589534</v>
+      </c>
+      <c r="F104">
+        <v>0.0058408657771597547</v>
+      </c>
+      <c r="G104">
+        <v>0.1820347647085559</v>
+      </c>
+      <c r="H104">
+        <v>0.33206857782671456</v>
+      </c>
+      <c r="I104">
+        <v>0.34225183109512375</v>
+      </c>
+      <c r="J104">
+        <v>8</v>
+      </c>
+      <c r="K104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B105">
+        <v>0.012844258322532359</v>
+      </c>
+      <c r="C105">
+        <v>9.7481273903520237e-05</v>
+      </c>
+      <c r="D105">
+        <v>0.022450628815956615</v>
+      </c>
+      <c r="E105">
+        <v>0.039640962659228354</v>
+      </c>
+      <c r="F105">
+        <v>0.060361589737656082</v>
+      </c>
+      <c r="G105">
+        <v>0.20454108642687779</v>
+      </c>
+      <c r="H105">
+        <v>0.20790473599067064</v>
+      </c>
+      <c r="I105">
+        <v>0.45215925677317453</v>
+      </c>
+      <c r="J105">
+        <v>8</v>
+      </c>
+      <c r="K105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B106">
+        <v>0.004236655286642012</v>
+      </c>
+      <c r="C106">
+        <v>8.0770551023832127e-05</v>
+      </c>
+      <c r="D106">
+        <v>0.052573815178759808</v>
+      </c>
+      <c r="E106">
+        <v>0.036229141326579617</v>
+      </c>
+      <c r="F106">
+        <v>0.0102618282303646</v>
+      </c>
+      <c r="G106">
+        <v>0.21542038732601546</v>
+      </c>
+      <c r="H106">
+        <v>0.12150102230653832</v>
+      </c>
+      <c r="I106">
+        <v>0.55969637979407627</v>
+      </c>
+      <c r="J106">
+        <v>8</v>
+      </c>
+      <c r="K106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B107">
+        <v>0.018655780957150224</v>
+      </c>
+      <c r="C107">
+        <v>0.00042356358711867281</v>
+      </c>
+      <c r="D107">
+        <v>0.07027387841821997</v>
+      </c>
+      <c r="E107">
+        <v>0.070881056267667303</v>
+      </c>
+      <c r="F107">
+        <v>0.088446713493681897</v>
+      </c>
+      <c r="G107">
+        <v>0.20771400612733504</v>
+      </c>
+      <c r="H107">
+        <v>0.25517140948784256</v>
+      </c>
+      <c r="I107">
+        <v>0.28843359166098437</v>
+      </c>
+      <c r="J107">
+        <v>8</v>
+      </c>
+      <c r="K107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B108">
+        <v>0.071121666270384062</v>
+      </c>
+      <c r="C108">
+        <v>5.4175196093542421e-05</v>
+      </c>
+      <c r="D108">
+        <v>0.020481465902268951</v>
+      </c>
+      <c r="E108">
+        <v>0.064104058333477806</v>
+      </c>
+      <c r="F108">
+        <v>0.03616504562367847</v>
+      </c>
+      <c r="G108">
+        <v>0.32672526783656408</v>
+      </c>
+      <c r="H108">
+        <v>0.10245735984639702</v>
+      </c>
+      <c r="I108">
+        <v>0.37889096099113606</v>
+      </c>
+      <c r="J108">
+        <v>8</v>
+      </c>
+      <c r="K108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B109">
+        <v>0.00013938235236061664</v>
+      </c>
+      <c r="C109">
+        <v>4.7091099017482905e-09</v>
+      </c>
+      <c r="D109">
+        <v>0.0039175555262128984</v>
+      </c>
+      <c r="E109">
+        <v>0.0080746071355041436</v>
+      </c>
+      <c r="F109">
+        <v>0.0027754950513659469</v>
+      </c>
+      <c r="G109">
+        <v>0.14646417348242755</v>
+      </c>
+      <c r="H109">
+        <v>0.64246467764971715</v>
+      </c>
+      <c r="I109">
+        <v>0.19616410409330184</v>
+      </c>
+      <c r="J109">
+        <v>7</v>
+      </c>
+      <c r="K109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B110">
+        <v>0.060500137575135823</v>
+      </c>
+      <c r="C110">
+        <v>8.0524953309583621e-05</v>
+      </c>
+      <c r="D110">
+        <v>0.040757038956520379</v>
+      </c>
+      <c r="E110">
+        <v>0.059762994988450113</v>
+      </c>
+      <c r="F110">
+        <v>0.048137995613037235</v>
+      </c>
+      <c r="G110">
+        <v>0.21462682648217107</v>
+      </c>
+      <c r="H110">
+        <v>0.23748796410457412</v>
+      </c>
+      <c r="I110">
+        <v>0.33864651732680173</v>
+      </c>
+      <c r="J110">
+        <v>8</v>
+      </c>
+      <c r="K110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B111">
+        <v>0.057775799186299659</v>
+      </c>
+      <c r="C111">
+        <v>3.5282957176064699e-05</v>
+      </c>
+      <c r="D111">
+        <v>0.035285283832647805</v>
+      </c>
+      <c r="E111">
+        <v>0.02637119508572883</v>
+      </c>
+      <c r="F111">
+        <v>0.015609816596878009</v>
+      </c>
+      <c r="G111">
+        <v>0.42872906710033348</v>
+      </c>
+      <c r="H111">
+        <v>0.068312942217539224</v>
+      </c>
+      <c r="I111">
+        <v>0.36788061302339692</v>
+      </c>
+      <c r="J111">
+        <v>6</v>
+      </c>
+      <c r="K111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B112">
+        <v>0.071418630423982873</v>
+      </c>
+      <c r="C112">
+        <v>1.9613269979698642e-05</v>
+      </c>
+      <c r="D112">
+        <v>0.027364947851927904</v>
+      </c>
+      <c r="E112">
+        <v>0.067371746599463017</v>
+      </c>
+      <c r="F112">
+        <v>0.01682182033685729</v>
+      </c>
+      <c r="G112">
+        <v>0.28362075690446148</v>
+      </c>
+      <c r="H112">
+        <v>0.24548945185395446</v>
+      </c>
+      <c r="I112">
+        <v>0.28789303275937328</v>
+      </c>
+      <c r="J112">
+        <v>8</v>
+      </c>
+      <c r="K112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B113">
+        <v>0.11419223922995289</v>
+      </c>
+      <c r="C113">
+        <v>0.0042809356867689764</v>
+      </c>
+      <c r="D113">
+        <v>0.015545447726413291</v>
+      </c>
+      <c r="E113">
+        <v>0.25195786703253115</v>
+      </c>
+      <c r="F113">
+        <v>0.00070115160674415872</v>
+      </c>
+      <c r="G113">
+        <v>0.17326752222696087</v>
+      </c>
+      <c r="H113">
+        <v>0.03912125239405366</v>
+      </c>
+      <c r="I113">
+        <v>0.40093358409657492</v>
+      </c>
+      <c r="J113">
+        <v>8</v>
+      </c>
+      <c r="K113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B114">
+        <v>0.013877282835193711</v>
+      </c>
+      <c r="C114">
+        <v>8.2634416199240282e-05</v>
+      </c>
+      <c r="D114">
+        <v>0.026161859296717778</v>
+      </c>
+      <c r="E114">
+        <v>0.031336705078070355</v>
+      </c>
+      <c r="F114">
+        <v>0.15860013157329667</v>
+      </c>
+      <c r="G114">
+        <v>0.14733195096744728</v>
+      </c>
+      <c r="H114">
+        <v>0.39529285938422665</v>
+      </c>
+      <c r="I114">
+        <v>0.22731657644884828</v>
+      </c>
+      <c r="J114">
+        <v>7</v>
+      </c>
+      <c r="K114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B115">
+        <v>0.0095514008816422417</v>
+      </c>
+      <c r="C115">
+        <v>1.019785744089391e-05</v>
+      </c>
+      <c r="D115">
+        <v>0.016640266908885197</v>
+      </c>
+      <c r="E115">
+        <v>0.12587700690570894</v>
+      </c>
+      <c r="F115">
+        <v>0.0041574639257276214</v>
+      </c>
+      <c r="G115">
+        <v>0.21370165880072267</v>
+      </c>
+      <c r="H115">
+        <v>0.32115374645827111</v>
+      </c>
+      <c r="I115">
+        <v>0.30890825826160123</v>
+      </c>
+      <c r="J115">
+        <v>7</v>
+      </c>
+      <c r="K115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B116">
+        <v>0.00023472058970136465</v>
+      </c>
+      <c r="C116">
+        <v>6.5924177628447885e-08</v>
+      </c>
+      <c r="D116">
+        <v>0.0010394252062394353</v>
+      </c>
+      <c r="E116">
+        <v>0.022686590050654609</v>
+      </c>
+      <c r="F116">
+        <v>0.00016901990815423838</v>
+      </c>
+      <c r="G116">
+        <v>0.13494952066808366</v>
+      </c>
+      <c r="H116">
+        <v>0.65299673179626039</v>
+      </c>
+      <c r="I116">
+        <v>0.1879239258567286</v>
+      </c>
+      <c r="J116">
+        <v>7</v>
+      </c>
+      <c r="K116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B117">
+        <v>0.0055412726403690354</v>
+      </c>
+      <c r="C117">
+        <v>8.9144389405548438e-06</v>
+      </c>
+      <c r="D117">
+        <v>0.0037588715654633805</v>
+      </c>
+      <c r="E117">
+        <v>0.024173526470226914</v>
+      </c>
+      <c r="F117">
+        <v>0.016586817050908004</v>
+      </c>
+      <c r="G117">
+        <v>0.1307624094885283</v>
+      </c>
+      <c r="H117">
+        <v>0.7029371025934964</v>
+      </c>
+      <c r="I117">
+        <v>0.11623108575206745</v>
+      </c>
+      <c r="J117">
+        <v>7</v>
+      </c>
+      <c r="K117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B118">
+        <v>0.027493029602079173</v>
+      </c>
+      <c r="C118">
+        <v>5.7837315870795329e-05</v>
+      </c>
+      <c r="D118">
+        <v>0.057624487304909426</v>
+      </c>
+      <c r="E118">
+        <v>0.039525388787538654</v>
+      </c>
+      <c r="F118">
+        <v>0.048938758200531181</v>
+      </c>
+      <c r="G118">
+        <v>0.16388973761842027</v>
+      </c>
+      <c r="H118">
+        <v>0.46969090302348276</v>
+      </c>
+      <c r="I118">
+        <v>0.19277985814716772</v>
+      </c>
+      <c r="J118">
+        <v>7</v>
+      </c>
+      <c r="K118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B119">
+        <v>0.0031630953196638391</v>
+      </c>
+      <c r="C119">
+        <v>3.8084791834258633e-07</v>
+      </c>
+      <c r="D119">
+        <v>0.016642346062430542</v>
+      </c>
+      <c r="E119">
+        <v>0.037910161449244424</v>
+      </c>
+      <c r="F119">
+        <v>0.011407957941319474</v>
+      </c>
+      <c r="G119">
+        <v>0.20604778972447482</v>
+      </c>
+      <c r="H119">
+        <v>0.49434785626243</v>
+      </c>
+      <c r="I119">
+        <v>0.23048041239251862</v>
+      </c>
+      <c r="J119">
+        <v>7</v>
+      </c>
+      <c r="K119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B120">
+        <v>0.0030231282600637691</v>
+      </c>
+      <c r="C120">
+        <v>7.6019424522192146e-09</v>
+      </c>
+      <c r="D120">
+        <v>0.0021431667867686396</v>
+      </c>
+      <c r="E120">
+        <v>0.013423342966246766</v>
+      </c>
+      <c r="F120">
+        <v>0.00022378804223800356</v>
+      </c>
+      <c r="G120">
+        <v>0.11782082203475966</v>
+      </c>
+      <c r="H120">
+        <v>0.7476200197361681</v>
+      </c>
+      <c r="I120">
+        <v>0.11574572457181254</v>
+      </c>
+      <c r="J120">
+        <v>7</v>
+      </c>
+      <c r="K120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B121">
+        <v>0.001214388296603631</v>
+      </c>
+      <c r="C121">
+        <v>2.0145868405248165e-07</v>
+      </c>
+      <c r="D121">
+        <v>0.01646863517518404</v>
+      </c>
+      <c r="E121">
+        <v>0.041766932028086387</v>
+      </c>
+      <c r="F121">
+        <v>0.00072474926509539085</v>
+      </c>
+      <c r="G121">
+        <v>0.17110533258012475</v>
+      </c>
+      <c r="H121">
+        <v>0.56361302879410813</v>
+      </c>
+      <c r="I121">
+        <v>0.20510673240211355</v>
+      </c>
+      <c r="J121">
+        <v>7</v>
+      </c>
+      <c r="K121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B122">
+        <v>0.005256500684958784</v>
+      </c>
+      <c r="C122">
+        <v>0.00011148827932780846</v>
+      </c>
+      <c r="D122">
+        <v>0.11531420031676845</v>
+      </c>
+      <c r="E122">
+        <v>0.091173769873971133</v>
+      </c>
+      <c r="F122">
+        <v>0.011076462580780509</v>
+      </c>
+      <c r="G122">
+        <v>0.12765109791186843</v>
+      </c>
+      <c r="H122">
+        <v>0.42487663966849476</v>
+      </c>
+      <c r="I122">
+        <v>0.22453984068383009</v>
+      </c>
+      <c r="J122">
+        <v>7</v>
+      </c>
+      <c r="K122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B123">
+        <v>0.018526079788832774</v>
+      </c>
+      <c r="C123">
+        <v>0.00012798202237064433</v>
+      </c>
+      <c r="D123">
+        <v>0.020018195106867705</v>
+      </c>
+      <c r="E123">
+        <v>0.033660236400503647</v>
+      </c>
+      <c r="F123">
+        <v>0.21130291639128149</v>
+      </c>
+      <c r="G123">
+        <v>0.13832744100937294</v>
+      </c>
+      <c r="H123">
+        <v>0.34582710055018379</v>
+      </c>
+      <c r="I123">
+        <v>0.23221004873058704</v>
+      </c>
+      <c r="J123">
+        <v>7</v>
+      </c>
+      <c r="K123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B124">
+        <v>0.18019596250206535</v>
+      </c>
+      <c r="C124">
+        <v>0.00015125108593765378</v>
+      </c>
+      <c r="D124">
+        <v>0.017989450689963059</v>
+      </c>
+      <c r="E124">
+        <v>0.088419024260294493</v>
+      </c>
+      <c r="F124">
+        <v>0.0079118593506688293</v>
+      </c>
+      <c r="G124">
+        <v>0.15879187480678436</v>
+      </c>
+      <c r="H124">
+        <v>0.13185633690705495</v>
+      </c>
+      <c r="I124">
+        <v>0.41468424039723117</v>
+      </c>
+      <c r="J124">
+        <v>8</v>
+      </c>
+      <c r="K124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B125">
+        <v>0.024196642631775671</v>
+      </c>
+      <c r="C125">
+        <v>2.0038333449711884e-05</v>
+      </c>
+      <c r="D125">
+        <v>0.031629569327499621</v>
+      </c>
+      <c r="E125">
+        <v>0.039274041146534266</v>
+      </c>
+      <c r="F125">
+        <v>0.11759627052123639</v>
+      </c>
+      <c r="G125">
+        <v>0.1484176593863259</v>
+      </c>
+      <c r="H125">
+        <v>0.3778761576262788</v>
+      </c>
+      <c r="I125">
+        <v>0.26098962102689971</v>
+      </c>
+      <c r="J125">
+        <v>7</v>
+      </c>
+      <c r="K125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B126">
+        <v>0.011765663035803698</v>
+      </c>
+      <c r="C126">
+        <v>5.665489156365877e-06</v>
+      </c>
+      <c r="D126">
+        <v>0.0029955963922781207</v>
+      </c>
+      <c r="E126">
+        <v>0.0076921378835264603</v>
+      </c>
+      <c r="F126">
+        <v>0.012270504646714019</v>
+      </c>
+      <c r="G126">
+        <v>0.13305923380756068</v>
+      </c>
+      <c r="H126">
+        <v>0.71711813349728104</v>
+      </c>
+      <c r="I126">
+        <v>0.11509306524767961</v>
+      </c>
+      <c r="J126">
+        <v>7</v>
+      </c>
+      <c r="K126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B127">
+        <v>0.0054099151850435182</v>
+      </c>
+      <c r="C127">
+        <v>0.0017718444163068075</v>
+      </c>
+      <c r="D127">
+        <v>0.079523128549510047</v>
+      </c>
+      <c r="E127">
+        <v>0.062810694288648619</v>
+      </c>
+      <c r="F127">
+        <v>0.18046511601602575</v>
+      </c>
+      <c r="G127">
+        <v>0.15978238490642932</v>
+      </c>
+      <c r="H127">
+        <v>0.35212587666397732</v>
+      </c>
+      <c r="I127">
+        <v>0.15811103997405854</v>
+      </c>
+      <c r="J127">
+        <v>7</v>
+      </c>
+      <c r="K127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B128">
+        <v>0.068261845387519851</v>
+      </c>
+      <c r="C128">
+        <v>9.2292453056010409e-05</v>
+      </c>
+      <c r="D128">
+        <v>0.020791114981041511</v>
+      </c>
+      <c r="E128">
+        <v>0.049646745958700868</v>
+      </c>
+      <c r="F128">
+        <v>0.04756933382076816</v>
+      </c>
+      <c r="G128">
+        <v>0.18003182002271226</v>
+      </c>
+      <c r="H128">
+        <v>0.43862844878959983</v>
+      </c>
+      <c r="I128">
+        <v>0.1949783985866016</v>
+      </c>
+      <c r="J128">
+        <v>7</v>
+      </c>
+      <c r="K128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B129">
+        <v>0.0057059693524169168</v>
+      </c>
+      <c r="C129">
+        <v>7.4211750817407485e-05</v>
+      </c>
+      <c r="D129">
+        <v>0.0063718458198452049</v>
+      </c>
+      <c r="E129">
+        <v>0.015244499788115458</v>
+      </c>
+      <c r="F129">
+        <v>0.050284006767310915</v>
+      </c>
+      <c r="G129">
+        <v>0.077364604714955126</v>
+      </c>
+      <c r="H129">
+        <v>0.6621265873018467</v>
+      </c>
+      <c r="I129">
+        <v>0.18282827450469227</v>
+      </c>
+      <c r="J129">
+        <v>7</v>
+      </c>
+      <c r="K129">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B130">
+        <v>0.0059435856812097183</v>
+      </c>
+      <c r="C130">
+        <v>3.9927446845150831e-06</v>
+      </c>
+      <c r="D130">
+        <v>0.031773006746434365</v>
+      </c>
+      <c r="E130">
+        <v>0.016051649521725754</v>
+      </c>
+      <c r="F130">
+        <v>0.0052430817747608979</v>
+      </c>
+      <c r="G130">
+        <v>0.13609091010839058</v>
+      </c>
+      <c r="H130">
+        <v>0.64300195694489348</v>
+      </c>
+      <c r="I130">
+        <v>0.16189181647790069</v>
+      </c>
+      <c r="J130">
+        <v>7</v>
+      </c>
+      <c r="K130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B131">
+        <v>0.08029298666511514</v>
+      </c>
+      <c r="C131">
+        <v>3.4864798335306068e-06</v>
+      </c>
+      <c r="D131">
+        <v>0.0071533741603545479</v>
+      </c>
+      <c r="E131">
+        <v>0.039499833901524187</v>
+      </c>
+      <c r="F131">
+        <v>0.002242790292652026</v>
+      </c>
+      <c r="G131">
+        <v>0.2914940533933173</v>
+      </c>
+      <c r="H131">
+        <v>0.24530159163349341</v>
+      </c>
+      <c r="I131">
+        <v>0.3340118834737098</v>
+      </c>
+      <c r="J131">
+        <v>8</v>
+      </c>
+      <c r="K131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B132">
+        <v>0.042437880415291208</v>
+      </c>
+      <c r="C132">
+        <v>0.0040939315736014861</v>
+      </c>
+      <c r="D132">
+        <v>0.039321003181074309</v>
+      </c>
+      <c r="E132">
+        <v>0.25425154293530716</v>
+      </c>
+      <c r="F132">
+        <v>0.0021409399125497256</v>
+      </c>
+      <c r="G132">
+        <v>0.16631933920801364</v>
+      </c>
+      <c r="H132">
+        <v>0.19750971095075368</v>
+      </c>
+      <c r="I132">
+        <v>0.29392565182340885</v>
+      </c>
+      <c r="J132">
+        <v>8</v>
+      </c>
+      <c r="K132">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B133">
+        <v>0.014123398953774095</v>
+      </c>
+      <c r="C133">
+        <v>2.1328931479710697e-06</v>
+      </c>
+      <c r="D133">
+        <v>0.011328983145675337</v>
+      </c>
+      <c r="E133">
+        <v>0.12640738282343075</v>
+      </c>
+      <c r="F133">
+        <v>0.059072999456578429</v>
+      </c>
+      <c r="G133">
+        <v>0.19820362189608992</v>
+      </c>
+      <c r="H133">
+        <v>0.23935416552924127</v>
+      </c>
+      <c r="I133">
+        <v>0.35150731530206231</v>
+      </c>
+      <c r="J133">
+        <v>8</v>
+      </c>
+      <c r="K133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B134">
+        <v>0.0073900556889088722</v>
+      </c>
+      <c r="C134">
+        <v>1.0795205738233154e-06</v>
+      </c>
+      <c r="D134">
+        <v>0.0031355431096914618</v>
+      </c>
+      <c r="E134">
+        <v>0.001598942673948832</v>
+      </c>
+      <c r="F134">
+        <v>0.017596454224980452</v>
+      </c>
+      <c r="G134">
+        <v>0.10772172667777176</v>
+      </c>
+      <c r="H134">
+        <v>0.59573869776570199</v>
+      </c>
+      <c r="I134">
+        <v>0.26681750033842278</v>
+      </c>
+      <c r="J134">
+        <v>7</v>
+      </c>
+      <c r="K134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B135">
+        <v>0.085108197225154655</v>
+      </c>
+      <c r="C135">
+        <v>3.2308113089713286e-07</v>
+      </c>
+      <c r="D135">
+        <v>0.0006960544447958707</v>
+      </c>
+      <c r="E135">
+        <v>0.036413957570401022</v>
+      </c>
+      <c r="F135">
+        <v>0.015444401750794349</v>
+      </c>
+      <c r="G135">
+        <v>0.25305922883596194</v>
+      </c>
+      <c r="H135">
+        <v>0.25202281490869477</v>
+      </c>
+      <c r="I135">
+        <v>0.35725502218306654</v>
+      </c>
+      <c r="J135">
+        <v>8</v>
+      </c>
+      <c r="K135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B136">
+        <v>0.00080835507008172305</v>
+      </c>
+      <c r="C136">
+        <v>6.474699554659797e-08</v>
+      </c>
+      <c r="D136">
+        <v>0.038154943637394689</v>
+      </c>
+      <c r="E136">
+        <v>0.030172120185410132</v>
+      </c>
+      <c r="F136">
+        <v>1.1005925344836538e-05</v>
+      </c>
+      <c r="G136">
+        <v>0.18677392790014341</v>
+      </c>
+      <c r="H136">
+        <v>0.66121648961504209</v>
+      </c>
+      <c r="I136">
+        <v>0.082863092919587586</v>
+      </c>
+      <c r="J136">
+        <v>7</v>
+      </c>
+      <c r="K136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B137">
+        <v>0.0051308511361910208</v>
+      </c>
+      <c r="C137">
+        <v>3.9901336375066147e-06</v>
+      </c>
+      <c r="D137">
+        <v>0.0038425999316507968</v>
+      </c>
+      <c r="E137">
+        <v>0.0062766606789665764</v>
+      </c>
+      <c r="F137">
+        <v>0.0012418626278930343</v>
+      </c>
+      <c r="G137">
+        <v>0.052761622693030669</v>
+      </c>
+      <c r="H137">
+        <v>0.73213072856202066</v>
+      </c>
+      <c r="I137">
+        <v>0.19861168423660974</v>
+      </c>
+      <c r="J137">
+        <v>7</v>
+      </c>
+      <c r="K137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B138">
+        <v>0.032914412907873378</v>
+      </c>
+      <c r="C138">
+        <v>6.2684085308778571e-09</v>
+      </c>
+      <c r="D138">
+        <v>0.054578805008014097</v>
+      </c>
+      <c r="E138">
+        <v>0.10348501803918217</v>
+      </c>
+      <c r="F138">
+        <v>0.01675627556766562</v>
+      </c>
+      <c r="G138">
+        <v>0.47133556160218198</v>
+      </c>
+      <c r="H138">
+        <v>0.16996665938182096</v>
+      </c>
+      <c r="I138">
+        <v>0.15096326122485337</v>
+      </c>
+      <c r="J138">
+        <v>6</v>
+      </c>
+      <c r="K138">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B139">
+        <v>0.019841299579822082</v>
+      </c>
+      <c r="C139">
+        <v>7.8951124995249899e-08</v>
+      </c>
+      <c r="D139">
+        <v>0.021438951115832945</v>
+      </c>
+      <c r="E139">
+        <v>0.023144571903005215</v>
+      </c>
+      <c r="F139">
+        <v>0.0053861731366650536</v>
+      </c>
+      <c r="G139">
+        <v>0.23083234138937417</v>
+      </c>
+      <c r="H139">
+        <v>0.48082616016134772</v>
+      </c>
+      <c r="I139">
+        <v>0.21853042376282786</v>
+      </c>
+      <c r="J139">
+        <v>7</v>
+      </c>
+      <c r="K139">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B140">
+        <v>0.056361619263468075</v>
+      </c>
+      <c r="C140">
+        <v>2.7021223559767755e-13</v>
+      </c>
+      <c r="D140">
+        <v>0.044225462154745938</v>
+      </c>
+      <c r="E140">
+        <v>0.050838833616170309</v>
+      </c>
+      <c r="F140">
+        <v>0.00062218077691548177</v>
+      </c>
+      <c r="G140">
+        <v>0.25962209790469276</v>
+      </c>
+      <c r="H140">
+        <v>0.40541034276854915</v>
+      </c>
+      <c r="I140">
+        <v>0.18291946351518809</v>
+      </c>
+      <c r="J140">
+        <v>7</v>
+      </c>
+      <c r="K140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B141">
+        <v>0.0026955795654060063</v>
+      </c>
+      <c r="C141">
+        <v>0.00017686642691878428</v>
+      </c>
+      <c r="D141">
+        <v>0.11232558211622533</v>
+      </c>
+      <c r="E141">
+        <v>0.068681381783917597</v>
+      </c>
+      <c r="F141">
+        <v>0.034642333390345323</v>
+      </c>
+      <c r="G141">
+        <v>0.15312832721323569</v>
+      </c>
+      <c r="H141">
+        <v>0.36872903643912036</v>
+      </c>
+      <c r="I141">
+        <v>0.25962089306483105</v>
+      </c>
+      <c r="J141">
+        <v>7</v>
+      </c>
+      <c r="K141">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B142">
+        <v>0.034005221706437293</v>
+      </c>
+      <c r="C142">
+        <v>0.00031973898256923032</v>
+      </c>
+      <c r="D142">
+        <v>0.09176245174429537</v>
+      </c>
+      <c r="E142">
+        <v>0.071129865191509392</v>
+      </c>
+      <c r="F142">
+        <v>0.074154922637531914</v>
+      </c>
+      <c r="G142">
+        <v>0.17341196206058354</v>
+      </c>
+      <c r="H142">
+        <v>0.36579884463314982</v>
+      </c>
+      <c r="I142">
+        <v>0.1894169930439234</v>
+      </c>
+      <c r="J142">
+        <v>7</v>
+      </c>
+      <c r="K142">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B143">
+        <v>0.011938289395146953</v>
+      </c>
+      <c r="C143">
+        <v>0.00011678146135840197</v>
+      </c>
+      <c r="D143">
+        <v>0.041364005184450568</v>
+      </c>
+      <c r="E143">
+        <v>0.026943876092813946</v>
+      </c>
+      <c r="F143">
+        <v>0.016725766823441571</v>
+      </c>
+      <c r="G143">
+        <v>0.1318623175269793</v>
+      </c>
+      <c r="H143">
+        <v>0.59779599598914657</v>
+      </c>
+      <c r="I143">
+        <v>0.17325296752666269</v>
+      </c>
+      <c r="J143">
+        <v>7</v>
+      </c>
+      <c r="K143">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B144">
+        <v>0.048652747052588222</v>
+      </c>
+      <c r="C144">
+        <v>0.00099287708284193977</v>
+      </c>
+      <c r="D144">
+        <v>0.01953362501064513</v>
+      </c>
+      <c r="E144">
+        <v>0.089725623470679153</v>
+      </c>
+      <c r="F144">
+        <v>0.006573353692690795</v>
+      </c>
+      <c r="G144">
+        <v>0.20702357673758739</v>
+      </c>
+      <c r="H144">
+        <v>0.36120427678861033</v>
+      </c>
+      <c r="I144">
+        <v>0.26629392016435699</v>
+      </c>
+      <c r="J144">
+        <v>7</v>
+      </c>
+      <c r="K144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B145">
+        <v>0.02271674205026385</v>
+      </c>
+      <c r="C145">
+        <v>0.0011315600631748959</v>
+      </c>
+      <c r="D145">
+        <v>0.19682463322605376</v>
+      </c>
+      <c r="E145">
+        <v>0.042412635671549979</v>
+      </c>
+      <c r="F145">
+        <v>0.014975890888977302</v>
+      </c>
+      <c r="G145">
+        <v>0.1929234725818135</v>
+      </c>
+      <c r="H145">
+        <v>0.14734070682060155</v>
+      </c>
+      <c r="I145">
+        <v>0.38167435869756522</v>
+      </c>
+      <c r="J145">
+        <v>8</v>
+      </c>
+      <c r="K145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B146">
+        <v>0.0053477691976758189</v>
+      </c>
+      <c r="C146">
+        <v>1.177232277779935e-05</v>
+      </c>
+      <c r="D146">
+        <v>0.018443672241744653</v>
+      </c>
+      <c r="E146">
+        <v>0.03994389438863901</v>
+      </c>
+      <c r="F146">
+        <v>0.010300892669214396</v>
+      </c>
+      <c r="G146">
+        <v>0.13296763780774162</v>
+      </c>
+      <c r="H146">
+        <v>0.59378759584554974</v>
+      </c>
+      <c r="I146">
+        <v>0.19919676552665694</v>
+      </c>
+      <c r="J146">
+        <v>7</v>
+      </c>
+      <c r="K146">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B147">
+        <v>0.13078370735495348</v>
+      </c>
+      <c r="C147">
+        <v>0.00032027439127929434</v>
+      </c>
+      <c r="D147">
+        <v>0.026354201855889558</v>
+      </c>
+      <c r="E147">
+        <v>0.10571740582210692</v>
+      </c>
+      <c r="F147">
+        <v>0.036849006319986694</v>
+      </c>
+      <c r="G147">
+        <v>0.14465927248157157</v>
+      </c>
+      <c r="H147">
+        <v>0.28510374941632077</v>
+      </c>
+      <c r="I147">
+        <v>0.2702123823578918</v>
+      </c>
+      <c r="J147">
+        <v>7</v>
+      </c>
+      <c r="K147">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="9" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B148">
+        <v>0.029591225540363791</v>
+      </c>
+      <c r="C148">
+        <v>6.1400117608838956e-05</v>
+      </c>
+      <c r="D148">
+        <v>0.027754871498000464</v>
+      </c>
+      <c r="E148">
+        <v>0.059806450799992819</v>
+      </c>
+      <c r="F148">
+        <v>0.070139726773360347</v>
+      </c>
+      <c r="G148">
+        <v>0.13895164204457702</v>
+      </c>
+      <c r="H148">
+        <v>0.4906789748714509</v>
+      </c>
+      <c r="I148">
+        <v>0.18301570835464576</v>
+      </c>
+      <c r="J148">
+        <v>7</v>
+      </c>
+      <c r="K148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B149">
+        <v>0.13475042311522262</v>
+      </c>
+      <c r="C149">
+        <v>0.00025159959443016609</v>
+      </c>
+      <c r="D149">
+        <v>0.094432639457847287</v>
+      </c>
+      <c r="E149">
+        <v>0.060992806792448312</v>
+      </c>
+      <c r="F149">
+        <v>0.043240467827432842</v>
+      </c>
+      <c r="G149">
+        <v>0.1674888359937611</v>
+      </c>
+      <c r="H149">
+        <v>0.28601323712658611</v>
+      </c>
+      <c r="I149">
+        <v>0.21282999009227169</v>
+      </c>
+      <c r="J149">
+        <v>7</v>
+      </c>
+      <c r="K149">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B150">
+        <v>0.0044332050524924747</v>
+      </c>
+      <c r="C150">
+        <v>0.0002005028282328178</v>
+      </c>
+      <c r="D150">
+        <v>0.069274448027016863</v>
+      </c>
+      <c r="E150">
+        <v>0.052624077244972679</v>
+      </c>
+      <c r="F150">
+        <v>0.026618830848688754</v>
+      </c>
+      <c r="G150">
+        <v>0.15684512721282542</v>
+      </c>
+      <c r="H150">
+        <v>0.33525012136413718</v>
+      </c>
+      <c r="I150">
+        <v>0.35475368742163371</v>
+      </c>
+      <c r="J150">
+        <v>8</v>
+      </c>
+      <c r="K150">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B151">
+        <v>0.076375210939160332</v>
+      </c>
+      <c r="C151">
+        <v>0.00027809442632618117</v>
+      </c>
+      <c r="D151">
+        <v>0.042146524907232502</v>
+      </c>
+      <c r="E151">
+        <v>0.066618895670642234</v>
+      </c>
+      <c r="F151">
+        <v>0.06043437998499105</v>
+      </c>
+      <c r="G151">
+        <v>0.21034243413863396</v>
+      </c>
+      <c r="H151">
+        <v>0.24529679991035136</v>
+      </c>
+      <c r="I151">
+        <v>0.29850766002266244</v>
+      </c>
+      <c r="J151">
+        <v>8</v>
+      </c>
+      <c r="K151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B152">
+        <v>0.0043166682783807838</v>
+      </c>
+      <c r="C152">
+        <v>0.003204706993725168</v>
+      </c>
+      <c r="D152">
+        <v>0.0043395685629401175</v>
+      </c>
+      <c r="E152">
+        <v>0.2616606978210157</v>
+      </c>
+      <c r="F152">
+        <v>0.0016958194684811448</v>
+      </c>
+      <c r="G152">
+        <v>0.19224445108348293</v>
+      </c>
+      <c r="H152">
+        <v>0.15260700649625655</v>
+      </c>
+      <c r="I152">
+        <v>0.37993108129571768</v>
+      </c>
+      <c r="J152">
+        <v>8</v>
+      </c>
+      <c r="K152">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B153">
+        <v>0.26979475910831935</v>
+      </c>
+      <c r="C153">
+        <v>7.8574901601693244e-05</v>
+      </c>
+      <c r="D153">
+        <v>0.034015058900128896</v>
+      </c>
+      <c r="E153">
+        <v>0.051509609477185844</v>
+      </c>
+      <c r="F153">
+        <v>0.018849841707071366</v>
+      </c>
+      <c r="G153">
+        <v>0.19280727292630179</v>
+      </c>
+      <c r="H153">
+        <v>0.12456973543310333</v>
+      </c>
+      <c r="I153">
+        <v>0.30837514754628764</v>
+      </c>
+      <c r="J153">
+        <v>8</v>
+      </c>
+      <c r="K153">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B154">
+        <v>0.0070152528560497151</v>
+      </c>
+      <c r="C154">
+        <v>6.2548646062296785e-05</v>
+      </c>
+      <c r="D154">
+        <v>0.028979936612638486</v>
+      </c>
+      <c r="E154">
+        <v>0.038851686434984434</v>
+      </c>
+      <c r="F154">
+        <v>0.013892959823454461</v>
+      </c>
+      <c r="G154">
+        <v>0.19283008725812273</v>
+      </c>
+      <c r="H154">
+        <v>0.4399039588118478</v>
+      </c>
+      <c r="I154">
+        <v>0.27846356955684015</v>
+      </c>
+      <c r="J154">
+        <v>7</v>
+      </c>
+      <c r="K154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B155">
+        <v>0.0188827114640489</v>
+      </c>
+      <c r="C155">
+        <v>2.4493000770812329e-05</v>
+      </c>
+      <c r="D155">
+        <v>0.015748852537537036</v>
+      </c>
+      <c r="E155">
+        <v>0.084494087775061288</v>
+      </c>
+      <c r="F155">
+        <v>0.019544214339354771</v>
+      </c>
+      <c r="G155">
+        <v>0.16171746280359595</v>
+      </c>
+      <c r="H155">
+        <v>0.50201815019857898</v>
+      </c>
+      <c r="I155">
+        <v>0.19757002788105227</v>
+      </c>
+      <c r="J155">
+        <v>7</v>
+      </c>
+      <c r="K155">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="9" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B156">
+        <v>2.7234596561589026e-10</v>
+      </c>
+      <c r="C156">
+        <v>2.2398190409648793e-14</v>
+      </c>
+      <c r="D156">
+        <v>0.63791430255070636</v>
+      </c>
+      <c r="E156">
+        <v>0.014954517792589181</v>
+      </c>
+      <c r="F156">
+        <v>1.0797993578449116e-10</v>
+      </c>
+      <c r="G156">
+        <v>0.33538641770335936</v>
+      </c>
+      <c r="H156">
+        <v>2.4641041237513078e-07</v>
+      </c>
+      <c r="I156">
+        <v>0.011744515162584472</v>
+      </c>
+      <c r="J156">
+        <v>3</v>
+      </c>
+      <c r="K156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B157">
+        <v>0.0039660081278104194</v>
+      </c>
+      <c r="C157">
+        <v>0.0045357675269386789</v>
+      </c>
+      <c r="D157">
+        <v>0.065005642514269921</v>
+      </c>
+      <c r="E157">
+        <v>0.153940057256503</v>
+      </c>
+      <c r="F157">
+        <v>0.00066920456593439653</v>
+      </c>
+      <c r="G157">
+        <v>0.17324290082474536</v>
+      </c>
+      <c r="H157">
+        <v>0.0084066345491602447</v>
+      </c>
+      <c r="I157">
+        <v>0.59023378463463794</v>
+      </c>
+      <c r="J157">
+        <v>8</v>
+      </c>
+      <c r="K157">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B158">
+        <v>0.00086861070647361856</v>
+      </c>
+      <c r="C158">
+        <v>0.0028725587400906167</v>
+      </c>
+      <c r="D158">
+        <v>0.062761553667105896</v>
+      </c>
+      <c r="E158">
+        <v>0.089222968645117126</v>
+      </c>
+      <c r="F158">
+        <v>0.0067959042643835291</v>
+      </c>
+      <c r="G158">
+        <v>0.17608277232205607</v>
+      </c>
+      <c r="H158">
+        <v>0.019467773794964702</v>
+      </c>
+      <c r="I158">
+        <v>0.64192785785980844</v>
+      </c>
+      <c r="J158">
+        <v>8</v>
+      </c>
+      <c r="K158">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B159">
+        <v>0.00091458373296210069</v>
+      </c>
+      <c r="C159">
+        <v>0.0030457631613245175</v>
+      </c>
+      <c r="D159">
+        <v>0.048942598390085551</v>
+      </c>
+      <c r="E159">
+        <v>0.037389995385113645</v>
+      </c>
+      <c r="F159">
+        <v>0.0027952377595250161</v>
+      </c>
+      <c r="G159">
+        <v>0.12401311283447565</v>
+      </c>
+      <c r="H159">
+        <v>0.012348148471243008</v>
+      </c>
+      <c r="I159">
+        <v>0.77055056026527047</v>
+      </c>
+      <c r="J159">
+        <v>8</v>
+      </c>
+      <c r="K159">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B160">
+        <v>0.0051185273547713316</v>
+      </c>
+      <c r="C160">
+        <v>0.00028568321272143021</v>
+      </c>
+      <c r="D160">
+        <v>0.040869371298692871</v>
+      </c>
+      <c r="E160">
+        <v>0.18172163156448398</v>
+      </c>
+      <c r="F160">
+        <v>0.0028581569568418776</v>
+      </c>
+      <c r="G160">
+        <v>0.29171612403452762</v>
+      </c>
+      <c r="H160">
+        <v>0.052959712198752999</v>
+      </c>
+      <c r="I160">
+        <v>0.42447079337920796</v>
+      </c>
+      <c r="J160">
+        <v>8</v>
+      </c>
+      <c r="K160">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B161">
+        <v>0.0047616166302736603</v>
+      </c>
+      <c r="C161">
+        <v>0.0040177245745827523</v>
+      </c>
+      <c r="D161">
+        <v>0.028891003231806184</v>
+      </c>
+      <c r="E161">
+        <v>0.15457820397206942</v>
+      </c>
+      <c r="F161">
+        <v>0.00077053019119609645</v>
+      </c>
+      <c r="G161">
+        <v>0.23540679982419466</v>
+      </c>
+      <c r="H161">
+        <v>0.0068643314579551421</v>
+      </c>
+      <c r="I161">
+        <v>0.56470979011792211</v>
+      </c>
+      <c r="J161">
+        <v>8</v>
+      </c>
+      <c r="K161">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B162">
+        <v>0.0025067491467680916</v>
+      </c>
+      <c r="C162">
+        <v>1.2461210993533761e-05</v>
+      </c>
+      <c r="D162">
+        <v>0.017358870627689198</v>
+      </c>
+      <c r="E162">
+        <v>0.13298419196334485</v>
+      </c>
+      <c r="F162">
+        <v>0.1329543422887077</v>
+      </c>
+      <c r="G162">
+        <v>0.18841607650040668</v>
+      </c>
+      <c r="H162">
+        <v>0.17877627181997865</v>
+      </c>
+      <c r="I162">
+        <v>0.34699103644211138</v>
+      </c>
+      <c r="J162">
+        <v>8</v>
+      </c>
+      <c r="K162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B163">
+        <v>0.011763311571488577</v>
+      </c>
+      <c r="C163">
+        <v>0.00023872091431624101</v>
+      </c>
+      <c r="D163">
+        <v>0.040196872351704944</v>
+      </c>
+      <c r="E163">
+        <v>0.054254393229493887</v>
+      </c>
+      <c r="F163">
+        <v>0.002861473276801254</v>
+      </c>
+      <c r="G163">
+        <v>0.16235287252299485</v>
+      </c>
+      <c r="H163">
+        <v>0.050415275152351384</v>
+      </c>
+      <c r="I163">
+        <v>0.6779170809808488</v>
+      </c>
+      <c r="J163">
+        <v>8</v>
+      </c>
+      <c r="K163">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="9" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B164">
+        <v>0.00028872906228544952</v>
+      </c>
+      <c r="C164">
+        <v>3.5983344583639368e-06</v>
+      </c>
+      <c r="D164">
+        <v>0.0059025708438705162</v>
+      </c>
+      <c r="E164">
+        <v>0.021780119459416058</v>
+      </c>
+      <c r="F164">
+        <v>0.0031408202287171254</v>
+      </c>
+      <c r="G164">
+        <v>0.55599424218873761</v>
+      </c>
+      <c r="H164">
+        <v>0.048968930175288874</v>
+      </c>
+      <c r="I164">
+        <v>0.36392098970722597</v>
+      </c>
+      <c r="J164">
+        <v>6</v>
+      </c>
+      <c r="K164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B165">
+        <v>0.04101728488279846</v>
+      </c>
+      <c r="C165">
+        <v>7.162184329412241e-05</v>
+      </c>
+      <c r="D165">
+        <v>0.036099006889595033</v>
+      </c>
+      <c r="E165">
+        <v>0.050944268016780758</v>
+      </c>
+      <c r="F165">
+        <v>0.049183769334135645</v>
+      </c>
+      <c r="G165">
+        <v>0.26995328548867409</v>
+      </c>
+      <c r="H165">
+        <v>0.18960996977888911</v>
+      </c>
+      <c r="I165">
+        <v>0.36312079376583267</v>
+      </c>
+      <c r="J165">
+        <v>8</v>
+      </c>
+      <c r="K165">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B166">
+        <v>0.03086230664298387</v>
+      </c>
+      <c r="C166">
+        <v>1.5083882539180038e-05</v>
+      </c>
+      <c r="D166">
+        <v>0.045292637508764541</v>
+      </c>
+      <c r="E166">
+        <v>0.046985554777323704</v>
+      </c>
+      <c r="F166">
+        <v>0.014244115624494636</v>
+      </c>
+      <c r="G166">
+        <v>0.37886128995779605</v>
+      </c>
+      <c r="H166">
+        <v>0.16620259813732535</v>
+      </c>
+      <c r="I166">
+        <v>0.31753641346877265</v>
+      </c>
+      <c r="J166">
+        <v>6</v>
+      </c>
+      <c r="K166">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B167">
+        <v>0.023649531866560672</v>
+      </c>
+      <c r="C167">
+        <v>2.6298432718963659e-05</v>
+      </c>
+      <c r="D167">
+        <v>0.038322186254972898</v>
+      </c>
+      <c r="E167">
+        <v>0.062961792612957104</v>
+      </c>
+      <c r="F167">
+        <v>0.031056447785997688</v>
+      </c>
+      <c r="G167">
+        <v>0.23238302698933894</v>
+      </c>
+      <c r="H167">
+        <v>0.21143150454040374</v>
+      </c>
+      <c r="I167">
+        <v>0.40016921151705004</v>
+      </c>
+      <c r="J167">
+        <v>8</v>
+      </c>
+      <c r="K167">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B168">
+        <v>0.0048231534023490683</v>
+      </c>
+      <c r="C168">
+        <v>0.0011589060684560606</v>
+      </c>
+      <c r="D168">
+        <v>0.029980822498871917</v>
+      </c>
+      <c r="E168">
+        <v>0.046644706775123661</v>
+      </c>
+      <c r="F168">
+        <v>0.0067395699453382122</v>
+      </c>
+      <c r="G168">
+        <v>0.28029698914774226</v>
+      </c>
+      <c r="H168">
+        <v>0.030782321327696205</v>
+      </c>
+      <c r="I168">
+        <v>0.59957353083442266</v>
+      </c>
+      <c r="J168">
+        <v>8</v>
+      </c>
+      <c r="K168">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B169">
+        <v>0.010204395330962825</v>
+      </c>
+      <c r="C169">
+        <v>9.5755127058919027e-06</v>
+      </c>
+      <c r="D169">
+        <v>0.041314519993421346</v>
+      </c>
+      <c r="E169">
+        <v>0.070739756361802172</v>
+      </c>
+      <c r="F169">
+        <v>0.043636955660153326</v>
+      </c>
+      <c r="G169">
+        <v>0.13020020136977872</v>
+      </c>
+      <c r="H169">
+        <v>0.26854378273246565</v>
+      </c>
+      <c r="I169">
+        <v>0.43535081303871009</v>
+      </c>
+      <c r="J169">
+        <v>8</v>
+      </c>
+      <c r="K169">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="9" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B170">
+        <v>0.00081940857434465244</v>
+      </c>
+      <c r="C170">
+        <v>9.6452938477300864e-10</v>
+      </c>
+      <c r="D170">
+        <v>0.0077720265614723196</v>
+      </c>
+      <c r="E170">
+        <v>0.015234277749220647</v>
+      </c>
+      <c r="F170">
+        <v>0.00054157883142240404</v>
+      </c>
+      <c r="G170">
+        <v>0.18684202541755379</v>
+      </c>
+      <c r="H170">
+        <v>0.57429577030941292</v>
+      </c>
+      <c r="I170">
+        <v>0.21449491159204384</v>
+      </c>
+      <c r="J170">
+        <v>7</v>
+      </c>
+      <c r="K170">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B171">
+        <v>0.0094154064944546988</v>
+      </c>
+      <c r="C171">
+        <v>2.4777950234660469e-06</v>
+      </c>
+      <c r="D171">
+        <v>0.016968654536799736</v>
+      </c>
+      <c r="E171">
+        <v>0.081435730855111493</v>
+      </c>
+      <c r="F171">
+        <v>0.0026495479469728304</v>
+      </c>
+      <c r="G171">
+        <v>0.1684277351803245</v>
+      </c>
+      <c r="H171">
+        <v>0.36035430776943739</v>
+      </c>
+      <c r="I171">
+        <v>0.36074613942187589</v>
+      </c>
+      <c r="J171">
+        <v>8</v>
+      </c>
+      <c r="K171">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="9" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B172">
+        <v>0.011733068824986181</v>
+      </c>
+      <c r="C172">
+        <v>6.0965142638642724e-06</v>
+      </c>
+      <c r="D172">
+        <v>0.023728621188548377</v>
+      </c>
+      <c r="E172">
+        <v>0.050018423373158809</v>
+      </c>
+      <c r="F172">
+        <v>0.016909380087809622</v>
+      </c>
+      <c r="G172">
+        <v>0.23718513326250243</v>
+      </c>
+      <c r="H172">
+        <v>0.28272438065031513</v>
+      </c>
+      <c r="I172">
+        <v>0.37769489609841561</v>
+      </c>
+      <c r="J172">
+        <v>8</v>
+      </c>
+      <c r="K172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B173">
+        <v>0.012361134968889903</v>
+      </c>
+      <c r="C173">
+        <v>1.9141381035279271e-06</v>
+      </c>
+      <c r="D173">
+        <v>0.030278287339114765</v>
+      </c>
+      <c r="E173">
+        <v>0.070896359094566846</v>
+      </c>
+      <c r="F173">
+        <v>0.0084638205965188503</v>
+      </c>
+      <c r="G173">
+        <v>0.23544640950743345</v>
+      </c>
+      <c r="H173">
+        <v>0.33270758149970187</v>
+      </c>
+      <c r="I173">
+        <v>0.30984449285567095</v>
+      </c>
+      <c r="J173">
+        <v>7</v>
+      </c>
+      <c r="K173">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B174">
+        <v>0.039160950823431448</v>
+      </c>
+      <c r="C174">
+        <v>2.1485163863641116e-05</v>
+      </c>
+      <c r="D174">
+        <v>0.0468779764622669</v>
+      </c>
+      <c r="E174">
+        <v>0.05808650179499044</v>
+      </c>
+      <c r="F174">
+        <v>0.062074279855892894</v>
+      </c>
+      <c r="G174">
+        <v>0.19800191318178376</v>
+      </c>
+      <c r="H174">
+        <v>0.27669139481643762</v>
+      </c>
+      <c r="I174">
+        <v>0.31908549790133334</v>
+      </c>
+      <c r="J174">
+        <v>8</v>
+      </c>
+      <c r="K174">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B175">
+        <v>0.21165284325718536</v>
+      </c>
+      <c r="C175">
+        <v>0.0071461081361290611</v>
+      </c>
+      <c r="D175">
+        <v>0.0034034750971678436</v>
+      </c>
+      <c r="E175">
+        <v>0.013622570142042517</v>
+      </c>
+      <c r="F175">
+        <v>0.00071047080246118544</v>
+      </c>
+      <c r="G175">
+        <v>0.26685330638123705</v>
+      </c>
+      <c r="H175">
+        <v>0.1696388031866839</v>
+      </c>
+      <c r="I175">
+        <v>0.32697242299709312</v>
+      </c>
+      <c r="J175">
+        <v>8</v>
+      </c>
+      <c r="K175">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="9" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B176">
+        <v>0.021145218420479259</v>
+      </c>
+      <c r="C176">
+        <v>2.245355601603528e-05</v>
+      </c>
+      <c r="D176">
+        <v>0.048167861489800623</v>
+      </c>
+      <c r="E176">
+        <v>0.052360009889807026</v>
+      </c>
+      <c r="F176">
+        <v>0.014263103537227742</v>
+      </c>
+      <c r="G176">
+        <v>0.40723866250568724</v>
+      </c>
+      <c r="H176">
+        <v>0.056971726824535537</v>
+      </c>
+      <c r="I176">
+        <v>0.39983096377644645</v>
+      </c>
+      <c r="J176">
+        <v>6</v>
+      </c>
+      <c r="K176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B177">
+        <v>0.003011653669325366</v>
+      </c>
+      <c r="C177">
+        <v>0.0002324537675764603</v>
+      </c>
+      <c r="D177">
+        <v>0.012830544113994011</v>
+      </c>
+      <c r="E177">
+        <v>0.12305201137681207</v>
+      </c>
+      <c r="F177">
+        <v>0.0047777942970405824</v>
+      </c>
+      <c r="G177">
+        <v>0.25749101121337387</v>
+      </c>
+      <c r="H177">
+        <v>0.034209549462662421</v>
+      </c>
+      <c r="I177">
+        <v>0.56439498209921524</v>
+      </c>
+      <c r="J177">
+        <v>8</v>
+      </c>
+      <c r="K177">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B178">
+        <v>0.031896259491422281</v>
+      </c>
+      <c r="C178">
+        <v>1.6724600575120449e-05</v>
+      </c>
+      <c r="D178">
+        <v>0.033905123342539964</v>
+      </c>
+      <c r="E178">
+        <v>0.044993052800620902</v>
+      </c>
+      <c r="F178">
+        <v>0.026609398157150618</v>
+      </c>
+      <c r="G178">
+        <v>0.38344165550934217</v>
+      </c>
+      <c r="H178">
+        <v>0.26762839963975454</v>
+      </c>
+      <c r="I178">
+        <v>0.21150938645859443</v>
+      </c>
+      <c r="J178">
+        <v>6</v>
+      </c>
+      <c r="K178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B179">
+        <v>0.13482055714024907</v>
+      </c>
+      <c r="C179">
+        <v>4.5185131715563132e-07</v>
+      </c>
+      <c r="D179">
+        <v>0.01454426445860975</v>
+      </c>
+      <c r="E179">
+        <v>0.042049666722264942</v>
+      </c>
+      <c r="F179">
+        <v>0.0044575732344160996</v>
+      </c>
+      <c r="G179">
+        <v>0.10250603492634856</v>
+      </c>
+      <c r="H179">
+        <v>0.24024832829715484</v>
+      </c>
+      <c r="I179">
+        <v>0.46137312336963959</v>
+      </c>
+      <c r="J179">
+        <v>8</v>
+      </c>
+      <c r="K179">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B180">
+        <v>5.8990379698401887e-05</v>
+      </c>
+      <c r="C180">
+        <v>1.0940838813013703e-09</v>
+      </c>
+      <c r="D180">
+        <v>0.030557962875342359</v>
+      </c>
+      <c r="E180">
+        <v>0.0053134047527822192</v>
+      </c>
+      <c r="F180">
+        <v>5.853367557433709e-05</v>
+      </c>
+      <c r="G180">
+        <v>0.10756499169677242</v>
+      </c>
+      <c r="H180">
+        <v>0.62879478264818145</v>
+      </c>
+      <c r="I180">
+        <v>0.22765133287756489</v>
+      </c>
+      <c r="J180">
+        <v>7</v>
+      </c>
+      <c r="K180">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="9" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B181">
+        <v>0.00027793968744398715</v>
+      </c>
+      <c r="C181">
+        <v>1.185468977312239e-08</v>
+      </c>
+      <c r="D181">
+        <v>0.044503241975891276</v>
+      </c>
+      <c r="E181">
+        <v>0.049948794444541471</v>
+      </c>
+      <c r="F181">
+        <v>0.00050088875646933889</v>
+      </c>
+      <c r="G181">
+        <v>0.14930160932409381</v>
+      </c>
+      <c r="H181">
+        <v>0.26265074604624483</v>
+      </c>
+      <c r="I181">
+        <v>0.49281676791062551</v>
+      </c>
+      <c r="J181">
+        <v>8</v>
+      </c>
+      <c r="K181">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B182">
+        <v>0.12744422781366088</v>
+      </c>
+      <c r="C182">
+        <v>0.00022145014311451095</v>
+      </c>
+      <c r="D182">
+        <v>0.061887860332410317</v>
+      </c>
+      <c r="E182">
+        <v>0.05438659131863427</v>
+      </c>
+      <c r="F182">
+        <v>0.0094060142641604217</v>
+      </c>
+      <c r="G182">
+        <v>0.20643185720921939</v>
+      </c>
+      <c r="H182">
+        <v>0.26361593763664576</v>
+      </c>
+      <c r="I182">
+        <v>0.27660606128215459</v>
+      </c>
+      <c r="J182">
+        <v>8</v>
+      </c>
+      <c r="K182">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="9" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B183">
+        <v>0.012480092486765185</v>
+      </c>
+      <c r="C183">
+        <v>0.00034124563711861752</v>
+      </c>
+      <c r="D183">
+        <v>0.032180442418679032</v>
+      </c>
+      <c r="E183">
+        <v>0.081919334281472175</v>
+      </c>
+      <c r="F183">
+        <v>0.0083321113399104849</v>
+      </c>
+      <c r="G183">
+        <v>0.27584884894379447</v>
+      </c>
+      <c r="H183">
+        <v>0.032934416043632855</v>
+      </c>
+      <c r="I183">
+        <v>0.55596350884862711</v>
+      </c>
+      <c r="J183">
+        <v>8</v>
+      </c>
+      <c r="K183">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="9" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B184">
+        <v>0.1385908066280524</v>
+      </c>
+      <c r="C184">
+        <v>0.0016253049788364387</v>
+      </c>
+      <c r="D184">
+        <v>0.026248304490889673</v>
+      </c>
+      <c r="E184">
+        <v>0.2433062627544805</v>
+      </c>
+      <c r="F184">
+        <v>0.011068628881433106</v>
+      </c>
+      <c r="G184">
+        <v>0.19615196330693929</v>
+      </c>
+      <c r="H184">
+        <v>0.059641875065158993</v>
+      </c>
+      <c r="I184">
+        <v>0.32336685389420944</v>
+      </c>
+      <c r="J184">
+        <v>8</v>
+      </c>
+      <c r="K184">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B185">
+        <v>0.0024408719488749411</v>
+      </c>
+      <c r="C185">
+        <v>0.0015269959422844865</v>
+      </c>
+      <c r="D185">
+        <v>0.0054014935841403353</v>
+      </c>
+      <c r="E185">
+        <v>0.081702675063217073</v>
+      </c>
+      <c r="F185">
+        <v>0.0033439222577566559</v>
+      </c>
+      <c r="G185">
+        <v>0.28505870281003565</v>
+      </c>
+      <c r="H185">
+        <v>0.020234135859032915</v>
+      </c>
+      <c r="I185">
+        <v>0.60029120253465795</v>
+      </c>
+      <c r="J185">
+        <v>8</v>
+      </c>
+      <c r="K185">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="9" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B186">
+        <v>0.010534532306588965</v>
+      </c>
+      <c r="C186">
+        <v>0.0010317818362746737</v>
+      </c>
+      <c r="D186">
+        <v>0.022516200077262571</v>
+      </c>
+      <c r="E186">
+        <v>0.076501787323834988</v>
+      </c>
+      <c r="F186">
+        <v>0.011405373230478794</v>
+      </c>
+      <c r="G186">
+        <v>0.39342942320988583</v>
+      </c>
+      <c r="H186">
+        <v>0.081231679339250143</v>
+      </c>
+      <c r="I186">
+        <v>0.40334922267642392</v>
+      </c>
+      <c r="J186">
+        <v>8</v>
+      </c>
+      <c r="K186">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="9" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B187">
+        <v>0.022360086900762785</v>
+      </c>
+      <c r="C187">
+        <v>0.00042535958628402897</v>
+      </c>
+      <c r="D187">
+        <v>0.060019326333171925</v>
+      </c>
+      <c r="E187">
+        <v>0.080938666052809166</v>
+      </c>
+      <c r="F187">
+        <v>0.015413651614299202</v>
+      </c>
+      <c r="G187">
+        <v>0.2079313640903459</v>
+      </c>
+      <c r="H187">
+        <v>0.087014127705694014</v>
+      </c>
+      <c r="I187">
+        <v>0.52589741771663301</v>
+      </c>
+      <c r="J187">
+        <v>8</v>
+      </c>
+      <c r="K187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="9" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B188">
+        <v>0.0072721796997065888</v>
+      </c>
+      <c r="C188">
+        <v>0.0026450472419124993</v>
+      </c>
+      <c r="D188">
+        <v>0.041560251870090409</v>
+      </c>
+      <c r="E188">
+        <v>0.051325003351605281</v>
+      </c>
+      <c r="F188">
+        <v>0.0041058104423664756</v>
+      </c>
+      <c r="G188">
+        <v>0.20878101121216902</v>
+      </c>
+      <c r="H188">
+        <v>0.059447058590355734</v>
+      </c>
+      <c r="I188">
+        <v>0.62486363759179409</v>
+      </c>
+      <c r="J188">
+        <v>8</v>
+      </c>
+      <c r="K188">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B189">
+        <v>0.0018969874769353536</v>
+      </c>
+      <c r="C189">
+        <v>1.6898309153880857e-05</v>
+      </c>
+      <c r="D189">
+        <v>0.0030384528067894656</v>
+      </c>
+      <c r="E189">
+        <v>0.011797089481924046</v>
+      </c>
+      <c r="F189">
+        <v>0.0032612999936713237</v>
+      </c>
+      <c r="G189">
+        <v>0.1656528301061167</v>
+      </c>
+      <c r="H189">
+        <v>0.36621974827690867</v>
+      </c>
+      <c r="I189">
+        <v>0.44811669354850048</v>
+      </c>
+      <c r="J189">
+        <v>8</v>
+      </c>
+      <c r="K189">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="9" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B190">
+        <v>0.024308987860921685</v>
+      </c>
+      <c r="C190">
+        <v>0.00030055236669312036</v>
+      </c>
+      <c r="D190">
+        <v>0.046835156548587803</v>
+      </c>
+      <c r="E190">
+        <v>0.033613341817581237</v>
+      </c>
+      <c r="F190">
+        <v>0.018142995998504368</v>
+      </c>
+      <c r="G190">
+        <v>0.18701006677539045</v>
+      </c>
+      <c r="H190">
+        <v>0.17728100780647324</v>
+      </c>
+      <c r="I190">
+        <v>0.51250789082584813</v>
+      </c>
+      <c r="J190">
+        <v>8</v>
+      </c>
+      <c r="K190">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="9" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B191">
+        <v>0.0066948677163289859</v>
+      </c>
+      <c r="C191">
+        <v>0.00082024414744350503</v>
+      </c>
+      <c r="D191">
+        <v>0.071706546059578269</v>
+      </c>
+      <c r="E191">
+        <v>0.065560694875846356</v>
+      </c>
+      <c r="F191">
+        <v>0.0017087137170839052</v>
+      </c>
+      <c r="G191">
+        <v>0.30191939086819397</v>
+      </c>
+      <c r="H191">
+        <v>0.10615702417400473</v>
+      </c>
+      <c r="I191">
+        <v>0.44543251844152021</v>
+      </c>
+      <c r="J191">
+        <v>8</v>
+      </c>
+      <c r="K191">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="9" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B192">
+        <v>0.0035241953838136592</v>
+      </c>
+      <c r="C192">
+        <v>0.00024568446094606493</v>
+      </c>
+      <c r="D192">
+        <v>0.074212787765953678</v>
+      </c>
+      <c r="E192">
+        <v>0.086520710194848055</v>
+      </c>
+      <c r="F192">
+        <v>0.0056377077124255392</v>
+      </c>
+      <c r="G192">
+        <v>0.25047476529887164</v>
+      </c>
+      <c r="H192">
+        <v>0.084232746905148106</v>
+      </c>
+      <c r="I192">
+        <v>0.49515140227799309</v>
+      </c>
+      <c r="J192">
+        <v>8</v>
+      </c>
+      <c r="K192">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B193">
+        <v>0.0012183625192701598</v>
+      </c>
+      <c r="C193">
+        <v>0.002298299017541854</v>
+      </c>
+      <c r="D193">
+        <v>0.018707920716487008</v>
+      </c>
+      <c r="E193">
+        <v>0.046282163848527062</v>
+      </c>
+      <c r="F193">
+        <v>0.0054572320579637278</v>
+      </c>
+      <c r="G193">
+        <v>0.24908694691124098</v>
+      </c>
+      <c r="H193">
+        <v>0.081911176933570432</v>
+      </c>
+      <c r="I193">
+        <v>0.59503789799539875</v>
+      </c>
+      <c r="J193">
+        <v>8</v>
+      </c>
+      <c r="K193">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B194">
+        <v>0.021653144399820298</v>
+      </c>
+      <c r="C194">
+        <v>0.0023998245483131063</v>
+      </c>
+      <c r="D194">
+        <v>0.088987701878712161</v>
+      </c>
+      <c r="E194">
+        <v>0.061819287461409557</v>
+      </c>
+      <c r="F194">
+        <v>0.00010012618582658933</v>
+      </c>
+      <c r="G194">
+        <v>0.26666343310971791</v>
+      </c>
+      <c r="H194">
+        <v>0.028281347918860347</v>
+      </c>
+      <c r="I194">
+        <v>0.53009513449734003</v>
+      </c>
+      <c r="J194">
+        <v>8</v>
+      </c>
+      <c r="K194">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B195">
+        <v>0.020511361563821738</v>
+      </c>
+      <c r="C195">
+        <v>4.0845750069367029e-05</v>
+      </c>
+      <c r="D195">
+        <v>0.016390961229984503</v>
+      </c>
+      <c r="E195">
+        <v>0.078173064471340592</v>
+      </c>
+      <c r="F195">
+        <v>0.0052683471445246471</v>
+      </c>
+      <c r="G195">
+        <v>0.24572943261617813</v>
+      </c>
+      <c r="H195">
+        <v>0.10698133002462241</v>
+      </c>
+      <c r="I195">
+        <v>0.52690465719945856</v>
+      </c>
+      <c r="J195">
+        <v>8</v>
+      </c>
+      <c r="K195">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B196">
+        <v>0.0043489550986269554</v>
+      </c>
+      <c r="C196">
+        <v>5.0640375746336751e-05</v>
+      </c>
+      <c r="D196">
+        <v>0.0165494159379958</v>
+      </c>
+      <c r="E196">
+        <v>0.041650499025309991</v>
+      </c>
+      <c r="F196">
+        <v>0.14255300613394151</v>
+      </c>
+      <c r="G196">
+        <v>0.23880083841026356</v>
+      </c>
+      <c r="H196">
+        <v>0.2633076241884959</v>
+      </c>
+      <c r="I196">
+        <v>0.29273902082962</v>
+      </c>
+      <c r="J196">
+        <v>8</v>
+      </c>
+      <c r="K196">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B197">
+        <v>0.069034962383908077</v>
+      </c>
+      <c r="C197">
+        <v>0.00012049084116193049</v>
+      </c>
+      <c r="D197">
+        <v>0.0463325270838678</v>
+      </c>
+      <c r="E197">
+        <v>0.041670955156030039</v>
+      </c>
+      <c r="F197">
+        <v>0.029300109008557389</v>
+      </c>
+      <c r="G197">
+        <v>0.25864363509318605</v>
+      </c>
+      <c r="H197">
+        <v>0.29312578829125485</v>
+      </c>
+      <c r="I197">
+        <v>0.26177153214203397</v>
+      </c>
+      <c r="J197">
+        <v>7</v>
+      </c>
+      <c r="K197">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B198">
+        <v>0.073170247724847773</v>
+      </c>
+      <c r="C198">
+        <v>0.00013713515168079841</v>
+      </c>
+      <c r="D198">
+        <v>0.04077774810777015</v>
+      </c>
+      <c r="E198">
+        <v>0.092668524002718744</v>
+      </c>
+      <c r="F198">
+        <v>0.070922663583312673</v>
+      </c>
+      <c r="G198">
+        <v>0.22663073779766543</v>
+      </c>
+      <c r="H198">
+        <v>0.11508083629627634</v>
+      </c>
+      <c r="I198">
+        <v>0.38061210733572809</v>
+      </c>
+      <c r="J198">
+        <v>8</v>
+      </c>
+      <c r="K198">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B199">
+        <v>0.017500357678843663</v>
+      </c>
+      <c r="C199">
+        <v>9.8409789733099715e-05</v>
+      </c>
+      <c r="D199">
+        <v>0.016637941630626995</v>
+      </c>
+      <c r="E199">
+        <v>0.077754802855237809</v>
+      </c>
+      <c r="F199">
+        <v>0.0023693654874823336</v>
+      </c>
+      <c r="G199">
+        <v>0.23661030544524261</v>
+      </c>
+      <c r="H199">
+        <v>0.35653902317536479</v>
+      </c>
+      <c r="I199">
+        <v>0.29248979393746877</v>
+      </c>
+      <c r="J199">
+        <v>7</v>
+      </c>
+      <c r="K199">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B200">
+        <v>0.012997440844263559</v>
+      </c>
+      <c r="C200">
+        <v>5.704662752353261e-05</v>
+      </c>
+      <c r="D200">
+        <v>0.038808404213902054</v>
+      </c>
+      <c r="E200">
+        <v>0.051488413367968694</v>
+      </c>
+      <c r="F200">
+        <v>0.011494983562695321</v>
+      </c>
+      <c r="G200">
+        <v>0.20983816877318417</v>
+      </c>
+      <c r="H200">
+        <v>0.25300500314527263</v>
+      </c>
+      <c r="I200">
+        <v>0.42231053946518993</v>
+      </c>
+      <c r="J200">
+        <v>8</v>
+      </c>
+      <c r="K200">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B201">
+        <v>0.00059264987040910319</v>
+      </c>
+      <c r="C201">
+        <v>0.00014717938190184819</v>
+      </c>
+      <c r="D201">
+        <v>0.055020021669690396</v>
+      </c>
+      <c r="E201">
+        <v>0.097516259636077685</v>
+      </c>
+      <c r="F201">
+        <v>0.00092172711623921303</v>
+      </c>
+      <c r="G201">
+        <v>0.2189690271846591</v>
+      </c>
+      <c r="H201">
+        <v>0.021983360802707411</v>
+      </c>
+      <c r="I201">
+        <v>0.60484977433831522</v>
+      </c>
+      <c r="J201">
+        <v>8</v>
+      </c>
+      <c r="K201">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B202">
+        <v>0.0030778771850484706</v>
+      </c>
+      <c r="C202">
+        <v>0.0014738264753961182</v>
+      </c>
+      <c r="D202">
+        <v>0.052699249453784118</v>
+      </c>
+      <c r="E202">
+        <v>0.13178880402874757</v>
+      </c>
+      <c r="F202">
+        <v>0.0034450196382066686</v>
+      </c>
+      <c r="G202">
+        <v>0.23550292694627215</v>
+      </c>
+      <c r="H202">
+        <v>0.039662552115988958</v>
+      </c>
+      <c r="I202">
+        <v>0.53234974415655589</v>
+      </c>
+      <c r="J202">
+        <v>8</v>
+      </c>
+      <c r="K202">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B203">
+        <v>0.0031382498393542836</v>
+      </c>
+      <c r="C203">
+        <v>0.00065440669797076523</v>
+      </c>
+      <c r="D203">
+        <v>0.020398174613581954</v>
+      </c>
+      <c r="E203">
+        <v>0.077454924766412109</v>
+      </c>
+      <c r="F203">
+        <v>0.00062129529518146272</v>
+      </c>
+      <c r="G203">
+        <v>0.20270183567929134</v>
+      </c>
+      <c r="H203">
+        <v>0.021659949288277341</v>
+      </c>
+      <c r="I203">
+        <v>0.6733711638199309</v>
+      </c>
+      <c r="J203">
+        <v>8</v>
+      </c>
+      <c r="K203">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="9" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B204">
+        <v>0.0062352373617941799</v>
+      </c>
+      <c r="C204">
+        <v>4.3671339817234282e-07</v>
+      </c>
+      <c r="D204">
+        <v>0.010897454789941969</v>
+      </c>
+      <c r="E204">
+        <v>0.089651203619388983</v>
+      </c>
+      <c r="F204">
+        <v>0.00033544833621802864</v>
+      </c>
+      <c r="G204">
+        <v>0.12387027211938603</v>
+      </c>
+      <c r="H204">
+        <v>0.47018842715453407</v>
+      </c>
+      <c r="I204">
+        <v>0.29882151990533862</v>
+      </c>
+      <c r="J204">
+        <v>7</v>
+      </c>
+      <c r="K204">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B205">
+        <v>0.0076653961176378089</v>
+      </c>
+      <c r="C205">
+        <v>1.8533949317615969e-05</v>
+      </c>
+      <c r="D205">
+        <v>0.017753673159608834</v>
+      </c>
+      <c r="E205">
+        <v>0.02884631360616749</v>
+      </c>
+      <c r="F205">
+        <v>0.0060526627282559628</v>
+      </c>
+      <c r="G205">
+        <v>0.14011791481709462</v>
+      </c>
+      <c r="H205">
+        <v>0.44914919430998679</v>
+      </c>
+      <c r="I205">
+        <v>0.35039631131193083</v>
+      </c>
+      <c r="J205">
+        <v>7</v>
+      </c>
+      <c r="K205">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="9" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B206">
+        <v>0.016810523361019118</v>
+      </c>
+      <c r="C206">
+        <v>3.0479285521944054e-06</v>
+      </c>
+      <c r="D206">
+        <v>0.015380126985691321</v>
+      </c>
+      <c r="E206">
+        <v>0.036078485936913839</v>
+      </c>
+      <c r="F206">
+        <v>0.022156895424830028</v>
+      </c>
+      <c r="G206">
+        <v>0.14838462065057462</v>
+      </c>
+      <c r="H206">
+        <v>0.16347132971405604</v>
+      </c>
+      <c r="I206">
+        <v>0.59771496999836282</v>
+      </c>
+      <c r="J206">
+        <v>8</v>
+      </c>
+      <c r="K206">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B207">
+        <v>0.0016476455569680686</v>
+      </c>
+      <c r="C207">
+        <v>1.6972556711703297e-07</v>
+      </c>
+      <c r="D207">
+        <v>0.028089308536933432</v>
+      </c>
+      <c r="E207">
+        <v>0.032643110019203045</v>
+      </c>
+      <c r="F207">
+        <v>0.00040712745007594225</v>
+      </c>
+      <c r="G207">
+        <v>0.14585372200399571</v>
+      </c>
+      <c r="H207">
+        <v>0.40162450926580145</v>
+      </c>
+      <c r="I207">
+        <v>0.38973440744145521</v>
+      </c>
+      <c r="J207">
+        <v>7</v>
+      </c>
+      <c r="K207">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="9" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B208">
+        <v>0.0063501823233554416</v>
+      </c>
+      <c r="C208">
+        <v>0.14759121528167182</v>
+      </c>
+      <c r="D208">
+        <v>0.030837163788301612</v>
+      </c>
+      <c r="E208">
+        <v>0.054848208090393404</v>
+      </c>
+      <c r="F208">
+        <v>0.0029660576279164964</v>
+      </c>
+      <c r="G208">
+        <v>0.25397059861803079</v>
+      </c>
+      <c r="H208">
+        <v>0.053229875215135163</v>
+      </c>
+      <c r="I208">
+        <v>0.45020669905519523</v>
+      </c>
+      <c r="J208">
+        <v>8</v>
+      </c>
+      <c r="K208">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="9" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B209">
+        <v>0.089803321499793809</v>
+      </c>
+      <c r="C209">
+        <v>4.9174050439012491e-07</v>
+      </c>
+      <c r="D209">
+        <v>0.072326413530049288</v>
+      </c>
+      <c r="E209">
+        <v>0.027528108621917867</v>
+      </c>
+      <c r="F209">
+        <v>0.00065801953305481007</v>
+      </c>
+      <c r="G209">
+        <v>0.18347757466811784</v>
+      </c>
+      <c r="H209">
+        <v>0.26345686712667626</v>
+      </c>
+      <c r="I209">
+        <v>0.36274920327988575</v>
+      </c>
+      <c r="J209">
+        <v>8</v>
+      </c>
+      <c r="K209">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="9" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B210">
+        <v>0.00081424730078558832</v>
+      </c>
+      <c r="C210">
+        <v>0.0013636970552349248</v>
+      </c>
+      <c r="D210">
+        <v>0.018577979964579914</v>
+      </c>
+      <c r="E210">
+        <v>0.052029497251448974</v>
+      </c>
+      <c r="F210">
+        <v>0.0036917902903199048</v>
+      </c>
+      <c r="G210">
+        <v>0.12850978849699959</v>
+      </c>
+      <c r="H210">
+        <v>0.010177015130092356</v>
+      </c>
+      <c r="I210">
+        <v>0.78483598451053871</v>
+      </c>
+      <c r="J210">
+        <v>8</v>
+      </c>
+      <c r="K210">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="9" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B211">
+        <v>0.00091602679606931367</v>
+      </c>
+      <c r="C211">
+        <v>8.9260057843279478e-05</v>
+      </c>
+      <c r="D211">
+        <v>0.031797488995050804</v>
+      </c>
+      <c r="E211">
+        <v>0.060214279307443275</v>
+      </c>
+      <c r="F211">
+        <v>0.027380133268300431</v>
+      </c>
+      <c r="G211">
+        <v>0.18197907567895241</v>
+      </c>
+      <c r="H211">
+        <v>0.038241843418069937</v>
+      </c>
+      <c r="I211">
+        <v>0.65938189247827061</v>
+      </c>
+      <c r="J211">
+        <v>8</v>
+      </c>
+      <c r="K211">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B212">
+        <v>0.002537237144298874</v>
+      </c>
+      <c r="C212">
+        <v>0.0058143258647277906</v>
+      </c>
+      <c r="D212">
+        <v>0.03080947093476703</v>
+      </c>
+      <c r="E212">
+        <v>0.1224518323230781</v>
+      </c>
+      <c r="F212">
+        <v>0.013528897518823709</v>
+      </c>
+      <c r="G212">
+        <v>0.18008759255889326</v>
+      </c>
+      <c r="H212">
+        <v>0.022203763417351342</v>
+      </c>
+      <c r="I212">
+        <v>0.62256688023805995</v>
+      </c>
+      <c r="J212">
+        <v>8</v>
+      </c>
+      <c r="K212">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="9" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B213">
+        <v>0.0076411796314665228</v>
+      </c>
+      <c r="C213">
+        <v>0.053621721159559238</v>
+      </c>
+      <c r="D213">
+        <v>0.0050335441036260462</v>
+      </c>
+      <c r="E213">
+        <v>0.20386041661157167</v>
+      </c>
+      <c r="F213">
+        <v>0.00066760608852315772</v>
+      </c>
+      <c r="G213">
+        <v>0.22361395813244042</v>
+      </c>
+      <c r="H213">
+        <v>0.062547828856426874</v>
+      </c>
+      <c r="I213">
+        <v>0.443013745416386</v>
+      </c>
+      <c r="J213">
+        <v>8</v>
+      </c>
+      <c r="K213">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="9" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B214">
+        <v>0.0046256977124660929</v>
+      </c>
+      <c r="C214">
+        <v>0.00012758329177653039</v>
+      </c>
+      <c r="D214">
+        <v>0.074692329627200266</v>
+      </c>
+      <c r="E214">
+        <v>0.042170912588702501</v>
+      </c>
+      <c r="F214">
+        <v>0.033266488356104969</v>
+      </c>
+      <c r="G214">
+        <v>0.2935668941215685</v>
+      </c>
+      <c r="H214">
+        <v>0.12219736865819518</v>
+      </c>
+      <c r="I214">
+        <v>0.42935272564398586</v>
+      </c>
+      <c r="J214">
+        <v>8</v>
+      </c>
+      <c r="K214">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="9" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B215">
+        <v>0.013217618100826056</v>
+      </c>
+      <c r="C215">
+        <v>0.0077527200742939098</v>
+      </c>
+      <c r="D215">
+        <v>0.058971183362946634</v>
+      </c>
+      <c r="E215">
+        <v>0.13636595653089995</v>
+      </c>
+      <c r="F215">
+        <v>0.0064029005234008994</v>
+      </c>
+      <c r="G215">
+        <v>0.25434961154799957</v>
+      </c>
+      <c r="H215">
+        <v>0.097045796210288318</v>
+      </c>
+      <c r="I215">
+        <v>0.4258942136493446</v>
+      </c>
+      <c r="J215">
+        <v>8</v>
+      </c>
+      <c r="K215">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="9" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B216">
+        <v>0.00094953697079001539</v>
+      </c>
+      <c r="C216">
+        <v>0.0012452814871319719</v>
+      </c>
+      <c r="D216">
+        <v>0.063261442524376918</v>
+      </c>
+      <c r="E216">
+        <v>0.066536540561959664</v>
+      </c>
+      <c r="F216">
+        <v>0.010460394647982305</v>
+      </c>
+      <c r="G216">
+        <v>0.2481793240190035</v>
+      </c>
+      <c r="H216">
+        <v>0.080413679074123182</v>
+      </c>
+      <c r="I216">
+        <v>0.52895380071463249</v>
+      </c>
+      <c r="J216">
+        <v>8</v>
+      </c>
+      <c r="K216">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B217">
+        <v>0.0032242298497616464</v>
+      </c>
+      <c r="C217">
+        <v>0.00016730188790811277</v>
+      </c>
+      <c r="D217">
+        <v>0.019579592634296893</v>
+      </c>
+      <c r="E217">
+        <v>0.044370758217642643</v>
+      </c>
+      <c r="F217">
+        <v>0.027206159312455638</v>
+      </c>
+      <c r="G217">
+        <v>0.21971983131658882</v>
+      </c>
+      <c r="H217">
+        <v>0.05692616289236542</v>
+      </c>
+      <c r="I217">
+        <v>0.6288059638889808</v>
+      </c>
+      <c r="J217">
+        <v>8</v>
+      </c>
+      <c r="K217">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="9" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B218">
+        <v>0.025880501554860401</v>
+      </c>
+      <c r="C218">
+        <v>0.042664625626041813</v>
+      </c>
+      <c r="D218">
+        <v>0.050058969803709448</v>
+      </c>
+      <c r="E218">
+        <v>0.071261184018498833</v>
+      </c>
+      <c r="F218">
+        <v>0.002283083110984708</v>
+      </c>
+      <c r="G218">
+        <v>0.24014759539750224</v>
+      </c>
+      <c r="H218">
+        <v>0.089130904487419879</v>
+      </c>
+      <c r="I218">
+        <v>0.47857313600098267</v>
+      </c>
+      <c r="J218">
+        <v>8</v>
+      </c>
+      <c r="K218">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B219">
+        <v>0.0016212902020437217</v>
+      </c>
+      <c r="C219">
+        <v>0.00010269091880959382</v>
+      </c>
+      <c r="D219">
+        <v>0.0061207548611207016</v>
+      </c>
+      <c r="E219">
+        <v>0.077847745144665415</v>
+      </c>
+      <c r="F219">
+        <v>0.0078411701748431744</v>
+      </c>
+      <c r="G219">
+        <v>0.26027596843600215</v>
+      </c>
+      <c r="H219">
+        <v>0.026993068251120786</v>
+      </c>
+      <c r="I219">
+        <v>0.61919731201139439</v>
+      </c>
+      <c r="J219">
+        <v>8</v>
+      </c>
+      <c r="K219">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B220">
+        <v>0.0047580009727411846</v>
+      </c>
+      <c r="C220">
+        <v>0.00032924698387080216</v>
+      </c>
+      <c r="D220">
+        <v>0.010501699685604571</v>
+      </c>
+      <c r="E220">
+        <v>0.15021445635123193</v>
+      </c>
+      <c r="F220">
+        <v>0.0050026197973202981</v>
+      </c>
+      <c r="G220">
+        <v>0.16619535549728645</v>
+      </c>
+      <c r="H220">
+        <v>0.25642273724490311</v>
+      </c>
+      <c r="I220">
+        <v>0.4065758834670416</v>
+      </c>
+      <c r="J220">
+        <v>8</v>
+      </c>
+      <c r="K220">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B221">
+        <v>0.0026403239363760561</v>
+      </c>
+      <c r="C221">
+        <v>3.5589779042995947e-05</v>
+      </c>
+      <c r="D221">
+        <v>0.014999956653693566</v>
+      </c>
+      <c r="E221">
+        <v>0.028888032694321122</v>
+      </c>
+      <c r="F221">
+        <v>0.028895294285855393</v>
+      </c>
+      <c r="G221">
+        <v>0.43953110109552057</v>
+      </c>
+      <c r="H221">
+        <v>0.12695886167785894</v>
+      </c>
+      <c r="I221">
+        <v>0.35805083987733133</v>
+      </c>
+      <c r="J221">
+        <v>6</v>
+      </c>
+      <c r="K221">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B222">
+        <v>0.00092823777714087698</v>
+      </c>
+      <c r="C222">
+        <v>2.175572546167248e-05</v>
+      </c>
+      <c r="D222">
+        <v>0.015893664994524676</v>
+      </c>
+      <c r="E222">
+        <v>0.13785685641531847</v>
+      </c>
+      <c r="F222">
+        <v>0.0031531236371642028</v>
+      </c>
+      <c r="G222">
+        <v>0.17224719682575984</v>
+      </c>
+      <c r="H222">
+        <v>0.050799784432258653</v>
+      </c>
+      <c r="I222">
+        <v>0.61909938019237165</v>
+      </c>
+      <c r="J222">
+        <v>8</v>
+      </c>
+      <c r="K222">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B223">
+        <v>0.040482703413903476</v>
+      </c>
+      <c r="C223">
+        <v>0.00043724151106315718</v>
+      </c>
+      <c r="D223">
+        <v>0.027667085754675878</v>
+      </c>
+      <c r="E223">
+        <v>0.061080674339418807</v>
+      </c>
+      <c r="F223">
+        <v>0.0067499454890138331</v>
+      </c>
+      <c r="G223">
+        <v>0.22576971185802155</v>
+      </c>
+      <c r="H223">
+        <v>0.2581474711541405</v>
+      </c>
+      <c r="I223">
+        <v>0.37966516647976278</v>
+      </c>
+      <c r="J223">
+        <v>8</v>
+      </c>
+      <c r="K223">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B224">
+        <v>0.0057698237242657978</v>
+      </c>
+      <c r="C224">
+        <v>6.380438598959688e-05</v>
+      </c>
+      <c r="D224">
+        <v>0.0072665218647607523</v>
+      </c>
+      <c r="E224">
+        <v>0.14809063519368304</v>
+      </c>
+      <c r="F224">
+        <v>0.0034199474112845524</v>
+      </c>
+      <c r="G224">
+        <v>0.21002813703638368</v>
+      </c>
+      <c r="H224">
+        <v>0.20666622693460993</v>
+      </c>
+      <c r="I224">
+        <v>0.41869490344902255</v>
+      </c>
+      <c r="J224">
+        <v>8</v>
+      </c>
+      <c r="K224">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B225">
+        <v>0.0080703406404531875</v>
+      </c>
+      <c r="C225">
+        <v>6.4048847289498065e-05</v>
+      </c>
+      <c r="D225">
+        <v>0.014615287376593658</v>
+      </c>
+      <c r="E225">
+        <v>0.0603088445400237</v>
+      </c>
+      <c r="F225">
+        <v>0.0047212604618147823</v>
+      </c>
+      <c r="G225">
+        <v>0.29543771878997477</v>
+      </c>
+      <c r="H225">
+        <v>0.14258748295746593</v>
+      </c>
+      <c r="I225">
+        <v>0.47419501638638434</v>
+      </c>
+      <c r="J225">
+        <v>8</v>
+      </c>
+      <c r="K225">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B226">
+        <v>0.022758690494574144</v>
+      </c>
+      <c r="C226">
+        <v>0.00013382444397195265</v>
+      </c>
+      <c r="D226">
+        <v>0.043450696604175908</v>
+      </c>
+      <c r="E226">
+        <v>0.034190635456587661</v>
+      </c>
+      <c r="F226">
+        <v>0.021516197235957404</v>
+      </c>
+      <c r="G226">
+        <v>0.23765889904741572</v>
+      </c>
+      <c r="H226">
+        <v>0.075601862011073884</v>
+      </c>
+      <c r="I226">
+        <v>0.56468919470624324</v>
+      </c>
+      <c r="J226">
+        <v>8</v>
+      </c>
+      <c r="K226">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B227">
+        <v>0.027091905125820819</v>
+      </c>
+      <c r="C227">
+        <v>0.00018422156901551178</v>
+      </c>
+      <c r="D227">
+        <v>0.017877616652497586</v>
+      </c>
+      <c r="E227">
+        <v>0.06990291525914788</v>
+      </c>
+      <c r="F227">
+        <v>0.010488948962808204</v>
+      </c>
+      <c r="G227">
+        <v>0.17550849797830345</v>
+      </c>
+      <c r="H227">
+        <v>0.21258024768117886</v>
+      </c>
+      <c r="I227">
+        <v>0.48636564677122768</v>
+      </c>
+      <c r="J227">
+        <v>8</v>
+      </c>
+      <c r="K227">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B228">
+        <v>0.049619790972901208</v>
+      </c>
+      <c r="C228">
+        <v>5.9200635172239507e-05</v>
+      </c>
+      <c r="D228">
+        <v>0.012502084087050079</v>
+      </c>
+      <c r="E228">
+        <v>0.044275085480453974</v>
+      </c>
+      <c r="F228">
+        <v>0.013445502453327512</v>
+      </c>
+      <c r="G228">
+        <v>0.40506975689142044</v>
+      </c>
+      <c r="H228">
+        <v>0.11156936723937473</v>
+      </c>
+      <c r="I228">
+        <v>0.3634592122402997</v>
+      </c>
+      <c r="J228">
+        <v>6</v>
+      </c>
+      <c r="K228">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B229">
+        <v>0.049250511617971511</v>
+      </c>
+      <c r="C229">
+        <v>4.5651715467865936e-05</v>
+      </c>
+      <c r="D229">
+        <v>0.0364183279605046</v>
+      </c>
+      <c r="E229">
+        <v>0.037227309688619696</v>
+      </c>
+      <c r="F229">
+        <v>0.0097215583891722725</v>
+      </c>
+      <c r="G229">
+        <v>0.17295707654161596</v>
+      </c>
+      <c r="H229">
+        <v>0.4033668083996938</v>
+      </c>
+      <c r="I229">
+        <v>0.29101275568695434</v>
+      </c>
+      <c r="J229">
+        <v>7</v>
+      </c>
+      <c r="K229">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/outputs-HGR-r202/train-g__Eubacterium_G_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-g__Eubacterium_G_split_pruned.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="quadratic-svm-score5" sheetId="2" r:id="rId3"/>
+    <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="467">
   <si>
     <t>Row</t>
   </si>
@@ -731,6 +732,690 @@
   </si>
   <si>
     <t>actual</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_90.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_91.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_94.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_36_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_81.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_106.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_114.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_116.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_120.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_126.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_127.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_134.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_136.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_137.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_145.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_148.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_151.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_155.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_163.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_165.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_167.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_169.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_171.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_176.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_179.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_185.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_190.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_192.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_197.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_210.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_81.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_90.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_96.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_103.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_104.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_109.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_114.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_119.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_130.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_134.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_135.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_139.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_142.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_145.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_150.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_155.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_158.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_159.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_164.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_172.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_179.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_182.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_184.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_190.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_191.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_210.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_211.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_212.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_221.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_224.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_226.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_232.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_236.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_89.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_91.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_96.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_97.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_98.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000153885_17.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000153885_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_108.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_120.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_124.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_132.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_142.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_145.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_153.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_155.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_157.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_159.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_166.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_169.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_171.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_174.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_181.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_78.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_88.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_90.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_95.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_96.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_102.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_109.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_111.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_112.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_114.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_115.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_125.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_126.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_127.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_131.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_78.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_88.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_94.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_95.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_97.fasta</t>
   </si>
 </sst>
 </file>
@@ -751,7 +1436,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -761,14 +1446,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8811,4 +9500,8041 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K229"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="true"/>
+    <col min="2" max="2" width="28.85546875" customWidth="true"/>
+    <col min="3" max="3" width="28.85546875" customWidth="true"/>
+    <col min="4" max="4" width="28.85546875" customWidth="true"/>
+    <col min="5" max="5" width="28.85546875" customWidth="true"/>
+    <col min="6" max="6" width="28.85546875" customWidth="true"/>
+    <col min="7" max="7" width="28.85546875" customWidth="true"/>
+    <col min="8" max="8" width="28.85546875" customWidth="true"/>
+    <col min="9" max="9" width="28" customWidth="true"/>
+    <col min="10" max="10" width="10.28515625" customWidth="true"/>
+    <col min="11" max="11" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2">
+        <v>0.43536172277915941</v>
+      </c>
+      <c r="C2">
+        <v>0.0050639603331193257</v>
+      </c>
+      <c r="D2">
+        <v>0.015771036455404893</v>
+      </c>
+      <c r="E2">
+        <v>0.18118444138822407</v>
+      </c>
+      <c r="F2">
+        <v>0.0085092440207774987</v>
+      </c>
+      <c r="G2">
+        <v>0.13910783948524211</v>
+      </c>
+      <c r="H2">
+        <v>0.02982529086867897</v>
+      </c>
+      <c r="I2">
+        <v>0.18517646466939361</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3">
+        <v>0.80386096747907088</v>
+      </c>
+      <c r="C3">
+        <v>0.00038444782102796979</v>
+      </c>
+      <c r="D3">
+        <v>0.010149044337411111</v>
+      </c>
+      <c r="E3">
+        <v>0.044259082602666373</v>
+      </c>
+      <c r="F3">
+        <v>0.0093936881846953847</v>
+      </c>
+      <c r="G3">
+        <v>0.057049835580259292</v>
+      </c>
+      <c r="H3">
+        <v>0.022691690150855797</v>
+      </c>
+      <c r="I3">
+        <v>0.052211243844013412</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4">
+        <v>0.8556763533102949</v>
+      </c>
+      <c r="C4">
+        <v>0.00049279157430653583</v>
+      </c>
+      <c r="D4">
+        <v>0.0029642670242098477</v>
+      </c>
+      <c r="E4">
+        <v>0.030364637650309383</v>
+      </c>
+      <c r="F4">
+        <v>0.00063802351001583017</v>
+      </c>
+      <c r="G4">
+        <v>0.048612452214809462</v>
+      </c>
+      <c r="H4">
+        <v>0.013504083674756912</v>
+      </c>
+      <c r="I4">
+        <v>0.047747391041296973</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5">
+        <v>0.83264893056676537</v>
+      </c>
+      <c r="C5">
+        <v>7.7507726144097531e-05</v>
+      </c>
+      <c r="D5">
+        <v>0.0034184607060303166</v>
+      </c>
+      <c r="E5">
+        <v>0.028314605842003539</v>
+      </c>
+      <c r="F5">
+        <v>0.0007302135357344303</v>
+      </c>
+      <c r="G5">
+        <v>0.043035976350757073</v>
+      </c>
+      <c r="H5">
+        <v>0.032225418729737249</v>
+      </c>
+      <c r="I5">
+        <v>0.059548886542827778</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6">
+        <v>0.80559094213607008</v>
+      </c>
+      <c r="C6">
+        <v>0.0014162102929437372</v>
+      </c>
+      <c r="D6">
+        <v>0.0043348471329893246</v>
+      </c>
+      <c r="E6">
+        <v>0.028379663494449758</v>
+      </c>
+      <c r="F6">
+        <v>0.0019611757839675796</v>
+      </c>
+      <c r="G6">
+        <v>0.067781981718514961</v>
+      </c>
+      <c r="H6">
+        <v>0.029991781334725336</v>
+      </c>
+      <c r="I6">
+        <v>0.060543398106339186</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7">
+        <v>0.82384440677027504</v>
+      </c>
+      <c r="C7">
+        <v>0.00030166459678137344</v>
+      </c>
+      <c r="D7">
+        <v>0.0047877913180947064</v>
+      </c>
+      <c r="E7">
+        <v>0.035287721454668755</v>
+      </c>
+      <c r="F7">
+        <v>0.0024528844652962601</v>
+      </c>
+      <c r="G7">
+        <v>0.061276340611242583</v>
+      </c>
+      <c r="H7">
+        <v>0.026849830077672283</v>
+      </c>
+      <c r="I7">
+        <v>0.045199360705969013</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8">
+        <v>0.82960131213043709</v>
+      </c>
+      <c r="C8">
+        <v>0.000105002857551018</v>
+      </c>
+      <c r="D8">
+        <v>0.0040142187661161496</v>
+      </c>
+      <c r="E8">
+        <v>0.012263748244059704</v>
+      </c>
+      <c r="F8">
+        <v>0.00485148627334987</v>
+      </c>
+      <c r="G8">
+        <v>0.055116291462584635</v>
+      </c>
+      <c r="H8">
+        <v>0.034445404084788037</v>
+      </c>
+      <c r="I8">
+        <v>0.059602536181113677</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9">
+        <v>0.64390967579626956</v>
+      </c>
+      <c r="C9">
+        <v>0.0040431831135146713</v>
+      </c>
+      <c r="D9">
+        <v>0.0067481437308245717</v>
+      </c>
+      <c r="E9">
+        <v>0.033525922478202727</v>
+      </c>
+      <c r="F9">
+        <v>0.0043422881184407222</v>
+      </c>
+      <c r="G9">
+        <v>0.10748617777026735</v>
+      </c>
+      <c r="H9">
+        <v>0.021090661318887292</v>
+      </c>
+      <c r="I9">
+        <v>0.17885394767359311</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10">
+        <v>0.56905834004846134</v>
+      </c>
+      <c r="C10">
+        <v>0.0018441396009895475</v>
+      </c>
+      <c r="D10">
+        <v>0.020570953612950051</v>
+      </c>
+      <c r="E10">
+        <v>0.063198908738126641</v>
+      </c>
+      <c r="F10">
+        <v>0.034932394054102402</v>
+      </c>
+      <c r="G10">
+        <v>0.10722674142804188</v>
+      </c>
+      <c r="H10">
+        <v>0.086875549463683019</v>
+      </c>
+      <c r="I10">
+        <v>0.11629297305364517</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11">
+        <v>0.77038612288443375</v>
+      </c>
+      <c r="C11">
+        <v>0.00018851331098438184</v>
+      </c>
+      <c r="D11">
+        <v>0.003903499974536373</v>
+      </c>
+      <c r="E11">
+        <v>0.039379056357738272</v>
+      </c>
+      <c r="F11">
+        <v>0.0032832383521617346</v>
+      </c>
+      <c r="G11">
+        <v>0.053305872311503424</v>
+      </c>
+      <c r="H11">
+        <v>0.033163270978356141</v>
+      </c>
+      <c r="I11">
+        <v>0.096390425830285939</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12">
+        <v>0.87233102779769833</v>
+      </c>
+      <c r="C12">
+        <v>0.00064752909504802759</v>
+      </c>
+      <c r="D12">
+        <v>0.0033433991686436866</v>
+      </c>
+      <c r="E12">
+        <v>0.013766026148874882</v>
+      </c>
+      <c r="F12">
+        <v>0.00079791864700166101</v>
+      </c>
+      <c r="G12">
+        <v>0.053950729956196798</v>
+      </c>
+      <c r="H12">
+        <v>0.0080207790152403025</v>
+      </c>
+      <c r="I12">
+        <v>0.047142590171296454</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13">
+        <v>0.70246058803767431</v>
+      </c>
+      <c r="C13">
+        <v>0.00082742153586608052</v>
+      </c>
+      <c r="D13">
+        <v>0.0067672120309522129</v>
+      </c>
+      <c r="E13">
+        <v>0.024922444043913181</v>
+      </c>
+      <c r="F13">
+        <v>0.0095376758782784385</v>
+      </c>
+      <c r="G13">
+        <v>0.071684660350232035</v>
+      </c>
+      <c r="H13">
+        <v>0.072975213651935503</v>
+      </c>
+      <c r="I13">
+        <v>0.11082478447114821</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14">
+        <v>0.42583947317333726</v>
+      </c>
+      <c r="C14">
+        <v>0.00076182228419661839</v>
+      </c>
+      <c r="D14">
+        <v>0.02564110747307068</v>
+      </c>
+      <c r="E14">
+        <v>0.035579899923142838</v>
+      </c>
+      <c r="F14">
+        <v>0.0097200696182112769</v>
+      </c>
+      <c r="G14">
+        <v>0.13458322343842385</v>
+      </c>
+      <c r="H14">
+        <v>0.11833873234149267</v>
+      </c>
+      <c r="I14">
+        <v>0.24953567174812494</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15">
+        <v>0.83666869710406289</v>
+      </c>
+      <c r="C15">
+        <v>0.0036710533046737065</v>
+      </c>
+      <c r="D15">
+        <v>0.0029148625382130716</v>
+      </c>
+      <c r="E15">
+        <v>0.0095120655959902833</v>
+      </c>
+      <c r="F15">
+        <v>0.00052228626056781999</v>
+      </c>
+      <c r="G15">
+        <v>0.042485268184719545</v>
+      </c>
+      <c r="H15">
+        <v>0.014042028996481609</v>
+      </c>
+      <c r="I15">
+        <v>0.090183738015291143</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16">
+        <v>0.63341545026873658</v>
+      </c>
+      <c r="C16">
+        <v>3.9066073826659067e-06</v>
+      </c>
+      <c r="D16">
+        <v>0.011844147637697307</v>
+      </c>
+      <c r="E16">
+        <v>0.014653744023036503</v>
+      </c>
+      <c r="F16">
+        <v>0.014372767942861539</v>
+      </c>
+      <c r="G16">
+        <v>0.1209270805272343</v>
+      </c>
+      <c r="H16">
+        <v>0.089045305228398638</v>
+      </c>
+      <c r="I16">
+        <v>0.11573759776465241</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17">
+        <v>0.79578778789268478</v>
+      </c>
+      <c r="C17">
+        <v>1.1378773242414792e-05</v>
+      </c>
+      <c r="D17">
+        <v>0.0026083336013929021</v>
+      </c>
+      <c r="E17">
+        <v>0.054724642477838981</v>
+      </c>
+      <c r="F17">
+        <v>0.0018828104645676263</v>
+      </c>
+      <c r="G17">
+        <v>0.059368922239036559</v>
+      </c>
+      <c r="H17">
+        <v>0.011053373290407667</v>
+      </c>
+      <c r="I17">
+        <v>0.074562751260829008</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18">
+        <v>0.38623823578659672</v>
+      </c>
+      <c r="C18">
+        <v>1.5507361259036456e-06</v>
+      </c>
+      <c r="D18">
+        <v>0.018078304728666814</v>
+      </c>
+      <c r="E18">
+        <v>0.0088074345636240305</v>
+      </c>
+      <c r="F18">
+        <v>0.055407545906543496</v>
+      </c>
+      <c r="G18">
+        <v>0.090148850621600024</v>
+      </c>
+      <c r="H18">
+        <v>0.060677394043052953</v>
+      </c>
+      <c r="I18">
+        <v>0.38064068361379005</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19">
+        <v>0.040240953356423456</v>
+      </c>
+      <c r="C19">
+        <v>1.5650405556464426e-05</v>
+      </c>
+      <c r="D19">
+        <v>0.10522431839072278</v>
+      </c>
+      <c r="E19">
+        <v>0.031194905734960147</v>
+      </c>
+      <c r="F19">
+        <v>0.07173678074556665</v>
+      </c>
+      <c r="G19">
+        <v>0.28701942575193867</v>
+      </c>
+      <c r="H19">
+        <v>0.11125374117599818</v>
+      </c>
+      <c r="I19">
+        <v>0.35331422443883365</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20">
+        <v>0.013431491776082244</v>
+      </c>
+      <c r="C20">
+        <v>0.00016862276140564792</v>
+      </c>
+      <c r="D20">
+        <v>0.019400052054001346</v>
+      </c>
+      <c r="E20">
+        <v>0.18079063745628926</v>
+      </c>
+      <c r="F20">
+        <v>0.15989909517206563</v>
+      </c>
+      <c r="G20">
+        <v>0.21459430448920258</v>
+      </c>
+      <c r="H20">
+        <v>0.10276987433106034</v>
+      </c>
+      <c r="I20">
+        <v>0.30894592195989312</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21">
+        <v>0.0017550495227283273</v>
+      </c>
+      <c r="C21">
+        <v>4.9994471588826929e-10</v>
+      </c>
+      <c r="D21">
+        <v>0.063198866823344371</v>
+      </c>
+      <c r="E21">
+        <v>0.042646525509316163</v>
+      </c>
+      <c r="F21">
+        <v>0.053421585683965392</v>
+      </c>
+      <c r="G21">
+        <v>0.22937761419195118</v>
+      </c>
+      <c r="H21">
+        <v>0.20748636939192633</v>
+      </c>
+      <c r="I21">
+        <v>0.40211398837682344</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22">
+        <v>0.0025511804855429792</v>
+      </c>
+      <c r="C22">
+        <v>0.78279359206504651</v>
+      </c>
+      <c r="D22">
+        <v>0.022244865544909401</v>
+      </c>
+      <c r="E22">
+        <v>0.024645999687044767</v>
+      </c>
+      <c r="F22">
+        <v>0.012748989546015234</v>
+      </c>
+      <c r="G22">
+        <v>0.040328867318251783</v>
+      </c>
+      <c r="H22">
+        <v>0.0037768160799515481</v>
+      </c>
+      <c r="I22">
+        <v>0.11090968927323773</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B23">
+        <v>0.00012750219797919954</v>
+      </c>
+      <c r="C23">
+        <v>0.0020780119527568502</v>
+      </c>
+      <c r="D23">
+        <v>0.37348449573050724</v>
+      </c>
+      <c r="E23">
+        <v>0.045032894011281771</v>
+      </c>
+      <c r="F23">
+        <v>0.018111583436369528</v>
+      </c>
+      <c r="G23">
+        <v>0.13338396891048099</v>
+      </c>
+      <c r="H23">
+        <v>0.17271086730890148</v>
+      </c>
+      <c r="I23">
+        <v>0.25507067645172288</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24">
+        <v>0.0012192896407608226</v>
+      </c>
+      <c r="C24">
+        <v>0.00059049298750994152</v>
+      </c>
+      <c r="D24">
+        <v>0.27255246281895951</v>
+      </c>
+      <c r="E24">
+        <v>0.034004111408901201</v>
+      </c>
+      <c r="F24">
+        <v>0.040446746104627493</v>
+      </c>
+      <c r="G24">
+        <v>0.15591978194203432</v>
+      </c>
+      <c r="H24">
+        <v>0.24428520317409189</v>
+      </c>
+      <c r="I24">
+        <v>0.25098191192311475</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25">
+        <v>0.00025312554708676439</v>
+      </c>
+      <c r="C25">
+        <v>0.00016309927934216124</v>
+      </c>
+      <c r="D25">
+        <v>0.32288013428960888</v>
+      </c>
+      <c r="E25">
+        <v>0.13911495921569331</v>
+      </c>
+      <c r="F25">
+        <v>0.0083257067749522816</v>
+      </c>
+      <c r="G25">
+        <v>0.11551338920053841</v>
+      </c>
+      <c r="H25">
+        <v>0.20022468622401174</v>
+      </c>
+      <c r="I25">
+        <v>0.21352489946876654</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26">
+        <v>0.001286952161746928</v>
+      </c>
+      <c r="C26">
+        <v>0.009796094720881934</v>
+      </c>
+      <c r="D26">
+        <v>0.25690656438503157</v>
+      </c>
+      <c r="E26">
+        <v>0.055434309404470139</v>
+      </c>
+      <c r="F26">
+        <v>0.02238979213073344</v>
+      </c>
+      <c r="G26">
+        <v>0.1470822185185483</v>
+      </c>
+      <c r="H26">
+        <v>0.21346482075798739</v>
+      </c>
+      <c r="I26">
+        <v>0.29363924792060037</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27">
+        <v>0.0030003935043945496</v>
+      </c>
+      <c r="C27">
+        <v>0.21914365572087388</v>
+      </c>
+      <c r="D27">
+        <v>0.06227341677414152</v>
+      </c>
+      <c r="E27">
+        <v>0.074207713411541018</v>
+      </c>
+      <c r="F27">
+        <v>0.044813518381078665</v>
+      </c>
+      <c r="G27">
+        <v>0.19684090483311009</v>
+      </c>
+      <c r="H27">
+        <v>0.041434522832530608</v>
+      </c>
+      <c r="I27">
+        <v>0.35828587454232957</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B28">
+        <v>0.040364728399986692</v>
+      </c>
+      <c r="C28">
+        <v>8.8985259425390366e-05</v>
+      </c>
+      <c r="D28">
+        <v>0.051629199136899902</v>
+      </c>
+      <c r="E28">
+        <v>0.048811673721236737</v>
+      </c>
+      <c r="F28">
+        <v>0.052143824491929204</v>
+      </c>
+      <c r="G28">
+        <v>0.15431265267501401</v>
+      </c>
+      <c r="H28">
+        <v>0.4889349238753451</v>
+      </c>
+      <c r="I28">
+        <v>0.16371401244016298</v>
+      </c>
+      <c r="J28">
+        <v>7</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B29">
+        <v>0.020241403540619308</v>
+      </c>
+      <c r="C29">
+        <v>6.3459397356329171e-07</v>
+      </c>
+      <c r="D29">
+        <v>0.010275235563778707</v>
+      </c>
+      <c r="E29">
+        <v>0.017960708629298407</v>
+      </c>
+      <c r="F29">
+        <v>0.0067333295112875797</v>
+      </c>
+      <c r="G29">
+        <v>0.34845058651588823</v>
+      </c>
+      <c r="H29">
+        <v>0.36336701479713412</v>
+      </c>
+      <c r="I29">
+        <v>0.23297108684801998</v>
+      </c>
+      <c r="J29">
+        <v>7</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30">
+        <v>0.0090732604607481667</v>
+      </c>
+      <c r="C30">
+        <v>3.900090972592755e-05</v>
+      </c>
+      <c r="D30">
+        <v>0.031494447582076812</v>
+      </c>
+      <c r="E30">
+        <v>0.2071162796741611</v>
+      </c>
+      <c r="F30">
+        <v>0.094545294299848523</v>
+      </c>
+      <c r="G30">
+        <v>0.10655757363805793</v>
+      </c>
+      <c r="H30">
+        <v>0.22033486481580408</v>
+      </c>
+      <c r="I30">
+        <v>0.3308392786195774</v>
+      </c>
+      <c r="J30">
+        <v>8</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31">
+        <v>0.02296358142573126</v>
+      </c>
+      <c r="C31">
+        <v>3.6261796147433465e-05</v>
+      </c>
+      <c r="D31">
+        <v>0.026186247553626526</v>
+      </c>
+      <c r="E31">
+        <v>0.065392833435716877</v>
+      </c>
+      <c r="F31">
+        <v>0.044489439471007072</v>
+      </c>
+      <c r="G31">
+        <v>0.15364968008291527</v>
+      </c>
+      <c r="H31">
+        <v>0.46573415841653226</v>
+      </c>
+      <c r="I31">
+        <v>0.2215477978183234</v>
+      </c>
+      <c r="J31">
+        <v>7</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32">
+        <v>0.0022664244279438583</v>
+      </c>
+      <c r="C32">
+        <v>5.5742926439543159e-08</v>
+      </c>
+      <c r="D32">
+        <v>0.022525357224042936</v>
+      </c>
+      <c r="E32">
+        <v>0.0039179489615425037</v>
+      </c>
+      <c r="F32">
+        <v>0.0082261059773755911</v>
+      </c>
+      <c r="G32">
+        <v>0.22613631168755405</v>
+      </c>
+      <c r="H32">
+        <v>0.5508990387719237</v>
+      </c>
+      <c r="I32">
+        <v>0.18602875720669096</v>
+      </c>
+      <c r="J32">
+        <v>7</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33">
+        <v>0.0013244527689312122</v>
+      </c>
+      <c r="C33">
+        <v>0.00042965440641411999</v>
+      </c>
+      <c r="D33">
+        <v>0.41156305609970495</v>
+      </c>
+      <c r="E33">
+        <v>0.037480696665100011</v>
+      </c>
+      <c r="F33">
+        <v>0.024407304552550517</v>
+      </c>
+      <c r="G33">
+        <v>0.13266731884435642</v>
+      </c>
+      <c r="H33">
+        <v>0.13456171428587307</v>
+      </c>
+      <c r="I33">
+        <v>0.25756580237706961</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B34">
+        <v>0.023185779659724955</v>
+      </c>
+      <c r="C34">
+        <v>0.0093484738236356297</v>
+      </c>
+      <c r="D34">
+        <v>0.073864340727953753</v>
+      </c>
+      <c r="E34">
+        <v>0.44493787226147585</v>
+      </c>
+      <c r="F34">
+        <v>0.0094718051464092994</v>
+      </c>
+      <c r="G34">
+        <v>0.13190673613346751</v>
+      </c>
+      <c r="H34">
+        <v>0.021459538332271769</v>
+      </c>
+      <c r="I34">
+        <v>0.28582545391506126</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35">
+        <v>0.015212108735657925</v>
+      </c>
+      <c r="C35">
+        <v>0.05884942834064745</v>
+      </c>
+      <c r="D35">
+        <v>0.040808941282813441</v>
+      </c>
+      <c r="E35">
+        <v>0.1886897014244657</v>
+      </c>
+      <c r="F35">
+        <v>0.063735539139352509</v>
+      </c>
+      <c r="G35">
+        <v>0.1714342703238948</v>
+      </c>
+      <c r="H35">
+        <v>0.058621824809671</v>
+      </c>
+      <c r="I35">
+        <v>0.40264818594349722</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B36">
+        <v>0.069311296947226</v>
+      </c>
+      <c r="C36">
+        <v>0.00029742861165946269</v>
+      </c>
+      <c r="D36">
+        <v>0.055414461523870757</v>
+      </c>
+      <c r="E36">
+        <v>0.34697638393581132</v>
+      </c>
+      <c r="F36">
+        <v>0.026222084844640045</v>
+      </c>
+      <c r="G36">
+        <v>0.18748224443868589</v>
+      </c>
+      <c r="H36">
+        <v>0.11042022120999526</v>
+      </c>
+      <c r="I36">
+        <v>0.20387587848811142</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B37">
+        <v>0.035440192152981817</v>
+      </c>
+      <c r="C37">
+        <v>0.00020071054185174291</v>
+      </c>
+      <c r="D37">
+        <v>0.13728073464701537</v>
+      </c>
+      <c r="E37">
+        <v>0.11488038613030999</v>
+      </c>
+      <c r="F37">
+        <v>0.056356010282545208</v>
+      </c>
+      <c r="G37">
+        <v>0.14930131747290903</v>
+      </c>
+      <c r="H37">
+        <v>0.063343612904278979</v>
+      </c>
+      <c r="I37">
+        <v>0.44319703586810794</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B38">
+        <v>0.012751936515769098</v>
+      </c>
+      <c r="C38">
+        <v>0.0050732700353789146</v>
+      </c>
+      <c r="D38">
+        <v>0.010763382722780468</v>
+      </c>
+      <c r="E38">
+        <v>0.18681572930628926</v>
+      </c>
+      <c r="F38">
+        <v>0.010549371544991816</v>
+      </c>
+      <c r="G38">
+        <v>0.21541933717141457</v>
+      </c>
+      <c r="H38">
+        <v>0.22291246549155874</v>
+      </c>
+      <c r="I38">
+        <v>0.33571450721181706</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B39">
+        <v>0.009929955810176876</v>
+      </c>
+      <c r="C39">
+        <v>0.0010756497632434961</v>
+      </c>
+      <c r="D39">
+        <v>0.039635835282767158</v>
+      </c>
+      <c r="E39">
+        <v>0.066458519579439601</v>
+      </c>
+      <c r="F39">
+        <v>0.010836907145249847</v>
+      </c>
+      <c r="G39">
+        <v>0.12095170957681851</v>
+      </c>
+      <c r="H39">
+        <v>0.41586482923847651</v>
+      </c>
+      <c r="I39">
+        <v>0.33524659360382802</v>
+      </c>
+      <c r="J39">
+        <v>7</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B40">
+        <v>0.0091052752164452223</v>
+      </c>
+      <c r="C40">
+        <v>0.00015072312399421356</v>
+      </c>
+      <c r="D40">
+        <v>0.035796509246628846</v>
+      </c>
+      <c r="E40">
+        <v>0.20852620496470212</v>
+      </c>
+      <c r="F40">
+        <v>0.086828811075397624</v>
+      </c>
+      <c r="G40">
+        <v>0.22306615811959185</v>
+      </c>
+      <c r="H40">
+        <v>0.12860145881467902</v>
+      </c>
+      <c r="I40">
+        <v>0.30792485943856102</v>
+      </c>
+      <c r="J40">
+        <v>8</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B41">
+        <v>0.0010108112362729241</v>
+      </c>
+      <c r="C41">
+        <v>6.7408993464965547e-07</v>
+      </c>
+      <c r="D41">
+        <v>0.0048389265658295424</v>
+      </c>
+      <c r="E41">
+        <v>0.076631064087252593</v>
+      </c>
+      <c r="F41">
+        <v>0.0032960175622193167</v>
+      </c>
+      <c r="G41">
+        <v>0.24970033345478157</v>
+      </c>
+      <c r="H41">
+        <v>0.37307267501237851</v>
+      </c>
+      <c r="I41">
+        <v>0.29144949799133085</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B42">
+        <v>0.18487702677326917</v>
+      </c>
+      <c r="C42">
+        <v>6.1883835765472591e-06</v>
+      </c>
+      <c r="D42">
+        <v>0.024339831813951232</v>
+      </c>
+      <c r="E42">
+        <v>0.050275266964667359</v>
+      </c>
+      <c r="F42">
+        <v>0.028348565896921456</v>
+      </c>
+      <c r="G42">
+        <v>0.26009347216825585</v>
+      </c>
+      <c r="H42">
+        <v>0.21302212227966674</v>
+      </c>
+      <c r="I42">
+        <v>0.23903752571969183</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B43">
+        <v>0.00065242321174437329</v>
+      </c>
+      <c r="C43">
+        <v>7.4627866139670274e-11</v>
+      </c>
+      <c r="D43">
+        <v>0.0031249505703521661</v>
+      </c>
+      <c r="E43">
+        <v>0.030234843351569073</v>
+      </c>
+      <c r="F43">
+        <v>0.0028271317852446047</v>
+      </c>
+      <c r="G43">
+        <v>0.22390581754198652</v>
+      </c>
+      <c r="H43">
+        <v>0.30318468646064795</v>
+      </c>
+      <c r="I43">
+        <v>0.43607014700382735</v>
+      </c>
+      <c r="J43">
+        <v>8</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B44">
+        <v>0.0044579151760749018</v>
+      </c>
+      <c r="C44">
+        <v>5.2124270326189347e-07</v>
+      </c>
+      <c r="D44">
+        <v>0.027208706183424039</v>
+      </c>
+      <c r="E44">
+        <v>0.066195185087815814</v>
+      </c>
+      <c r="F44">
+        <v>0.11337769504056505</v>
+      </c>
+      <c r="G44">
+        <v>0.15935339668463672</v>
+      </c>
+      <c r="H44">
+        <v>0.2943315520926556</v>
+      </c>
+      <c r="I44">
+        <v>0.33507502849212473</v>
+      </c>
+      <c r="J44">
+        <v>8</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B45">
+        <v>0.006807396286235552</v>
+      </c>
+      <c r="C45">
+        <v>1.3655337046939664e-10</v>
+      </c>
+      <c r="D45">
+        <v>0.064504754078983359</v>
+      </c>
+      <c r="E45">
+        <v>0.14906726495293585</v>
+      </c>
+      <c r="F45">
+        <v>0.033329844229943291</v>
+      </c>
+      <c r="G45">
+        <v>0.25380399225914851</v>
+      </c>
+      <c r="H45">
+        <v>0.15178698575276967</v>
+      </c>
+      <c r="I45">
+        <v>0.3406997623034303</v>
+      </c>
+      <c r="J45">
+        <v>8</v>
+      </c>
+      <c r="K45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B46">
+        <v>0.0085381322903581424</v>
+      </c>
+      <c r="C46">
+        <v>5.6657256343678776e-10</v>
+      </c>
+      <c r="D46">
+        <v>0.063961377604840913</v>
+      </c>
+      <c r="E46">
+        <v>0.013809135564728148</v>
+      </c>
+      <c r="F46">
+        <v>0.054042374965424911</v>
+      </c>
+      <c r="G46">
+        <v>0.35177820877959703</v>
+      </c>
+      <c r="H46">
+        <v>0.16088925592152045</v>
+      </c>
+      <c r="I46">
+        <v>0.34698151430695784</v>
+      </c>
+      <c r="J46">
+        <v>6</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B47">
+        <v>1.9655479304288073e-05</v>
+      </c>
+      <c r="C47">
+        <v>7.7062427077551985e-06</v>
+      </c>
+      <c r="D47">
+        <v>0.028801834341296496</v>
+      </c>
+      <c r="E47">
+        <v>0.0057310076267488817</v>
+      </c>
+      <c r="F47">
+        <v>0.78320641474711372</v>
+      </c>
+      <c r="G47">
+        <v>0.06496516677659496</v>
+      </c>
+      <c r="H47">
+        <v>0.01896576339188949</v>
+      </c>
+      <c r="I47">
+        <v>0.098302451394344501</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48">
+        <v>0.00052004299591030135</v>
+      </c>
+      <c r="C48">
+        <v>0.00026470318875538966</v>
+      </c>
+      <c r="D48">
+        <v>0.033914339334179679</v>
+      </c>
+      <c r="E48">
+        <v>0.022173345490455906</v>
+      </c>
+      <c r="F48">
+        <v>0.69858357302545326</v>
+      </c>
+      <c r="G48">
+        <v>0.11808788852134347</v>
+      </c>
+      <c r="H48">
+        <v>0.032308250913264662</v>
+      </c>
+      <c r="I48">
+        <v>0.094147856530637244</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B49">
+        <v>0.00010978134682705438</v>
+      </c>
+      <c r="C49">
+        <v>6.6919914742871592e-06</v>
+      </c>
+      <c r="D49">
+        <v>0.0415065875737088</v>
+      </c>
+      <c r="E49">
+        <v>0.011326159536352609</v>
+      </c>
+      <c r="F49">
+        <v>0.6613491943786528</v>
+      </c>
+      <c r="G49">
+        <v>0.071220882773624802</v>
+      </c>
+      <c r="H49">
+        <v>0.040135240851235474</v>
+      </c>
+      <c r="I49">
+        <v>0.17434546154812408</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B50">
+        <v>0.0051218494650781959</v>
+      </c>
+      <c r="C50">
+        <v>3.3144895779164553e-06</v>
+      </c>
+      <c r="D50">
+        <v>0.013771630088038592</v>
+      </c>
+      <c r="E50">
+        <v>0.012955133464038962</v>
+      </c>
+      <c r="F50">
+        <v>0.72399628547860118</v>
+      </c>
+      <c r="G50">
+        <v>0.07307379078378147</v>
+      </c>
+      <c r="H50">
+        <v>0.055645799928910417</v>
+      </c>
+      <c r="I50">
+        <v>0.11543219630197329</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B51">
+        <v>0.00026153393045831445</v>
+      </c>
+      <c r="C51">
+        <v>9.2519118487243064e-06</v>
+      </c>
+      <c r="D51">
+        <v>0.01156241690613926</v>
+      </c>
+      <c r="E51">
+        <v>0.02084276197040117</v>
+      </c>
+      <c r="F51">
+        <v>0.75763966341417333</v>
+      </c>
+      <c r="G51">
+        <v>0.040691596846899811</v>
+      </c>
+      <c r="H51">
+        <v>0.11236339346467721</v>
+      </c>
+      <c r="I51">
+        <v>0.056629381555402265</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B52">
+        <v>0.00055482157915790647</v>
+      </c>
+      <c r="C52">
+        <v>5.1570747363956567e-06</v>
+      </c>
+      <c r="D52">
+        <v>0.0066043143460889995</v>
+      </c>
+      <c r="E52">
+        <v>0.0094795866781605381</v>
+      </c>
+      <c r="F52">
+        <v>0.75992965466642937</v>
+      </c>
+      <c r="G52">
+        <v>0.059016768596146171</v>
+      </c>
+      <c r="H52">
+        <v>0.056897161401758364</v>
+      </c>
+      <c r="I52">
+        <v>0.1075125356575222</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B53">
+        <v>0.00032666996183182195</v>
+      </c>
+      <c r="C53">
+        <v>4.6107523066886866e-05</v>
+      </c>
+      <c r="D53">
+        <v>0.01858376242291428</v>
+      </c>
+      <c r="E53">
+        <v>0.016759659847798185</v>
+      </c>
+      <c r="F53">
+        <v>0.53810489639528269</v>
+      </c>
+      <c r="G53">
+        <v>0.095401274098736444</v>
+      </c>
+      <c r="H53">
+        <v>0.17153492307367704</v>
+      </c>
+      <c r="I53">
+        <v>0.15924270667669277</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B54">
+        <v>0.00091063130365550489</v>
+      </c>
+      <c r="C54">
+        <v>9.6735682739854199e-06</v>
+      </c>
+      <c r="D54">
+        <v>0.0067394817176365139</v>
+      </c>
+      <c r="E54">
+        <v>0.0088355080398433584</v>
+      </c>
+      <c r="F54">
+        <v>0.79808012849572552</v>
+      </c>
+      <c r="G54">
+        <v>0.063889071576019932</v>
+      </c>
+      <c r="H54">
+        <v>0.026182870048794119</v>
+      </c>
+      <c r="I54">
+        <v>0.095352635250051068</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B55">
+        <v>0.012798985208972428</v>
+      </c>
+      <c r="C55">
+        <v>5.543019076705677e-05</v>
+      </c>
+      <c r="D55">
+        <v>0.015156666546345456</v>
+      </c>
+      <c r="E55">
+        <v>0.083784826815105407</v>
+      </c>
+      <c r="F55">
+        <v>0.33424132053009586</v>
+      </c>
+      <c r="G55">
+        <v>0.14285477153812109</v>
+      </c>
+      <c r="H55">
+        <v>0.18598550124129848</v>
+      </c>
+      <c r="I55">
+        <v>0.22512249792929423</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B56">
+        <v>0.024981595969359546</v>
+      </c>
+      <c r="C56">
+        <v>7.4261300534832317e-05</v>
+      </c>
+      <c r="D56">
+        <v>0.030349933248215877</v>
+      </c>
+      <c r="E56">
+        <v>0.06612583815298162</v>
+      </c>
+      <c r="F56">
+        <v>0.21944562240371004</v>
+      </c>
+      <c r="G56">
+        <v>0.18996560104633101</v>
+      </c>
+      <c r="H56">
+        <v>0.097622658450799774</v>
+      </c>
+      <c r="I56">
+        <v>0.37143448942806745</v>
+      </c>
+      <c r="J56">
+        <v>8</v>
+      </c>
+      <c r="K56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B57">
+        <v>0.0030406660566572891</v>
+      </c>
+      <c r="C57">
+        <v>7.0874212590269593e-05</v>
+      </c>
+      <c r="D57">
+        <v>0.013306156512393256</v>
+      </c>
+      <c r="E57">
+        <v>0.015239284218698957</v>
+      </c>
+      <c r="F57">
+        <v>0.4949138472668857</v>
+      </c>
+      <c r="G57">
+        <v>0.097544938901721528</v>
+      </c>
+      <c r="H57">
+        <v>0.23172639738842624</v>
+      </c>
+      <c r="I57">
+        <v>0.14415783544262681</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B58">
+        <v>0.015099299335012233</v>
+      </c>
+      <c r="C58">
+        <v>4.1856372670859904e-05</v>
+      </c>
+      <c r="D58">
+        <v>0.044453308301591797</v>
+      </c>
+      <c r="E58">
+        <v>0.050849245295880897</v>
+      </c>
+      <c r="F58">
+        <v>0.15376078509783522</v>
+      </c>
+      <c r="G58">
+        <v>0.18677096857689637</v>
+      </c>
+      <c r="H58">
+        <v>0.32778902919263703</v>
+      </c>
+      <c r="I58">
+        <v>0.22123550782747559</v>
+      </c>
+      <c r="J58">
+        <v>7</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B59">
+        <v>0.00099881099454960168</v>
+      </c>
+      <c r="C59">
+        <v>6.8055331115133645e-06</v>
+      </c>
+      <c r="D59">
+        <v>0.010817576880470843</v>
+      </c>
+      <c r="E59">
+        <v>0.04839496080302174</v>
+      </c>
+      <c r="F59">
+        <v>0.26765525990128219</v>
+      </c>
+      <c r="G59">
+        <v>0.16577815932906106</v>
+      </c>
+      <c r="H59">
+        <v>0.21938067908682571</v>
+      </c>
+      <c r="I59">
+        <v>0.2869677474716773</v>
+      </c>
+      <c r="J59">
+        <v>8</v>
+      </c>
+      <c r="K59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B60">
+        <v>0.023204527146197248</v>
+      </c>
+      <c r="C60">
+        <v>0.00014110399437045084</v>
+      </c>
+      <c r="D60">
+        <v>0.033635301646236952</v>
+      </c>
+      <c r="E60">
+        <v>0.053417740891875884</v>
+      </c>
+      <c r="F60">
+        <v>0.029869592283345413</v>
+      </c>
+      <c r="G60">
+        <v>0.25574108689974206</v>
+      </c>
+      <c r="H60">
+        <v>0.16796357915920163</v>
+      </c>
+      <c r="I60">
+        <v>0.43602706797903029</v>
+      </c>
+      <c r="J60">
+        <v>8</v>
+      </c>
+      <c r="K60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B61">
+        <v>0.052577541888864196</v>
+      </c>
+      <c r="C61">
+        <v>9.2367995669387147e-06</v>
+      </c>
+      <c r="D61">
+        <v>0.021449681219747174</v>
+      </c>
+      <c r="E61">
+        <v>0.076741504341371378</v>
+      </c>
+      <c r="F61">
+        <v>0.052065886665938102</v>
+      </c>
+      <c r="G61">
+        <v>0.15777591852319806</v>
+      </c>
+      <c r="H61">
+        <v>0.26459274067393618</v>
+      </c>
+      <c r="I61">
+        <v>0.37478748988737798</v>
+      </c>
+      <c r="J61">
+        <v>8</v>
+      </c>
+      <c r="K61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B62">
+        <v>0.0012593463892289481</v>
+      </c>
+      <c r="C62">
+        <v>2.4011566523055411e-09</v>
+      </c>
+      <c r="D62">
+        <v>0.007438126260155822</v>
+      </c>
+      <c r="E62">
+        <v>0.0049580792963209398</v>
+      </c>
+      <c r="F62">
+        <v>0.0038249933759084346</v>
+      </c>
+      <c r="G62">
+        <v>0.36037647835052788</v>
+      </c>
+      <c r="H62">
+        <v>0.44749483944232521</v>
+      </c>
+      <c r="I62">
+        <v>0.17464813448437611</v>
+      </c>
+      <c r="J62">
+        <v>7</v>
+      </c>
+      <c r="K62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B63">
+        <v>0.0021207488729461247</v>
+      </c>
+      <c r="C63">
+        <v>9.9608519825402652e-05</v>
+      </c>
+      <c r="D63">
+        <v>0.044126726848325942</v>
+      </c>
+      <c r="E63">
+        <v>0.02320858132131395</v>
+      </c>
+      <c r="F63">
+        <v>0.016128092355716495</v>
+      </c>
+      <c r="G63">
+        <v>0.2100449011945216</v>
+      </c>
+      <c r="H63">
+        <v>0.11882871904523776</v>
+      </c>
+      <c r="I63">
+        <v>0.58544262184211271</v>
+      </c>
+      <c r="J63">
+        <v>8</v>
+      </c>
+      <c r="K63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B64">
+        <v>1.2322952239204185e-05</v>
+      </c>
+      <c r="C64">
+        <v>2.2325217369418492e-14</v>
+      </c>
+      <c r="D64">
+        <v>0.044401561166061365</v>
+      </c>
+      <c r="E64">
+        <v>0.00036572095465729808</v>
+      </c>
+      <c r="F64">
+        <v>0.00082369758783177878</v>
+      </c>
+      <c r="G64">
+        <v>0.35312004154601656</v>
+      </c>
+      <c r="H64">
+        <v>0.40012025599547579</v>
+      </c>
+      <c r="I64">
+        <v>0.20115639979769565</v>
+      </c>
+      <c r="J64">
+        <v>7</v>
+      </c>
+      <c r="K64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B65">
+        <v>0.0029381568046022814</v>
+      </c>
+      <c r="C65">
+        <v>9.8470794677899513e-07</v>
+      </c>
+      <c r="D65">
+        <v>0.1162445089446888</v>
+      </c>
+      <c r="E65">
+        <v>0.049317669069350117</v>
+      </c>
+      <c r="F65">
+        <v>0.010446366331593586</v>
+      </c>
+      <c r="G65">
+        <v>0.32796021444234014</v>
+      </c>
+      <c r="H65">
+        <v>0.075874737108317131</v>
+      </c>
+      <c r="I65">
+        <v>0.41721736259116127</v>
+      </c>
+      <c r="J65">
+        <v>8</v>
+      </c>
+      <c r="K65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B66">
+        <v>0.054257282187113225</v>
+      </c>
+      <c r="C66">
+        <v>3.1284787070031117e-06</v>
+      </c>
+      <c r="D66">
+        <v>0.022450924232965418</v>
+      </c>
+      <c r="E66">
+        <v>0.034670776703914094</v>
+      </c>
+      <c r="F66">
+        <v>0.39282639041863343</v>
+      </c>
+      <c r="G66">
+        <v>0.085207543746877043</v>
+      </c>
+      <c r="H66">
+        <v>0.19794380601073283</v>
+      </c>
+      <c r="I66">
+        <v>0.21264014822105692</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+      <c r="K66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B67">
+        <v>0.0020449588166625205</v>
+      </c>
+      <c r="C67">
+        <v>4.3461784990583592e-07</v>
+      </c>
+      <c r="D67">
+        <v>0.027309610963614873</v>
+      </c>
+      <c r="E67">
+        <v>0.16642428943040977</v>
+      </c>
+      <c r="F67">
+        <v>0.024996311790249123</v>
+      </c>
+      <c r="G67">
+        <v>0.22573760079109587</v>
+      </c>
+      <c r="H67">
+        <v>0.096087513269503683</v>
+      </c>
+      <c r="I67">
+        <v>0.45739928032061428</v>
+      </c>
+      <c r="J67">
+        <v>8</v>
+      </c>
+      <c r="K67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B68">
+        <v>0.029146250980986808</v>
+      </c>
+      <c r="C68">
+        <v>5.6372935709730693e-06</v>
+      </c>
+      <c r="D68">
+        <v>0.014933381464032936</v>
+      </c>
+      <c r="E68">
+        <v>0.14583338023419704</v>
+      </c>
+      <c r="F68">
+        <v>0.0058285901070406288</v>
+      </c>
+      <c r="G68">
+        <v>0.28257562030911532</v>
+      </c>
+      <c r="H68">
+        <v>0.27048374578551165</v>
+      </c>
+      <c r="I68">
+        <v>0.25119339382554451</v>
+      </c>
+      <c r="J68">
+        <v>6</v>
+      </c>
+      <c r="K68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B69">
+        <v>0.0082489158396339465</v>
+      </c>
+      <c r="C69">
+        <v>2.3439235250801782e-06</v>
+      </c>
+      <c r="D69">
+        <v>0.02254340723144482</v>
+      </c>
+      <c r="E69">
+        <v>0.10479625104239611</v>
+      </c>
+      <c r="F69">
+        <v>0.018102865180909096</v>
+      </c>
+      <c r="G69">
+        <v>0.29013257608485066</v>
+      </c>
+      <c r="H69">
+        <v>0.1294672169183585</v>
+      </c>
+      <c r="I69">
+        <v>0.42670642377888168</v>
+      </c>
+      <c r="J69">
+        <v>8</v>
+      </c>
+      <c r="K69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B70">
+        <v>0.0032164867160831305</v>
+      </c>
+      <c r="C70">
+        <v>3.0200913027251591e-05</v>
+      </c>
+      <c r="D70">
+        <v>0.047271634770367908</v>
+      </c>
+      <c r="E70">
+        <v>0.06142526625521634</v>
+      </c>
+      <c r="F70">
+        <v>0.014864953487975063</v>
+      </c>
+      <c r="G70">
+        <v>0.18508607116146322</v>
+      </c>
+      <c r="H70">
+        <v>0.10591933600455662</v>
+      </c>
+      <c r="I70">
+        <v>0.58218605069131046</v>
+      </c>
+      <c r="J70">
+        <v>8</v>
+      </c>
+      <c r="K70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B71">
+        <v>7.6356738166882656e-07</v>
+      </c>
+      <c r="C71">
+        <v>1.1140895282393157e-12</v>
+      </c>
+      <c r="D71">
+        <v>0.012758295679448434</v>
+      </c>
+      <c r="E71">
+        <v>0.10385139200897092</v>
+      </c>
+      <c r="F71">
+        <v>0.0050976518461810045</v>
+      </c>
+      <c r="G71">
+        <v>0.12549451244873761</v>
+      </c>
+      <c r="H71">
+        <v>0.38332100977825823</v>
+      </c>
+      <c r="I71">
+        <v>0.36947637466990813</v>
+      </c>
+      <c r="J71">
+        <v>7</v>
+      </c>
+      <c r="K71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B72">
+        <v>0.015203452086861611</v>
+      </c>
+      <c r="C72">
+        <v>2.9951763105894143e-08</v>
+      </c>
+      <c r="D72">
+        <v>0.027436986623688354</v>
+      </c>
+      <c r="E72">
+        <v>0.30169548176409111</v>
+      </c>
+      <c r="F72">
+        <v>0.026758811677111895</v>
+      </c>
+      <c r="G72">
+        <v>0.21987083293005177</v>
+      </c>
+      <c r="H72">
+        <v>0.13326192737690021</v>
+      </c>
+      <c r="I72">
+        <v>0.27577247758953199</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+      <c r="K72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B73">
+        <v>0.010703025950309999</v>
+      </c>
+      <c r="C73">
+        <v>0.00043115858475712966</v>
+      </c>
+      <c r="D73">
+        <v>0.046330197544168825</v>
+      </c>
+      <c r="E73">
+        <v>0.049408868365085762</v>
+      </c>
+      <c r="F73">
+        <v>0.014739722406667342</v>
+      </c>
+      <c r="G73">
+        <v>0.17786078233588482</v>
+      </c>
+      <c r="H73">
+        <v>0.10037541414451999</v>
+      </c>
+      <c r="I73">
+        <v>0.60015083066860631</v>
+      </c>
+      <c r="J73">
+        <v>8</v>
+      </c>
+      <c r="K73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B74">
+        <v>0.014837548853468364</v>
+      </c>
+      <c r="C74">
+        <v>1.6600180530190437e-07</v>
+      </c>
+      <c r="D74">
+        <v>0.025503964100614351</v>
+      </c>
+      <c r="E74">
+        <v>0.047477607193280327</v>
+      </c>
+      <c r="F74">
+        <v>0.014007538283513437</v>
+      </c>
+      <c r="G74">
+        <v>0.23928742870935008</v>
+      </c>
+      <c r="H74">
+        <v>0.28903821678534047</v>
+      </c>
+      <c r="I74">
+        <v>0.36984753007262777</v>
+      </c>
+      <c r="J74">
+        <v>8</v>
+      </c>
+      <c r="K74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B75">
+        <v>0.0012625567397485887</v>
+      </c>
+      <c r="C75">
+        <v>9.4793780798122182e-12</v>
+      </c>
+      <c r="D75">
+        <v>0.019580388746450201</v>
+      </c>
+      <c r="E75">
+        <v>0.012542993842057848</v>
+      </c>
+      <c r="F75">
+        <v>0.0052217791126794458</v>
+      </c>
+      <c r="G75">
+        <v>0.42807581063735417</v>
+      </c>
+      <c r="H75">
+        <v>0.32787308328272113</v>
+      </c>
+      <c r="I75">
+        <v>0.20544338762950928</v>
+      </c>
+      <c r="J75">
+        <v>6</v>
+      </c>
+      <c r="K75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B76">
+        <v>2.7833180477858547e-06</v>
+      </c>
+      <c r="C76">
+        <v>1.6802975548921697e-13</v>
+      </c>
+      <c r="D76">
+        <v>0.0014108815064418044</v>
+      </c>
+      <c r="E76">
+        <v>0.016544794121059907</v>
+      </c>
+      <c r="F76">
+        <v>0.012342739108225073</v>
+      </c>
+      <c r="G76">
+        <v>0.095421902788256768</v>
+      </c>
+      <c r="H76">
+        <v>0.40157851676016426</v>
+      </c>
+      <c r="I76">
+        <v>0.47269838239763651</v>
+      </c>
+      <c r="J76">
+        <v>8</v>
+      </c>
+      <c r="K76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B77">
+        <v>0.21810915178514936</v>
+      </c>
+      <c r="C77">
+        <v>2.3201900887952869e-09</v>
+      </c>
+      <c r="D77">
+        <v>0.065099710449882567</v>
+      </c>
+      <c r="E77">
+        <v>0.0063374286909395495</v>
+      </c>
+      <c r="F77">
+        <v>0.007686841218222387</v>
+      </c>
+      <c r="G77">
+        <v>0.33786911434739492</v>
+      </c>
+      <c r="H77">
+        <v>0.048947917425973098</v>
+      </c>
+      <c r="I77">
+        <v>0.315949833762248</v>
+      </c>
+      <c r="J77">
+        <v>6</v>
+      </c>
+      <c r="K77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B78">
+        <v>0.0051460913915125535</v>
+      </c>
+      <c r="C78">
+        <v>5.9285404368096837e-06</v>
+      </c>
+      <c r="D78">
+        <v>0.10377331258005104</v>
+      </c>
+      <c r="E78">
+        <v>0.05790102085943849</v>
+      </c>
+      <c r="F78">
+        <v>0.021379963690421552</v>
+      </c>
+      <c r="G78">
+        <v>0.37748191274414727</v>
+      </c>
+      <c r="H78">
+        <v>0.13615139143517788</v>
+      </c>
+      <c r="I78">
+        <v>0.29816037875881451</v>
+      </c>
+      <c r="J78">
+        <v>6</v>
+      </c>
+      <c r="K78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B79">
+        <v>0.034447373225320037</v>
+      </c>
+      <c r="C79">
+        <v>2.9450388439598738e-07</v>
+      </c>
+      <c r="D79">
+        <v>0.037006971735276041</v>
+      </c>
+      <c r="E79">
+        <v>0.020979943576993797</v>
+      </c>
+      <c r="F79">
+        <v>0.01644883175824426</v>
+      </c>
+      <c r="G79">
+        <v>0.3343568408364696</v>
+      </c>
+      <c r="H79">
+        <v>0.24619611964928378</v>
+      </c>
+      <c r="I79">
+        <v>0.31056362471452814</v>
+      </c>
+      <c r="J79">
+        <v>6</v>
+      </c>
+      <c r="K79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B80">
+        <v>0.0022950050059093235</v>
+      </c>
+      <c r="C80">
+        <v>0.00029432641009447327</v>
+      </c>
+      <c r="D80">
+        <v>0.024905661758786477</v>
+      </c>
+      <c r="E80">
+        <v>0.042579248979254337</v>
+      </c>
+      <c r="F80">
+        <v>0.015385820843512575</v>
+      </c>
+      <c r="G80">
+        <v>0.19972275686546612</v>
+      </c>
+      <c r="H80">
+        <v>0.10882163471780294</v>
+      </c>
+      <c r="I80">
+        <v>0.60599554541917389</v>
+      </c>
+      <c r="J80">
+        <v>8</v>
+      </c>
+      <c r="K80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B81">
+        <v>0.0066407492498932533</v>
+      </c>
+      <c r="C81">
+        <v>1.6294891241544175e-07</v>
+      </c>
+      <c r="D81">
+        <v>0.03430612025941375</v>
+      </c>
+      <c r="E81">
+        <v>0.11875831437934087</v>
+      </c>
+      <c r="F81">
+        <v>0.032889283851442894</v>
+      </c>
+      <c r="G81">
+        <v>0.15931031008135627</v>
+      </c>
+      <c r="H81">
+        <v>0.26692358889918949</v>
+      </c>
+      <c r="I81">
+        <v>0.38117147033045112</v>
+      </c>
+      <c r="J81">
+        <v>8</v>
+      </c>
+      <c r="K81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B82">
+        <v>0.0027160696653334149</v>
+      </c>
+      <c r="C82">
+        <v>6.3717811874505558e-12</v>
+      </c>
+      <c r="D82">
+        <v>0.0012698907166868102</v>
+      </c>
+      <c r="E82">
+        <v>0.028485350785042721</v>
+      </c>
+      <c r="F82">
+        <v>0.047417668029597161</v>
+      </c>
+      <c r="G82">
+        <v>0.32538851724770745</v>
+      </c>
+      <c r="H82">
+        <v>0.2744612545288645</v>
+      </c>
+      <c r="I82">
+        <v>0.32026124902039615</v>
+      </c>
+      <c r="J82">
+        <v>6</v>
+      </c>
+      <c r="K82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B83">
+        <v>0.0019440542906636867</v>
+      </c>
+      <c r="C83">
+        <v>1.3038011732393466e-07</v>
+      </c>
+      <c r="D83">
+        <v>0.010252148520227662</v>
+      </c>
+      <c r="E83">
+        <v>0.2755592546347379</v>
+      </c>
+      <c r="F83">
+        <v>0.0027119925787076971</v>
+      </c>
+      <c r="G83">
+        <v>0.26955837710011565</v>
+      </c>
+      <c r="H83">
+        <v>0.060237571235583785</v>
+      </c>
+      <c r="I83">
+        <v>0.37973647125984633</v>
+      </c>
+      <c r="J83">
+        <v>8</v>
+      </c>
+      <c r="K83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B84">
+        <v>3.4195784147317904e-06</v>
+      </c>
+      <c r="C84">
+        <v>2.2374920189057585e-14</v>
+      </c>
+      <c r="D84">
+        <v>0.028733169531769461</v>
+      </c>
+      <c r="E84">
+        <v>0.0034026357997923029</v>
+      </c>
+      <c r="F84">
+        <v>0.00062313298360638133</v>
+      </c>
+      <c r="G84">
+        <v>0.34635457967849875</v>
+      </c>
+      <c r="H84">
+        <v>0.47772501905349157</v>
+      </c>
+      <c r="I84">
+        <v>0.14315804337440433</v>
+      </c>
+      <c r="J84">
+        <v>7</v>
+      </c>
+      <c r="K84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B85">
+        <v>6.9512906893972695e-07</v>
+      </c>
+      <c r="C85">
+        <v>3.0100842582021941e-14</v>
+      </c>
+      <c r="D85">
+        <v>0.0017500194448330083</v>
+      </c>
+      <c r="E85">
+        <v>0.11910252120645658</v>
+      </c>
+      <c r="F85">
+        <v>0.00018843022694037289</v>
+      </c>
+      <c r="G85">
+        <v>0.29303168783419092</v>
+      </c>
+      <c r="H85">
+        <v>0.23166532554460623</v>
+      </c>
+      <c r="I85">
+        <v>0.35426132061387372</v>
+      </c>
+      <c r="J85">
+        <v>8</v>
+      </c>
+      <c r="K85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B86">
+        <v>0.061036066766617103</v>
+      </c>
+      <c r="C86">
+        <v>0.00057650882978486375</v>
+      </c>
+      <c r="D86">
+        <v>0.042953975147668036</v>
+      </c>
+      <c r="E86">
+        <v>0.0148721138489822</v>
+      </c>
+      <c r="F86">
+        <v>0.0043074942509432109</v>
+      </c>
+      <c r="G86">
+        <v>0.2789422958662291</v>
+      </c>
+      <c r="H86">
+        <v>0.16205378244743779</v>
+      </c>
+      <c r="I86">
+        <v>0.43525776284233769</v>
+      </c>
+      <c r="J86">
+        <v>8</v>
+      </c>
+      <c r="K86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B87">
+        <v>0.019575230360471537</v>
+      </c>
+      <c r="C87">
+        <v>2.5165042059514682e-06</v>
+      </c>
+      <c r="D87">
+        <v>0.072478741952595904</v>
+      </c>
+      <c r="E87">
+        <v>0.11089446958139611</v>
+      </c>
+      <c r="F87">
+        <v>0.0044916196948849609</v>
+      </c>
+      <c r="G87">
+        <v>0.38416404102979884</v>
+      </c>
+      <c r="H87">
+        <v>0.053837280275266512</v>
+      </c>
+      <c r="I87">
+        <v>0.35455610060138038</v>
+      </c>
+      <c r="J87">
+        <v>6</v>
+      </c>
+      <c r="K87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B88">
+        <v>0.016669376277469995</v>
+      </c>
+      <c r="C88">
+        <v>5.0769807377161448e-11</v>
+      </c>
+      <c r="D88">
+        <v>0.027045212525249267</v>
+      </c>
+      <c r="E88">
+        <v>0.0061564211410965056</v>
+      </c>
+      <c r="F88">
+        <v>0.086685154784460386</v>
+      </c>
+      <c r="G88">
+        <v>0.21794685342497672</v>
+      </c>
+      <c r="H88">
+        <v>0.21849753145582743</v>
+      </c>
+      <c r="I88">
+        <v>0.42699945034015002</v>
+      </c>
+      <c r="J88">
+        <v>8</v>
+      </c>
+      <c r="K88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B89">
+        <v>0.0060232044882045071</v>
+      </c>
+      <c r="C89">
+        <v>1.7948068516332905e-05</v>
+      </c>
+      <c r="D89">
+        <v>0.013858447849268441</v>
+      </c>
+      <c r="E89">
+        <v>0.062446362817804628</v>
+      </c>
+      <c r="F89">
+        <v>0.0056362920896310537</v>
+      </c>
+      <c r="G89">
+        <v>0.31764540939282776</v>
+      </c>
+      <c r="H89">
+        <v>0.24486600509822001</v>
+      </c>
+      <c r="I89">
+        <v>0.34950633019552735</v>
+      </c>
+      <c r="J89">
+        <v>8</v>
+      </c>
+      <c r="K89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B90">
+        <v>0.0020567014020715091</v>
+      </c>
+      <c r="C90">
+        <v>1.9124468983448232e-05</v>
+      </c>
+      <c r="D90">
+        <v>0.030155197379433705</v>
+      </c>
+      <c r="E90">
+        <v>0.01997615772265382</v>
+      </c>
+      <c r="F90">
+        <v>0.0088158371837672497</v>
+      </c>
+      <c r="G90">
+        <v>0.17783832091221011</v>
+      </c>
+      <c r="H90">
+        <v>0.12086830647865204</v>
+      </c>
+      <c r="I90">
+        <v>0.64027035445222802</v>
+      </c>
+      <c r="J90">
+        <v>8</v>
+      </c>
+      <c r="K90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B91">
+        <v>0.0036928271172814988</v>
+      </c>
+      <c r="C91">
+        <v>0.00067870549660833663</v>
+      </c>
+      <c r="D91">
+        <v>0.021680289029320648</v>
+      </c>
+      <c r="E91">
+        <v>0.085303217295512795</v>
+      </c>
+      <c r="F91">
+        <v>0.021919617549498355</v>
+      </c>
+      <c r="G91">
+        <v>0.2018492374200628</v>
+      </c>
+      <c r="H91">
+        <v>0.12497074418003391</v>
+      </c>
+      <c r="I91">
+        <v>0.53990536191168159</v>
+      </c>
+      <c r="J91">
+        <v>8</v>
+      </c>
+      <c r="K91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B92">
+        <v>0.00060546732229284144</v>
+      </c>
+      <c r="C92">
+        <v>9.2102874247059877e-08</v>
+      </c>
+      <c r="D92">
+        <v>0.020867524177298404</v>
+      </c>
+      <c r="E92">
+        <v>0.054513784858910182</v>
+      </c>
+      <c r="F92">
+        <v>0.013003776695334326</v>
+      </c>
+      <c r="G92">
+        <v>0.17497483773139991</v>
+      </c>
+      <c r="H92">
+        <v>0.20061491772629939</v>
+      </c>
+      <c r="I92">
+        <v>0.53541959938559069</v>
+      </c>
+      <c r="J92">
+        <v>8</v>
+      </c>
+      <c r="K92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B93">
+        <v>0.011229895550416211</v>
+      </c>
+      <c r="C93">
+        <v>1.1132990822714805e-05</v>
+      </c>
+      <c r="D93">
+        <v>0.01900884525080191</v>
+      </c>
+      <c r="E93">
+        <v>0.059420110237862277</v>
+      </c>
+      <c r="F93">
+        <v>0.18601410340817193</v>
+      </c>
+      <c r="G93">
+        <v>0.18195684378276336</v>
+      </c>
+      <c r="H93">
+        <v>0.12327273490561988</v>
+      </c>
+      <c r="I93">
+        <v>0.41908633387354166</v>
+      </c>
+      <c r="J93">
+        <v>8</v>
+      </c>
+      <c r="K93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B94">
+        <v>0.0042019300395801339</v>
+      </c>
+      <c r="C94">
+        <v>4.8491223081254946e-05</v>
+      </c>
+      <c r="D94">
+        <v>0.020476023961600788</v>
+      </c>
+      <c r="E94">
+        <v>0.030333924606959436</v>
+      </c>
+      <c r="F94">
+        <v>0.016560008972018998</v>
+      </c>
+      <c r="G94">
+        <v>0.28024026213264158</v>
+      </c>
+      <c r="H94">
+        <v>0.066331023369895367</v>
+      </c>
+      <c r="I94">
+        <v>0.58180833569422252</v>
+      </c>
+      <c r="J94">
+        <v>8</v>
+      </c>
+      <c r="K94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B95">
+        <v>0.0093101936842905578</v>
+      </c>
+      <c r="C95">
+        <v>1.7186885012508409e-05</v>
+      </c>
+      <c r="D95">
+        <v>0.021166791952465049</v>
+      </c>
+      <c r="E95">
+        <v>0.1001786659844751</v>
+      </c>
+      <c r="F95">
+        <v>0.0040485733290109432</v>
+      </c>
+      <c r="G95">
+        <v>0.30194046673986535</v>
+      </c>
+      <c r="H95">
+        <v>0.12337125228410029</v>
+      </c>
+      <c r="I95">
+        <v>0.43996686914078015</v>
+      </c>
+      <c r="J95">
+        <v>8</v>
+      </c>
+      <c r="K95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B96">
+        <v>0.10270059433637889</v>
+      </c>
+      <c r="C96">
+        <v>0.06321069885384259</v>
+      </c>
+      <c r="D96">
+        <v>0.03358903368224251</v>
+      </c>
+      <c r="E96">
+        <v>0.10403966537273558</v>
+      </c>
+      <c r="F96">
+        <v>0.027259826592105109</v>
+      </c>
+      <c r="G96">
+        <v>0.18555590455983478</v>
+      </c>
+      <c r="H96">
+        <v>0.060759082464447327</v>
+      </c>
+      <c r="I96">
+        <v>0.42288519413841325</v>
+      </c>
+      <c r="J96">
+        <v>8</v>
+      </c>
+      <c r="K96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B97">
+        <v>0.011062790889986563</v>
+      </c>
+      <c r="C97">
+        <v>7.9565030504962978e-05</v>
+      </c>
+      <c r="D97">
+        <v>0.042849182169964112</v>
+      </c>
+      <c r="E97">
+        <v>0.090745114582928582</v>
+      </c>
+      <c r="F97">
+        <v>0.14528607760914278</v>
+      </c>
+      <c r="G97">
+        <v>0.10898316644589268</v>
+      </c>
+      <c r="H97">
+        <v>0.07966963443319261</v>
+      </c>
+      <c r="I97">
+        <v>0.52132446883838779</v>
+      </c>
+      <c r="J97">
+        <v>8</v>
+      </c>
+      <c r="K97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B98">
+        <v>0.03744358897953462</v>
+      </c>
+      <c r="C98">
+        <v>0.00013060415104862287</v>
+      </c>
+      <c r="D98">
+        <v>0.020867802725055232</v>
+      </c>
+      <c r="E98">
+        <v>0.044381526478355714</v>
+      </c>
+      <c r="F98">
+        <v>0.029789519087769778</v>
+      </c>
+      <c r="G98">
+        <v>0.33275649632095256</v>
+      </c>
+      <c r="H98">
+        <v>0.096142757925018113</v>
+      </c>
+      <c r="I98">
+        <v>0.4384877043322653</v>
+      </c>
+      <c r="J98">
+        <v>8</v>
+      </c>
+      <c r="K98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B99">
+        <v>0.010138169671752921</v>
+      </c>
+      <c r="C99">
+        <v>0.00012609410653940121</v>
+      </c>
+      <c r="D99">
+        <v>0.040498494390603199</v>
+      </c>
+      <c r="E99">
+        <v>0.10282276682076086</v>
+      </c>
+      <c r="F99">
+        <v>0.095473905269759338</v>
+      </c>
+      <c r="G99">
+        <v>0.20169600246570271</v>
+      </c>
+      <c r="H99">
+        <v>0.093823656977383527</v>
+      </c>
+      <c r="I99">
+        <v>0.45542091029749809</v>
+      </c>
+      <c r="J99">
+        <v>8</v>
+      </c>
+      <c r="K99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B100">
+        <v>0.00020138443963518357</v>
+      </c>
+      <c r="C100">
+        <v>0.00012219071831043164</v>
+      </c>
+      <c r="D100">
+        <v>0.050475665185048403</v>
+      </c>
+      <c r="E100">
+        <v>0.077399578271680994</v>
+      </c>
+      <c r="F100">
+        <v>0.040872935800570491</v>
+      </c>
+      <c r="G100">
+        <v>0.22797736113756159</v>
+      </c>
+      <c r="H100">
+        <v>0.098245456715346666</v>
+      </c>
+      <c r="I100">
+        <v>0.50470542773184612</v>
+      </c>
+      <c r="J100">
+        <v>8</v>
+      </c>
+      <c r="K100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B101">
+        <v>0.1542913828953647</v>
+      </c>
+      <c r="C101">
+        <v>0.0001257617447026445</v>
+      </c>
+      <c r="D101">
+        <v>0.044344661493293414</v>
+      </c>
+      <c r="E101">
+        <v>0.057746253319224311</v>
+      </c>
+      <c r="F101">
+        <v>0.073712749682721013</v>
+      </c>
+      <c r="G101">
+        <v>0.21200032548104863</v>
+      </c>
+      <c r="H101">
+        <v>0.1536814118414758</v>
+      </c>
+      <c r="I101">
+        <v>0.30409745354216944</v>
+      </c>
+      <c r="J101">
+        <v>8</v>
+      </c>
+      <c r="K101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B102">
+        <v>0.0047909799260141168</v>
+      </c>
+      <c r="C102">
+        <v>0.00012211099220027697</v>
+      </c>
+      <c r="D102">
+        <v>0.024754989587179678</v>
+      </c>
+      <c r="E102">
+        <v>0.082306577597004563</v>
+      </c>
+      <c r="F102">
+        <v>0.052527614530321537</v>
+      </c>
+      <c r="G102">
+        <v>0.24655974865403335</v>
+      </c>
+      <c r="H102">
+        <v>0.068137594473513224</v>
+      </c>
+      <c r="I102">
+        <v>0.52080038423973318</v>
+      </c>
+      <c r="J102">
+        <v>8</v>
+      </c>
+      <c r="K102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B103">
+        <v>0.0082091443157132887</v>
+      </c>
+      <c r="C103">
+        <v>3.0753402580728607e-06</v>
+      </c>
+      <c r="D103">
+        <v>0.09188137291252875</v>
+      </c>
+      <c r="E103">
+        <v>0.022361468272425293</v>
+      </c>
+      <c r="F103">
+        <v>0.0065243906484329069</v>
+      </c>
+      <c r="G103">
+        <v>0.44827140895660417</v>
+      </c>
+      <c r="H103">
+        <v>0.062052540966420211</v>
+      </c>
+      <c r="I103">
+        <v>0.36069659858761721</v>
+      </c>
+      <c r="J103">
+        <v>6</v>
+      </c>
+      <c r="K103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B104">
+        <v>0.015251735689924212</v>
+      </c>
+      <c r="C104">
+        <v>7.5062260031832337e-05</v>
+      </c>
+      <c r="D104">
+        <v>0.039129401533143177</v>
+      </c>
+      <c r="E104">
+        <v>0.050559758927117962</v>
+      </c>
+      <c r="F104">
+        <v>0.012558563090104844</v>
+      </c>
+      <c r="G104">
+        <v>0.24880712953550277</v>
+      </c>
+      <c r="H104">
+        <v>0.14581661789852465</v>
+      </c>
+      <c r="I104">
+        <v>0.48780173106565045</v>
+      </c>
+      <c r="J104">
+        <v>8</v>
+      </c>
+      <c r="K104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B105">
+        <v>0.0039782060284629618</v>
+      </c>
+      <c r="C105">
+        <v>0.00047576315254982317</v>
+      </c>
+      <c r="D105">
+        <v>0.32296759269613967</v>
+      </c>
+      <c r="E105">
+        <v>0.031238861802471259</v>
+      </c>
+      <c r="F105">
+        <v>0.0062020817294554057</v>
+      </c>
+      <c r="G105">
+        <v>0.14697128934584561</v>
+      </c>
+      <c r="H105">
+        <v>0.24619332675427658</v>
+      </c>
+      <c r="I105">
+        <v>0.24197287849079871</v>
+      </c>
+      <c r="J105">
+        <v>3</v>
+      </c>
+      <c r="K105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B106">
+        <v>0.0015450030376904995</v>
+      </c>
+      <c r="C106">
+        <v>5.4158152724926522e-07</v>
+      </c>
+      <c r="D106">
+        <v>0.0094991399398939268</v>
+      </c>
+      <c r="E106">
+        <v>0.041353494113059538</v>
+      </c>
+      <c r="F106">
+        <v>0.035960977080767668</v>
+      </c>
+      <c r="G106">
+        <v>0.20587771832807447</v>
+      </c>
+      <c r="H106">
+        <v>0.35450084320108882</v>
+      </c>
+      <c r="I106">
+        <v>0.35126228271789772</v>
+      </c>
+      <c r="J106">
+        <v>7</v>
+      </c>
+      <c r="K106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B107">
+        <v>0.0070419256291605094</v>
+      </c>
+      <c r="C107">
+        <v>3.2411128687031342e-09</v>
+      </c>
+      <c r="D107">
+        <v>0.0041327720296683076</v>
+      </c>
+      <c r="E107">
+        <v>0.070511381229353104</v>
+      </c>
+      <c r="F107">
+        <v>0.0034141499408903613</v>
+      </c>
+      <c r="G107">
+        <v>0.24691471852707772</v>
+      </c>
+      <c r="H107">
+        <v>0.25654846519607466</v>
+      </c>
+      <c r="I107">
+        <v>0.41143658420666246</v>
+      </c>
+      <c r="J107">
+        <v>8</v>
+      </c>
+      <c r="K107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B108">
+        <v>0.020415782553695774</v>
+      </c>
+      <c r="C108">
+        <v>3.7805534531725138e-06</v>
+      </c>
+      <c r="D108">
+        <v>0.008197059545061669</v>
+      </c>
+      <c r="E108">
+        <v>0.075868312307532881</v>
+      </c>
+      <c r="F108">
+        <v>0.0077482143401910522</v>
+      </c>
+      <c r="G108">
+        <v>0.18300088091686639</v>
+      </c>
+      <c r="H108">
+        <v>0.52248305946299956</v>
+      </c>
+      <c r="I108">
+        <v>0.18228291032019955</v>
+      </c>
+      <c r="J108">
+        <v>7</v>
+      </c>
+      <c r="K108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B109">
+        <v>0.018690699713732217</v>
+      </c>
+      <c r="C109">
+        <v>2.7951185010133648e-05</v>
+      </c>
+      <c r="D109">
+        <v>0.018917725057410767</v>
+      </c>
+      <c r="E109">
+        <v>0.069109730820736487</v>
+      </c>
+      <c r="F109">
+        <v>0.027380130768835373</v>
+      </c>
+      <c r="G109">
+        <v>0.2959977088094442</v>
+      </c>
+      <c r="H109">
+        <v>0.30392193669115497</v>
+      </c>
+      <c r="I109">
+        <v>0.26595411695367593</v>
+      </c>
+      <c r="J109">
+        <v>7</v>
+      </c>
+      <c r="K109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B110">
+        <v>0.00093270386844296902</v>
+      </c>
+      <c r="C110">
+        <v>1.0152800246068566e-08</v>
+      </c>
+      <c r="D110">
+        <v>0.013351521868977388</v>
+      </c>
+      <c r="E110">
+        <v>0.12527555994918124</v>
+      </c>
+      <c r="F110">
+        <v>0.0023249908703021792</v>
+      </c>
+      <c r="G110">
+        <v>0.24967647366282897</v>
+      </c>
+      <c r="H110">
+        <v>0.32836542124251017</v>
+      </c>
+      <c r="I110">
+        <v>0.28007331838495675</v>
+      </c>
+      <c r="J110">
+        <v>7</v>
+      </c>
+      <c r="K110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B111">
+        <v>0.0037411955022704385</v>
+      </c>
+      <c r="C111">
+        <v>1.3132378277951031e-05</v>
+      </c>
+      <c r="D111">
+        <v>0.16290751966555755</v>
+      </c>
+      <c r="E111">
+        <v>0.022029025553402078</v>
+      </c>
+      <c r="F111">
+        <v>0.20657013942526339</v>
+      </c>
+      <c r="G111">
+        <v>0.14591933210415259</v>
+      </c>
+      <c r="H111">
+        <v>0.21999233842711047</v>
+      </c>
+      <c r="I111">
+        <v>0.23882731694396545</v>
+      </c>
+      <c r="J111">
+        <v>8</v>
+      </c>
+      <c r="K111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B112">
+        <v>0.011650690502022719</v>
+      </c>
+      <c r="C112">
+        <v>5.9878734931861213e-06</v>
+      </c>
+      <c r="D112">
+        <v>0.0070977242893343704</v>
+      </c>
+      <c r="E112">
+        <v>0.0071861039380708355</v>
+      </c>
+      <c r="F112">
+        <v>0.029771650987910302</v>
+      </c>
+      <c r="G112">
+        <v>0.16369777791794629</v>
+      </c>
+      <c r="H112">
+        <v>0.63391390915734758</v>
+      </c>
+      <c r="I112">
+        <v>0.14667615533387487</v>
+      </c>
+      <c r="J112">
+        <v>7</v>
+      </c>
+      <c r="K112">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B113">
+        <v>0.036038871434814504</v>
+      </c>
+      <c r="C113">
+        <v>1.7856102981507376e-07</v>
+      </c>
+      <c r="D113">
+        <v>0.01445258221583437</v>
+      </c>
+      <c r="E113">
+        <v>0.012700939144444659</v>
+      </c>
+      <c r="F113">
+        <v>0.1223263098047004</v>
+      </c>
+      <c r="G113">
+        <v>0.13138509882668339</v>
+      </c>
+      <c r="H113">
+        <v>0.44346526616515791</v>
+      </c>
+      <c r="I113">
+        <v>0.23963075384733493</v>
+      </c>
+      <c r="J113">
+        <v>7</v>
+      </c>
+      <c r="K113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B114">
+        <v>0.0055597910885244323</v>
+      </c>
+      <c r="C114">
+        <v>4.0966807616024057e-06</v>
+      </c>
+      <c r="D114">
+        <v>0.00076149617790692841</v>
+      </c>
+      <c r="E114">
+        <v>0.0046411588565396563</v>
+      </c>
+      <c r="F114">
+        <v>0.0058499419743262291</v>
+      </c>
+      <c r="G114">
+        <v>0.12332120987483644</v>
+      </c>
+      <c r="H114">
+        <v>0.72186650181021483</v>
+      </c>
+      <c r="I114">
+        <v>0.13799580353688989</v>
+      </c>
+      <c r="J114">
+        <v>7</v>
+      </c>
+      <c r="K114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B115">
+        <v>0.0044094088344604244</v>
+      </c>
+      <c r="C115">
+        <v>1.2123769605362361e-05</v>
+      </c>
+      <c r="D115">
+        <v>0.01942660989682201</v>
+      </c>
+      <c r="E115">
+        <v>0.0272042377409802</v>
+      </c>
+      <c r="F115">
+        <v>0.022150603301237092</v>
+      </c>
+      <c r="G115">
+        <v>0.14769472990812652</v>
+      </c>
+      <c r="H115">
+        <v>0.63564376840516146</v>
+      </c>
+      <c r="I115">
+        <v>0.14345851814360697</v>
+      </c>
+      <c r="J115">
+        <v>7</v>
+      </c>
+      <c r="K115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B116">
+        <v>2.3096134519843792e-05</v>
+      </c>
+      <c r="C116">
+        <v>4.5147827803067053e-09</v>
+      </c>
+      <c r="D116">
+        <v>0.015964976222624737</v>
+      </c>
+      <c r="E116">
+        <v>0.064850750510179384</v>
+      </c>
+      <c r="F116">
+        <v>0.0044085239229862587</v>
+      </c>
+      <c r="G116">
+        <v>0.17633658772472524</v>
+      </c>
+      <c r="H116">
+        <v>0.57170540688602922</v>
+      </c>
+      <c r="I116">
+        <v>0.16671065408415242</v>
+      </c>
+      <c r="J116">
+        <v>7</v>
+      </c>
+      <c r="K116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B117">
+        <v>0.0068304297865511131</v>
+      </c>
+      <c r="C117">
+        <v>3.2996509394800323e-08</v>
+      </c>
+      <c r="D117">
+        <v>0.0068595761529759245</v>
+      </c>
+      <c r="E117">
+        <v>0.098948750962149709</v>
+      </c>
+      <c r="F117">
+        <v>0.0081231054318661785</v>
+      </c>
+      <c r="G117">
+        <v>0.19920112124677664</v>
+      </c>
+      <c r="H117">
+        <v>0.35214675565967402</v>
+      </c>
+      <c r="I117">
+        <v>0.32789022776349713</v>
+      </c>
+      <c r="J117">
+        <v>7</v>
+      </c>
+      <c r="K117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B118">
+        <v>2.7871632566886195e-05</v>
+      </c>
+      <c r="C118">
+        <v>2.3204568316446963e-09</v>
+      </c>
+      <c r="D118">
+        <v>0.0086491256161299705</v>
+      </c>
+      <c r="E118">
+        <v>0.15713695746197059</v>
+      </c>
+      <c r="F118">
+        <v>0.04778421623080488</v>
+      </c>
+      <c r="G118">
+        <v>0.24734471773716701</v>
+      </c>
+      <c r="H118">
+        <v>0.1448352781489084</v>
+      </c>
+      <c r="I118">
+        <v>0.39422183085199547</v>
+      </c>
+      <c r="J118">
+        <v>8</v>
+      </c>
+      <c r="K118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B119">
+        <v>0.0049597267782281748</v>
+      </c>
+      <c r="C119">
+        <v>6.2735743328913116e-06</v>
+      </c>
+      <c r="D119">
+        <v>0.016667922420701187</v>
+      </c>
+      <c r="E119">
+        <v>0.01557181836236147</v>
+      </c>
+      <c r="F119">
+        <v>0.084838877911935021</v>
+      </c>
+      <c r="G119">
+        <v>0.11314994836979041</v>
+      </c>
+      <c r="H119">
+        <v>0.62379535714224787</v>
+      </c>
+      <c r="I119">
+        <v>0.14101007544040303</v>
+      </c>
+      <c r="J119">
+        <v>7</v>
+      </c>
+      <c r="K119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B120">
+        <v>0.027533146387607833</v>
+      </c>
+      <c r="C120">
+        <v>7.9663312619606213e-08</v>
+      </c>
+      <c r="D120">
+        <v>0.013768199815035508</v>
+      </c>
+      <c r="E120">
+        <v>0.092678269236627572</v>
+      </c>
+      <c r="F120">
+        <v>0.016397645541960992</v>
+      </c>
+      <c r="G120">
+        <v>0.20520634911024155</v>
+      </c>
+      <c r="H120">
+        <v>0.31295248725955116</v>
+      </c>
+      <c r="I120">
+        <v>0.33146382298566279</v>
+      </c>
+      <c r="J120">
+        <v>8</v>
+      </c>
+      <c r="K120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B121">
+        <v>0.10910079671803372</v>
+      </c>
+      <c r="C121">
+        <v>4.4752022117120593e-07</v>
+      </c>
+      <c r="D121">
+        <v>0.01677428436212829</v>
+      </c>
+      <c r="E121">
+        <v>0.060588256719204758</v>
+      </c>
+      <c r="F121">
+        <v>0.010749791561704391</v>
+      </c>
+      <c r="G121">
+        <v>0.24954655420928373</v>
+      </c>
+      <c r="H121">
+        <v>0.27761258089146401</v>
+      </c>
+      <c r="I121">
+        <v>0.27562728801795994</v>
+      </c>
+      <c r="J121">
+        <v>7</v>
+      </c>
+      <c r="K121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B122">
+        <v>0.00043118032624234941</v>
+      </c>
+      <c r="C122">
+        <v>1.2609479707099827e-09</v>
+      </c>
+      <c r="D122">
+        <v>0.017610589628118671</v>
+      </c>
+      <c r="E122">
+        <v>0.059651508196960322</v>
+      </c>
+      <c r="F122">
+        <v>0.006041797659629233</v>
+      </c>
+      <c r="G122">
+        <v>0.25944403715236219</v>
+      </c>
+      <c r="H122">
+        <v>0.38156614968486036</v>
+      </c>
+      <c r="I122">
+        <v>0.27525473609087903</v>
+      </c>
+      <c r="J122">
+        <v>7</v>
+      </c>
+      <c r="K122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B123">
+        <v>0.21135896112862473</v>
+      </c>
+      <c r="C123">
+        <v>1.0068769582761156e-05</v>
+      </c>
+      <c r="D123">
+        <v>0.00080555112261406609</v>
+      </c>
+      <c r="E123">
+        <v>0.0027628122716168613</v>
+      </c>
+      <c r="F123">
+        <v>0.0024211201838857995</v>
+      </c>
+      <c r="G123">
+        <v>0.11126592295471543</v>
+      </c>
+      <c r="H123">
+        <v>0.52762787561183433</v>
+      </c>
+      <c r="I123">
+        <v>0.14374768795712603</v>
+      </c>
+      <c r="J123">
+        <v>7</v>
+      </c>
+      <c r="K123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B124">
+        <v>0.034847015514620661</v>
+      </c>
+      <c r="C124">
+        <v>2.4427889881729346e-10</v>
+      </c>
+      <c r="D124">
+        <v>0.020934931009164024</v>
+      </c>
+      <c r="E124">
+        <v>0.030887191399806536</v>
+      </c>
+      <c r="F124">
+        <v>0.0011202239508425024</v>
+      </c>
+      <c r="G124">
+        <v>0.10279397303850871</v>
+      </c>
+      <c r="H124">
+        <v>0.30472265408308591</v>
+      </c>
+      <c r="I124">
+        <v>0.50469401075969289</v>
+      </c>
+      <c r="J124">
+        <v>8</v>
+      </c>
+      <c r="K124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B125">
+        <v>0.0033306109916517047</v>
+      </c>
+      <c r="C125">
+        <v>0.00021673942222080671</v>
+      </c>
+      <c r="D125">
+        <v>0.038089862817400587</v>
+      </c>
+      <c r="E125">
+        <v>0.026169336647742427</v>
+      </c>
+      <c r="F125">
+        <v>0.019049266865111814</v>
+      </c>
+      <c r="G125">
+        <v>0.18876126969642487</v>
+      </c>
+      <c r="H125">
+        <v>0.47042083542499735</v>
+      </c>
+      <c r="I125">
+        <v>0.25396207813445032</v>
+      </c>
+      <c r="J125">
+        <v>7</v>
+      </c>
+      <c r="K125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B126">
+        <v>0.00087377317319067111</v>
+      </c>
+      <c r="C126">
+        <v>5.342401688279076e-07</v>
+      </c>
+      <c r="D126">
+        <v>0.009320173804003639</v>
+      </c>
+      <c r="E126">
+        <v>0.0066081886425698073</v>
+      </c>
+      <c r="F126">
+        <v>0.0034166166577376473</v>
+      </c>
+      <c r="G126">
+        <v>0.40231825273865152</v>
+      </c>
+      <c r="H126">
+        <v>0.34267701372105014</v>
+      </c>
+      <c r="I126">
+        <v>0.23478544702262774</v>
+      </c>
+      <c r="J126">
+        <v>6</v>
+      </c>
+      <c r="K126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B127">
+        <v>1.4255069570741373e-05</v>
+      </c>
+      <c r="C127">
+        <v>2.5408232020430449e-14</v>
+      </c>
+      <c r="D127">
+        <v>0.01763167071563148</v>
+      </c>
+      <c r="E127">
+        <v>8.5719642326723356e-05</v>
+      </c>
+      <c r="F127">
+        <v>0.00064972849902634078</v>
+      </c>
+      <c r="G127">
+        <v>0.063205571005873665</v>
+      </c>
+      <c r="H127">
+        <v>0.25864906477259231</v>
+      </c>
+      <c r="I127">
+        <v>0.65976399029495336</v>
+      </c>
+      <c r="J127">
+        <v>8</v>
+      </c>
+      <c r="K127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B128">
+        <v>0.0025476251698837143</v>
+      </c>
+      <c r="C128">
+        <v>6.4240500288494739e-12</v>
+      </c>
+      <c r="D128">
+        <v>0.022857481768318776</v>
+      </c>
+      <c r="E128">
+        <v>0.067351992799510763</v>
+      </c>
+      <c r="F128">
+        <v>0.0031521147615756911</v>
+      </c>
+      <c r="G128">
+        <v>0.29322659372423215</v>
+      </c>
+      <c r="H128">
+        <v>0.22134395348161354</v>
+      </c>
+      <c r="I128">
+        <v>0.38952023828844123</v>
+      </c>
+      <c r="J128">
+        <v>8</v>
+      </c>
+      <c r="K128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B129">
+        <v>0.0111227157375403</v>
+      </c>
+      <c r="C129">
+        <v>2.7961865632862548e-13</v>
+      </c>
+      <c r="D129">
+        <v>0.014098937689351776</v>
+      </c>
+      <c r="E129">
+        <v>0.038602818339073537</v>
+      </c>
+      <c r="F129">
+        <v>0.0044736764674705954</v>
+      </c>
+      <c r="G129">
+        <v>0.40761765461496241</v>
+      </c>
+      <c r="H129">
+        <v>0.33392737859872318</v>
+      </c>
+      <c r="I129">
+        <v>0.19015681855259858</v>
+      </c>
+      <c r="J129">
+        <v>6</v>
+      </c>
+      <c r="K129">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B130">
+        <v>0.033527903653977689</v>
+      </c>
+      <c r="C130">
+        <v>8.0209470434909713e-08</v>
+      </c>
+      <c r="D130">
+        <v>0.038207051200476044</v>
+      </c>
+      <c r="E130">
+        <v>0.0030731621169376375</v>
+      </c>
+      <c r="F130">
+        <v>0.010512134109375097</v>
+      </c>
+      <c r="G130">
+        <v>0.23906846213147151</v>
+      </c>
+      <c r="H130">
+        <v>0.23877476579967225</v>
+      </c>
+      <c r="I130">
+        <v>0.43683644077861933</v>
+      </c>
+      <c r="J130">
+        <v>8</v>
+      </c>
+      <c r="K130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B131">
+        <v>0.0010087047220778036</v>
+      </c>
+      <c r="C131">
+        <v>2.2222742525844403e-14</v>
+      </c>
+      <c r="D131">
+        <v>0.013681757676357462</v>
+      </c>
+      <c r="E131">
+        <v>0.0004088826119082592</v>
+      </c>
+      <c r="F131">
+        <v>0.25592565833911152</v>
+      </c>
+      <c r="G131">
+        <v>0.31680830962092066</v>
+      </c>
+      <c r="H131">
+        <v>0.26251638491062823</v>
+      </c>
+      <c r="I131">
+        <v>0.14965030211897387</v>
+      </c>
+      <c r="J131">
+        <v>6</v>
+      </c>
+      <c r="K131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B132">
+        <v>0.00064209997090792733</v>
+      </c>
+      <c r="C132">
+        <v>4.158698419955484e-10</v>
+      </c>
+      <c r="D132">
+        <v>0.010424876518989859</v>
+      </c>
+      <c r="E132">
+        <v>0.075560415739452422</v>
+      </c>
+      <c r="F132">
+        <v>0.0079440760546556147</v>
+      </c>
+      <c r="G132">
+        <v>0.20445002533799356</v>
+      </c>
+      <c r="H132">
+        <v>0.52811637607583617</v>
+      </c>
+      <c r="I132">
+        <v>0.17286212988629449</v>
+      </c>
+      <c r="J132">
+        <v>7</v>
+      </c>
+      <c r="K132">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B133">
+        <v>0.0068899472099634464</v>
+      </c>
+      <c r="C133">
+        <v>2.4528798499483829e-11</v>
+      </c>
+      <c r="D133">
+        <v>0.031326089282976484</v>
+      </c>
+      <c r="E133">
+        <v>0.025087585271799807</v>
+      </c>
+      <c r="F133">
+        <v>0.0079649565187514728</v>
+      </c>
+      <c r="G133">
+        <v>0.15946239788427249</v>
+      </c>
+      <c r="H133">
+        <v>0.39314175344874819</v>
+      </c>
+      <c r="I133">
+        <v>0.37612727035895938</v>
+      </c>
+      <c r="J133">
+        <v>7</v>
+      </c>
+      <c r="K133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B134">
+        <v>0.040964221500682997</v>
+      </c>
+      <c r="C134">
+        <v>0.0001475941435813701</v>
+      </c>
+      <c r="D134">
+        <v>0.045903588761890421</v>
+      </c>
+      <c r="E134">
+        <v>0.052009675934366756</v>
+      </c>
+      <c r="F134">
+        <v>0.047917603031857881</v>
+      </c>
+      <c r="G134">
+        <v>0.26494216953881056</v>
+      </c>
+      <c r="H134">
+        <v>0.24145661955659051</v>
+      </c>
+      <c r="I134">
+        <v>0.30665852753221939</v>
+      </c>
+      <c r="J134">
+        <v>8</v>
+      </c>
+      <c r="K134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B135">
+        <v>0.0075623082285735735</v>
+      </c>
+      <c r="C135">
+        <v>2.7497924036415412e-07</v>
+      </c>
+      <c r="D135">
+        <v>0.046174922186481719</v>
+      </c>
+      <c r="E135">
+        <v>0.12720077537524457</v>
+      </c>
+      <c r="F135">
+        <v>0.017989821714609427</v>
+      </c>
+      <c r="G135">
+        <v>0.28042034870911142</v>
+      </c>
+      <c r="H135">
+        <v>0.16178361982791362</v>
+      </c>
+      <c r="I135">
+        <v>0.35886792897882541</v>
+      </c>
+      <c r="J135">
+        <v>8</v>
+      </c>
+      <c r="K135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B136">
+        <v>8.0321238166224741e-06</v>
+      </c>
+      <c r="C136">
+        <v>1.8857428689342605e-10</v>
+      </c>
+      <c r="D136">
+        <v>0.0047141769772604232</v>
+      </c>
+      <c r="E136">
+        <v>0.0018980196533238281</v>
+      </c>
+      <c r="F136">
+        <v>0.22367451628904211</v>
+      </c>
+      <c r="G136">
+        <v>0.076260482016849374</v>
+      </c>
+      <c r="H136">
+        <v>0.51459216824664711</v>
+      </c>
+      <c r="I136">
+        <v>0.1788526045044862</v>
+      </c>
+      <c r="J136">
+        <v>7</v>
+      </c>
+      <c r="K136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B137">
+        <v>0.00048305290230109558</v>
+      </c>
+      <c r="C137">
+        <v>6.6422509797762101e-14</v>
+      </c>
+      <c r="D137">
+        <v>0.03545689018564338</v>
+      </c>
+      <c r="E137">
+        <v>0.0047575477034091113</v>
+      </c>
+      <c r="F137">
+        <v>0.00084455195317918242</v>
+      </c>
+      <c r="G137">
+        <v>0.3151842476327853</v>
+      </c>
+      <c r="H137">
+        <v>0.16590476668802526</v>
+      </c>
+      <c r="I137">
+        <v>0.47736894293459015</v>
+      </c>
+      <c r="J137">
+        <v>8</v>
+      </c>
+      <c r="K137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B138">
+        <v>6.7734089871594594e-05</v>
+      </c>
+      <c r="C138">
+        <v>2.4049213400428777e-05</v>
+      </c>
+      <c r="D138">
+        <v>0.18282453056133435</v>
+      </c>
+      <c r="E138">
+        <v>0.021631743483441573</v>
+      </c>
+      <c r="F138">
+        <v>0.015933441554984201</v>
+      </c>
+      <c r="G138">
+        <v>0.1232220818148823</v>
+      </c>
+      <c r="H138">
+        <v>0.42309985423977059</v>
+      </c>
+      <c r="I138">
+        <v>0.23319656504231501</v>
+      </c>
+      <c r="J138">
+        <v>7</v>
+      </c>
+      <c r="K138">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B139">
+        <v>0.021315107583188792</v>
+      </c>
+      <c r="C139">
+        <v>0.0001356089827302926</v>
+      </c>
+      <c r="D139">
+        <v>0.091984568441097314</v>
+      </c>
+      <c r="E139">
+        <v>0.024711204473917423</v>
+      </c>
+      <c r="F139">
+        <v>0.012728623650336024</v>
+      </c>
+      <c r="G139">
+        <v>0.13955889388702181</v>
+      </c>
+      <c r="H139">
+        <v>0.49589391787223291</v>
+      </c>
+      <c r="I139">
+        <v>0.21367207510947542</v>
+      </c>
+      <c r="J139">
+        <v>7</v>
+      </c>
+      <c r="K139">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B140">
+        <v>0.0099313367829366919</v>
+      </c>
+      <c r="C140">
+        <v>7.2714432397632032e-06</v>
+      </c>
+      <c r="D140">
+        <v>0.069675298096936011</v>
+      </c>
+      <c r="E140">
+        <v>0.028179433172018827</v>
+      </c>
+      <c r="F140">
+        <v>0.064654581097283559</v>
+      </c>
+      <c r="G140">
+        <v>0.19742005212183417</v>
+      </c>
+      <c r="H140">
+        <v>0.28867230252629239</v>
+      </c>
+      <c r="I140">
+        <v>0.34145972475945857</v>
+      </c>
+      <c r="J140">
+        <v>8</v>
+      </c>
+      <c r="K140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B141">
+        <v>0.00040801314616246536</v>
+      </c>
+      <c r="C141">
+        <v>3.0909080813420749e-08</v>
+      </c>
+      <c r="D141">
+        <v>0.0025565303164999768</v>
+      </c>
+      <c r="E141">
+        <v>0.0418592468729529</v>
+      </c>
+      <c r="F141">
+        <v>0.0021894899756888914</v>
+      </c>
+      <c r="G141">
+        <v>0.16738570059877156</v>
+      </c>
+      <c r="H141">
+        <v>0.59640447808295649</v>
+      </c>
+      <c r="I141">
+        <v>0.18919651009788699</v>
+      </c>
+      <c r="J141">
+        <v>7</v>
+      </c>
+      <c r="K141">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B142">
+        <v>0.011387572010951433</v>
+      </c>
+      <c r="C142">
+        <v>0.00042461058064100681</v>
+      </c>
+      <c r="D142">
+        <v>0.047994094388481116</v>
+      </c>
+      <c r="E142">
+        <v>0.053722479923581062</v>
+      </c>
+      <c r="F142">
+        <v>0.016769289666433727</v>
+      </c>
+      <c r="G142">
+        <v>0.20229301044028078</v>
+      </c>
+      <c r="H142">
+        <v>0.25184949146093427</v>
+      </c>
+      <c r="I142">
+        <v>0.41555945152869661</v>
+      </c>
+      <c r="J142">
+        <v>8</v>
+      </c>
+      <c r="K142">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B143">
+        <v>0.0018039534706918959</v>
+      </c>
+      <c r="C143">
+        <v>4.1763712117733478e-07</v>
+      </c>
+      <c r="D143">
+        <v>0.0023801658290401326</v>
+      </c>
+      <c r="E143">
+        <v>0.082405340861199161</v>
+      </c>
+      <c r="F143">
+        <v>0.0036044868426971968</v>
+      </c>
+      <c r="G143">
+        <v>0.23855588979464995</v>
+      </c>
+      <c r="H143">
+        <v>0.34585281688021458</v>
+      </c>
+      <c r="I143">
+        <v>0.32539692868438574</v>
+      </c>
+      <c r="J143">
+        <v>7</v>
+      </c>
+      <c r="K143">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B144">
+        <v>0.00051743856638628255</v>
+      </c>
+      <c r="C144">
+        <v>1.3825147634677352e-05</v>
+      </c>
+      <c r="D144">
+        <v>0.016507540639218707</v>
+      </c>
+      <c r="E144">
+        <v>0.026129321557866181</v>
+      </c>
+      <c r="F144">
+        <v>0.060713151329000493</v>
+      </c>
+      <c r="G144">
+        <v>0.13757581090735116</v>
+      </c>
+      <c r="H144">
+        <v>0.64666089381019842</v>
+      </c>
+      <c r="I144">
+        <v>0.111882018042344</v>
+      </c>
+      <c r="J144">
+        <v>7</v>
+      </c>
+      <c r="K144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B145">
+        <v>0.038700687874614073</v>
+      </c>
+      <c r="C145">
+        <v>0.00041525984459411732</v>
+      </c>
+      <c r="D145">
+        <v>0.011790781478472482</v>
+      </c>
+      <c r="E145">
+        <v>0.045183750666656405</v>
+      </c>
+      <c r="F145">
+        <v>0.011506113386208053</v>
+      </c>
+      <c r="G145">
+        <v>0.26545642563193689</v>
+      </c>
+      <c r="H145">
+        <v>0.15920407552010923</v>
+      </c>
+      <c r="I145">
+        <v>0.46774290559740878</v>
+      </c>
+      <c r="J145">
+        <v>8</v>
+      </c>
+      <c r="K145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B146">
+        <v>0.026584728232671165</v>
+      </c>
+      <c r="C146">
+        <v>0.00037470247043626989</v>
+      </c>
+      <c r="D146">
+        <v>0.013793184588162217</v>
+      </c>
+      <c r="E146">
+        <v>0.095590262082611746</v>
+      </c>
+      <c r="F146">
+        <v>0.040404537881179897</v>
+      </c>
+      <c r="G146">
+        <v>0.23119604905260713</v>
+      </c>
+      <c r="H146">
+        <v>0.26034863992806961</v>
+      </c>
+      <c r="I146">
+        <v>0.3317078957642618</v>
+      </c>
+      <c r="J146">
+        <v>8</v>
+      </c>
+      <c r="K146">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B147">
+        <v>0.0064046221488847418</v>
+      </c>
+      <c r="C147">
+        <v>1.0071446200095737e-05</v>
+      </c>
+      <c r="D147">
+        <v>0.014552778170503365</v>
+      </c>
+      <c r="E147">
+        <v>0.022736654454796161</v>
+      </c>
+      <c r="F147">
+        <v>0.011848736192070058</v>
+      </c>
+      <c r="G147">
+        <v>0.13311847542135558</v>
+      </c>
+      <c r="H147">
+        <v>0.54835551596916432</v>
+      </c>
+      <c r="I147">
+        <v>0.26297314619702566</v>
+      </c>
+      <c r="J147">
+        <v>7</v>
+      </c>
+      <c r="K147">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B148">
+        <v>0.0042711308303386361</v>
+      </c>
+      <c r="C148">
+        <v>2.8268114049249685e-06</v>
+      </c>
+      <c r="D148">
+        <v>0.0077299141986904426</v>
+      </c>
+      <c r="E148">
+        <v>0.10251733976033658</v>
+      </c>
+      <c r="F148">
+        <v>0.0054990747348144841</v>
+      </c>
+      <c r="G148">
+        <v>0.16051276127998687</v>
+      </c>
+      <c r="H148">
+        <v>0.4603890336757579</v>
+      </c>
+      <c r="I148">
+        <v>0.25907791870867014</v>
+      </c>
+      <c r="J148">
+        <v>7</v>
+      </c>
+      <c r="K148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B149">
+        <v>0.010498251130429041</v>
+      </c>
+      <c r="C149">
+        <v>9.9010584542700121e-05</v>
+      </c>
+      <c r="D149">
+        <v>0.038378419784122722</v>
+      </c>
+      <c r="E149">
+        <v>0.094575318850684889</v>
+      </c>
+      <c r="F149">
+        <v>0.026805857703299248</v>
+      </c>
+      <c r="G149">
+        <v>0.23645654881747902</v>
+      </c>
+      <c r="H149">
+        <v>0.20372560739102194</v>
+      </c>
+      <c r="I149">
+        <v>0.38946098573842031</v>
+      </c>
+      <c r="J149">
+        <v>8</v>
+      </c>
+      <c r="K149">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B150">
+        <v>0.0061860684524784066</v>
+      </c>
+      <c r="C150">
+        <v>1.8489169556199473e-05</v>
+      </c>
+      <c r="D150">
+        <v>0.012308912898508143</v>
+      </c>
+      <c r="E150">
+        <v>0.017142595211843966</v>
+      </c>
+      <c r="F150">
+        <v>0.15451985904420881</v>
+      </c>
+      <c r="G150">
+        <v>0.064703453379742454</v>
+      </c>
+      <c r="H150">
+        <v>0.66590947048352345</v>
+      </c>
+      <c r="I150">
+        <v>0.079211151360138482</v>
+      </c>
+      <c r="J150">
+        <v>7</v>
+      </c>
+      <c r="K150">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B151">
+        <v>0.026696783600712603</v>
+      </c>
+      <c r="C151">
+        <v>1.6815882031304075e-05</v>
+      </c>
+      <c r="D151">
+        <v>0.024164372453818864</v>
+      </c>
+      <c r="E151">
+        <v>0.043708485351996527</v>
+      </c>
+      <c r="F151">
+        <v>0.014622567371243107</v>
+      </c>
+      <c r="G151">
+        <v>0.3364623496681089</v>
+      </c>
+      <c r="H151">
+        <v>0.19961705206531014</v>
+      </c>
+      <c r="I151">
+        <v>0.35471157360677852</v>
+      </c>
+      <c r="J151">
+        <v>8</v>
+      </c>
+      <c r="K151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B152">
+        <v>0.00033484593457113598</v>
+      </c>
+      <c r="C152">
+        <v>5.1633271390961835e-09</v>
+      </c>
+      <c r="D152">
+        <v>0.0052426003152010962</v>
+      </c>
+      <c r="E152">
+        <v>0.079245970734038301</v>
+      </c>
+      <c r="F152">
+        <v>0.010682904492970682</v>
+      </c>
+      <c r="G152">
+        <v>0.26398571142828442</v>
+      </c>
+      <c r="H152">
+        <v>0.24580719727330114</v>
+      </c>
+      <c r="I152">
+        <v>0.39470076465830611</v>
+      </c>
+      <c r="J152">
+        <v>8</v>
+      </c>
+      <c r="K152">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B153">
+        <v>0.0012987028263810659</v>
+      </c>
+      <c r="C153">
+        <v>3.2645486355868564e-06</v>
+      </c>
+      <c r="D153">
+        <v>0.0045273436932165715</v>
+      </c>
+      <c r="E153">
+        <v>0.075941297008176034</v>
+      </c>
+      <c r="F153">
+        <v>0.0045891840557606327</v>
+      </c>
+      <c r="G153">
+        <v>0.15047004432731359</v>
+      </c>
+      <c r="H153">
+        <v>0.42419803676108359</v>
+      </c>
+      <c r="I153">
+        <v>0.33897212677943295</v>
+      </c>
+      <c r="J153">
+        <v>7</v>
+      </c>
+      <c r="K153">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B154">
+        <v>0.004142981176591687</v>
+      </c>
+      <c r="C154">
+        <v>2.1330043665227515e-05</v>
+      </c>
+      <c r="D154">
+        <v>0.013687043223077714</v>
+      </c>
+      <c r="E154">
+        <v>0.021135237159293878</v>
+      </c>
+      <c r="F154">
+        <v>0.032632416148155777</v>
+      </c>
+      <c r="G154">
+        <v>0.12742277887733244</v>
+      </c>
+      <c r="H154">
+        <v>0.64042545788882876</v>
+      </c>
+      <c r="I154">
+        <v>0.16053275548305454</v>
+      </c>
+      <c r="J154">
+        <v>7</v>
+      </c>
+      <c r="K154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B155">
+        <v>0.0060466782279686195</v>
+      </c>
+      <c r="C155">
+        <v>2.5324844086114243e-07</v>
+      </c>
+      <c r="D155">
+        <v>0.0061159899555499756</v>
+      </c>
+      <c r="E155">
+        <v>0.018569881119129571</v>
+      </c>
+      <c r="F155">
+        <v>0.0030344728024419409</v>
+      </c>
+      <c r="G155">
+        <v>0.39144645697906905</v>
+      </c>
+      <c r="H155">
+        <v>0.33998236130941173</v>
+      </c>
+      <c r="I155">
+        <v>0.23480390635798826</v>
+      </c>
+      <c r="J155">
+        <v>6</v>
+      </c>
+      <c r="K155">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B156">
+        <v>0.015256976162253159</v>
+      </c>
+      <c r="C156">
+        <v>6.6528924369952042e-07</v>
+      </c>
+      <c r="D156">
+        <v>0.01154520633243313</v>
+      </c>
+      <c r="E156">
+        <v>0.064640511106071233</v>
+      </c>
+      <c r="F156">
+        <v>0.013139952422505338</v>
+      </c>
+      <c r="G156">
+        <v>0.1514840156431318</v>
+      </c>
+      <c r="H156">
+        <v>0.38823707893992604</v>
+      </c>
+      <c r="I156">
+        <v>0.35569559410443563</v>
+      </c>
+      <c r="J156">
+        <v>7</v>
+      </c>
+      <c r="K156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B157">
+        <v>5.4603924608410606e-05</v>
+      </c>
+      <c r="C157">
+        <v>0.0014771046420215723</v>
+      </c>
+      <c r="D157">
+        <v>0.041791232080314066</v>
+      </c>
+      <c r="E157">
+        <v>0.039371858111357648</v>
+      </c>
+      <c r="F157">
+        <v>0.0164964641967798</v>
+      </c>
+      <c r="G157">
+        <v>0.11771828560628529</v>
+      </c>
+      <c r="H157">
+        <v>0.0093585272291968336</v>
+      </c>
+      <c r="I157">
+        <v>0.77373192420943648</v>
+      </c>
+      <c r="J157">
+        <v>8</v>
+      </c>
+      <c r="K157">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B158">
+        <v>0.0010134038531817431</v>
+      </c>
+      <c r="C158">
+        <v>0.0003670489691444082</v>
+      </c>
+      <c r="D158">
+        <v>0.065020120986141072</v>
+      </c>
+      <c r="E158">
+        <v>0.042948273281573759</v>
+      </c>
+      <c r="F158">
+        <v>0.0057727407808251651</v>
+      </c>
+      <c r="G158">
+        <v>0.14429570353173557</v>
+      </c>
+      <c r="H158">
+        <v>0.019175329869367538</v>
+      </c>
+      <c r="I158">
+        <v>0.72140737872803062</v>
+      </c>
+      <c r="J158">
+        <v>8</v>
+      </c>
+      <c r="K158">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B159">
+        <v>0.0269472238417671</v>
+      </c>
+      <c r="C159">
+        <v>7.1072731109781385e-05</v>
+      </c>
+      <c r="D159">
+        <v>0.048254862007047476</v>
+      </c>
+      <c r="E159">
+        <v>0.057172864065079668</v>
+      </c>
+      <c r="F159">
+        <v>0.016367923801972419</v>
+      </c>
+      <c r="G159">
+        <v>0.33744006763922363</v>
+      </c>
+      <c r="H159">
+        <v>0.1140827877008886</v>
+      </c>
+      <c r="I159">
+        <v>0.3996631982129113</v>
+      </c>
+      <c r="J159">
+        <v>8</v>
+      </c>
+      <c r="K159">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B160">
+        <v>0.0011437433081840562</v>
+      </c>
+      <c r="C160">
+        <v>8.8170971440982673e-05</v>
+      </c>
+      <c r="D160">
+        <v>0.089662070542034011</v>
+      </c>
+      <c r="E160">
+        <v>0.11143354966565702</v>
+      </c>
+      <c r="F160">
+        <v>0.013445778435160866</v>
+      </c>
+      <c r="G160">
+        <v>0.17800332190230139</v>
+      </c>
+      <c r="H160">
+        <v>0.071518659569707516</v>
+      </c>
+      <c r="I160">
+        <v>0.5347047056055142</v>
+      </c>
+      <c r="J160">
+        <v>8</v>
+      </c>
+      <c r="K160">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B161">
+        <v>0.010559444917314491</v>
+      </c>
+      <c r="C161">
+        <v>3.1608825475678853e-05</v>
+      </c>
+      <c r="D161">
+        <v>0.044866569872551318</v>
+      </c>
+      <c r="E161">
+        <v>0.12033107248258092</v>
+      </c>
+      <c r="F161">
+        <v>0.064257161770107929</v>
+      </c>
+      <c r="G161">
+        <v>0.21179862727252174</v>
+      </c>
+      <c r="H161">
+        <v>0.17066150089503834</v>
+      </c>
+      <c r="I161">
+        <v>0.37749401396440946</v>
+      </c>
+      <c r="J161">
+        <v>8</v>
+      </c>
+      <c r="K161">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B162">
+        <v>0.019960899326904518</v>
+      </c>
+      <c r="C162">
+        <v>5.9114694952954816e-07</v>
+      </c>
+      <c r="D162">
+        <v>0.040254293031459221</v>
+      </c>
+      <c r="E162">
+        <v>0.047698578838795157</v>
+      </c>
+      <c r="F162">
+        <v>0.0053052734953011075</v>
+      </c>
+      <c r="G162">
+        <v>0.45766837550522799</v>
+      </c>
+      <c r="H162">
+        <v>0.17229695024331537</v>
+      </c>
+      <c r="I162">
+        <v>0.25681503841204717</v>
+      </c>
+      <c r="J162">
+        <v>6</v>
+      </c>
+      <c r="K162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B163">
+        <v>0.025578197762728162</v>
+      </c>
+      <c r="C163">
+        <v>1.5795611645369791e-06</v>
+      </c>
+      <c r="D163">
+        <v>0.042804723012546605</v>
+      </c>
+      <c r="E163">
+        <v>0.10194119516838751</v>
+      </c>
+      <c r="F163">
+        <v>0.032273219080974337</v>
+      </c>
+      <c r="G163">
+        <v>0.25933333926937807</v>
+      </c>
+      <c r="H163">
+        <v>0.21692240005714258</v>
+      </c>
+      <c r="I163">
+        <v>0.3211453460876782</v>
+      </c>
+      <c r="J163">
+        <v>8</v>
+      </c>
+      <c r="K163">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B164">
+        <v>0.00087107577807207998</v>
+      </c>
+      <c r="C164">
+        <v>0.00032873842561236184</v>
+      </c>
+      <c r="D164">
+        <v>0.045459694317630799</v>
+      </c>
+      <c r="E164">
+        <v>0.085940247686637272</v>
+      </c>
+      <c r="F164">
+        <v>0.008468556194761296</v>
+      </c>
+      <c r="G164">
+        <v>0.25271459846137817</v>
+      </c>
+      <c r="H164">
+        <v>0.040432111958878927</v>
+      </c>
+      <c r="I164">
+        <v>0.56578497717702914</v>
+      </c>
+      <c r="J164">
+        <v>8</v>
+      </c>
+      <c r="K164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B165">
+        <v>0.028624831228940988</v>
+      </c>
+      <c r="C165">
+        <v>2.2398205920488507e-05</v>
+      </c>
+      <c r="D165">
+        <v>0.039568025200448907</v>
+      </c>
+      <c r="E165">
+        <v>0.047303377498897313</v>
+      </c>
+      <c r="F165">
+        <v>0.108479240320541</v>
+      </c>
+      <c r="G165">
+        <v>0.16073674124170734</v>
+      </c>
+      <c r="H165">
+        <v>0.1955588136534735</v>
+      </c>
+      <c r="I165">
+        <v>0.41970657265007066</v>
+      </c>
+      <c r="J165">
+        <v>8</v>
+      </c>
+      <c r="K165">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B166">
+        <v>0.00072147054116906311</v>
+      </c>
+      <c r="C166">
+        <v>1.5991851551267638e-07</v>
+      </c>
+      <c r="D166">
+        <v>0.046863035305394936</v>
+      </c>
+      <c r="E166">
+        <v>0.096831168378914423</v>
+      </c>
+      <c r="F166">
+        <v>0.076268344459470866</v>
+      </c>
+      <c r="G166">
+        <v>0.12665800371014385</v>
+      </c>
+      <c r="H166">
+        <v>0.17085286173204944</v>
+      </c>
+      <c r="I166">
+        <v>0.48180495595434192</v>
+      </c>
+      <c r="J166">
+        <v>8</v>
+      </c>
+      <c r="K166">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B167">
+        <v>0.0015667649430665892</v>
+      </c>
+      <c r="C167">
+        <v>5.8224466261897456e-05</v>
+      </c>
+      <c r="D167">
+        <v>0.031411671022037443</v>
+      </c>
+      <c r="E167">
+        <v>0.080724344788144622</v>
+      </c>
+      <c r="F167">
+        <v>0.067723653970966372</v>
+      </c>
+      <c r="G167">
+        <v>0.21412710467723259</v>
+      </c>
+      <c r="H167">
+        <v>0.055498359683094536</v>
+      </c>
+      <c r="I167">
+        <v>0.54888987644919585</v>
+      </c>
+      <c r="J167">
+        <v>8</v>
+      </c>
+      <c r="K167">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B168">
+        <v>0.0029588567222731343</v>
+      </c>
+      <c r="C168">
+        <v>4.1420422262055224e-06</v>
+      </c>
+      <c r="D168">
+        <v>0.08364630099024481</v>
+      </c>
+      <c r="E168">
+        <v>0.0053451801648523303</v>
+      </c>
+      <c r="F168">
+        <v>0.032845882157814324</v>
+      </c>
+      <c r="G168">
+        <v>0.24211255184728861</v>
+      </c>
+      <c r="H168">
+        <v>0.2862346923316883</v>
+      </c>
+      <c r="I168">
+        <v>0.34685239374361232</v>
+      </c>
+      <c r="J168">
+        <v>8</v>
+      </c>
+      <c r="K168">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B169">
+        <v>0.00011420405167792636</v>
+      </c>
+      <c r="C169">
+        <v>6.0270886776089035e-08</v>
+      </c>
+      <c r="D169">
+        <v>0.039275339338353712</v>
+      </c>
+      <c r="E169">
+        <v>0.014530823668933402</v>
+      </c>
+      <c r="F169">
+        <v>0.02864324899977606</v>
+      </c>
+      <c r="G169">
+        <v>0.23550377998812189</v>
+      </c>
+      <c r="H169">
+        <v>0.31490948998532658</v>
+      </c>
+      <c r="I169">
+        <v>0.36702305369692362</v>
+      </c>
+      <c r="J169">
+        <v>8</v>
+      </c>
+      <c r="K169">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B170">
+        <v>0.10597139893532102</v>
+      </c>
+      <c r="C170">
+        <v>0.00015325111924970766</v>
+      </c>
+      <c r="D170">
+        <v>0.021558008741918482</v>
+      </c>
+      <c r="E170">
+        <v>0.14150230950801593</v>
+      </c>
+      <c r="F170">
+        <v>0.063874517514916018</v>
+      </c>
+      <c r="G170">
+        <v>0.30696036780867675</v>
+      </c>
+      <c r="H170">
+        <v>0.13795464843549995</v>
+      </c>
+      <c r="I170">
+        <v>0.22202549793640225</v>
+      </c>
+      <c r="J170">
+        <v>6</v>
+      </c>
+      <c r="K170">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B171">
+        <v>0.00064391397240395876</v>
+      </c>
+      <c r="C171">
+        <v>5.9574686520618704e-08</v>
+      </c>
+      <c r="D171">
+        <v>0.035529758679400898</v>
+      </c>
+      <c r="E171">
+        <v>0.18361946862654985</v>
+      </c>
+      <c r="F171">
+        <v>0.28825273301782961</v>
+      </c>
+      <c r="G171">
+        <v>0.088263672759978054</v>
+      </c>
+      <c r="H171">
+        <v>0.082425274456486175</v>
+      </c>
+      <c r="I171">
+        <v>0.3212651189126649</v>
+      </c>
+      <c r="J171">
+        <v>8</v>
+      </c>
+      <c r="K171">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B172">
+        <v>0.013428112601503275</v>
+      </c>
+      <c r="C172">
+        <v>0.00039058788180164545</v>
+      </c>
+      <c r="D172">
+        <v>0.050731628751151281</v>
+      </c>
+      <c r="E172">
+        <v>0.092188421693130268</v>
+      </c>
+      <c r="F172">
+        <v>0.0037370356486948653</v>
+      </c>
+      <c r="G172">
+        <v>0.12442687486942283</v>
+      </c>
+      <c r="H172">
+        <v>0.043650295059226379</v>
+      </c>
+      <c r="I172">
+        <v>0.67144704349506956</v>
+      </c>
+      <c r="J172">
+        <v>8</v>
+      </c>
+      <c r="K172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B173">
+        <v>0.0011009473962016118</v>
+      </c>
+      <c r="C173">
+        <v>4.7963459629558626e-09</v>
+      </c>
+      <c r="D173">
+        <v>0.028605489441275288</v>
+      </c>
+      <c r="E173">
+        <v>0.011701170116003716</v>
+      </c>
+      <c r="F173">
+        <v>0.024856581773539364</v>
+      </c>
+      <c r="G173">
+        <v>0.48901335101463267</v>
+      </c>
+      <c r="H173">
+        <v>0.16240505240844016</v>
+      </c>
+      <c r="I173">
+        <v>0.28231740305356112</v>
+      </c>
+      <c r="J173">
+        <v>6</v>
+      </c>
+      <c r="K173">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B174">
+        <v>0.0024088840719667199</v>
+      </c>
+      <c r="C174">
+        <v>1.1139594841988709e-09</v>
+      </c>
+      <c r="D174">
+        <v>0.090225861579114983</v>
+      </c>
+      <c r="E174">
+        <v>0.06211287059920434</v>
+      </c>
+      <c r="F174">
+        <v>0.0030220814679298848</v>
+      </c>
+      <c r="G174">
+        <v>0.33524730236125139</v>
+      </c>
+      <c r="H174">
+        <v>0.17151867224054784</v>
+      </c>
+      <c r="I174">
+        <v>0.33546432656602543</v>
+      </c>
+      <c r="J174">
+        <v>8</v>
+      </c>
+      <c r="K174">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B175">
+        <v>0.019944971668821362</v>
+      </c>
+      <c r="C175">
+        <v>2.2132866453090467e-11</v>
+      </c>
+      <c r="D175">
+        <v>0.0032070721841995103</v>
+      </c>
+      <c r="E175">
+        <v>0.036092239053982809</v>
+      </c>
+      <c r="F175">
+        <v>0.0045061553124289243</v>
+      </c>
+      <c r="G175">
+        <v>0.17102282070776262</v>
+      </c>
+      <c r="H175">
+        <v>0.34920104571104843</v>
+      </c>
+      <c r="I175">
+        <v>0.41602569533962347</v>
+      </c>
+      <c r="J175">
+        <v>8</v>
+      </c>
+      <c r="K175">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B176">
+        <v>0.00057702884285936416</v>
+      </c>
+      <c r="C176">
+        <v>3.1732323921208413e-06</v>
+      </c>
+      <c r="D176">
+        <v>0.020292808992453205</v>
+      </c>
+      <c r="E176">
+        <v>0.17902668690741544</v>
+      </c>
+      <c r="F176">
+        <v>0.055882185566711949</v>
+      </c>
+      <c r="G176">
+        <v>0.22570279186538567</v>
+      </c>
+      <c r="H176">
+        <v>0.19499859194828664</v>
+      </c>
+      <c r="I176">
+        <v>0.32351673264449565</v>
+      </c>
+      <c r="J176">
+        <v>8</v>
+      </c>
+      <c r="K176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B177">
+        <v>0.00025616528836174262</v>
+      </c>
+      <c r="C177">
+        <v>1.0725556477540683e-05</v>
+      </c>
+      <c r="D177">
+        <v>0.037321378200385398</v>
+      </c>
+      <c r="E177">
+        <v>0.018584074560387548</v>
+      </c>
+      <c r="F177">
+        <v>0.036092380988535233</v>
+      </c>
+      <c r="G177">
+        <v>0.22636618370586861</v>
+      </c>
+      <c r="H177">
+        <v>0.09581599348307393</v>
+      </c>
+      <c r="I177">
+        <v>0.58555309821691004</v>
+      </c>
+      <c r="J177">
+        <v>8</v>
+      </c>
+      <c r="K177">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B178">
+        <v>0.0015509345210889961</v>
+      </c>
+      <c r="C178">
+        <v>3.5371322153574775e-10</v>
+      </c>
+      <c r="D178">
+        <v>0.014547578360885747</v>
+      </c>
+      <c r="E178">
+        <v>0.074059738006457085</v>
+      </c>
+      <c r="F178">
+        <v>0.044562741338055774</v>
+      </c>
+      <c r="G178">
+        <v>0.13022401671028272</v>
+      </c>
+      <c r="H178">
+        <v>0.25669624939674074</v>
+      </c>
+      <c r="I178">
+        <v>0.47835874131277578</v>
+      </c>
+      <c r="J178">
+        <v>8</v>
+      </c>
+      <c r="K178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B179">
+        <v>0.00027905773489456147</v>
+      </c>
+      <c r="C179">
+        <v>2.3538527531627628e-05</v>
+      </c>
+      <c r="D179">
+        <v>0.027934291545806202</v>
+      </c>
+      <c r="E179">
+        <v>0.076341581998853644</v>
+      </c>
+      <c r="F179">
+        <v>0.0090091951853552756</v>
+      </c>
+      <c r="G179">
+        <v>0.19049183827294591</v>
+      </c>
+      <c r="H179">
+        <v>0.053575824503292249</v>
+      </c>
+      <c r="I179">
+        <v>0.64234467223132052</v>
+      </c>
+      <c r="J179">
+        <v>8</v>
+      </c>
+      <c r="K179">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B180">
+        <v>0.00045698103548293752</v>
+      </c>
+      <c r="C180">
+        <v>8.8523337270218284e-05</v>
+      </c>
+      <c r="D180">
+        <v>0.039360772158347337</v>
+      </c>
+      <c r="E180">
+        <v>0.019621577234595081</v>
+      </c>
+      <c r="F180">
+        <v>0.071193955689225624</v>
+      </c>
+      <c r="G180">
+        <v>0.25752734894440271</v>
+      </c>
+      <c r="H180">
+        <v>0.090150456019667369</v>
+      </c>
+      <c r="I180">
+        <v>0.52160038558100874</v>
+      </c>
+      <c r="J180">
+        <v>8</v>
+      </c>
+      <c r="K180">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B181">
+        <v>0.00057635782741328556</v>
+      </c>
+      <c r="C181">
+        <v>0.00091950021358088536</v>
+      </c>
+      <c r="D181">
+        <v>0.07151478411222309</v>
+      </c>
+      <c r="E181">
+        <v>0.066244616426297379</v>
+      </c>
+      <c r="F181">
+        <v>0.028014522308161673</v>
+      </c>
+      <c r="G181">
+        <v>0.17255647933150936</v>
+      </c>
+      <c r="H181">
+        <v>0.10739881123353294</v>
+      </c>
+      <c r="I181">
+        <v>0.5527749285472815</v>
+      </c>
+      <c r="J181">
+        <v>8</v>
+      </c>
+      <c r="K181">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B182">
+        <v>0.0091469047277782135</v>
+      </c>
+      <c r="C182">
+        <v>0.0019448677592537303</v>
+      </c>
+      <c r="D182">
+        <v>0.074333886005572669</v>
+      </c>
+      <c r="E182">
+        <v>0.12565602082495325</v>
+      </c>
+      <c r="F182">
+        <v>0.022566167004625978</v>
+      </c>
+      <c r="G182">
+        <v>0.20671119687957612</v>
+      </c>
+      <c r="H182">
+        <v>0.088406926782356704</v>
+      </c>
+      <c r="I182">
+        <v>0.47123403001588338</v>
+      </c>
+      <c r="J182">
+        <v>8</v>
+      </c>
+      <c r="K182">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B183">
+        <v>0.0066030848682902465</v>
+      </c>
+      <c r="C183">
+        <v>0.00025761363556067848</v>
+      </c>
+      <c r="D183">
+        <v>0.036509109306415662</v>
+      </c>
+      <c r="E183">
+        <v>0.053171148158195791</v>
+      </c>
+      <c r="F183">
+        <v>0.0090418359661956303</v>
+      </c>
+      <c r="G183">
+        <v>0.23837100412578538</v>
+      </c>
+      <c r="H183">
+        <v>0.086948731036261662</v>
+      </c>
+      <c r="I183">
+        <v>0.56909747290329504</v>
+      </c>
+      <c r="J183">
+        <v>8</v>
+      </c>
+      <c r="K183">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B184">
+        <v>0.0043563105023777318</v>
+      </c>
+      <c r="C184">
+        <v>0.00021286264742187869</v>
+      </c>
+      <c r="D184">
+        <v>0.026317841545512453</v>
+      </c>
+      <c r="E184">
+        <v>0.086708817355084247</v>
+      </c>
+      <c r="F184">
+        <v>0.030592696019094819</v>
+      </c>
+      <c r="G184">
+        <v>0.19532817759016352</v>
+      </c>
+      <c r="H184">
+        <v>0.24565342847943616</v>
+      </c>
+      <c r="I184">
+        <v>0.41082986586090925</v>
+      </c>
+      <c r="J184">
+        <v>8</v>
+      </c>
+      <c r="K184">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B185">
+        <v>0.00050417556906675915</v>
+      </c>
+      <c r="C185">
+        <v>1.5399766365511492e-08</v>
+      </c>
+      <c r="D185">
+        <v>0.013788302080488804</v>
+      </c>
+      <c r="E185">
+        <v>0.10693068992206554</v>
+      </c>
+      <c r="F185">
+        <v>0.038882669142860489</v>
+      </c>
+      <c r="G185">
+        <v>0.17475719775634291</v>
+      </c>
+      <c r="H185">
+        <v>0.30745816686719801</v>
+      </c>
+      <c r="I185">
+        <v>0.35767878326221092</v>
+      </c>
+      <c r="J185">
+        <v>8</v>
+      </c>
+      <c r="K185">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B186">
+        <v>0.014027408231009042</v>
+      </c>
+      <c r="C186">
+        <v>1.0830141332973658e-05</v>
+      </c>
+      <c r="D186">
+        <v>0.015288790668000669</v>
+      </c>
+      <c r="E186">
+        <v>0.043668416468081499</v>
+      </c>
+      <c r="F186">
+        <v>0.006753472606780349</v>
+      </c>
+      <c r="G186">
+        <v>0.27791800623899188</v>
+      </c>
+      <c r="H186">
+        <v>0.26998684217493557</v>
+      </c>
+      <c r="I186">
+        <v>0.37234623347086787</v>
+      </c>
+      <c r="J186">
+        <v>8</v>
+      </c>
+      <c r="K186">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B187">
+        <v>0.011573167696476113</v>
+      </c>
+      <c r="C187">
+        <v>3.313271450247038e-05</v>
+      </c>
+      <c r="D187">
+        <v>0.033527222343850201</v>
+      </c>
+      <c r="E187">
+        <v>0.085160384364748723</v>
+      </c>
+      <c r="F187">
+        <v>0.0059372202919916938</v>
+      </c>
+      <c r="G187">
+        <v>0.25394216995490354</v>
+      </c>
+      <c r="H187">
+        <v>0.11092231891072449</v>
+      </c>
+      <c r="I187">
+        <v>0.49890438372280271</v>
+      </c>
+      <c r="J187">
+        <v>8</v>
+      </c>
+      <c r="K187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B188">
+        <v>0.083566811904967009</v>
+      </c>
+      <c r="C188">
+        <v>0.00036127419478670242</v>
+      </c>
+      <c r="D188">
+        <v>0.032927789798932759</v>
+      </c>
+      <c r="E188">
+        <v>0.051877730046451277</v>
+      </c>
+      <c r="F188">
+        <v>0.022254972704197785</v>
+      </c>
+      <c r="G188">
+        <v>0.26496732711070037</v>
+      </c>
+      <c r="H188">
+        <v>0.24847825429301165</v>
+      </c>
+      <c r="I188">
+        <v>0.29556583994695246</v>
+      </c>
+      <c r="J188">
+        <v>8</v>
+      </c>
+      <c r="K188">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B189">
+        <v>0.0026865382196067356</v>
+      </c>
+      <c r="C189">
+        <v>0.00036196362340803042</v>
+      </c>
+      <c r="D189">
+        <v>0.033315646176637188</v>
+      </c>
+      <c r="E189">
+        <v>0.10438069576096361</v>
+      </c>
+      <c r="F189">
+        <v>0.044472891597877845</v>
+      </c>
+      <c r="G189">
+        <v>0.2390364496832322</v>
+      </c>
+      <c r="H189">
+        <v>0.21912274987967126</v>
+      </c>
+      <c r="I189">
+        <v>0.35662306505860325</v>
+      </c>
+      <c r="J189">
+        <v>8</v>
+      </c>
+      <c r="K189">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B190">
+        <v>0.020840605520595658</v>
+      </c>
+      <c r="C190">
+        <v>0.0001652827979166158</v>
+      </c>
+      <c r="D190">
+        <v>0.021393644379254107</v>
+      </c>
+      <c r="E190">
+        <v>0.094953899147562706</v>
+      </c>
+      <c r="F190">
+        <v>0.023891698190667179</v>
+      </c>
+      <c r="G190">
+        <v>0.22434518043826518</v>
+      </c>
+      <c r="H190">
+        <v>0.081060209644330236</v>
+      </c>
+      <c r="I190">
+        <v>0.53334947988140813</v>
+      </c>
+      <c r="J190">
+        <v>8</v>
+      </c>
+      <c r="K190">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B191">
+        <v>0.0012947176796521433</v>
+      </c>
+      <c r="C191">
+        <v>3.9479261089633409e-06</v>
+      </c>
+      <c r="D191">
+        <v>0.010462584969221663</v>
+      </c>
+      <c r="E191">
+        <v>0.071800919384670592</v>
+      </c>
+      <c r="F191">
+        <v>0.050169106791344092</v>
+      </c>
+      <c r="G191">
+        <v>0.24451132048388666</v>
+      </c>
+      <c r="H191">
+        <v>0.099195253191644475</v>
+      </c>
+      <c r="I191">
+        <v>0.52256214957347125</v>
+      </c>
+      <c r="J191">
+        <v>8</v>
+      </c>
+      <c r="K191">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B192">
+        <v>0.0012987832902367606</v>
+      </c>
+      <c r="C192">
+        <v>3.5798661723677363e-06</v>
+      </c>
+      <c r="D192">
+        <v>0.007302187413544577</v>
+      </c>
+      <c r="E192">
+        <v>0.13742219827138727</v>
+      </c>
+      <c r="F192">
+        <v>0.0089065457579178692</v>
+      </c>
+      <c r="G192">
+        <v>0.21244150095527001</v>
+      </c>
+      <c r="H192">
+        <v>0.28114349430273761</v>
+      </c>
+      <c r="I192">
+        <v>0.35148171014273361</v>
+      </c>
+      <c r="J192">
+        <v>8</v>
+      </c>
+      <c r="K192">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B193">
+        <v>0.0026879292882543496</v>
+      </c>
+      <c r="C193">
+        <v>3.5824010485546148e-05</v>
+      </c>
+      <c r="D193">
+        <v>0.019377782260556371</v>
+      </c>
+      <c r="E193">
+        <v>0.046770097577490274</v>
+      </c>
+      <c r="F193">
+        <v>0.0098393673334592653</v>
+      </c>
+      <c r="G193">
+        <v>0.35055739168503008</v>
+      </c>
+      <c r="H193">
+        <v>0.12675452122703043</v>
+      </c>
+      <c r="I193">
+        <v>0.44397708661769369</v>
+      </c>
+      <c r="J193">
+        <v>8</v>
+      </c>
+      <c r="K193">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B194">
+        <v>0.019927955637448064</v>
+      </c>
+      <c r="C194">
+        <v>0.00011579389263104575</v>
+      </c>
+      <c r="D194">
+        <v>0.022907304369684946</v>
+      </c>
+      <c r="E194">
+        <v>0.1116552219815318</v>
+      </c>
+      <c r="F194">
+        <v>0.011092658542294133</v>
+      </c>
+      <c r="G194">
+        <v>0.24643438847683227</v>
+      </c>
+      <c r="H194">
+        <v>0.12236588342008321</v>
+      </c>
+      <c r="I194">
+        <v>0.46550079367949471</v>
+      </c>
+      <c r="J194">
+        <v>8</v>
+      </c>
+      <c r="K194">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B195">
+        <v>0.0097385002017264417</v>
+      </c>
+      <c r="C195">
+        <v>0.00014112565849750845</v>
+      </c>
+      <c r="D195">
+        <v>0.043575654147005198</v>
+      </c>
+      <c r="E195">
+        <v>0.057411089870780189</v>
+      </c>
+      <c r="F195">
+        <v>0.013175327747236456</v>
+      </c>
+      <c r="G195">
+        <v>0.28076025276977257</v>
+      </c>
+      <c r="H195">
+        <v>0.14962991279059404</v>
+      </c>
+      <c r="I195">
+        <v>0.44556813681438767</v>
+      </c>
+      <c r="J195">
+        <v>8</v>
+      </c>
+      <c r="K195">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B196">
+        <v>0.12292514980931719</v>
+      </c>
+      <c r="C196">
+        <v>0.0002060928272447168</v>
+      </c>
+      <c r="D196">
+        <v>0.020344442403012569</v>
+      </c>
+      <c r="E196">
+        <v>0.089420773383083144</v>
+      </c>
+      <c r="F196">
+        <v>0.16633809632365235</v>
+      </c>
+      <c r="G196">
+        <v>0.16391814166806482</v>
+      </c>
+      <c r="H196">
+        <v>0.078740137959105061</v>
+      </c>
+      <c r="I196">
+        <v>0.35810716562652017</v>
+      </c>
+      <c r="J196">
+        <v>8</v>
+      </c>
+      <c r="K196">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B197">
+        <v>0.0016313885518876269</v>
+      </c>
+      <c r="C197">
+        <v>4.4670723686690371e-06</v>
+      </c>
+      <c r="D197">
+        <v>0.041210708377939699</v>
+      </c>
+      <c r="E197">
+        <v>0.078324516397262664</v>
+      </c>
+      <c r="F197">
+        <v>0.15051279610358376</v>
+      </c>
+      <c r="G197">
+        <v>0.18564156444184715</v>
+      </c>
+      <c r="H197">
+        <v>0.17030802964740091</v>
+      </c>
+      <c r="I197">
+        <v>0.37236652940770948</v>
+      </c>
+      <c r="J197">
+        <v>8</v>
+      </c>
+      <c r="K197">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B198">
+        <v>0.0095585683293243733</v>
+      </c>
+      <c r="C198">
+        <v>6.433524900777783e-05</v>
+      </c>
+      <c r="D198">
+        <v>0.019393706133631627</v>
+      </c>
+      <c r="E198">
+        <v>0.071754734291705868</v>
+      </c>
+      <c r="F198">
+        <v>0.017149808169742445</v>
+      </c>
+      <c r="G198">
+        <v>0.33355783949325557</v>
+      </c>
+      <c r="H198">
+        <v>0.16553318766911307</v>
+      </c>
+      <c r="I198">
+        <v>0.38298782066421938</v>
+      </c>
+      <c r="J198">
+        <v>8</v>
+      </c>
+      <c r="K198">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B199">
+        <v>0.0031774653454019952</v>
+      </c>
+      <c r="C199">
+        <v>9.2197286963324646e-07</v>
+      </c>
+      <c r="D199">
+        <v>0.026306601273016469</v>
+      </c>
+      <c r="E199">
+        <v>0.092835371758242566</v>
+      </c>
+      <c r="F199">
+        <v>0.0035478503037457707</v>
+      </c>
+      <c r="G199">
+        <v>0.19903595414158934</v>
+      </c>
+      <c r="H199">
+        <v>0.34265827834624624</v>
+      </c>
+      <c r="I199">
+        <v>0.33243755685888815</v>
+      </c>
+      <c r="J199">
+        <v>7</v>
+      </c>
+      <c r="K199">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B200">
+        <v>0.026567773513429122</v>
+      </c>
+      <c r="C200">
+        <v>0.00022200860431149914</v>
+      </c>
+      <c r="D200">
+        <v>0.065212245123828574</v>
+      </c>
+      <c r="E200">
+        <v>0.043106505684692951</v>
+      </c>
+      <c r="F200">
+        <v>0.10542545301153913</v>
+      </c>
+      <c r="G200">
+        <v>0.19920982254517902</v>
+      </c>
+      <c r="H200">
+        <v>0.1412031614751548</v>
+      </c>
+      <c r="I200">
+        <v>0.419053030041865</v>
+      </c>
+      <c r="J200">
+        <v>8</v>
+      </c>
+      <c r="K200">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B201">
+        <v>0.0033234830098082301</v>
+      </c>
+      <c r="C201">
+        <v>3.6146445995415698e-07</v>
+      </c>
+      <c r="D201">
+        <v>0.020206680829706478</v>
+      </c>
+      <c r="E201">
+        <v>0.043345059111159844</v>
+      </c>
+      <c r="F201">
+        <v>0.014306257914066612</v>
+      </c>
+      <c r="G201">
+        <v>0.26312869797428934</v>
+      </c>
+      <c r="H201">
+        <v>0.22557068458125101</v>
+      </c>
+      <c r="I201">
+        <v>0.43011877511525864</v>
+      </c>
+      <c r="J201">
+        <v>8</v>
+      </c>
+      <c r="K201">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B202">
+        <v>0.064657149026946789</v>
+      </c>
+      <c r="C202">
+        <v>3.6659601335206892e-05</v>
+      </c>
+      <c r="D202">
+        <v>0.057920812268215181</v>
+      </c>
+      <c r="E202">
+        <v>0.057153387645458908</v>
+      </c>
+      <c r="F202">
+        <v>0.011541852697983261</v>
+      </c>
+      <c r="G202">
+        <v>0.31017663914905758</v>
+      </c>
+      <c r="H202">
+        <v>0.10793046014616439</v>
+      </c>
+      <c r="I202">
+        <v>0.39058303946483858</v>
+      </c>
+      <c r="J202">
+        <v>8</v>
+      </c>
+      <c r="K202">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B203">
+        <v>0.012308685494671689</v>
+      </c>
+      <c r="C203">
+        <v>1.6031066744633702e-07</v>
+      </c>
+      <c r="D203">
+        <v>0.020498222405678869</v>
+      </c>
+      <c r="E203">
+        <v>0.057286554371112498</v>
+      </c>
+      <c r="F203">
+        <v>0.0060857315215072406</v>
+      </c>
+      <c r="G203">
+        <v>0.19518841072755777</v>
+      </c>
+      <c r="H203">
+        <v>0.44113318129733459</v>
+      </c>
+      <c r="I203">
+        <v>0.26749905387146999</v>
+      </c>
+      <c r="J203">
+        <v>7</v>
+      </c>
+      <c r="K203">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B204">
+        <v>0.0072596260955533377</v>
+      </c>
+      <c r="C204">
+        <v>2.0802839828319891e-06</v>
+      </c>
+      <c r="D204">
+        <v>0.04086573638649673</v>
+      </c>
+      <c r="E204">
+        <v>0.071912521540261828</v>
+      </c>
+      <c r="F204">
+        <v>0.0027728756358981394</v>
+      </c>
+      <c r="G204">
+        <v>0.41193807571302921</v>
+      </c>
+      <c r="H204">
+        <v>0.15348228416649809</v>
+      </c>
+      <c r="I204">
+        <v>0.31176680017827968</v>
+      </c>
+      <c r="J204">
+        <v>6</v>
+      </c>
+      <c r="K204">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B205">
+        <v>0.0088594321454187018</v>
+      </c>
+      <c r="C205">
+        <v>0.00060310291231351813</v>
+      </c>
+      <c r="D205">
+        <v>0.083390671926174983</v>
+      </c>
+      <c r="E205">
+        <v>0.044467175859600735</v>
+      </c>
+      <c r="F205">
+        <v>0.020099937952269147</v>
+      </c>
+      <c r="G205">
+        <v>0.23386172156969126</v>
+      </c>
+      <c r="H205">
+        <v>0.026736325105230083</v>
+      </c>
+      <c r="I205">
+        <v>0.58198163252930146</v>
+      </c>
+      <c r="J205">
+        <v>8</v>
+      </c>
+      <c r="K205">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B206">
+        <v>0.00051081239762008023</v>
+      </c>
+      <c r="C206">
+        <v>3.1978963463834808e-08</v>
+      </c>
+      <c r="D206">
+        <v>0.048212587662877261</v>
+      </c>
+      <c r="E206">
+        <v>0.13567171105319767</v>
+      </c>
+      <c r="F206">
+        <v>0.0048353703982747477</v>
+      </c>
+      <c r="G206">
+        <v>0.22952057809042886</v>
+      </c>
+      <c r="H206">
+        <v>0.16183190583395338</v>
+      </c>
+      <c r="I206">
+        <v>0.41941700258468456</v>
+      </c>
+      <c r="J206">
+        <v>8</v>
+      </c>
+      <c r="K206">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B207">
+        <v>0.014261018374843655</v>
+      </c>
+      <c r="C207">
+        <v>1.9951988864156119e-06</v>
+      </c>
+      <c r="D207">
+        <v>0.048919553921438742</v>
+      </c>
+      <c r="E207">
+        <v>0.1402521400634493</v>
+      </c>
+      <c r="F207">
+        <v>0.049251491069911585</v>
+      </c>
+      <c r="G207">
+        <v>0.34264318997938958</v>
+      </c>
+      <c r="H207">
+        <v>0.14666102617873117</v>
+      </c>
+      <c r="I207">
+        <v>0.25800958521334955</v>
+      </c>
+      <c r="J207">
+        <v>6</v>
+      </c>
+      <c r="K207">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B208">
+        <v>0.00025522158790250953</v>
+      </c>
+      <c r="C208">
+        <v>4.5302273465192917e-12</v>
+      </c>
+      <c r="D208">
+        <v>0.0028203179687695894</v>
+      </c>
+      <c r="E208">
+        <v>0.15750159181259779</v>
+      </c>
+      <c r="F208">
+        <v>0.0015571105957865334</v>
+      </c>
+      <c r="G208">
+        <v>0.15563761164332907</v>
+      </c>
+      <c r="H208">
+        <v>0.24366349302205101</v>
+      </c>
+      <c r="I208">
+        <v>0.43856465336503342</v>
+      </c>
+      <c r="J208">
+        <v>8</v>
+      </c>
+      <c r="K208">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B209">
+        <v>0.0005731374996222336</v>
+      </c>
+      <c r="C209">
+        <v>2.2672422179988211e-09</v>
+      </c>
+      <c r="D209">
+        <v>0.055345618442059756</v>
+      </c>
+      <c r="E209">
+        <v>0.019597084352418664</v>
+      </c>
+      <c r="F209">
+        <v>0.0011172784759197849</v>
+      </c>
+      <c r="G209">
+        <v>0.3665879597365222</v>
+      </c>
+      <c r="H209">
+        <v>0.39374675341649029</v>
+      </c>
+      <c r="I209">
+        <v>0.16303216580972482</v>
+      </c>
+      <c r="J209">
+        <v>7</v>
+      </c>
+      <c r="K209">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B210">
+        <v>0.0037594379098832356</v>
+      </c>
+      <c r="C210">
+        <v>1.4895437774968623e-05</v>
+      </c>
+      <c r="D210">
+        <v>0.027932190435206859</v>
+      </c>
+      <c r="E210">
+        <v>0.069241701172823258</v>
+      </c>
+      <c r="F210">
+        <v>0.00779630968422275</v>
+      </c>
+      <c r="G210">
+        <v>0.20280571632459796</v>
+      </c>
+      <c r="H210">
+        <v>0.04316983260217315</v>
+      </c>
+      <c r="I210">
+        <v>0.64527991643331772</v>
+      </c>
+      <c r="J210">
+        <v>8</v>
+      </c>
+      <c r="K210">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B211">
+        <v>0.00079790348835231441</v>
+      </c>
+      <c r="C211">
+        <v>0.00011629630221587967</v>
+      </c>
+      <c r="D211">
+        <v>0.046963678093933085</v>
+      </c>
+      <c r="E211">
+        <v>0.051740268891553795</v>
+      </c>
+      <c r="F211">
+        <v>0.042152389859811311</v>
+      </c>
+      <c r="G211">
+        <v>0.20851696393538482</v>
+      </c>
+      <c r="H211">
+        <v>0.032664199346203147</v>
+      </c>
+      <c r="I211">
+        <v>0.61704830008254563</v>
+      </c>
+      <c r="J211">
+        <v>8</v>
+      </c>
+      <c r="K211">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B212">
+        <v>0.00015554448332620206</v>
+      </c>
+      <c r="C212">
+        <v>3.0238195067214762e-05</v>
+      </c>
+      <c r="D212">
+        <v>0.022022097626799422</v>
+      </c>
+      <c r="E212">
+        <v>0.032356620096434106</v>
+      </c>
+      <c r="F212">
+        <v>0.0089311065418790584</v>
+      </c>
+      <c r="G212">
+        <v>0.1998759188398084</v>
+      </c>
+      <c r="H212">
+        <v>0.036921045213981686</v>
+      </c>
+      <c r="I212">
+        <v>0.699707429002704</v>
+      </c>
+      <c r="J212">
+        <v>8</v>
+      </c>
+      <c r="K212">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B213">
+        <v>8.0122213886357833e-05</v>
+      </c>
+      <c r="C213">
+        <v>0.00109169228647087</v>
+      </c>
+      <c r="D213">
+        <v>0.069438600835045869</v>
+      </c>
+      <c r="E213">
+        <v>0.039993172356297554</v>
+      </c>
+      <c r="F213">
+        <v>0.034654620636344488</v>
+      </c>
+      <c r="G213">
+        <v>0.15672438866966878</v>
+      </c>
+      <c r="H213">
+        <v>0.026440044018897928</v>
+      </c>
+      <c r="I213">
+        <v>0.67157735898338811</v>
+      </c>
+      <c r="J213">
+        <v>8</v>
+      </c>
+      <c r="K213">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B214">
+        <v>0.0029957690146550906</v>
+      </c>
+      <c r="C214">
+        <v>0.020014608767769053</v>
+      </c>
+      <c r="D214">
+        <v>0.014012621608825474</v>
+      </c>
+      <c r="E214">
+        <v>0.061511380772423761</v>
+      </c>
+      <c r="F214">
+        <v>0.024279944484516612</v>
+      </c>
+      <c r="G214">
+        <v>0.24892768241858185</v>
+      </c>
+      <c r="H214">
+        <v>0.073491801427362904</v>
+      </c>
+      <c r="I214">
+        <v>0.55476619150586515</v>
+      </c>
+      <c r="J214">
+        <v>8</v>
+      </c>
+      <c r="K214">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B215">
+        <v>0.020475427495636717</v>
+      </c>
+      <c r="C215">
+        <v>0.00090748817918183313</v>
+      </c>
+      <c r="D215">
+        <v>0.062861392461726506</v>
+      </c>
+      <c r="E215">
+        <v>0.044509628146191707</v>
+      </c>
+      <c r="F215">
+        <v>0.012010129625071905</v>
+      </c>
+      <c r="G215">
+        <v>0.18689420757623426</v>
+      </c>
+      <c r="H215">
+        <v>0.1148642927211628</v>
+      </c>
+      <c r="I215">
+        <v>0.5574774337947942</v>
+      </c>
+      <c r="J215">
+        <v>8</v>
+      </c>
+      <c r="K215">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B216">
+        <v>0.0088849615872639877</v>
+      </c>
+      <c r="C216">
+        <v>0.0078024706069222344</v>
+      </c>
+      <c r="D216">
+        <v>0.055639759573704338</v>
+      </c>
+      <c r="E216">
+        <v>0.07662059170880578</v>
+      </c>
+      <c r="F216">
+        <v>0.017205355434382633</v>
+      </c>
+      <c r="G216">
+        <v>0.25575678435794619</v>
+      </c>
+      <c r="H216">
+        <v>0.059798111020317506</v>
+      </c>
+      <c r="I216">
+        <v>0.51829196571065739</v>
+      </c>
+      <c r="J216">
+        <v>8</v>
+      </c>
+      <c r="K216">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B217">
+        <v>0.033358075269092818</v>
+      </c>
+      <c r="C217">
+        <v>0.066442705158579765</v>
+      </c>
+      <c r="D217">
+        <v>0.087125576249767064</v>
+      </c>
+      <c r="E217">
+        <v>0.096924901154774507</v>
+      </c>
+      <c r="F217">
+        <v>0.016314856696505762</v>
+      </c>
+      <c r="G217">
+        <v>0.21968317015998606</v>
+      </c>
+      <c r="H217">
+        <v>0.069507701551342713</v>
+      </c>
+      <c r="I217">
+        <v>0.41064301375995121</v>
+      </c>
+      <c r="J217">
+        <v>8</v>
+      </c>
+      <c r="K217">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B218">
+        <v>0.0012886148892307754</v>
+      </c>
+      <c r="C218">
+        <v>5.5067866129991363e-05</v>
+      </c>
+      <c r="D218">
+        <v>0.088449988026758297</v>
+      </c>
+      <c r="E218">
+        <v>0.01752093386121362</v>
+      </c>
+      <c r="F218">
+        <v>0.009198413062001835</v>
+      </c>
+      <c r="G218">
+        <v>0.18843051489841919</v>
+      </c>
+      <c r="H218">
+        <v>0.062684453873145113</v>
+      </c>
+      <c r="I218">
+        <v>0.63237201352310113</v>
+      </c>
+      <c r="J218">
+        <v>8</v>
+      </c>
+      <c r="K218">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B219">
+        <v>0.0028050529442157292</v>
+      </c>
+      <c r="C219">
+        <v>3.0805175956112363e-06</v>
+      </c>
+      <c r="D219">
+        <v>0.013342473749561337</v>
+      </c>
+      <c r="E219">
+        <v>0.18786812340048034</v>
+      </c>
+      <c r="F219">
+        <v>0.011170419899389496</v>
+      </c>
+      <c r="G219">
+        <v>0.15677475678837632</v>
+      </c>
+      <c r="H219">
+        <v>0.089846792867031275</v>
+      </c>
+      <c r="I219">
+        <v>0.53818929983334984</v>
+      </c>
+      <c r="J219">
+        <v>8</v>
+      </c>
+      <c r="K219">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B220">
+        <v>0.0029898774526230729</v>
+      </c>
+      <c r="C220">
+        <v>1.8850483590330047e-05</v>
+      </c>
+      <c r="D220">
+        <v>0.072298386661301423</v>
+      </c>
+      <c r="E220">
+        <v>0.035729918963528194</v>
+      </c>
+      <c r="F220">
+        <v>0.0039275687607907856</v>
+      </c>
+      <c r="G220">
+        <v>0.24878174283473542</v>
+      </c>
+      <c r="H220">
+        <v>0.1752837081284562</v>
+      </c>
+      <c r="I220">
+        <v>0.46096994671497443</v>
+      </c>
+      <c r="J220">
+        <v>8</v>
+      </c>
+      <c r="K220">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B221">
+        <v>0.038701855871119802</v>
+      </c>
+      <c r="C221">
+        <v>0.00024732932625199782</v>
+      </c>
+      <c r="D221">
+        <v>0.020038563994855645</v>
+      </c>
+      <c r="E221">
+        <v>0.085581966914694205</v>
+      </c>
+      <c r="F221">
+        <v>0.091671792413787298</v>
+      </c>
+      <c r="G221">
+        <v>0.23706613246939892</v>
+      </c>
+      <c r="H221">
+        <v>0.20867176127674003</v>
+      </c>
+      <c r="I221">
+        <v>0.31802059773315217</v>
+      </c>
+      <c r="J221">
+        <v>8</v>
+      </c>
+      <c r="K221">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B222">
+        <v>0.013302090331836169</v>
+      </c>
+      <c r="C222">
+        <v>0.00015923236502661536</v>
+      </c>
+      <c r="D222">
+        <v>0.0069632441738092703</v>
+      </c>
+      <c r="E222">
+        <v>0.07072464720433555</v>
+      </c>
+      <c r="F222">
+        <v>0.012022054345732343</v>
+      </c>
+      <c r="G222">
+        <v>0.16737690870512836</v>
+      </c>
+      <c r="H222">
+        <v>0.41043266233730968</v>
+      </c>
+      <c r="I222">
+        <v>0.31901916053682194</v>
+      </c>
+      <c r="J222">
+        <v>7</v>
+      </c>
+      <c r="K222">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B223">
+        <v>0.0057920479252031101</v>
+      </c>
+      <c r="C223">
+        <v>3.0078506741229028e-05</v>
+      </c>
+      <c r="D223">
+        <v>0.010890915571222397</v>
+      </c>
+      <c r="E223">
+        <v>0.12655297646166946</v>
+      </c>
+      <c r="F223">
+        <v>0.011697139335862351</v>
+      </c>
+      <c r="G223">
+        <v>0.14383405717769471</v>
+      </c>
+      <c r="H223">
+        <v>0.32484849757843359</v>
+      </c>
+      <c r="I223">
+        <v>0.37635428744317306</v>
+      </c>
+      <c r="J223">
+        <v>8</v>
+      </c>
+      <c r="K223">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B224">
+        <v>0.014205868617742074</v>
+      </c>
+      <c r="C224">
+        <v>0.00043404991007290982</v>
+      </c>
+      <c r="D224">
+        <v>0.025623269552448653</v>
+      </c>
+      <c r="E224">
+        <v>0.12867831318405681</v>
+      </c>
+      <c r="F224">
+        <v>0.01159370512854133</v>
+      </c>
+      <c r="G224">
+        <v>0.26300257439184255</v>
+      </c>
+      <c r="H224">
+        <v>0.098404622217246676</v>
+      </c>
+      <c r="I224">
+        <v>0.45805759699804899</v>
+      </c>
+      <c r="J224">
+        <v>8</v>
+      </c>
+      <c r="K224">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B225">
+        <v>0.0069052888391936745</v>
+      </c>
+      <c r="C225">
+        <v>4.1048463045633294e-05</v>
+      </c>
+      <c r="D225">
+        <v>0.045263041706172125</v>
+      </c>
+      <c r="E225">
+        <v>0.17587144118573897</v>
+      </c>
+      <c r="F225">
+        <v>0.046225034183171476</v>
+      </c>
+      <c r="G225">
+        <v>0.14213749535397616</v>
+      </c>
+      <c r="H225">
+        <v>0.2776043408033419</v>
+      </c>
+      <c r="I225">
+        <v>0.30595230946536012</v>
+      </c>
+      <c r="J225">
+        <v>8</v>
+      </c>
+      <c r="K225">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B226">
+        <v>0.00078349061850253637</v>
+      </c>
+      <c r="C226">
+        <v>0.0012094211745664245</v>
+      </c>
+      <c r="D226">
+        <v>0.079321353023339605</v>
+      </c>
+      <c r="E226">
+        <v>0.039058622601890969</v>
+      </c>
+      <c r="F226">
+        <v>0.014165223722675212</v>
+      </c>
+      <c r="G226">
+        <v>0.17721658942847585</v>
+      </c>
+      <c r="H226">
+        <v>0.028058395180228735</v>
+      </c>
+      <c r="I226">
+        <v>0.66018690425032067</v>
+      </c>
+      <c r="J226">
+        <v>8</v>
+      </c>
+      <c r="K226">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B227">
+        <v>0.0010215009265176342</v>
+      </c>
+      <c r="C227">
+        <v>3.2630712590135199e-09</v>
+      </c>
+      <c r="D227">
+        <v>0.0097762032104925095</v>
+      </c>
+      <c r="E227">
+        <v>0.088634741856683671</v>
+      </c>
+      <c r="F227">
+        <v>0.015857806437890039</v>
+      </c>
+      <c r="G227">
+        <v>0.27141060651070775</v>
+      </c>
+      <c r="H227">
+        <v>0.16141034768414572</v>
+      </c>
+      <c r="I227">
+        <v>0.45188879011049132</v>
+      </c>
+      <c r="J227">
+        <v>8</v>
+      </c>
+      <c r="K227">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B228">
+        <v>0.010775551609593008</v>
+      </c>
+      <c r="C228">
+        <v>8.0450695369709063e-06</v>
+      </c>
+      <c r="D228">
+        <v>0.034188996665888219</v>
+      </c>
+      <c r="E228">
+        <v>0.066941788188711243</v>
+      </c>
+      <c r="F228">
+        <v>0.015073032022573896</v>
+      </c>
+      <c r="G228">
+        <v>0.2587932979134388</v>
+      </c>
+      <c r="H228">
+        <v>0.28833394968509735</v>
+      </c>
+      <c r="I228">
+        <v>0.32588533884516052</v>
+      </c>
+      <c r="J228">
+        <v>8</v>
+      </c>
+      <c r="K228">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B229">
+        <v>0.0027869270757010923</v>
+      </c>
+      <c r="C229">
+        <v>8.8384136194149313e-07</v>
+      </c>
+      <c r="D229">
+        <v>0.02765731099682299</v>
+      </c>
+      <c r="E229">
+        <v>0.1078795571782093</v>
+      </c>
+      <c r="F229">
+        <v>0.036818453969024501</v>
+      </c>
+      <c r="G229">
+        <v>0.26112676672477969</v>
+      </c>
+      <c r="H229">
+        <v>0.15976593792605889</v>
+      </c>
+      <c r="I229">
+        <v>0.40396416228804166</v>
+      </c>
+      <c r="J229">
+        <v>8</v>
+      </c>
+      <c r="K229">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/outputs-HGR-r202/train-g__Eubacterium_G_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-g__Eubacterium_G_split_pruned.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="quadratic-svm-score5" sheetId="2" r:id="rId3"/>
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
+    <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="695">
   <si>
     <t>Row</t>
   </si>
@@ -1416,6 +1417,690 @@
   </si>
   <si>
     <t>label_UMGS1529_97.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_81.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_85.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_92.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1637_93.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_36_4.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_36_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS59_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_84.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_85.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1096_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_81.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1258_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_107.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_113.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_115.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_122.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_123.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_125.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_128.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_147.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_150.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_152.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_156.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_157.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_161.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_178.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_180.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_183.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_186.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_188.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_189.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_193.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_194.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_195.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_198.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_200.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_204.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_205.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_206.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_209.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_77.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1488_99.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_100.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_101.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_117.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_120.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_123.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_128.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_132.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_140.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_143.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_149.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_157.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_166.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_168.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_171.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_174.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_177.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_178.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_183.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_186.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_187.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_195.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_197.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_198.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_201.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_203.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_205.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_214.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_223.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_227.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_235.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_241.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_84.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1989_88.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000153885_0.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000153885_11.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000153885_14.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000153885_15.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000153885_16.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000153885_20.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000153885_3.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000153885_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_101.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_102.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_103.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_105.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_113.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_130.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_134.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_135.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_139.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_140.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_152.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_156.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_158.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_163.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_164.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_172.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_180.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_185.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_186.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_194.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_196.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_81.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_92.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1269_99.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_101.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_106.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_107.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_108.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_110.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_118.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_122.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_132.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1529_92.fasta</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +2121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1448,16 +2133,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17537,4 +18226,8041 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K229"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="true"/>
+    <col min="2" max="2" width="28.85546875" customWidth="true"/>
+    <col min="3" max="3" width="28.85546875" customWidth="true"/>
+    <col min="4" max="4" width="28.85546875" customWidth="true"/>
+    <col min="5" max="5" width="28.85546875" customWidth="true"/>
+    <col min="6" max="6" width="28.85546875" customWidth="true"/>
+    <col min="7" max="7" width="28.85546875" customWidth="true"/>
+    <col min="8" max="8" width="28.85546875" customWidth="true"/>
+    <col min="9" max="9" width="28" customWidth="true"/>
+    <col min="10" max="10" width="10.28515625" customWidth="true"/>
+    <col min="11" max="11" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2">
+        <v>0.79809596244145486</v>
+      </c>
+      <c r="C2">
+        <v>0.00054747363703103191</v>
+      </c>
+      <c r="D2">
+        <v>0.022642676338494604</v>
+      </c>
+      <c r="E2">
+        <v>0.054307110284013499</v>
+      </c>
+      <c r="F2">
+        <v>0.0011873253923950625</v>
+      </c>
+      <c r="G2">
+        <v>0.051801939455974284</v>
+      </c>
+      <c r="H2">
+        <v>0.0216902058693745</v>
+      </c>
+      <c r="I2">
+        <v>0.049727306581262135</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3">
+        <v>0.77693964728983844</v>
+      </c>
+      <c r="C3">
+        <v>0.0089001616114622421</v>
+      </c>
+      <c r="D3">
+        <v>0.013703622897141304</v>
+      </c>
+      <c r="E3">
+        <v>0.082305481803012212</v>
+      </c>
+      <c r="F3">
+        <v>0.00029825485390058215</v>
+      </c>
+      <c r="G3">
+        <v>0.060981612562211698</v>
+      </c>
+      <c r="H3">
+        <v>0.031070498796152222</v>
+      </c>
+      <c r="I3">
+        <v>0.025800720186281347</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B4">
+        <v>0.80872276363570605</v>
+      </c>
+      <c r="C4">
+        <v>0.0027221121876639166</v>
+      </c>
+      <c r="D4">
+        <v>0.012799284484072058</v>
+      </c>
+      <c r="E4">
+        <v>0.025756037748514891</v>
+      </c>
+      <c r="F4">
+        <v>0.00031615855557008509</v>
+      </c>
+      <c r="G4">
+        <v>0.059301321662128557</v>
+      </c>
+      <c r="H4">
+        <v>0.04852839799796322</v>
+      </c>
+      <c r="I4">
+        <v>0.041853923728381204</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B5">
+        <v>0.72102695103926107</v>
+      </c>
+      <c r="C5">
+        <v>0.00029516214666045441</v>
+      </c>
+      <c r="D5">
+        <v>0.011165752296329367</v>
+      </c>
+      <c r="E5">
+        <v>0.057162607982994433</v>
+      </c>
+      <c r="F5">
+        <v>0.012876979485367717</v>
+      </c>
+      <c r="G5">
+        <v>0.06262790358526639</v>
+      </c>
+      <c r="H5">
+        <v>0.013723054785926914</v>
+      </c>
+      <c r="I5">
+        <v>0.12112158867819356</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B6">
+        <v>0.30132721257505085</v>
+      </c>
+      <c r="C6">
+        <v>9.3686126764711762e-05</v>
+      </c>
+      <c r="D6">
+        <v>0.038374757781756939</v>
+      </c>
+      <c r="E6">
+        <v>0.24818887997774397</v>
+      </c>
+      <c r="F6">
+        <v>0.0011766428392256752</v>
+      </c>
+      <c r="G6">
+        <v>0.15446302449478866</v>
+      </c>
+      <c r="H6">
+        <v>0.16471388711439686</v>
+      </c>
+      <c r="I6">
+        <v>0.091661909090272442</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B7">
+        <v>0.60707013139757871</v>
+      </c>
+      <c r="C7">
+        <v>0.00082188004371908931</v>
+      </c>
+      <c r="D7">
+        <v>0.046270250878750592</v>
+      </c>
+      <c r="E7">
+        <v>0.052574103580793091</v>
+      </c>
+      <c r="F7">
+        <v>0.0063643954168270851</v>
+      </c>
+      <c r="G7">
+        <v>0.1060398845832576</v>
+      </c>
+      <c r="H7">
+        <v>0.098822633503511351</v>
+      </c>
+      <c r="I7">
+        <v>0.082036720595562579</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B8">
+        <v>0.2650597588466847</v>
+      </c>
+      <c r="C8">
+        <v>0.00030211580870503213</v>
+      </c>
+      <c r="D8">
+        <v>0.05860652395518412</v>
+      </c>
+      <c r="E8">
+        <v>0.048837053523253057</v>
+      </c>
+      <c r="F8">
+        <v>0.0076070334276527136</v>
+      </c>
+      <c r="G8">
+        <v>0.20049777351033746</v>
+      </c>
+      <c r="H8">
+        <v>0.26268982556476789</v>
+      </c>
+      <c r="I8">
+        <v>0.15639991536341519</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B9">
+        <v>0.46979270049397737</v>
+      </c>
+      <c r="C9">
+        <v>0.0001263423231806511</v>
+      </c>
+      <c r="D9">
+        <v>0.025379941447045144</v>
+      </c>
+      <c r="E9">
+        <v>0.093837041222457521</v>
+      </c>
+      <c r="F9">
+        <v>0.01112379354133596</v>
+      </c>
+      <c r="G9">
+        <v>0.11488660132102492</v>
+      </c>
+      <c r="H9">
+        <v>0.13775460114534432</v>
+      </c>
+      <c r="I9">
+        <v>0.14709897850563408</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B10">
+        <v>0.74691494941327874</v>
+      </c>
+      <c r="C10">
+        <v>0.00089856171445693001</v>
+      </c>
+      <c r="D10">
+        <v>0.0074516424670839536</v>
+      </c>
+      <c r="E10">
+        <v>0.048488678361525858</v>
+      </c>
+      <c r="F10">
+        <v>0.036932777616810859</v>
+      </c>
+      <c r="G10">
+        <v>0.060289384620975876</v>
+      </c>
+      <c r="H10">
+        <v>0.039644382518446514</v>
+      </c>
+      <c r="I10">
+        <v>0.059379623287421197</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B11">
+        <v>0.76751410698940303</v>
+      </c>
+      <c r="C11">
+        <v>9.5054965166502508e-05</v>
+      </c>
+      <c r="D11">
+        <v>0.0068864857313969937</v>
+      </c>
+      <c r="E11">
+        <v>0.005368094417141046</v>
+      </c>
+      <c r="F11">
+        <v>0.04043428961334395</v>
+      </c>
+      <c r="G11">
+        <v>0.0779621525397617</v>
+      </c>
+      <c r="H11">
+        <v>0.064007021743450812</v>
+      </c>
+      <c r="I11">
+        <v>0.037732794000335849</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B12">
+        <v>0.38338125681501506</v>
+      </c>
+      <c r="C12">
+        <v>2.9014321671965181e-05</v>
+      </c>
+      <c r="D12">
+        <v>0.031094449496191685</v>
+      </c>
+      <c r="E12">
+        <v>0.097631011321674344</v>
+      </c>
+      <c r="F12">
+        <v>0.0074847571621490484</v>
+      </c>
+      <c r="G12">
+        <v>0.11800926714780977</v>
+      </c>
+      <c r="H12">
+        <v>0.24169729853861699</v>
+      </c>
+      <c r="I12">
+        <v>0.12067294519687122</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B13">
+        <v>0.30652034879903678</v>
+      </c>
+      <c r="C13">
+        <v>9.2693325601328019e-05</v>
+      </c>
+      <c r="D13">
+        <v>0.03458192290648536</v>
+      </c>
+      <c r="E13">
+        <v>0.19580788674532726</v>
+      </c>
+      <c r="F13">
+        <v>0.047771419578506148</v>
+      </c>
+      <c r="G13">
+        <v>0.12741751656182357</v>
+      </c>
+      <c r="H13">
+        <v>0.14401892645955502</v>
+      </c>
+      <c r="I13">
+        <v>0.14378928562366458</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B14">
+        <v>0.51385688690081288</v>
+      </c>
+      <c r="C14">
+        <v>0.00010680722925661494</v>
+      </c>
+      <c r="D14">
+        <v>0.013900340697562416</v>
+      </c>
+      <c r="E14">
+        <v>0.03641647199091589</v>
+      </c>
+      <c r="F14">
+        <v>0.0040812023658153953</v>
+      </c>
+      <c r="G14">
+        <v>0.15227515189378721</v>
+      </c>
+      <c r="H14">
+        <v>0.11391700191816789</v>
+      </c>
+      <c r="I14">
+        <v>0.16544613700368158</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B15">
+        <v>0.78756099573932403</v>
+      </c>
+      <c r="C15">
+        <v>0.0077866143893776793</v>
+      </c>
+      <c r="D15">
+        <v>0.015285910240986191</v>
+      </c>
+      <c r="E15">
+        <v>0.069417910484883993</v>
+      </c>
+      <c r="F15">
+        <v>0.00094016465581639593</v>
+      </c>
+      <c r="G15">
+        <v>0.055518310318006539</v>
+      </c>
+      <c r="H15">
+        <v>0.021921890334711945</v>
+      </c>
+      <c r="I15">
+        <v>0.041568203836892928</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B16">
+        <v>0.021886943861060618</v>
+      </c>
+      <c r="C16">
+        <v>0.00058001394656377776</v>
+      </c>
+      <c r="D16">
+        <v>0.041319061865535356</v>
+      </c>
+      <c r="E16">
+        <v>0.065047194583125523</v>
+      </c>
+      <c r="F16">
+        <v>0.016789882858083718</v>
+      </c>
+      <c r="G16">
+        <v>0.25062105963794962</v>
+      </c>
+      <c r="H16">
+        <v>0.30288060141853135</v>
+      </c>
+      <c r="I16">
+        <v>0.30087524182915015</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B17">
+        <v>0.51235484593988978</v>
+      </c>
+      <c r="C17">
+        <v>7.3887328955786228e-05</v>
+      </c>
+      <c r="D17">
+        <v>0.027049348625335836</v>
+      </c>
+      <c r="E17">
+        <v>0.031940426660310772</v>
+      </c>
+      <c r="F17">
+        <v>0.018147697010918638</v>
+      </c>
+      <c r="G17">
+        <v>0.11732549241322021</v>
+      </c>
+      <c r="H17">
+        <v>0.14046793679506986</v>
+      </c>
+      <c r="I17">
+        <v>0.1526403652262992</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B18">
+        <v>0.49051152290818395</v>
+      </c>
+      <c r="C18">
+        <v>3.9332224935124931e-05</v>
+      </c>
+      <c r="D18">
+        <v>0.0062226158364491633</v>
+      </c>
+      <c r="E18">
+        <v>0.019736010690889476</v>
+      </c>
+      <c r="F18">
+        <v>0.0099663636455721346</v>
+      </c>
+      <c r="G18">
+        <v>0.18336677623729059</v>
+      </c>
+      <c r="H18">
+        <v>0.10026202979270826</v>
+      </c>
+      <c r="I18">
+        <v>0.18989534866397142</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B19">
+        <v>0.034537175485068732</v>
+      </c>
+      <c r="C19">
+        <v>1.5881550356252242e-06</v>
+      </c>
+      <c r="D19">
+        <v>0.027236050945402591</v>
+      </c>
+      <c r="E19">
+        <v>0.033650839566313664</v>
+      </c>
+      <c r="F19">
+        <v>0.017533279744823733</v>
+      </c>
+      <c r="G19">
+        <v>0.20424183519591441</v>
+      </c>
+      <c r="H19">
+        <v>0.17872118623662173</v>
+      </c>
+      <c r="I19">
+        <v>0.50407804467081951</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B20">
+        <v>0.16408071696870052</v>
+      </c>
+      <c r="C20">
+        <v>2.9277809936913747e-06</v>
+      </c>
+      <c r="D20">
+        <v>0.047456985698337992</v>
+      </c>
+      <c r="E20">
+        <v>0.03110260045238172</v>
+      </c>
+      <c r="F20">
+        <v>0.055420711590956594</v>
+      </c>
+      <c r="G20">
+        <v>0.33990914042799791</v>
+      </c>
+      <c r="H20">
+        <v>0.10155110789852406</v>
+      </c>
+      <c r="I20">
+        <v>0.26047580918210739</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B21">
+        <v>0.069567912833669782</v>
+      </c>
+      <c r="C21">
+        <v>2.7422183790162681e-05</v>
+      </c>
+      <c r="D21">
+        <v>0.035407323157183389</v>
+      </c>
+      <c r="E21">
+        <v>0.0051427355968370735</v>
+      </c>
+      <c r="F21">
+        <v>0.18388872821633517</v>
+      </c>
+      <c r="G21">
+        <v>0.15386016072579445</v>
+      </c>
+      <c r="H21">
+        <v>0.13094262539921322</v>
+      </c>
+      <c r="I21">
+        <v>0.42116309188717677</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B22">
+        <v>0.0025440847661815464</v>
+      </c>
+      <c r="C22">
+        <v>4.116988644179153e-05</v>
+      </c>
+      <c r="D22">
+        <v>0.028153953941585035</v>
+      </c>
+      <c r="E22">
+        <v>0.013334457445117172</v>
+      </c>
+      <c r="F22">
+        <v>0.017707365111088853</v>
+      </c>
+      <c r="G22">
+        <v>0.29561733178829891</v>
+      </c>
+      <c r="H22">
+        <v>0.17565477850235828</v>
+      </c>
+      <c r="I22">
+        <v>0.46694685855892831</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B23">
+        <v>0.0027403953366367455</v>
+      </c>
+      <c r="C23">
+        <v>0.36088626718785172</v>
+      </c>
+      <c r="D23">
+        <v>0.067974586817144467</v>
+      </c>
+      <c r="E23">
+        <v>0.2051975533460203</v>
+      </c>
+      <c r="F23">
+        <v>0.0039632437817298865</v>
+      </c>
+      <c r="G23">
+        <v>0.11882247874639558</v>
+      </c>
+      <c r="H23">
+        <v>0.048604984438909447</v>
+      </c>
+      <c r="I23">
+        <v>0.19181049034531203</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B24">
+        <v>0.013902532705624861</v>
+      </c>
+      <c r="C24">
+        <v>0.58410822956977493</v>
+      </c>
+      <c r="D24">
+        <v>0.055592183774378315</v>
+      </c>
+      <c r="E24">
+        <v>0.052313427208841197</v>
+      </c>
+      <c r="F24">
+        <v>0.021000108446970873</v>
+      </c>
+      <c r="G24">
+        <v>0.11380652642150248</v>
+      </c>
+      <c r="H24">
+        <v>0.03148488414861185</v>
+      </c>
+      <c r="I24">
+        <v>0.12779210772429553</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B25">
+        <v>0.0044929532480601627</v>
+      </c>
+      <c r="C25">
+        <v>0.0035826659372950407</v>
+      </c>
+      <c r="D25">
+        <v>0.18765903720968455</v>
+      </c>
+      <c r="E25">
+        <v>0.040168737689803002</v>
+      </c>
+      <c r="F25">
+        <v>0.06538240158270188</v>
+      </c>
+      <c r="G25">
+        <v>0.20258437651220187</v>
+      </c>
+      <c r="H25">
+        <v>0.22204100479361377</v>
+      </c>
+      <c r="I25">
+        <v>0.27408882302663973</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B26">
+        <v>0.0024589543231076051</v>
+      </c>
+      <c r="C26">
+        <v>0.0091168535633911647</v>
+      </c>
+      <c r="D26">
+        <v>0.22475845811132875</v>
+      </c>
+      <c r="E26">
+        <v>0.086648853780030149</v>
+      </c>
+      <c r="F26">
+        <v>0.02344483291500277</v>
+      </c>
+      <c r="G26">
+        <v>0.17348200783062598</v>
+      </c>
+      <c r="H26">
+        <v>0.19441293162805962</v>
+      </c>
+      <c r="I26">
+        <v>0.28567710784845401</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B27">
+        <v>0.074033081789750987</v>
+      </c>
+      <c r="C27">
+        <v>0.26928396955435419</v>
+      </c>
+      <c r="D27">
+        <v>0.056974723619455249</v>
+      </c>
+      <c r="E27">
+        <v>0.036008437643639042</v>
+      </c>
+      <c r="F27">
+        <v>0.0048691634952172302</v>
+      </c>
+      <c r="G27">
+        <v>0.11143833832386366</v>
+      </c>
+      <c r="H27">
+        <v>0.11446400617936783</v>
+      </c>
+      <c r="I27">
+        <v>0.33292827939435171</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B28">
+        <v>0.0042640805705065404</v>
+      </c>
+      <c r="C28">
+        <v>0.01722315392166671</v>
+      </c>
+      <c r="D28">
+        <v>0.049229027273949899</v>
+      </c>
+      <c r="E28">
+        <v>0.33034725130026199</v>
+      </c>
+      <c r="F28">
+        <v>0.014500298571331399</v>
+      </c>
+      <c r="G28">
+        <v>0.1344478295272557</v>
+      </c>
+      <c r="H28">
+        <v>0.18927751716377639</v>
+      </c>
+      <c r="I28">
+        <v>0.26071084167125136</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B29">
+        <v>0.00016597914588070413</v>
+      </c>
+      <c r="C29">
+        <v>0.00087714567944819786</v>
+      </c>
+      <c r="D29">
+        <v>0.24942791920825591</v>
+      </c>
+      <c r="E29">
+        <v>0.025138967835232784</v>
+      </c>
+      <c r="F29">
+        <v>0.029116490769949373</v>
+      </c>
+      <c r="G29">
+        <v>0.13254371190253883</v>
+      </c>
+      <c r="H29">
+        <v>0.25598807698212639</v>
+      </c>
+      <c r="I29">
+        <v>0.30674170847656784</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B30">
+        <v>0.050495701688171669</v>
+      </c>
+      <c r="C30">
+        <v>0.040037123578903488</v>
+      </c>
+      <c r="D30">
+        <v>0.07954561034607513</v>
+      </c>
+      <c r="E30">
+        <v>0.34278147830419714</v>
+      </c>
+      <c r="F30">
+        <v>0.016453467802875189</v>
+      </c>
+      <c r="G30">
+        <v>0.18779085007144133</v>
+      </c>
+      <c r="H30">
+        <v>0.074024322246309296</v>
+      </c>
+      <c r="I30">
+        <v>0.20887144596202661</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B31">
+        <v>0.024485116461179988</v>
+      </c>
+      <c r="C31">
+        <v>0.003026560901328244</v>
+      </c>
+      <c r="D31">
+        <v>0.010802495699192777</v>
+      </c>
+      <c r="E31">
+        <v>0.11040132190216234</v>
+      </c>
+      <c r="F31">
+        <v>0.00087209935748158707</v>
+      </c>
+      <c r="G31">
+        <v>0.20216921063037219</v>
+      </c>
+      <c r="H31">
+        <v>0.081840168550205039</v>
+      </c>
+      <c r="I31">
+        <v>0.56640302649807783</v>
+      </c>
+      <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B32">
+        <v>0.066928609600853395</v>
+      </c>
+      <c r="C32">
+        <v>0.001003495835000554</v>
+      </c>
+      <c r="D32">
+        <v>0.013533690349464104</v>
+      </c>
+      <c r="E32">
+        <v>0.67348411458156576</v>
+      </c>
+      <c r="F32">
+        <v>0.0038021728030977094</v>
+      </c>
+      <c r="G32">
+        <v>0.097124044922951902</v>
+      </c>
+      <c r="H32">
+        <v>0.047683387513613028</v>
+      </c>
+      <c r="I32">
+        <v>0.096440484393453679</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B33">
+        <v>0.024205039861423378</v>
+      </c>
+      <c r="C33">
+        <v>0.002173933623784729</v>
+      </c>
+      <c r="D33">
+        <v>0.037920996421081904</v>
+      </c>
+      <c r="E33">
+        <v>0.50027550564262968</v>
+      </c>
+      <c r="F33">
+        <v>0.022706282006940637</v>
+      </c>
+      <c r="G33">
+        <v>0.15973614494837263</v>
+      </c>
+      <c r="H33">
+        <v>0.093357956302055081</v>
+      </c>
+      <c r="I33">
+        <v>0.15962414119371196</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B34">
+        <v>0.013587039089451513</v>
+      </c>
+      <c r="C34">
+        <v>6.5334571157601678e-05</v>
+      </c>
+      <c r="D34">
+        <v>0.046035003766651435</v>
+      </c>
+      <c r="E34">
+        <v>0.1137710824084584</v>
+      </c>
+      <c r="F34">
+        <v>0.015937443920987081</v>
+      </c>
+      <c r="G34">
+        <v>0.20385156627966877</v>
+      </c>
+      <c r="H34">
+        <v>0.33680750714224483</v>
+      </c>
+      <c r="I34">
+        <v>0.26994502282138028</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B35">
+        <v>0.093374042198821033</v>
+      </c>
+      <c r="C35">
+        <v>0.00021073741421930091</v>
+      </c>
+      <c r="D35">
+        <v>0.055572706798614875</v>
+      </c>
+      <c r="E35">
+        <v>0.058194088634739585</v>
+      </c>
+      <c r="F35">
+        <v>0.039329650610226544</v>
+      </c>
+      <c r="G35">
+        <v>0.19522727778655932</v>
+      </c>
+      <c r="H35">
+        <v>0.14629229438768843</v>
+      </c>
+      <c r="I35">
+        <v>0.41179920216913096</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B36">
+        <v>0.14063961558555585</v>
+      </c>
+      <c r="C36">
+        <v>0.00014077524838353425</v>
+      </c>
+      <c r="D36">
+        <v>0.030184164501612827</v>
+      </c>
+      <c r="E36">
+        <v>0.11188065806362966</v>
+      </c>
+      <c r="F36">
+        <v>0.051803585824679955</v>
+      </c>
+      <c r="G36">
+        <v>0.19488293518657196</v>
+      </c>
+      <c r="H36">
+        <v>0.19449341538693121</v>
+      </c>
+      <c r="I36">
+        <v>0.27597485020263485</v>
+      </c>
+      <c r="J36">
+        <v>8</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B37">
+        <v>0.01180078779485772</v>
+      </c>
+      <c r="C37">
+        <v>1.5459038003408901e-05</v>
+      </c>
+      <c r="D37">
+        <v>0.030499987033774833</v>
+      </c>
+      <c r="E37">
+        <v>0.11161015475894169</v>
+      </c>
+      <c r="F37">
+        <v>0.0026388076892149546</v>
+      </c>
+      <c r="G37">
+        <v>0.22265241168999975</v>
+      </c>
+      <c r="H37">
+        <v>0.19585674659756455</v>
+      </c>
+      <c r="I37">
+        <v>0.42492564539764299</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B38">
+        <v>0.0023404663731798479</v>
+      </c>
+      <c r="C38">
+        <v>9.0886169057849232e-05</v>
+      </c>
+      <c r="D38">
+        <v>0.075129269249160718</v>
+      </c>
+      <c r="E38">
+        <v>0.052246276786453438</v>
+      </c>
+      <c r="F38">
+        <v>0.10127996165827845</v>
+      </c>
+      <c r="G38">
+        <v>0.26817652272777082</v>
+      </c>
+      <c r="H38">
+        <v>0.19115023649507695</v>
+      </c>
+      <c r="I38">
+        <v>0.309586380541022</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B39">
+        <v>0.34146200687871392</v>
+      </c>
+      <c r="C39">
+        <v>0.00028211819463919591</v>
+      </c>
+      <c r="D39">
+        <v>0.018828643523158901</v>
+      </c>
+      <c r="E39">
+        <v>0.0021851635943336586</v>
+      </c>
+      <c r="F39">
+        <v>0.045825344051630655</v>
+      </c>
+      <c r="G39">
+        <v>0.1025267690072932</v>
+      </c>
+      <c r="H39">
+        <v>0.18728784340989557</v>
+      </c>
+      <c r="I39">
+        <v>0.30160211134033488</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B40">
+        <v>0.015066393306813379</v>
+      </c>
+      <c r="C40">
+        <v>3.7645231833826372e-07</v>
+      </c>
+      <c r="D40">
+        <v>0.013703263027611131</v>
+      </c>
+      <c r="E40">
+        <v>0.013379886085418988</v>
+      </c>
+      <c r="F40">
+        <v>0.12430740958183065</v>
+      </c>
+      <c r="G40">
+        <v>0.21947907163245128</v>
+      </c>
+      <c r="H40">
+        <v>0.36649509591367541</v>
+      </c>
+      <c r="I40">
+        <v>0.24756850399988101</v>
+      </c>
+      <c r="J40">
+        <v>7</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B41">
+        <v>0.011670013150971718</v>
+      </c>
+      <c r="C41">
+        <v>5.2237974954853895e-06</v>
+      </c>
+      <c r="D41">
+        <v>0.052913699243169236</v>
+      </c>
+      <c r="E41">
+        <v>0.046620212303121578</v>
+      </c>
+      <c r="F41">
+        <v>0.0040085384985350352</v>
+      </c>
+      <c r="G41">
+        <v>0.32256200691907189</v>
+      </c>
+      <c r="H41">
+        <v>0.21409153477443085</v>
+      </c>
+      <c r="I41">
+        <v>0.34812877131320424</v>
+      </c>
+      <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B42">
+        <v>7.8571510865010902e-05</v>
+      </c>
+      <c r="C42">
+        <v>1.8665373456856234e-13</v>
+      </c>
+      <c r="D42">
+        <v>0.033391283265690817</v>
+      </c>
+      <c r="E42">
+        <v>0.20314489943989117</v>
+      </c>
+      <c r="F42">
+        <v>0.00023033624145793965</v>
+      </c>
+      <c r="G42">
+        <v>0.27539526840279999</v>
+      </c>
+      <c r="H42">
+        <v>0.20073067704534128</v>
+      </c>
+      <c r="I42">
+        <v>0.2870289640937671</v>
+      </c>
+      <c r="J42">
+        <v>8</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B43">
+        <v>0.011128372084677861</v>
+      </c>
+      <c r="C43">
+        <v>0.00069760483079942719</v>
+      </c>
+      <c r="D43">
+        <v>0.038721191812846542</v>
+      </c>
+      <c r="E43">
+        <v>0.5574718642362898</v>
+      </c>
+      <c r="F43">
+        <v>0.011841853964939723</v>
+      </c>
+      <c r="G43">
+        <v>0.13656193274813144</v>
+      </c>
+      <c r="H43">
+        <v>0.049472184849918527</v>
+      </c>
+      <c r="I43">
+        <v>0.19410499547239665</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B44">
+        <v>0.00015475303565708635</v>
+      </c>
+      <c r="C44">
+        <v>4.5537634634842326e-05</v>
+      </c>
+      <c r="D44">
+        <v>0.024490621374071892</v>
+      </c>
+      <c r="E44">
+        <v>0.0083323825927708959</v>
+      </c>
+      <c r="F44">
+        <v>0.80111766771729265</v>
+      </c>
+      <c r="G44">
+        <v>0.056091198640386475</v>
+      </c>
+      <c r="H44">
+        <v>0.047397899339068579</v>
+      </c>
+      <c r="I44">
+        <v>0.062369939666117653</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B45">
+        <v>0.0020979567608147343</v>
+      </c>
+      <c r="C45">
+        <v>1.4994298750212288e-05</v>
+      </c>
+      <c r="D45">
+        <v>0.011374563610622269</v>
+      </c>
+      <c r="E45">
+        <v>0.022633409907036325</v>
+      </c>
+      <c r="F45">
+        <v>0.75329028979859303</v>
+      </c>
+      <c r="G45">
+        <v>0.056683831939169017</v>
+      </c>
+      <c r="H45">
+        <v>0.090535495543819053</v>
+      </c>
+      <c r="I45">
+        <v>0.063369458141195267</v>
+      </c>
+      <c r="J45">
+        <v>5</v>
+      </c>
+      <c r="K45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B46">
+        <v>0.00012230404880162035</v>
+      </c>
+      <c r="C46">
+        <v>1.0018030511075435e-05</v>
+      </c>
+      <c r="D46">
+        <v>0.015885953952368217</v>
+      </c>
+      <c r="E46">
+        <v>0.0076632609147525054</v>
+      </c>
+      <c r="F46">
+        <v>0.77064250490023134</v>
+      </c>
+      <c r="G46">
+        <v>0.070586757282271331</v>
+      </c>
+      <c r="H46">
+        <v>0.041489956588917208</v>
+      </c>
+      <c r="I46">
+        <v>0.093599244282146637</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B47">
+        <v>0.0010599444091967932</v>
+      </c>
+      <c r="C47">
+        <v>3.0417786153436051e-06</v>
+      </c>
+      <c r="D47">
+        <v>0.013431252553303845</v>
+      </c>
+      <c r="E47">
+        <v>0.011821047259316427</v>
+      </c>
+      <c r="F47">
+        <v>0.77154130720359038</v>
+      </c>
+      <c r="G47">
+        <v>0.057731038523080813</v>
+      </c>
+      <c r="H47">
+        <v>0.0839198103706114</v>
+      </c>
+      <c r="I47">
+        <v>0.060492557902284999</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B48">
+        <v>0.00040022514947946612</v>
+      </c>
+      <c r="C48">
+        <v>0.00016867459304406606</v>
+      </c>
+      <c r="D48">
+        <v>0.027282424130300367</v>
+      </c>
+      <c r="E48">
+        <v>0.039391929784664027</v>
+      </c>
+      <c r="F48">
+        <v>0.67500638232969667</v>
+      </c>
+      <c r="G48">
+        <v>0.071566682381128677</v>
+      </c>
+      <c r="H48">
+        <v>0.088987151259993916</v>
+      </c>
+      <c r="I48">
+        <v>0.097196530371692694</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B49">
+        <v>0.00029513276531976219</v>
+      </c>
+      <c r="C49">
+        <v>2.6162288706138086e-05</v>
+      </c>
+      <c r="D49">
+        <v>0.019212067363644773</v>
+      </c>
+      <c r="E49">
+        <v>0.032490434274759922</v>
+      </c>
+      <c r="F49">
+        <v>0.56068540248185772</v>
+      </c>
+      <c r="G49">
+        <v>0.082162693413096774</v>
+      </c>
+      <c r="H49">
+        <v>0.21332903882199059</v>
+      </c>
+      <c r="I49">
+        <v>0.091799068590624269</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B50">
+        <v>0.0077915687940265143</v>
+      </c>
+      <c r="C50">
+        <v>2.0076830383759992e-05</v>
+      </c>
+      <c r="D50">
+        <v>0.012314182131092621</v>
+      </c>
+      <c r="E50">
+        <v>0.025384186445037333</v>
+      </c>
+      <c r="F50">
+        <v>0.7587208810356374</v>
+      </c>
+      <c r="G50">
+        <v>0.057684331776756637</v>
+      </c>
+      <c r="H50">
+        <v>0.06778045672987891</v>
+      </c>
+      <c r="I50">
+        <v>0.070304316257186791</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B51">
+        <v>0.00042011808581140104</v>
+      </c>
+      <c r="C51">
+        <v>0.0004816696327736791</v>
+      </c>
+      <c r="D51">
+        <v>0.028199647644997515</v>
+      </c>
+      <c r="E51">
+        <v>0.039653973106293115</v>
+      </c>
+      <c r="F51">
+        <v>0.59961470867908884</v>
+      </c>
+      <c r="G51">
+        <v>0.087861574801254838</v>
+      </c>
+      <c r="H51">
+        <v>0.09205000409881095</v>
+      </c>
+      <c r="I51">
+        <v>0.1517183039509698</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B52">
+        <v>0.0022780337382984602</v>
+      </c>
+      <c r="C52">
+        <v>1.8759133354328795e-05</v>
+      </c>
+      <c r="D52">
+        <v>0.036829008759464724</v>
+      </c>
+      <c r="E52">
+        <v>0.012814437118019498</v>
+      </c>
+      <c r="F52">
+        <v>0.61220071873385984</v>
+      </c>
+      <c r="G52">
+        <v>0.08450470985635318</v>
+      </c>
+      <c r="H52">
+        <v>0.13350382794337831</v>
+      </c>
+      <c r="I52">
+        <v>0.11785050471727161</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B53">
+        <v>0.0047381144959614584</v>
+      </c>
+      <c r="C53">
+        <v>0.00027266401058569079</v>
+      </c>
+      <c r="D53">
+        <v>0.0099282307685049729</v>
+      </c>
+      <c r="E53">
+        <v>0.035733582006729145</v>
+      </c>
+      <c r="F53">
+        <v>0.69703819489049346</v>
+      </c>
+      <c r="G53">
+        <v>0.076814823856968195</v>
+      </c>
+      <c r="H53">
+        <v>0.034860830628264228</v>
+      </c>
+      <c r="I53">
+        <v>0.14061355934249287</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B54">
+        <v>0.0026110270290882888</v>
+      </c>
+      <c r="C54">
+        <v>8.3899947943345731e-05</v>
+      </c>
+      <c r="D54">
+        <v>0.028917277393688313</v>
+      </c>
+      <c r="E54">
+        <v>0.059210037310466743</v>
+      </c>
+      <c r="F54">
+        <v>0.42546635522436554</v>
+      </c>
+      <c r="G54">
+        <v>0.12235562616690634</v>
+      </c>
+      <c r="H54">
+        <v>0.11533239582896126</v>
+      </c>
+      <c r="I54">
+        <v>0.24602338109858016</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B55">
+        <v>0.016189801646500083</v>
+      </c>
+      <c r="C55">
+        <v>0.0001891258329003328</v>
+      </c>
+      <c r="D55">
+        <v>0.029273302283318495</v>
+      </c>
+      <c r="E55">
+        <v>0.18903903279910811</v>
+      </c>
+      <c r="F55">
+        <v>0.17402709908788741</v>
+      </c>
+      <c r="G55">
+        <v>0.17329284402030737</v>
+      </c>
+      <c r="H55">
+        <v>0.14789502365453697</v>
+      </c>
+      <c r="I55">
+        <v>0.27009377067544121</v>
+      </c>
+      <c r="J55">
+        <v>8</v>
+      </c>
+      <c r="K55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B56">
+        <v>0.0026068313502951566</v>
+      </c>
+      <c r="C56">
+        <v>9.0757209279920229e-05</v>
+      </c>
+      <c r="D56">
+        <v>0.049163097308324931</v>
+      </c>
+      <c r="E56">
+        <v>0.23271536045223071</v>
+      </c>
+      <c r="F56">
+        <v>0.069833468503881627</v>
+      </c>
+      <c r="G56">
+        <v>0.23481026447707401</v>
+      </c>
+      <c r="H56">
+        <v>0.15808215382400814</v>
+      </c>
+      <c r="I56">
+        <v>0.2526980668749057</v>
+      </c>
+      <c r="J56">
+        <v>8</v>
+      </c>
+      <c r="K56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B57">
+        <v>0.0011724249037712894</v>
+      </c>
+      <c r="C57">
+        <v>7.7149589610819318e-05</v>
+      </c>
+      <c r="D57">
+        <v>0.035579462122968919</v>
+      </c>
+      <c r="E57">
+        <v>0.056950119759584035</v>
+      </c>
+      <c r="F57">
+        <v>0.40002293561632646</v>
+      </c>
+      <c r="G57">
+        <v>0.15775174636885467</v>
+      </c>
+      <c r="H57">
+        <v>0.15316460578954796</v>
+      </c>
+      <c r="I57">
+        <v>0.19528155584933585</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B58">
+        <v>0.00095120969385744812</v>
+      </c>
+      <c r="C58">
+        <v>9.4804743534746734e-05</v>
+      </c>
+      <c r="D58">
+        <v>0.054418620093381644</v>
+      </c>
+      <c r="E58">
+        <v>0.0088141078050390891</v>
+      </c>
+      <c r="F58">
+        <v>0.55023890002372033</v>
+      </c>
+      <c r="G58">
+        <v>0.09062165465718211</v>
+      </c>
+      <c r="H58">
+        <v>0.11421929295718906</v>
+      </c>
+      <c r="I58">
+        <v>0.18064141002609552</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B59">
+        <v>0.019670813193500853</v>
+      </c>
+      <c r="C59">
+        <v>0.0002434320619865982</v>
+      </c>
+      <c r="D59">
+        <v>0.043747535162166742</v>
+      </c>
+      <c r="E59">
+        <v>0.048890977615624949</v>
+      </c>
+      <c r="F59">
+        <v>0.2059596864430267</v>
+      </c>
+      <c r="G59">
+        <v>0.15062938294950304</v>
+      </c>
+      <c r="H59">
+        <v>0.33091442212156502</v>
+      </c>
+      <c r="I59">
+        <v>0.19994375045262605</v>
+      </c>
+      <c r="J59">
+        <v>7</v>
+      </c>
+      <c r="K59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B60">
+        <v>0.0083648275238772159</v>
+      </c>
+      <c r="C60">
+        <v>0.00022681589287836725</v>
+      </c>
+      <c r="D60">
+        <v>0.045374499853571178</v>
+      </c>
+      <c r="E60">
+        <v>0.034508252506044675</v>
+      </c>
+      <c r="F60">
+        <v>0.34814927074626495</v>
+      </c>
+      <c r="G60">
+        <v>0.16157497601175241</v>
+      </c>
+      <c r="H60">
+        <v>0.18890007119639016</v>
+      </c>
+      <c r="I60">
+        <v>0.212901286269221</v>
+      </c>
+      <c r="J60">
+        <v>5</v>
+      </c>
+      <c r="K60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B61">
+        <v>0.00081844441347294955</v>
+      </c>
+      <c r="C61">
+        <v>8.581083402164972e-06</v>
+      </c>
+      <c r="D61">
+        <v>0.012186302383051241</v>
+      </c>
+      <c r="E61">
+        <v>0.019779813346907964</v>
+      </c>
+      <c r="F61">
+        <v>0.81709787081227525</v>
+      </c>
+      <c r="G61">
+        <v>0.061927508905084264</v>
+      </c>
+      <c r="H61">
+        <v>0.032549272775871642</v>
+      </c>
+      <c r="I61">
+        <v>0.055632206279934586</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+      <c r="K61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B62">
+        <v>0.017480129099452131</v>
+      </c>
+      <c r="C62">
+        <v>0.00022948321127423435</v>
+      </c>
+      <c r="D62">
+        <v>0.039462047180480075</v>
+      </c>
+      <c r="E62">
+        <v>0.059696075210960708</v>
+      </c>
+      <c r="F62">
+        <v>0.2817062317121799</v>
+      </c>
+      <c r="G62">
+        <v>0.17754849514138701</v>
+      </c>
+      <c r="H62">
+        <v>0.14772557825599494</v>
+      </c>
+      <c r="I62">
+        <v>0.27615196018827082</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+      <c r="K62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B63">
+        <v>0.0059914888975629976</v>
+      </c>
+      <c r="C63">
+        <v>3.0752918316788527e-07</v>
+      </c>
+      <c r="D63">
+        <v>0.030314657320785462</v>
+      </c>
+      <c r="E63">
+        <v>0.080634932215427543</v>
+      </c>
+      <c r="F63">
+        <v>0.0037637204849212645</v>
+      </c>
+      <c r="G63">
+        <v>0.21326371796676266</v>
+      </c>
+      <c r="H63">
+        <v>0.39331694429865538</v>
+      </c>
+      <c r="I63">
+        <v>0.27271423128670147</v>
+      </c>
+      <c r="J63">
+        <v>7</v>
+      </c>
+      <c r="K63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B64">
+        <v>0.012784522178944407</v>
+      </c>
+      <c r="C64">
+        <v>0.00073738916246140216</v>
+      </c>
+      <c r="D64">
+        <v>0.044268562086239437</v>
+      </c>
+      <c r="E64">
+        <v>0.012692866455262906</v>
+      </c>
+      <c r="F64">
+        <v>0.031961454115728372</v>
+      </c>
+      <c r="G64">
+        <v>0.21958013441767835</v>
+      </c>
+      <c r="H64">
+        <v>0.34249533544547672</v>
+      </c>
+      <c r="I64">
+        <v>0.33547973613820847</v>
+      </c>
+      <c r="J64">
+        <v>7</v>
+      </c>
+      <c r="K64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B65">
+        <v>0.030808098043282842</v>
+      </c>
+      <c r="C65">
+        <v>3.8334315420883449e-07</v>
+      </c>
+      <c r="D65">
+        <v>0.012008117993634021</v>
+      </c>
+      <c r="E65">
+        <v>0.013057179455211137</v>
+      </c>
+      <c r="F65">
+        <v>0.0015336573074621884</v>
+      </c>
+      <c r="G65">
+        <v>0.15822463996214084</v>
+      </c>
+      <c r="H65">
+        <v>0.21616845514003794</v>
+      </c>
+      <c r="I65">
+        <v>0.56819946875507665</v>
+      </c>
+      <c r="J65">
+        <v>8</v>
+      </c>
+      <c r="K65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B66">
+        <v>0.00062858988424324507</v>
+      </c>
+      <c r="C66">
+        <v>0.0050945951913959177</v>
+      </c>
+      <c r="D66">
+        <v>0.062728310187289235</v>
+      </c>
+      <c r="E66">
+        <v>0.055485149429709869</v>
+      </c>
+      <c r="F66">
+        <v>0.062942380824562424</v>
+      </c>
+      <c r="G66">
+        <v>0.16802204960324008</v>
+      </c>
+      <c r="H66">
+        <v>0.13102866464026811</v>
+      </c>
+      <c r="I66">
+        <v>0.51407026023929114</v>
+      </c>
+      <c r="J66">
+        <v>8</v>
+      </c>
+      <c r="K66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B67">
+        <v>0.0063051550638060574</v>
+      </c>
+      <c r="C67">
+        <v>0.00012716163857183106</v>
+      </c>
+      <c r="D67">
+        <v>0.084009532127008096</v>
+      </c>
+      <c r="E67">
+        <v>0.062234225281759002</v>
+      </c>
+      <c r="F67">
+        <v>0.031877303270503594</v>
+      </c>
+      <c r="G67">
+        <v>0.22934308074467674</v>
+      </c>
+      <c r="H67">
+        <v>0.22283061785764335</v>
+      </c>
+      <c r="I67">
+        <v>0.36327292401603123</v>
+      </c>
+      <c r="J67">
+        <v>8</v>
+      </c>
+      <c r="K67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B68">
+        <v>0.0094643387702341673</v>
+      </c>
+      <c r="C68">
+        <v>0.00013730263559938663</v>
+      </c>
+      <c r="D68">
+        <v>0.051017485312559605</v>
+      </c>
+      <c r="E68">
+        <v>0.027062373423390712</v>
+      </c>
+      <c r="F68">
+        <v>0.013164465874525315</v>
+      </c>
+      <c r="G68">
+        <v>0.268740428383064</v>
+      </c>
+      <c r="H68">
+        <v>0.21671202476148022</v>
+      </c>
+      <c r="I68">
+        <v>0.41370158083914649</v>
+      </c>
+      <c r="J68">
+        <v>8</v>
+      </c>
+      <c r="K68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B69">
+        <v>0.009324815916946106</v>
+      </c>
+      <c r="C69">
+        <v>2.2561433988289163e-05</v>
+      </c>
+      <c r="D69">
+        <v>0.013345778225372616</v>
+      </c>
+      <c r="E69">
+        <v>0.027541693107924353</v>
+      </c>
+      <c r="F69">
+        <v>0.0042906606010127734</v>
+      </c>
+      <c r="G69">
+        <v>0.24782042776842675</v>
+      </c>
+      <c r="H69">
+        <v>0.49062334332188107</v>
+      </c>
+      <c r="I69">
+        <v>0.20703071962444808</v>
+      </c>
+      <c r="J69">
+        <v>7</v>
+      </c>
+      <c r="K69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B70">
+        <v>0.0035444769999633556</v>
+      </c>
+      <c r="C70">
+        <v>1.3495089826430522e-09</v>
+      </c>
+      <c r="D70">
+        <v>0.03133251341357892</v>
+      </c>
+      <c r="E70">
+        <v>0.030135423423026921</v>
+      </c>
+      <c r="F70">
+        <v>0.1082302167528265</v>
+      </c>
+      <c r="G70">
+        <v>0.28587499542703959</v>
+      </c>
+      <c r="H70">
+        <v>0.25063790528386237</v>
+      </c>
+      <c r="I70">
+        <v>0.29024446735019338</v>
+      </c>
+      <c r="J70">
+        <v>8</v>
+      </c>
+      <c r="K70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B71">
+        <v>0.0045947630574062629</v>
+      </c>
+      <c r="C71">
+        <v>1.1156441451007856e-05</v>
+      </c>
+      <c r="D71">
+        <v>0.041667095729643472</v>
+      </c>
+      <c r="E71">
+        <v>0.061445176783739501</v>
+      </c>
+      <c r="F71">
+        <v>0.0087661858003157331</v>
+      </c>
+      <c r="G71">
+        <v>0.16054414140594472</v>
+      </c>
+      <c r="H71">
+        <v>0.42915381954369225</v>
+      </c>
+      <c r="I71">
+        <v>0.29381766123780712</v>
+      </c>
+      <c r="J71">
+        <v>7</v>
+      </c>
+      <c r="K71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B72">
+        <v>0.0075110264832576375</v>
+      </c>
+      <c r="C72">
+        <v>0.00020289959513954679</v>
+      </c>
+      <c r="D72">
+        <v>0.04929093750658195</v>
+      </c>
+      <c r="E72">
+        <v>0.086058096612416313</v>
+      </c>
+      <c r="F72">
+        <v>0.013656021213814545</v>
+      </c>
+      <c r="G72">
+        <v>0.2019223609130297</v>
+      </c>
+      <c r="H72">
+        <v>0.18561124510249014</v>
+      </c>
+      <c r="I72">
+        <v>0.45574741257327023</v>
+      </c>
+      <c r="J72">
+        <v>8</v>
+      </c>
+      <c r="K72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B73">
+        <v>0.018745667117264025</v>
+      </c>
+      <c r="C73">
+        <v>9.9395677837259439e-09</v>
+      </c>
+      <c r="D73">
+        <v>0.0041325677184613514</v>
+      </c>
+      <c r="E73">
+        <v>0.00067471481369415023</v>
+      </c>
+      <c r="F73">
+        <v>0.0048667622870870609</v>
+      </c>
+      <c r="G73">
+        <v>0.312404223503576</v>
+      </c>
+      <c r="H73">
+        <v>0.23956117036818059</v>
+      </c>
+      <c r="I73">
+        <v>0.41961488425216897</v>
+      </c>
+      <c r="J73">
+        <v>8</v>
+      </c>
+      <c r="K73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B74">
+        <v>0.0028616269999793813</v>
+      </c>
+      <c r="C74">
+        <v>1.1085210408164004e-06</v>
+      </c>
+      <c r="D74">
+        <v>0.0040998669805003525</v>
+      </c>
+      <c r="E74">
+        <v>0.00054310907561538023</v>
+      </c>
+      <c r="F74">
+        <v>0.00061472945796694253</v>
+      </c>
+      <c r="G74">
+        <v>0.25471971953960443</v>
+      </c>
+      <c r="H74">
+        <v>0.4658559303532005</v>
+      </c>
+      <c r="I74">
+        <v>0.27130390907209206</v>
+      </c>
+      <c r="J74">
+        <v>7</v>
+      </c>
+      <c r="K74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B75">
+        <v>0.0018721772167645243</v>
+      </c>
+      <c r="C75">
+        <v>2.2047679552883408e-09</v>
+      </c>
+      <c r="D75">
+        <v>0.043013603548409662</v>
+      </c>
+      <c r="E75">
+        <v>0.0020481683307901851</v>
+      </c>
+      <c r="F75">
+        <v>0.0012321867092917958</v>
+      </c>
+      <c r="G75">
+        <v>0.45116682517754386</v>
+      </c>
+      <c r="H75">
+        <v>0.096299421248291092</v>
+      </c>
+      <c r="I75">
+        <v>0.40436761556414097</v>
+      </c>
+      <c r="J75">
+        <v>6</v>
+      </c>
+      <c r="K75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B76">
+        <v>0.060527042442960186</v>
+      </c>
+      <c r="C76">
+        <v>4.0638845996539674e-05</v>
+      </c>
+      <c r="D76">
+        <v>0.04629843562147061</v>
+      </c>
+      <c r="E76">
+        <v>0.04843409390580046</v>
+      </c>
+      <c r="F76">
+        <v>0.016324252311935024</v>
+      </c>
+      <c r="G76">
+        <v>0.32838679033609591</v>
+      </c>
+      <c r="H76">
+        <v>0.18927456267257925</v>
+      </c>
+      <c r="I76">
+        <v>0.31071418386316202</v>
+      </c>
+      <c r="J76">
+        <v>6</v>
+      </c>
+      <c r="K76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B77">
+        <v>0.04485831690064028</v>
+      </c>
+      <c r="C77">
+        <v>6.2366696122718253e-08</v>
+      </c>
+      <c r="D77">
+        <v>0.077593038991966276</v>
+      </c>
+      <c r="E77">
+        <v>0.014201307368349224</v>
+      </c>
+      <c r="F77">
+        <v>0.056868034688851106</v>
+      </c>
+      <c r="G77">
+        <v>0.46581830697290083</v>
+      </c>
+      <c r="H77">
+        <v>0.15305847340882786</v>
+      </c>
+      <c r="I77">
+        <v>0.18760245930176836</v>
+      </c>
+      <c r="J77">
+        <v>6</v>
+      </c>
+      <c r="K77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B78">
+        <v>0.0053708595052350365</v>
+      </c>
+      <c r="C78">
+        <v>5.4238051461894418e-06</v>
+      </c>
+      <c r="D78">
+        <v>0.0105926515560157</v>
+      </c>
+      <c r="E78">
+        <v>0.012547558608926288</v>
+      </c>
+      <c r="F78">
+        <v>0.0006566489425864333</v>
+      </c>
+      <c r="G78">
+        <v>0.36361952904310807</v>
+      </c>
+      <c r="H78">
+        <v>0.25640530511042769</v>
+      </c>
+      <c r="I78">
+        <v>0.3508020234285546</v>
+      </c>
+      <c r="J78">
+        <v>6</v>
+      </c>
+      <c r="K78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B79">
+        <v>0.0063409511307265087</v>
+      </c>
+      <c r="C79">
+        <v>9.8814834574282844e-05</v>
+      </c>
+      <c r="D79">
+        <v>0.024406867938245185</v>
+      </c>
+      <c r="E79">
+        <v>0.066822005607445278</v>
+      </c>
+      <c r="F79">
+        <v>0.0058474238050656565</v>
+      </c>
+      <c r="G79">
+        <v>0.2178227550752527</v>
+      </c>
+      <c r="H79">
+        <v>0.42939078333564518</v>
+      </c>
+      <c r="I79">
+        <v>0.24927039827304515</v>
+      </c>
+      <c r="J79">
+        <v>7</v>
+      </c>
+      <c r="K79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B80">
+        <v>8.7344335795522054e-05</v>
+      </c>
+      <c r="C80">
+        <v>1.7907841445835291e-09</v>
+      </c>
+      <c r="D80">
+        <v>0.029308409053608646</v>
+      </c>
+      <c r="E80">
+        <v>0.036341741995277045</v>
+      </c>
+      <c r="F80">
+        <v>0.00058604565205089938</v>
+      </c>
+      <c r="G80">
+        <v>0.22820688309207676</v>
+      </c>
+      <c r="H80">
+        <v>0.41068966206202057</v>
+      </c>
+      <c r="I80">
+        <v>0.29477991201838627</v>
+      </c>
+      <c r="J80">
+        <v>7</v>
+      </c>
+      <c r="K80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B81">
+        <v>0.012828166919021526</v>
+      </c>
+      <c r="C81">
+        <v>7.8817126225249628e-06</v>
+      </c>
+      <c r="D81">
+        <v>0.038475345946488021</v>
+      </c>
+      <c r="E81">
+        <v>0.0037002621624712458</v>
+      </c>
+      <c r="F81">
+        <v>0.0019451798701690529</v>
+      </c>
+      <c r="G81">
+        <v>0.24543371906490896</v>
+      </c>
+      <c r="H81">
+        <v>0.40221867393776495</v>
+      </c>
+      <c r="I81">
+        <v>0.29539077038655376</v>
+      </c>
+      <c r="J81">
+        <v>7</v>
+      </c>
+      <c r="K81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B82">
+        <v>0.026503821703130287</v>
+      </c>
+      <c r="C82">
+        <v>1.7732222223039099e-06</v>
+      </c>
+      <c r="D82">
+        <v>0.037597898389950056</v>
+      </c>
+      <c r="E82">
+        <v>0.080202014916501654</v>
+      </c>
+      <c r="F82">
+        <v>0.0028194472484952405</v>
+      </c>
+      <c r="G82">
+        <v>0.19389994525395091</v>
+      </c>
+      <c r="H82">
+        <v>0.14080216594472755</v>
+      </c>
+      <c r="I82">
+        <v>0.51817293332102188</v>
+      </c>
+      <c r="J82">
+        <v>8</v>
+      </c>
+      <c r="K82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B83">
+        <v>0.021310601827936444</v>
+      </c>
+      <c r="C83">
+        <v>2.3965044478615197e-05</v>
+      </c>
+      <c r="D83">
+        <v>0.063217433207547594</v>
+      </c>
+      <c r="E83">
+        <v>0.031612348629894475</v>
+      </c>
+      <c r="F83">
+        <v>0.0088031477647204578</v>
+      </c>
+      <c r="G83">
+        <v>0.31778344829007232</v>
+      </c>
+      <c r="H83">
+        <v>0.15129437274368432</v>
+      </c>
+      <c r="I83">
+        <v>0.40595468249166566</v>
+      </c>
+      <c r="J83">
+        <v>8</v>
+      </c>
+      <c r="K83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B84">
+        <v>0.093903008076547237</v>
+      </c>
+      <c r="C84">
+        <v>3.2860826814332644e-05</v>
+      </c>
+      <c r="D84">
+        <v>0.058337814537244605</v>
+      </c>
+      <c r="E84">
+        <v>0.1045204055368395</v>
+      </c>
+      <c r="F84">
+        <v>0.0069985825446780272</v>
+      </c>
+      <c r="G84">
+        <v>0.21798375302474796</v>
+      </c>
+      <c r="H84">
+        <v>0.15091496020098252</v>
+      </c>
+      <c r="I84">
+        <v>0.36730861525214581</v>
+      </c>
+      <c r="J84">
+        <v>8</v>
+      </c>
+      <c r="K84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B85">
+        <v>0.0012905066139452155</v>
+      </c>
+      <c r="C85">
+        <v>1.7721659956286114e-07</v>
+      </c>
+      <c r="D85">
+        <v>0.064691934932245329</v>
+      </c>
+      <c r="E85">
+        <v>0.013392053238888936</v>
+      </c>
+      <c r="F85">
+        <v>0.0038852009180624699</v>
+      </c>
+      <c r="G85">
+        <v>0.42209102967867562</v>
+      </c>
+      <c r="H85">
+        <v>0.246652422362278</v>
+      </c>
+      <c r="I85">
+        <v>0.24799667503930489</v>
+      </c>
+      <c r="J85">
+        <v>6</v>
+      </c>
+      <c r="K85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B86">
+        <v>0.0015735377535227456</v>
+      </c>
+      <c r="C86">
+        <v>5.0029094137486981e-10</v>
+      </c>
+      <c r="D86">
+        <v>0.015424226800721232</v>
+      </c>
+      <c r="E86">
+        <v>0.01147637974298606</v>
+      </c>
+      <c r="F86">
+        <v>0.0030117308160407356</v>
+      </c>
+      <c r="G86">
+        <v>0.41347182597685428</v>
+      </c>
+      <c r="H86">
+        <v>0.1317134922922058</v>
+      </c>
+      <c r="I86">
+        <v>0.42332880611737811</v>
+      </c>
+      <c r="J86">
+        <v>8</v>
+      </c>
+      <c r="K86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B87">
+        <v>0.00041711851089579357</v>
+      </c>
+      <c r="C87">
+        <v>9.7305889044003503e-10</v>
+      </c>
+      <c r="D87">
+        <v>0.0054166456187870549</v>
+      </c>
+      <c r="E87">
+        <v>0.0025635171778247536</v>
+      </c>
+      <c r="F87">
+        <v>0.048718499207859943</v>
+      </c>
+      <c r="G87">
+        <v>0.051289598398130215</v>
+      </c>
+      <c r="H87">
+        <v>0.15382131186718281</v>
+      </c>
+      <c r="I87">
+        <v>0.73777330824626053</v>
+      </c>
+      <c r="J87">
+        <v>8</v>
+      </c>
+      <c r="K87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B88">
+        <v>0.035818232196735349</v>
+      </c>
+      <c r="C88">
+        <v>8.6368539407213295e-07</v>
+      </c>
+      <c r="D88">
+        <v>0.0087415340125633761</v>
+      </c>
+      <c r="E88">
+        <v>0.0052292866158955191</v>
+      </c>
+      <c r="F88">
+        <v>7.7496518503267087e-05</v>
+      </c>
+      <c r="G88">
+        <v>0.58026221376628428</v>
+      </c>
+      <c r="H88">
+        <v>0.1019356372944638</v>
+      </c>
+      <c r="I88">
+        <v>0.26793473591016026</v>
+      </c>
+      <c r="J88">
+        <v>6</v>
+      </c>
+      <c r="K88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B89">
+        <v>0.00074460497755005658</v>
+      </c>
+      <c r="C89">
+        <v>7.4845040285950374e-08</v>
+      </c>
+      <c r="D89">
+        <v>0.021773602016782655</v>
+      </c>
+      <c r="E89">
+        <v>0.024983736392822468</v>
+      </c>
+      <c r="F89">
+        <v>0.0003644813409169295</v>
+      </c>
+      <c r="G89">
+        <v>0.39732387638749772</v>
+      </c>
+      <c r="H89">
+        <v>0.14384928606860417</v>
+      </c>
+      <c r="I89">
+        <v>0.41096033797078557</v>
+      </c>
+      <c r="J89">
+        <v>8</v>
+      </c>
+      <c r="K89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B90">
+        <v>0.0067825524375062967</v>
+      </c>
+      <c r="C90">
+        <v>0.0035906433566440287</v>
+      </c>
+      <c r="D90">
+        <v>0.026826460492732442</v>
+      </c>
+      <c r="E90">
+        <v>0.058970262752687429</v>
+      </c>
+      <c r="F90">
+        <v>0.0080836557237443391</v>
+      </c>
+      <c r="G90">
+        <v>0.17944202512021806</v>
+      </c>
+      <c r="H90">
+        <v>0.10720093117065869</v>
+      </c>
+      <c r="I90">
+        <v>0.6091034689458088</v>
+      </c>
+      <c r="J90">
+        <v>8</v>
+      </c>
+      <c r="K90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B91">
+        <v>0.0032910719084153304</v>
+      </c>
+      <c r="C91">
+        <v>0.00057295429674069048</v>
+      </c>
+      <c r="D91">
+        <v>0.027839799238123533</v>
+      </c>
+      <c r="E91">
+        <v>0.085325054453158494</v>
+      </c>
+      <c r="F91">
+        <v>0.011178926301745391</v>
+      </c>
+      <c r="G91">
+        <v>0.14915009394871084</v>
+      </c>
+      <c r="H91">
+        <v>0.086863454828686099</v>
+      </c>
+      <c r="I91">
+        <v>0.63577864502441972</v>
+      </c>
+      <c r="J91">
+        <v>8</v>
+      </c>
+      <c r="K91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B92">
+        <v>8.4568306185107058e-06</v>
+      </c>
+      <c r="C92">
+        <v>1.5291572357970152e-12</v>
+      </c>
+      <c r="D92">
+        <v>0.039271747380290239</v>
+      </c>
+      <c r="E92">
+        <v>0.0054718103707412117</v>
+      </c>
+      <c r="F92">
+        <v>0.0027248385975841278</v>
+      </c>
+      <c r="G92">
+        <v>0.26856855141663588</v>
+      </c>
+      <c r="H92">
+        <v>0.19421147282039095</v>
+      </c>
+      <c r="I92">
+        <v>0.48974312258220981</v>
+      </c>
+      <c r="J92">
+        <v>8</v>
+      </c>
+      <c r="K92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B93">
+        <v>0.032782300063921722</v>
+      </c>
+      <c r="C93">
+        <v>1.2642671502452967e-06</v>
+      </c>
+      <c r="D93">
+        <v>0.012521454286922465</v>
+      </c>
+      <c r="E93">
+        <v>0.025276373520930675</v>
+      </c>
+      <c r="F93">
+        <v>0.0026327600907016823</v>
+      </c>
+      <c r="G93">
+        <v>0.14339306688202424</v>
+      </c>
+      <c r="H93">
+        <v>0.1689080111990211</v>
+      </c>
+      <c r="I93">
+        <v>0.61448476968932786</v>
+      </c>
+      <c r="J93">
+        <v>8</v>
+      </c>
+      <c r="K93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B94">
+        <v>3.3381129814582489e-13</v>
+      </c>
+      <c r="C94">
+        <v>2.2414967675833481e-14</v>
+      </c>
+      <c r="D94">
+        <v>0.0060319981248012937</v>
+      </c>
+      <c r="E94">
+        <v>1.36194390450079e-07</v>
+      </c>
+      <c r="F94">
+        <v>3.2877378948988842e-07</v>
+      </c>
+      <c r="G94">
+        <v>0.094772826829537457</v>
+      </c>
+      <c r="H94">
+        <v>0.65941332401211428</v>
+      </c>
+      <c r="I94">
+        <v>0.23978138606501084</v>
+      </c>
+      <c r="J94">
+        <v>7</v>
+      </c>
+      <c r="K94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B95">
+        <v>0.035302212088060662</v>
+      </c>
+      <c r="C95">
+        <v>1.3755093400797416e-05</v>
+      </c>
+      <c r="D95">
+        <v>0.11004612258595065</v>
+      </c>
+      <c r="E95">
+        <v>0.0033812536074223488</v>
+      </c>
+      <c r="F95">
+        <v>0.00074658775089271427</v>
+      </c>
+      <c r="G95">
+        <v>0.16579881169044849</v>
+      </c>
+      <c r="H95">
+        <v>0.077360910378976966</v>
+      </c>
+      <c r="I95">
+        <v>0.60735034680484723</v>
+      </c>
+      <c r="J95">
+        <v>8</v>
+      </c>
+      <c r="K95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B96">
+        <v>2.7809121232882705e-14</v>
+      </c>
+      <c r="C96">
+        <v>2.7809121232882569e-14</v>
+      </c>
+      <c r="D96">
+        <v>0.11690752763513597</v>
+      </c>
+      <c r="E96">
+        <v>7.1881637766141532e-05</v>
+      </c>
+      <c r="F96">
+        <v>3.5924987759980968e-10</v>
+      </c>
+      <c r="G96">
+        <v>0.32664382051756546</v>
+      </c>
+      <c r="H96">
+        <v>0.37284403135377314</v>
+      </c>
+      <c r="I96">
+        <v>0.18353273849645377</v>
+      </c>
+      <c r="J96">
+        <v>7</v>
+      </c>
+      <c r="K96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B97">
+        <v>0.03297031772119486</v>
+      </c>
+      <c r="C97">
+        <v>0.005454589089178747</v>
+      </c>
+      <c r="D97">
+        <v>0.031572819090194389</v>
+      </c>
+      <c r="E97">
+        <v>0.018088893512100083</v>
+      </c>
+      <c r="F97">
+        <v>0.026473850479737666</v>
+      </c>
+      <c r="G97">
+        <v>0.19260659350273696</v>
+      </c>
+      <c r="H97">
+        <v>0.25126767036401254</v>
+      </c>
+      <c r="I97">
+        <v>0.4415652662408448</v>
+      </c>
+      <c r="J97">
+        <v>8</v>
+      </c>
+      <c r="K97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B98">
+        <v>0.039597577893021846</v>
+      </c>
+      <c r="C98">
+        <v>0.0022270758894061475</v>
+      </c>
+      <c r="D98">
+        <v>0.013819614345944057</v>
+      </c>
+      <c r="E98">
+        <v>0.13888614604658792</v>
+      </c>
+      <c r="F98">
+        <v>0.0010086570647537274</v>
+      </c>
+      <c r="G98">
+        <v>0.23483255969795605</v>
+      </c>
+      <c r="H98">
+        <v>0.32299884529146883</v>
+      </c>
+      <c r="I98">
+        <v>0.24662952377086156</v>
+      </c>
+      <c r="J98">
+        <v>7</v>
+      </c>
+      <c r="K98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B99">
+        <v>0.00028051220118824164</v>
+      </c>
+      <c r="C99">
+        <v>0.0014205892034188303</v>
+      </c>
+      <c r="D99">
+        <v>0.045015094879656152</v>
+      </c>
+      <c r="E99">
+        <v>0.019806683632377406</v>
+      </c>
+      <c r="F99">
+        <v>0.0098585124315166434</v>
+      </c>
+      <c r="G99">
+        <v>0.19201754465218851</v>
+      </c>
+      <c r="H99">
+        <v>0.11586157596019016</v>
+      </c>
+      <c r="I99">
+        <v>0.61573948703946402</v>
+      </c>
+      <c r="J99">
+        <v>8</v>
+      </c>
+      <c r="K99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B100">
+        <v>0.0004304840980230496</v>
+      </c>
+      <c r="C100">
+        <v>0.0001993749663564483</v>
+      </c>
+      <c r="D100">
+        <v>0.037755352183600648</v>
+      </c>
+      <c r="E100">
+        <v>0.020897283794111744</v>
+      </c>
+      <c r="F100">
+        <v>0.0097681220653935853</v>
+      </c>
+      <c r="G100">
+        <v>0.17335550629110658</v>
+      </c>
+      <c r="H100">
+        <v>0.23341901956409433</v>
+      </c>
+      <c r="I100">
+        <v>0.52417485703731359</v>
+      </c>
+      <c r="J100">
+        <v>8</v>
+      </c>
+      <c r="K100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B101">
+        <v>0.036275710120843255</v>
+      </c>
+      <c r="C101">
+        <v>0.00024464032483749584</v>
+      </c>
+      <c r="D101">
+        <v>0.02338970829429746</v>
+      </c>
+      <c r="E101">
+        <v>0.15218000515566868</v>
+      </c>
+      <c r="F101">
+        <v>0.015901435031540699</v>
+      </c>
+      <c r="G101">
+        <v>0.23836240121260188</v>
+      </c>
+      <c r="H101">
+        <v>0.10957221198784743</v>
+      </c>
+      <c r="I101">
+        <v>0.42407388787236289</v>
+      </c>
+      <c r="J101">
+        <v>8</v>
+      </c>
+      <c r="K101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B102">
+        <v>0.0079086838611333622</v>
+      </c>
+      <c r="C102">
+        <v>0.00014951396296541307</v>
+      </c>
+      <c r="D102">
+        <v>0.036303340993224395</v>
+      </c>
+      <c r="E102">
+        <v>0.089846807930178532</v>
+      </c>
+      <c r="F102">
+        <v>0.032991626047607178</v>
+      </c>
+      <c r="G102">
+        <v>0.23942814583987296</v>
+      </c>
+      <c r="H102">
+        <v>0.2646471455187015</v>
+      </c>
+      <c r="I102">
+        <v>0.32872473584631656</v>
+      </c>
+      <c r="J102">
+        <v>8</v>
+      </c>
+      <c r="K102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B103">
+        <v>0.0096263762183527099</v>
+      </c>
+      <c r="C103">
+        <v>0.00068482763638306381</v>
+      </c>
+      <c r="D103">
+        <v>0.045469178180617235</v>
+      </c>
+      <c r="E103">
+        <v>0.1048464347387668</v>
+      </c>
+      <c r="F103">
+        <v>0.014454062993911412</v>
+      </c>
+      <c r="G103">
+        <v>0.21426651489383702</v>
+      </c>
+      <c r="H103">
+        <v>0.19469172734515708</v>
+      </c>
+      <c r="I103">
+        <v>0.41596087799297476</v>
+      </c>
+      <c r="J103">
+        <v>8</v>
+      </c>
+      <c r="K103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B104">
+        <v>0.0080263406320244483</v>
+      </c>
+      <c r="C104">
+        <v>0.0002260242574553037</v>
+      </c>
+      <c r="D104">
+        <v>0.039201467009204877</v>
+      </c>
+      <c r="E104">
+        <v>0.069511929727736205</v>
+      </c>
+      <c r="F104">
+        <v>0.045790383235020056</v>
+      </c>
+      <c r="G104">
+        <v>0.2140032357819433</v>
+      </c>
+      <c r="H104">
+        <v>0.21530611603969632</v>
+      </c>
+      <c r="I104">
+        <v>0.40793450331691955</v>
+      </c>
+      <c r="J104">
+        <v>8</v>
+      </c>
+      <c r="K104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B105">
+        <v>0.0026979985972702546</v>
+      </c>
+      <c r="C105">
+        <v>2.6000347787451831e-05</v>
+      </c>
+      <c r="D105">
+        <v>0.041928973374576191</v>
+      </c>
+      <c r="E105">
+        <v>0.1249594745721142</v>
+      </c>
+      <c r="F105">
+        <v>0.013656061844089221</v>
+      </c>
+      <c r="G105">
+        <v>0.23744485808290802</v>
+      </c>
+      <c r="H105">
+        <v>0.26304826970657141</v>
+      </c>
+      <c r="I105">
+        <v>0.3162383634746832</v>
+      </c>
+      <c r="J105">
+        <v>8</v>
+      </c>
+      <c r="K105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B106">
+        <v>0.01885657419156557</v>
+      </c>
+      <c r="C106">
+        <v>0.00024300107674188554</v>
+      </c>
+      <c r="D106">
+        <v>0.02208324506212429</v>
+      </c>
+      <c r="E106">
+        <v>0.096226314822540543</v>
+      </c>
+      <c r="F106">
+        <v>0.011751672167949891</v>
+      </c>
+      <c r="G106">
+        <v>0.19712779169519107</v>
+      </c>
+      <c r="H106">
+        <v>0.30404621020650363</v>
+      </c>
+      <c r="I106">
+        <v>0.34966519077738301</v>
+      </c>
+      <c r="J106">
+        <v>8</v>
+      </c>
+      <c r="K106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B107">
+        <v>0.015336045987307489</v>
+      </c>
+      <c r="C107">
+        <v>7.9288581586821986e-05</v>
+      </c>
+      <c r="D107">
+        <v>0.021714845079678309</v>
+      </c>
+      <c r="E107">
+        <v>0.092095215745826978</v>
+      </c>
+      <c r="F107">
+        <v>0.01282152011344743</v>
+      </c>
+      <c r="G107">
+        <v>0.22131028732117788</v>
+      </c>
+      <c r="H107">
+        <v>0.24908620716141211</v>
+      </c>
+      <c r="I107">
+        <v>0.387556590009563</v>
+      </c>
+      <c r="J107">
+        <v>8</v>
+      </c>
+      <c r="K107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B108">
+        <v>0.013427427769634914</v>
+      </c>
+      <c r="C108">
+        <v>6.6998323632313065e-06</v>
+      </c>
+      <c r="D108">
+        <v>0.034414762475534044</v>
+      </c>
+      <c r="E108">
+        <v>0.088325959523380015</v>
+      </c>
+      <c r="F108">
+        <v>0.0023266687874040595</v>
+      </c>
+      <c r="G108">
+        <v>0.27417163778997344</v>
+      </c>
+      <c r="H108">
+        <v>0.26686615998046925</v>
+      </c>
+      <c r="I108">
+        <v>0.32046068384124105</v>
+      </c>
+      <c r="J108">
+        <v>8</v>
+      </c>
+      <c r="K108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B109">
+        <v>0.12208822722503353</v>
+      </c>
+      <c r="C109">
+        <v>4.2141630811290798e-05</v>
+      </c>
+      <c r="D109">
+        <v>0.010508441035917335</v>
+      </c>
+      <c r="E109">
+        <v>0.050226553106530056</v>
+      </c>
+      <c r="F109">
+        <v>0.0072800989345527846</v>
+      </c>
+      <c r="G109">
+        <v>0.33462134289268408</v>
+      </c>
+      <c r="H109">
+        <v>0.22263555613305366</v>
+      </c>
+      <c r="I109">
+        <v>0.25259763904141724</v>
+      </c>
+      <c r="J109">
+        <v>6</v>
+      </c>
+      <c r="K109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B110">
+        <v>0.038669133258042901</v>
+      </c>
+      <c r="C110">
+        <v>8.1165181429219724e-05</v>
+      </c>
+      <c r="D110">
+        <v>0.023472899205071319</v>
+      </c>
+      <c r="E110">
+        <v>0.032394961007634948</v>
+      </c>
+      <c r="F110">
+        <v>0.24295331118851746</v>
+      </c>
+      <c r="G110">
+        <v>0.18484902848135937</v>
+      </c>
+      <c r="H110">
+        <v>0.23069600088539546</v>
+      </c>
+      <c r="I110">
+        <v>0.24688350079254928</v>
+      </c>
+      <c r="J110">
+        <v>8</v>
+      </c>
+      <c r="K110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B111">
+        <v>0.0052939129545709514</v>
+      </c>
+      <c r="C111">
+        <v>0.00034196903570889246</v>
+      </c>
+      <c r="D111">
+        <v>0.092154388921578692</v>
+      </c>
+      <c r="E111">
+        <v>0.10026349065034952</v>
+      </c>
+      <c r="F111">
+        <v>0.0035015274650194209</v>
+      </c>
+      <c r="G111">
+        <v>0.26513693940681909</v>
+      </c>
+      <c r="H111">
+        <v>0.12352737234836367</v>
+      </c>
+      <c r="I111">
+        <v>0.4097803992175898</v>
+      </c>
+      <c r="J111">
+        <v>8</v>
+      </c>
+      <c r="K111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B112">
+        <v>0.052363281968153673</v>
+      </c>
+      <c r="C112">
+        <v>0.00040533642071112128</v>
+      </c>
+      <c r="D112">
+        <v>0.035130484266793764</v>
+      </c>
+      <c r="E112">
+        <v>0.047821111799886948</v>
+      </c>
+      <c r="F112">
+        <v>0.037904055124299015</v>
+      </c>
+      <c r="G112">
+        <v>0.21443620284546627</v>
+      </c>
+      <c r="H112">
+        <v>0.25859369327527726</v>
+      </c>
+      <c r="I112">
+        <v>0.35334583429941185</v>
+      </c>
+      <c r="J112">
+        <v>8</v>
+      </c>
+      <c r="K112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B113">
+        <v>0.0066971268851576931</v>
+      </c>
+      <c r="C113">
+        <v>8.1453285687988844e-05</v>
+      </c>
+      <c r="D113">
+        <v>0.023628688829596456</v>
+      </c>
+      <c r="E113">
+        <v>0.11913774621298776</v>
+      </c>
+      <c r="F113">
+        <v>0.0025461176813171144</v>
+      </c>
+      <c r="G113">
+        <v>0.21859513002902106</v>
+      </c>
+      <c r="H113">
+        <v>0.28112023980311168</v>
+      </c>
+      <c r="I113">
+        <v>0.34819349727312027</v>
+      </c>
+      <c r="J113">
+        <v>8</v>
+      </c>
+      <c r="K113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B114">
+        <v>0.040537197756679536</v>
+      </c>
+      <c r="C114">
+        <v>9.1354195611215207e-05</v>
+      </c>
+      <c r="D114">
+        <v>0.041451106634467244</v>
+      </c>
+      <c r="E114">
+        <v>0.092589623537469176</v>
+      </c>
+      <c r="F114">
+        <v>0.0047687121826656131</v>
+      </c>
+      <c r="G114">
+        <v>0.19919064984960008</v>
+      </c>
+      <c r="H114">
+        <v>0.3506915939404594</v>
+      </c>
+      <c r="I114">
+        <v>0.27067976190304782</v>
+      </c>
+      <c r="J114">
+        <v>7</v>
+      </c>
+      <c r="K114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B115">
+        <v>0.0058970195934599399</v>
+      </c>
+      <c r="C115">
+        <v>7.7935261550697541e-05</v>
+      </c>
+      <c r="D115">
+        <v>0.021393564617263924</v>
+      </c>
+      <c r="E115">
+        <v>0.014185375665520307</v>
+      </c>
+      <c r="F115">
+        <v>0.0078616349639388169</v>
+      </c>
+      <c r="G115">
+        <v>0.14217270744763366</v>
+      </c>
+      <c r="H115">
+        <v>0.6024678325469478</v>
+      </c>
+      <c r="I115">
+        <v>0.20594392990368499</v>
+      </c>
+      <c r="J115">
+        <v>7</v>
+      </c>
+      <c r="K115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B116">
+        <v>0.019101209017144651</v>
+      </c>
+      <c r="C116">
+        <v>0.0035293839599011665</v>
+      </c>
+      <c r="D116">
+        <v>0.012593018447774749</v>
+      </c>
+      <c r="E116">
+        <v>0.001854184353929784</v>
+      </c>
+      <c r="F116">
+        <v>0.0095974704876787623</v>
+      </c>
+      <c r="G116">
+        <v>0.20238842684093256</v>
+      </c>
+      <c r="H116">
+        <v>0.41475565581671742</v>
+      </c>
+      <c r="I116">
+        <v>0.33618065107592088</v>
+      </c>
+      <c r="J116">
+        <v>7</v>
+      </c>
+      <c r="K116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B117">
+        <v>0.032333092539064912</v>
+      </c>
+      <c r="C117">
+        <v>4.5783042862862225e-05</v>
+      </c>
+      <c r="D117">
+        <v>0.034835638138501837</v>
+      </c>
+      <c r="E117">
+        <v>0.1261956854350863</v>
+      </c>
+      <c r="F117">
+        <v>0.014824769348741719</v>
+      </c>
+      <c r="G117">
+        <v>0.20676930253909487</v>
+      </c>
+      <c r="H117">
+        <v>0.26869122274381391</v>
+      </c>
+      <c r="I117">
+        <v>0.31630450621283374</v>
+      </c>
+      <c r="J117">
+        <v>8</v>
+      </c>
+      <c r="K117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B118">
+        <v>0.0033815149406968424</v>
+      </c>
+      <c r="C118">
+        <v>0.0005984572540514441</v>
+      </c>
+      <c r="D118">
+        <v>0.21337405920414976</v>
+      </c>
+      <c r="E118">
+        <v>0.0012258038435899064</v>
+      </c>
+      <c r="F118">
+        <v>0.0026846601831308939</v>
+      </c>
+      <c r="G118">
+        <v>0.15944420059586253</v>
+      </c>
+      <c r="H118">
+        <v>0.3602302525540077</v>
+      </c>
+      <c r="I118">
+        <v>0.2590610514245108</v>
+      </c>
+      <c r="J118">
+        <v>7</v>
+      </c>
+      <c r="K118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B119">
+        <v>0.009977004022201752</v>
+      </c>
+      <c r="C119">
+        <v>1.6936567010350796e-05</v>
+      </c>
+      <c r="D119">
+        <v>0.051571871196746409</v>
+      </c>
+      <c r="E119">
+        <v>0.075013226787515153</v>
+      </c>
+      <c r="F119">
+        <v>0.0089520796538140636</v>
+      </c>
+      <c r="G119">
+        <v>0.22080158405331496</v>
+      </c>
+      <c r="H119">
+        <v>0.29340069844092292</v>
+      </c>
+      <c r="I119">
+        <v>0.34026659927847447</v>
+      </c>
+      <c r="J119">
+        <v>8</v>
+      </c>
+      <c r="K119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B120">
+        <v>0.013590951475371241</v>
+      </c>
+      <c r="C120">
+        <v>0.00012268609872376459</v>
+      </c>
+      <c r="D120">
+        <v>0.063614786620673866</v>
+      </c>
+      <c r="E120">
+        <v>0.046919431936738192</v>
+      </c>
+      <c r="F120">
+        <v>0.012290537611880288</v>
+      </c>
+      <c r="G120">
+        <v>0.15922633048041235</v>
+      </c>
+      <c r="H120">
+        <v>0.51990076390004469</v>
+      </c>
+      <c r="I120">
+        <v>0.18433451187615565</v>
+      </c>
+      <c r="J120">
+        <v>7</v>
+      </c>
+      <c r="K120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B121">
+        <v>0.0016726394985500722</v>
+      </c>
+      <c r="C121">
+        <v>4.0031827766168325e-06</v>
+      </c>
+      <c r="D121">
+        <v>0.024975076169540356</v>
+      </c>
+      <c r="E121">
+        <v>0.06987428588008858</v>
+      </c>
+      <c r="F121">
+        <v>0.0031609614390783361</v>
+      </c>
+      <c r="G121">
+        <v>0.19812658324926449</v>
+      </c>
+      <c r="H121">
+        <v>0.35164316622152808</v>
+      </c>
+      <c r="I121">
+        <v>0.35054328435917337</v>
+      </c>
+      <c r="J121">
+        <v>7</v>
+      </c>
+      <c r="K121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B122">
+        <v>0.0050755504612628871</v>
+      </c>
+      <c r="C122">
+        <v>2.9569808786093055e-05</v>
+      </c>
+      <c r="D122">
+        <v>0.081946100634126176</v>
+      </c>
+      <c r="E122">
+        <v>0.11272162428508557</v>
+      </c>
+      <c r="F122">
+        <v>0.0070800860204283675</v>
+      </c>
+      <c r="G122">
+        <v>0.21319360720907518</v>
+      </c>
+      <c r="H122">
+        <v>0.22562017361901046</v>
+      </c>
+      <c r="I122">
+        <v>0.35433328796222524</v>
+      </c>
+      <c r="J122">
+        <v>8</v>
+      </c>
+      <c r="K122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="B123">
+        <v>0.019581616140936869</v>
+      </c>
+      <c r="C123">
+        <v>2.6393214543646554e-05</v>
+      </c>
+      <c r="D123">
+        <v>0.012494025003857129</v>
+      </c>
+      <c r="E123">
+        <v>0.0069920358369940519</v>
+      </c>
+      <c r="F123">
+        <v>0.016491311493217881</v>
+      </c>
+      <c r="G123">
+        <v>0.12997075226390664</v>
+      </c>
+      <c r="H123">
+        <v>0.63978778064664188</v>
+      </c>
+      <c r="I123">
+        <v>0.17465608539990193</v>
+      </c>
+      <c r="J123">
+        <v>7</v>
+      </c>
+      <c r="K123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B124">
+        <v>0.0087047344558400068</v>
+      </c>
+      <c r="C124">
+        <v>0.0010572171744759121</v>
+      </c>
+      <c r="D124">
+        <v>0.010274011764458453</v>
+      </c>
+      <c r="E124">
+        <v>0.00039475995205934348</v>
+      </c>
+      <c r="F124">
+        <v>0.0011186298141435916</v>
+      </c>
+      <c r="G124">
+        <v>0.069690048243747443</v>
+      </c>
+      <c r="H124">
+        <v>0.35692744666490073</v>
+      </c>
+      <c r="I124">
+        <v>0.55183315193037441</v>
+      </c>
+      <c r="J124">
+        <v>8</v>
+      </c>
+      <c r="K124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="B125">
+        <v>0.0097544637945181558</v>
+      </c>
+      <c r="C125">
+        <v>7.1454552321197432e-06</v>
+      </c>
+      <c r="D125">
+        <v>0.032055418216137069</v>
+      </c>
+      <c r="E125">
+        <v>0.057428429779850652</v>
+      </c>
+      <c r="F125">
+        <v>0.010007613949109618</v>
+      </c>
+      <c r="G125">
+        <v>0.24179889111475991</v>
+      </c>
+      <c r="H125">
+        <v>0.28194486654272333</v>
+      </c>
+      <c r="I125">
+        <v>0.36700317114766917</v>
+      </c>
+      <c r="J125">
+        <v>8</v>
+      </c>
+      <c r="K125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B126">
+        <v>0.0086527685414927256</v>
+      </c>
+      <c r="C126">
+        <v>5.4100223065477695e-06</v>
+      </c>
+      <c r="D126">
+        <v>0.082854508823546849</v>
+      </c>
+      <c r="E126">
+        <v>0.048867802539144974</v>
+      </c>
+      <c r="F126">
+        <v>0.10664595230059201</v>
+      </c>
+      <c r="G126">
+        <v>0.31731635397774949</v>
+      </c>
+      <c r="H126">
+        <v>0.21001598004684602</v>
+      </c>
+      <c r="I126">
+        <v>0.22564122374832138</v>
+      </c>
+      <c r="J126">
+        <v>6</v>
+      </c>
+      <c r="K126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="B127">
+        <v>0.064599748365982715</v>
+      </c>
+      <c r="C127">
+        <v>2.6477198314796165e-05</v>
+      </c>
+      <c r="D127">
+        <v>0.023068832669951394</v>
+      </c>
+      <c r="E127">
+        <v>0.085079156467002676</v>
+      </c>
+      <c r="F127">
+        <v>0.010400179940720235</v>
+      </c>
+      <c r="G127">
+        <v>0.21596749699943801</v>
+      </c>
+      <c r="H127">
+        <v>0.40442534144845194</v>
+      </c>
+      <c r="I127">
+        <v>0.19643276691013833</v>
+      </c>
+      <c r="J127">
+        <v>7</v>
+      </c>
+      <c r="K127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="B128">
+        <v>0.11868345470965569</v>
+      </c>
+      <c r="C128">
+        <v>3.6016691138213499e-06</v>
+      </c>
+      <c r="D128">
+        <v>0.017961867578596961</v>
+      </c>
+      <c r="E128">
+        <v>0.0022817937889689204</v>
+      </c>
+      <c r="F128">
+        <v>0.038050961367375909</v>
+      </c>
+      <c r="G128">
+        <v>0.14918971218178415</v>
+      </c>
+      <c r="H128">
+        <v>0.27935649896738768</v>
+      </c>
+      <c r="I128">
+        <v>0.39447210973711688</v>
+      </c>
+      <c r="J128">
+        <v>8</v>
+      </c>
+      <c r="K128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B129">
+        <v>0.043036895827319253</v>
+      </c>
+      <c r="C129">
+        <v>7.5750726738532027e-06</v>
+      </c>
+      <c r="D129">
+        <v>0.05241937525730269</v>
+      </c>
+      <c r="E129">
+        <v>0.053020252612936213</v>
+      </c>
+      <c r="F129">
+        <v>0.0090008240161430914</v>
+      </c>
+      <c r="G129">
+        <v>0.21340861022408972</v>
+      </c>
+      <c r="H129">
+        <v>0.31525032330793956</v>
+      </c>
+      <c r="I129">
+        <v>0.31385614368159559</v>
+      </c>
+      <c r="J129">
+        <v>7</v>
+      </c>
+      <c r="K129">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B130">
+        <v>0.0001504780365051621</v>
+      </c>
+      <c r="C130">
+        <v>1.4806190876810079e-08</v>
+      </c>
+      <c r="D130">
+        <v>0.024964400592913404</v>
+      </c>
+      <c r="E130">
+        <v>0.011508252537716411</v>
+      </c>
+      <c r="F130">
+        <v>0.008480922538010251</v>
+      </c>
+      <c r="G130">
+        <v>0.16228527832651635</v>
+      </c>
+      <c r="H130">
+        <v>0.33730231956669404</v>
+      </c>
+      <c r="I130">
+        <v>0.45530833359545358</v>
+      </c>
+      <c r="J130">
+        <v>8</v>
+      </c>
+      <c r="K130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B131">
+        <v>0.014026983398503974</v>
+      </c>
+      <c r="C131">
+        <v>7.7747732621757801e-05</v>
+      </c>
+      <c r="D131">
+        <v>0.0044410801980470085</v>
+      </c>
+      <c r="E131">
+        <v>0.00098060478924427556</v>
+      </c>
+      <c r="F131">
+        <v>0.00021204981739767503</v>
+      </c>
+      <c r="G131">
+        <v>0.14004761088730749</v>
+      </c>
+      <c r="H131">
+        <v>0.54387969255486757</v>
+      </c>
+      <c r="I131">
+        <v>0.29633423062201031</v>
+      </c>
+      <c r="J131">
+        <v>7</v>
+      </c>
+      <c r="K131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B132">
+        <v>0.025908896327629955</v>
+      </c>
+      <c r="C132">
+        <v>3.6212514623792022e-07</v>
+      </c>
+      <c r="D132">
+        <v>0.030769522942397886</v>
+      </c>
+      <c r="E132">
+        <v>0.16187621685000539</v>
+      </c>
+      <c r="F132">
+        <v>0.0007859492232852208</v>
+      </c>
+      <c r="G132">
+        <v>0.2272799928880283</v>
+      </c>
+      <c r="H132">
+        <v>0.15262641989816572</v>
+      </c>
+      <c r="I132">
+        <v>0.40075263974534125</v>
+      </c>
+      <c r="J132">
+        <v>8</v>
+      </c>
+      <c r="K132">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B133">
+        <v>0.062118898976698755</v>
+      </c>
+      <c r="C133">
+        <v>1.1889277869819047e-06</v>
+      </c>
+      <c r="D133">
+        <v>0.008607792348735507</v>
+      </c>
+      <c r="E133">
+        <v>0.0053215576136300827</v>
+      </c>
+      <c r="F133">
+        <v>0.0014112609157083788</v>
+      </c>
+      <c r="G133">
+        <v>0.14709631724989186</v>
+      </c>
+      <c r="H133">
+        <v>0.52421154275354009</v>
+      </c>
+      <c r="I133">
+        <v>0.25123144121400837</v>
+      </c>
+      <c r="J133">
+        <v>7</v>
+      </c>
+      <c r="K133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B134">
+        <v>0.014811477756698978</v>
+      </c>
+      <c r="C134">
+        <v>1.8623867525314017e-05</v>
+      </c>
+      <c r="D134">
+        <v>0.029190203309535805</v>
+      </c>
+      <c r="E134">
+        <v>0.0530168751840632</v>
+      </c>
+      <c r="F134">
+        <v>0.020714333817701977</v>
+      </c>
+      <c r="G134">
+        <v>0.27434512748265444</v>
+      </c>
+      <c r="H134">
+        <v>0.35741065582120052</v>
+      </c>
+      <c r="I134">
+        <v>0.25049270276061991</v>
+      </c>
+      <c r="J134">
+        <v>7</v>
+      </c>
+      <c r="K134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B135">
+        <v>0.00031409931834131975</v>
+      </c>
+      <c r="C135">
+        <v>4.874162287642819e-14</v>
+      </c>
+      <c r="D135">
+        <v>0.15976189595434534</v>
+      </c>
+      <c r="E135">
+        <v>0.085288734631756041</v>
+      </c>
+      <c r="F135">
+        <v>0.00058851765102451521</v>
+      </c>
+      <c r="G135">
+        <v>0.2114483027074176</v>
+      </c>
+      <c r="H135">
+        <v>0.28820541207596534</v>
+      </c>
+      <c r="I135">
+        <v>0.25439303766110094</v>
+      </c>
+      <c r="J135">
+        <v>7</v>
+      </c>
+      <c r="K135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B136">
+        <v>0.0004691806510718519</v>
+      </c>
+      <c r="C136">
+        <v>1.7764941178508181e-05</v>
+      </c>
+      <c r="D136">
+        <v>0.11035342262035472</v>
+      </c>
+      <c r="E136">
+        <v>0.010038042139668966</v>
+      </c>
+      <c r="F136">
+        <v>0.22703014616914755</v>
+      </c>
+      <c r="G136">
+        <v>0.15469423397976356</v>
+      </c>
+      <c r="H136">
+        <v>0.2955715999473621</v>
+      </c>
+      <c r="I136">
+        <v>0.20182560955145282</v>
+      </c>
+      <c r="J136">
+        <v>7</v>
+      </c>
+      <c r="K136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B137">
+        <v>0.0089465496132066172</v>
+      </c>
+      <c r="C137">
+        <v>0.00019344922922876059</v>
+      </c>
+      <c r="D137">
+        <v>0.014952296302538288</v>
+      </c>
+      <c r="E137">
+        <v>0.099572013999428985</v>
+      </c>
+      <c r="F137">
+        <v>0.0010649979805649437</v>
+      </c>
+      <c r="G137">
+        <v>0.28075836663329773</v>
+      </c>
+      <c r="H137">
+        <v>0.23600691334612212</v>
+      </c>
+      <c r="I137">
+        <v>0.35850541289561244</v>
+      </c>
+      <c r="J137">
+        <v>8</v>
+      </c>
+      <c r="K137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B138">
+        <v>1.6541047152368659e-05</v>
+      </c>
+      <c r="C138">
+        <v>1.0998671346912778e-09</v>
+      </c>
+      <c r="D138">
+        <v>0.077109752239614221</v>
+      </c>
+      <c r="E138">
+        <v>0.009931347438986278</v>
+      </c>
+      <c r="F138">
+        <v>9.8167938034513614e-05</v>
+      </c>
+      <c r="G138">
+        <v>0.18893036759292917</v>
+      </c>
+      <c r="H138">
+        <v>0.15830234623917858</v>
+      </c>
+      <c r="I138">
+        <v>0.56561147640423781</v>
+      </c>
+      <c r="J138">
+        <v>8</v>
+      </c>
+      <c r="K138">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B139">
+        <v>0.0071296870695410483</v>
+      </c>
+      <c r="C139">
+        <v>6.6167196206890977e-05</v>
+      </c>
+      <c r="D139">
+        <v>0.029329203880296174</v>
+      </c>
+      <c r="E139">
+        <v>0.0064511067912592021</v>
+      </c>
+      <c r="F139">
+        <v>0.0038238303829567538</v>
+      </c>
+      <c r="G139">
+        <v>0.14229871855752538</v>
+      </c>
+      <c r="H139">
+        <v>0.63544193475900135</v>
+      </c>
+      <c r="I139">
+        <v>0.17545935136321328</v>
+      </c>
+      <c r="J139">
+        <v>7</v>
+      </c>
+      <c r="K139">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B140">
+        <v>0.002846583181809254</v>
+      </c>
+      <c r="C140">
+        <v>2.7270857833916031e-08</v>
+      </c>
+      <c r="D140">
+        <v>0.026509066823201387</v>
+      </c>
+      <c r="E140">
+        <v>0.009520008989388885</v>
+      </c>
+      <c r="F140">
+        <v>0.0086883629130551105</v>
+      </c>
+      <c r="G140">
+        <v>0.13613606411690257</v>
+      </c>
+      <c r="H140">
+        <v>0.47775332386769198</v>
+      </c>
+      <c r="I140">
+        <v>0.33854656283709295</v>
+      </c>
+      <c r="J140">
+        <v>7</v>
+      </c>
+      <c r="K140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B141">
+        <v>0.17593294336616674</v>
+      </c>
+      <c r="C141">
+        <v>0.08656228146748772</v>
+      </c>
+      <c r="D141">
+        <v>0.0065244806981725918</v>
+      </c>
+      <c r="E141">
+        <v>0.00021947982504884312</v>
+      </c>
+      <c r="F141">
+        <v>0.0089653681805132689</v>
+      </c>
+      <c r="G141">
+        <v>0.0748849123870379</v>
+      </c>
+      <c r="H141">
+        <v>0.19169142005834353</v>
+      </c>
+      <c r="I141">
+        <v>0.45521911401722936</v>
+      </c>
+      <c r="J141">
+        <v>8</v>
+      </c>
+      <c r="K141">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B142">
+        <v>0.0010235075511118691</v>
+      </c>
+      <c r="C142">
+        <v>1.2793819038449288e-08</v>
+      </c>
+      <c r="D142">
+        <v>0.045650590436619627</v>
+      </c>
+      <c r="E142">
+        <v>0.0012568870112463254</v>
+      </c>
+      <c r="F142">
+        <v>0.0008191923884943729</v>
+      </c>
+      <c r="G142">
+        <v>0.19762574992426668</v>
+      </c>
+      <c r="H142">
+        <v>0.41842012536915268</v>
+      </c>
+      <c r="I142">
+        <v>0.33520393452528924</v>
+      </c>
+      <c r="J142">
+        <v>7</v>
+      </c>
+      <c r="K142">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B143">
+        <v>9.5921953867173811e-05</v>
+      </c>
+      <c r="C143">
+        <v>7.2652702816145621e-11</v>
+      </c>
+      <c r="D143">
+        <v>0.077471538256934785</v>
+      </c>
+      <c r="E143">
+        <v>0.00053245560950876565</v>
+      </c>
+      <c r="F143">
+        <v>0.00035621366685433588</v>
+      </c>
+      <c r="G143">
+        <v>0.14690464777999473</v>
+      </c>
+      <c r="H143">
+        <v>0.19397147009217097</v>
+      </c>
+      <c r="I143">
+        <v>0.5806677525680165</v>
+      </c>
+      <c r="J143">
+        <v>8</v>
+      </c>
+      <c r="K143">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B144">
+        <v>0.0010930094584259604</v>
+      </c>
+      <c r="C144">
+        <v>8.9623545419551949e-06</v>
+      </c>
+      <c r="D144">
+        <v>0.0050563884071657371</v>
+      </c>
+      <c r="E144">
+        <v>0.087595943043764127</v>
+      </c>
+      <c r="F144">
+        <v>0.00015592560456206502</v>
+      </c>
+      <c r="G144">
+        <v>0.17983020920611137</v>
+      </c>
+      <c r="H144">
+        <v>0.23260675189196581</v>
+      </c>
+      <c r="I144">
+        <v>0.49365281003346301</v>
+      </c>
+      <c r="J144">
+        <v>8</v>
+      </c>
+      <c r="K144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B145">
+        <v>5.6667883853936313e-05</v>
+      </c>
+      <c r="C145">
+        <v>2.9458788164456449e-09</v>
+      </c>
+      <c r="D145">
+        <v>0.002330747817897673</v>
+      </c>
+      <c r="E145">
+        <v>0.15733742630821315</v>
+      </c>
+      <c r="F145">
+        <v>0.00041619194810475784</v>
+      </c>
+      <c r="G145">
+        <v>0.05856830013772208</v>
+      </c>
+      <c r="H145">
+        <v>0.5550307993392799</v>
+      </c>
+      <c r="I145">
+        <v>0.22625986361904973</v>
+      </c>
+      <c r="J145">
+        <v>7</v>
+      </c>
+      <c r="K145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B146">
+        <v>9.6948225930202004e-05</v>
+      </c>
+      <c r="C146">
+        <v>1.0618987212128281e-06</v>
+      </c>
+      <c r="D146">
+        <v>0.12239824260203748</v>
+      </c>
+      <c r="E146">
+        <v>0.012496671575783673</v>
+      </c>
+      <c r="F146">
+        <v>0.00099069868133322653</v>
+      </c>
+      <c r="G146">
+        <v>0.21770028931561111</v>
+      </c>
+      <c r="H146">
+        <v>0.10033052716197426</v>
+      </c>
+      <c r="I146">
+        <v>0.54598556053860892</v>
+      </c>
+      <c r="J146">
+        <v>8</v>
+      </c>
+      <c r="K146">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B147">
+        <v>0.0040412159076312999</v>
+      </c>
+      <c r="C147">
+        <v>0.00014938127333749906</v>
+      </c>
+      <c r="D147">
+        <v>0.11531134006349175</v>
+      </c>
+      <c r="E147">
+        <v>0.038142892759395086</v>
+      </c>
+      <c r="F147">
+        <v>0.11470336828579185</v>
+      </c>
+      <c r="G147">
+        <v>0.19119938927788691</v>
+      </c>
+      <c r="H147">
+        <v>0.29423421392248084</v>
+      </c>
+      <c r="I147">
+        <v>0.24221819850998483</v>
+      </c>
+      <c r="J147">
+        <v>7</v>
+      </c>
+      <c r="K147">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B148">
+        <v>0.0021457730927884398</v>
+      </c>
+      <c r="C148">
+        <v>0.0021987882107674839</v>
+      </c>
+      <c r="D148">
+        <v>0.10204854236547656</v>
+      </c>
+      <c r="E148">
+        <v>0.15513346916637061</v>
+      </c>
+      <c r="F148">
+        <v>0.022330726285045378</v>
+      </c>
+      <c r="G148">
+        <v>0.19268268934581034</v>
+      </c>
+      <c r="H148">
+        <v>0.23721414035609395</v>
+      </c>
+      <c r="I148">
+        <v>0.2862458711776471</v>
+      </c>
+      <c r="J148">
+        <v>8</v>
+      </c>
+      <c r="K148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B149">
+        <v>0.019890953502305318</v>
+      </c>
+      <c r="C149">
+        <v>0.0039563835403507389</v>
+      </c>
+      <c r="D149">
+        <v>0.030387895837784236</v>
+      </c>
+      <c r="E149">
+        <v>0.14011481365160369</v>
+      </c>
+      <c r="F149">
+        <v>0.010087194843093778</v>
+      </c>
+      <c r="G149">
+        <v>0.21495627717871435</v>
+      </c>
+      <c r="H149">
+        <v>0.2055363837414082</v>
+      </c>
+      <c r="I149">
+        <v>0.3750700977047397</v>
+      </c>
+      <c r="J149">
+        <v>8</v>
+      </c>
+      <c r="K149">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B150">
+        <v>0.0077518217793200676</v>
+      </c>
+      <c r="C150">
+        <v>0.0025566665405879646</v>
+      </c>
+      <c r="D150">
+        <v>0.075847033625143584</v>
+      </c>
+      <c r="E150">
+        <v>0.13747334360739544</v>
+      </c>
+      <c r="F150">
+        <v>0.034319873647402195</v>
+      </c>
+      <c r="G150">
+        <v>0.21544662888238225</v>
+      </c>
+      <c r="H150">
+        <v>0.28816532588350124</v>
+      </c>
+      <c r="I150">
+        <v>0.23843930603426733</v>
+      </c>
+      <c r="J150">
+        <v>7</v>
+      </c>
+      <c r="K150">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B151">
+        <v>0.001127379923289769</v>
+      </c>
+      <c r="C151">
+        <v>4.9410502896955073e-05</v>
+      </c>
+      <c r="D151">
+        <v>0.031526694730025624</v>
+      </c>
+      <c r="E151">
+        <v>0.0045483371936418044</v>
+      </c>
+      <c r="F151">
+        <v>0.017974498522233907</v>
+      </c>
+      <c r="G151">
+        <v>0.19201052139796729</v>
+      </c>
+      <c r="H151">
+        <v>0.45062080406856198</v>
+      </c>
+      <c r="I151">
+        <v>0.3021423536613827</v>
+      </c>
+      <c r="J151">
+        <v>7</v>
+      </c>
+      <c r="K151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B152">
+        <v>0.027619161798308225</v>
+      </c>
+      <c r="C152">
+        <v>0.00020237184744278266</v>
+      </c>
+      <c r="D152">
+        <v>0.087564944102168529</v>
+      </c>
+      <c r="E152">
+        <v>0.050461039749452707</v>
+      </c>
+      <c r="F152">
+        <v>0.00886326763653905</v>
+      </c>
+      <c r="G152">
+        <v>0.1782734777795533</v>
+      </c>
+      <c r="H152">
+        <v>0.41445291494145975</v>
+      </c>
+      <c r="I152">
+        <v>0.23256282214507568</v>
+      </c>
+      <c r="J152">
+        <v>7</v>
+      </c>
+      <c r="K152">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B153">
+        <v>0.0012480160271202555</v>
+      </c>
+      <c r="C153">
+        <v>2.7535164137273969e-05</v>
+      </c>
+      <c r="D153">
+        <v>0.0093440397383533942</v>
+      </c>
+      <c r="E153">
+        <v>0.0026172817848983203</v>
+      </c>
+      <c r="F153">
+        <v>0.00087026392580679443</v>
+      </c>
+      <c r="G153">
+        <v>0.23599834295207378</v>
+      </c>
+      <c r="H153">
+        <v>0.47847682477967279</v>
+      </c>
+      <c r="I153">
+        <v>0.27141769562793749</v>
+      </c>
+      <c r="J153">
+        <v>7</v>
+      </c>
+      <c r="K153">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B154">
+        <v>0.0054372510765610419</v>
+      </c>
+      <c r="C154">
+        <v>0.00049631534138886162</v>
+      </c>
+      <c r="D154">
+        <v>0.033848077468204882</v>
+      </c>
+      <c r="E154">
+        <v>0.057767800438069887</v>
+      </c>
+      <c r="F154">
+        <v>0.028309175259210898</v>
+      </c>
+      <c r="G154">
+        <v>0.1359382981137901</v>
+      </c>
+      <c r="H154">
+        <v>0.58223794278918073</v>
+      </c>
+      <c r="I154">
+        <v>0.15596513951359373</v>
+      </c>
+      <c r="J154">
+        <v>7</v>
+      </c>
+      <c r="K154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B155">
+        <v>0.0030701125731998221</v>
+      </c>
+      <c r="C155">
+        <v>1.3238687302638333e-05</v>
+      </c>
+      <c r="D155">
+        <v>0.013992128478016135</v>
+      </c>
+      <c r="E155">
+        <v>0.051722533750019749</v>
+      </c>
+      <c r="F155">
+        <v>0.00084313642174624413</v>
+      </c>
+      <c r="G155">
+        <v>0.19248405975153557</v>
+      </c>
+      <c r="H155">
+        <v>0.36339923413064784</v>
+      </c>
+      <c r="I155">
+        <v>0.37447555620753203</v>
+      </c>
+      <c r="J155">
+        <v>8</v>
+      </c>
+      <c r="K155">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="B156">
+        <v>0.0014174129609596867</v>
+      </c>
+      <c r="C156">
+        <v>8.1542730548117528e-07</v>
+      </c>
+      <c r="D156">
+        <v>0.0090557949620079202</v>
+      </c>
+      <c r="E156">
+        <v>0.028114370774015886</v>
+      </c>
+      <c r="F156">
+        <v>0.0022306439891862486</v>
+      </c>
+      <c r="G156">
+        <v>0.13589165006568796</v>
+      </c>
+      <c r="H156">
+        <v>0.60861342283322128</v>
+      </c>
+      <c r="I156">
+        <v>0.21467588898761561</v>
+      </c>
+      <c r="J156">
+        <v>7</v>
+      </c>
+      <c r="K156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B157">
+        <v>0.025030617018907082</v>
+      </c>
+      <c r="C157">
+        <v>4.2726527375446987e-05</v>
+      </c>
+      <c r="D157">
+        <v>0.017921358350903412</v>
+      </c>
+      <c r="E157">
+        <v>0.057771388928913009</v>
+      </c>
+      <c r="F157">
+        <v>0.011153778632129893</v>
+      </c>
+      <c r="G157">
+        <v>0.19985502086531268</v>
+      </c>
+      <c r="H157">
+        <v>0.34029368515028618</v>
+      </c>
+      <c r="I157">
+        <v>0.34793142452617237</v>
+      </c>
+      <c r="J157">
+        <v>8</v>
+      </c>
+      <c r="K157">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B158">
+        <v>0.076239257143557934</v>
+      </c>
+      <c r="C158">
+        <v>0.00023501731196130284</v>
+      </c>
+      <c r="D158">
+        <v>0.022280843506536672</v>
+      </c>
+      <c r="E158">
+        <v>0.013193326971484613</v>
+      </c>
+      <c r="F158">
+        <v>0.071777176258020187</v>
+      </c>
+      <c r="G158">
+        <v>0.1365552746197829</v>
+      </c>
+      <c r="H158">
+        <v>0.45463620962942447</v>
+      </c>
+      <c r="I158">
+        <v>0.22508289455923186</v>
+      </c>
+      <c r="J158">
+        <v>7</v>
+      </c>
+      <c r="K158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B159">
+        <v>0.00042813358864043715</v>
+      </c>
+      <c r="C159">
+        <v>3.2218447405120923e-06</v>
+      </c>
+      <c r="D159">
+        <v>0.0071115620742937405</v>
+      </c>
+      <c r="E159">
+        <v>0.1351542914811176</v>
+      </c>
+      <c r="F159">
+        <v>0.00024243238738697498</v>
+      </c>
+      <c r="G159">
+        <v>0.18383696800498336</v>
+      </c>
+      <c r="H159">
+        <v>0.36361279591965234</v>
+      </c>
+      <c r="I159">
+        <v>0.30961059469918506</v>
+      </c>
+      <c r="J159">
+        <v>7</v>
+      </c>
+      <c r="K159">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B160">
+        <v>0.00010913644825111158</v>
+      </c>
+      <c r="C160">
+        <v>3.30848196165332e-08</v>
+      </c>
+      <c r="D160">
+        <v>0.0049441597254490256</v>
+      </c>
+      <c r="E160">
+        <v>0.061806095153612559</v>
+      </c>
+      <c r="F160">
+        <v>0.00030320972746133372</v>
+      </c>
+      <c r="G160">
+        <v>0.16612404732493508</v>
+      </c>
+      <c r="H160">
+        <v>0.36465326500100093</v>
+      </c>
+      <c r="I160">
+        <v>0.40206005353447039</v>
+      </c>
+      <c r="J160">
+        <v>8</v>
+      </c>
+      <c r="K160">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B161">
+        <v>0.00020502692044444619</v>
+      </c>
+      <c r="C161">
+        <v>0.00035622810335401533</v>
+      </c>
+      <c r="D161">
+        <v>0.070565395024545327</v>
+      </c>
+      <c r="E161">
+        <v>0.035353359062347219</v>
+      </c>
+      <c r="F161">
+        <v>0.013782478594698649</v>
+      </c>
+      <c r="G161">
+        <v>0.12866836660923844</v>
+      </c>
+      <c r="H161">
+        <v>0.032057871094957668</v>
+      </c>
+      <c r="I161">
+        <v>0.71901127459041414</v>
+      </c>
+      <c r="J161">
+        <v>8</v>
+      </c>
+      <c r="K161">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B162">
+        <v>0.024217001877462639</v>
+      </c>
+      <c r="C162">
+        <v>0.00091353390983708123</v>
+      </c>
+      <c r="D162">
+        <v>0.046769353723912548</v>
+      </c>
+      <c r="E162">
+        <v>0.11899274668538332</v>
+      </c>
+      <c r="F162">
+        <v>0.0073155530281482778</v>
+      </c>
+      <c r="G162">
+        <v>0.22175312261131594</v>
+      </c>
+      <c r="H162">
+        <v>0.28246827797588608</v>
+      </c>
+      <c r="I162">
+        <v>0.29757041018805419</v>
+      </c>
+      <c r="J162">
+        <v>8</v>
+      </c>
+      <c r="K162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B163">
+        <v>0.0018287388426734168</v>
+      </c>
+      <c r="C163">
+        <v>0.00729250115200603</v>
+      </c>
+      <c r="D163">
+        <v>0.027716814834616851</v>
+      </c>
+      <c r="E163">
+        <v>0.023995158433907537</v>
+      </c>
+      <c r="F163">
+        <v>0.0056951912671881115</v>
+      </c>
+      <c r="G163">
+        <v>0.19944451152075218</v>
+      </c>
+      <c r="H163">
+        <v>0.064839982304234628</v>
+      </c>
+      <c r="I163">
+        <v>0.66918710164462103</v>
+      </c>
+      <c r="J163">
+        <v>8</v>
+      </c>
+      <c r="K163">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="B164">
+        <v>0.16611345527899871</v>
+      </c>
+      <c r="C164">
+        <v>0.0033022880064825779</v>
+      </c>
+      <c r="D164">
+        <v>0.011220895945772113</v>
+      </c>
+      <c r="E164">
+        <v>0.052836672112771661</v>
+      </c>
+      <c r="F164">
+        <v>0.0082479313670935292</v>
+      </c>
+      <c r="G164">
+        <v>0.15544212741550897</v>
+      </c>
+      <c r="H164">
+        <v>0.47839993587317969</v>
+      </c>
+      <c r="I164">
+        <v>0.12443669400019272</v>
+      </c>
+      <c r="J164">
+        <v>7</v>
+      </c>
+      <c r="K164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B165">
+        <v>1.1851786806844736e-05</v>
+      </c>
+      <c r="C165">
+        <v>4.7063064188592845e-14</v>
+      </c>
+      <c r="D165">
+        <v>0.0026062587771234643</v>
+      </c>
+      <c r="E165">
+        <v>4.09264743302785e-07</v>
+      </c>
+      <c r="F165">
+        <v>0.077936061081994398</v>
+      </c>
+      <c r="G165">
+        <v>0.067175281320072527</v>
+      </c>
+      <c r="H165">
+        <v>0.026099393553544591</v>
+      </c>
+      <c r="I165">
+        <v>0.82617074421566783</v>
+      </c>
+      <c r="J165">
+        <v>8</v>
+      </c>
+      <c r="K165">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B166">
+        <v>0.00024172863363248315</v>
+      </c>
+      <c r="C166">
+        <v>5.3641510304612169e-14</v>
+      </c>
+      <c r="D166">
+        <v>0.0027071304664657695</v>
+      </c>
+      <c r="E166">
+        <v>0.00027162959373255586</v>
+      </c>
+      <c r="F166">
+        <v>0.25718408293641259</v>
+      </c>
+      <c r="G166">
+        <v>0.18268687811750639</v>
+      </c>
+      <c r="H166">
+        <v>0.055321342143942548</v>
+      </c>
+      <c r="I166">
+        <v>0.50158720810825408</v>
+      </c>
+      <c r="J166">
+        <v>8</v>
+      </c>
+      <c r="K166">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B167">
+        <v>0.00057015144500800351</v>
+      </c>
+      <c r="C167">
+        <v>0.0011825646937794242</v>
+      </c>
+      <c r="D167">
+        <v>0.040317858022133869</v>
+      </c>
+      <c r="E167">
+        <v>0.032693919112355939</v>
+      </c>
+      <c r="F167">
+        <v>0.009628685659376723</v>
+      </c>
+      <c r="G167">
+        <v>0.20218626656021371</v>
+      </c>
+      <c r="H167">
+        <v>0.077979886650084915</v>
+      </c>
+      <c r="I167">
+        <v>0.63544066785704734</v>
+      </c>
+      <c r="J167">
+        <v>8</v>
+      </c>
+      <c r="K167">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B168">
+        <v>0.010542225675310976</v>
+      </c>
+      <c r="C168">
+        <v>0.00083142654625088981</v>
+      </c>
+      <c r="D168">
+        <v>0.026847144425914311</v>
+      </c>
+      <c r="E168">
+        <v>0.12550811312427057</v>
+      </c>
+      <c r="F168">
+        <v>0.034340894757738237</v>
+      </c>
+      <c r="G168">
+        <v>0.18596045205903303</v>
+      </c>
+      <c r="H168">
+        <v>0.28690950454933978</v>
+      </c>
+      <c r="I168">
+        <v>0.32906023886214231</v>
+      </c>
+      <c r="J168">
+        <v>8</v>
+      </c>
+      <c r="K168">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B169">
+        <v>0.0027266935991895375</v>
+      </c>
+      <c r="C169">
+        <v>0.00015436983472602597</v>
+      </c>
+      <c r="D169">
+        <v>0.061613104435189088</v>
+      </c>
+      <c r="E169">
+        <v>0.041227767749706663</v>
+      </c>
+      <c r="F169">
+        <v>0.0035260997034558335</v>
+      </c>
+      <c r="G169">
+        <v>0.31012997178540941</v>
+      </c>
+      <c r="H169">
+        <v>0.12287041472552211</v>
+      </c>
+      <c r="I169">
+        <v>0.4577515781668014</v>
+      </c>
+      <c r="J169">
+        <v>8</v>
+      </c>
+      <c r="K169">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B170">
+        <v>0.0059233789307869527</v>
+      </c>
+      <c r="C170">
+        <v>0.00042795795439199856</v>
+      </c>
+      <c r="D170">
+        <v>0.033933504883081632</v>
+      </c>
+      <c r="E170">
+        <v>0.10219636170397055</v>
+      </c>
+      <c r="F170">
+        <v>0.037830685744269038</v>
+      </c>
+      <c r="G170">
+        <v>0.25727199918161575</v>
+      </c>
+      <c r="H170">
+        <v>0.18802772300396475</v>
+      </c>
+      <c r="I170">
+        <v>0.37438838859791934</v>
+      </c>
+      <c r="J170">
+        <v>8</v>
+      </c>
+      <c r="K170">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B171">
+        <v>0.0058535724018050541</v>
+      </c>
+      <c r="C171">
+        <v>0.00030327028222641348</v>
+      </c>
+      <c r="D171">
+        <v>0.085001261132719261</v>
+      </c>
+      <c r="E171">
+        <v>0.046471821630279894</v>
+      </c>
+      <c r="F171">
+        <v>0.028297212861434135</v>
+      </c>
+      <c r="G171">
+        <v>0.25993279372639821</v>
+      </c>
+      <c r="H171">
+        <v>0.2873749892592628</v>
+      </c>
+      <c r="I171">
+        <v>0.28676507870587425</v>
+      </c>
+      <c r="J171">
+        <v>7</v>
+      </c>
+      <c r="K171">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B172">
+        <v>0.0058131722618800881</v>
+      </c>
+      <c r="C172">
+        <v>0.00010917502084238845</v>
+      </c>
+      <c r="D172">
+        <v>0.034160251464183521</v>
+      </c>
+      <c r="E172">
+        <v>0.074200061532699577</v>
+      </c>
+      <c r="F172">
+        <v>0.010420857180622987</v>
+      </c>
+      <c r="G172">
+        <v>0.29825066610166645</v>
+      </c>
+      <c r="H172">
+        <v>0.19993891255037463</v>
+      </c>
+      <c r="I172">
+        <v>0.37710690388773049</v>
+      </c>
+      <c r="J172">
+        <v>8</v>
+      </c>
+      <c r="K172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B173">
+        <v>0.021032018388266377</v>
+      </c>
+      <c r="C173">
+        <v>6.8749411748782043e-06</v>
+      </c>
+      <c r="D173">
+        <v>0.060869679852500337</v>
+      </c>
+      <c r="E173">
+        <v>0.073283323733448286</v>
+      </c>
+      <c r="F173">
+        <v>0.0043739342377186107</v>
+      </c>
+      <c r="G173">
+        <v>0.21830069680620084</v>
+      </c>
+      <c r="H173">
+        <v>0.25607666535480689</v>
+      </c>
+      <c r="I173">
+        <v>0.36605680668588381</v>
+      </c>
+      <c r="J173">
+        <v>8</v>
+      </c>
+      <c r="K173">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B174">
+        <v>0.013023755684696308</v>
+      </c>
+      <c r="C174">
+        <v>2.479987401650329e-05</v>
+      </c>
+      <c r="D174">
+        <v>0.018794639062990389</v>
+      </c>
+      <c r="E174">
+        <v>0.0095434915338931496</v>
+      </c>
+      <c r="F174">
+        <v>0.0042484546834060223</v>
+      </c>
+      <c r="G174">
+        <v>0.15151898220136917</v>
+      </c>
+      <c r="H174">
+        <v>0.43351923707722606</v>
+      </c>
+      <c r="I174">
+        <v>0.36932663988240255</v>
+      </c>
+      <c r="J174">
+        <v>7</v>
+      </c>
+      <c r="K174">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="B175">
+        <v>0.037760908028409701</v>
+      </c>
+      <c r="C175">
+        <v>0.02211547273592316</v>
+      </c>
+      <c r="D175">
+        <v>0.011833835799982425</v>
+      </c>
+      <c r="E175">
+        <v>0.0027648597325524689</v>
+      </c>
+      <c r="F175">
+        <v>0.010456409155432134</v>
+      </c>
+      <c r="G175">
+        <v>0.21750015954778429</v>
+      </c>
+      <c r="H175">
+        <v>0.30817642587651739</v>
+      </c>
+      <c r="I175">
+        <v>0.38939192912339848</v>
+      </c>
+      <c r="J175">
+        <v>8</v>
+      </c>
+      <c r="K175">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B176">
+        <v>0.0010456152387504625</v>
+      </c>
+      <c r="C176">
+        <v>5.8153992031687777e-08</v>
+      </c>
+      <c r="D176">
+        <v>0.013161161514194246</v>
+      </c>
+      <c r="E176">
+        <v>0.059551463637694167</v>
+      </c>
+      <c r="F176">
+        <v>0.00045398891810472007</v>
+      </c>
+      <c r="G176">
+        <v>0.23406278644956546</v>
+      </c>
+      <c r="H176">
+        <v>0.26058620861275633</v>
+      </c>
+      <c r="I176">
+        <v>0.43113871747494253</v>
+      </c>
+      <c r="J176">
+        <v>8</v>
+      </c>
+      <c r="K176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="B177">
+        <v>0.026113933600548384</v>
+      </c>
+      <c r="C177">
+        <v>0.0010655223132483161</v>
+      </c>
+      <c r="D177">
+        <v>0.055845775846545327</v>
+      </c>
+      <c r="E177">
+        <v>0.0031542535257868798</v>
+      </c>
+      <c r="F177">
+        <v>0.083730473630442767</v>
+      </c>
+      <c r="G177">
+        <v>0.11721528179654674</v>
+      </c>
+      <c r="H177">
+        <v>0.14113366937759575</v>
+      </c>
+      <c r="I177">
+        <v>0.57174108990928585</v>
+      </c>
+      <c r="J177">
+        <v>8</v>
+      </c>
+      <c r="K177">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B178">
+        <v>0.045631602146167564</v>
+      </c>
+      <c r="C178">
+        <v>0.00011515724904765607</v>
+      </c>
+      <c r="D178">
+        <v>0.025851069975072305</v>
+      </c>
+      <c r="E178">
+        <v>0.066585011470539052</v>
+      </c>
+      <c r="F178">
+        <v>0.11644191997262451</v>
+      </c>
+      <c r="G178">
+        <v>0.17338571183547491</v>
+      </c>
+      <c r="H178">
+        <v>0.27907955152118147</v>
+      </c>
+      <c r="I178">
+        <v>0.29290997582989237</v>
+      </c>
+      <c r="J178">
+        <v>8</v>
+      </c>
+      <c r="K178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B179">
+        <v>0.0039973979166272435</v>
+      </c>
+      <c r="C179">
+        <v>0.024145572092370251</v>
+      </c>
+      <c r="D179">
+        <v>0.010852900540856856</v>
+      </c>
+      <c r="E179">
+        <v>0.0014886770055461773</v>
+      </c>
+      <c r="F179">
+        <v>6.6481156173209269e-05</v>
+      </c>
+      <c r="G179">
+        <v>0.57022199801647955</v>
+      </c>
+      <c r="H179">
+        <v>0.11493208024296545</v>
+      </c>
+      <c r="I179">
+        <v>0.27429489302898119</v>
+      </c>
+      <c r="J179">
+        <v>6</v>
+      </c>
+      <c r="K179">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B180">
+        <v>0.030527619536999468</v>
+      </c>
+      <c r="C180">
+        <v>6.0199963465259855e-05</v>
+      </c>
+      <c r="D180">
+        <v>0.05799663695410609</v>
+      </c>
+      <c r="E180">
+        <v>0.011166689665701082</v>
+      </c>
+      <c r="F180">
+        <v>0.0030743991623972391</v>
+      </c>
+      <c r="G180">
+        <v>0.24379335419045445</v>
+      </c>
+      <c r="H180">
+        <v>0.37346806328827387</v>
+      </c>
+      <c r="I180">
+        <v>0.27991303723860245</v>
+      </c>
+      <c r="J180">
+        <v>7</v>
+      </c>
+      <c r="K180">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B181">
+        <v>0.0004939492680451626</v>
+      </c>
+      <c r="C181">
+        <v>2.9941572681388156e-06</v>
+      </c>
+      <c r="D181">
+        <v>0.039896038555919749</v>
+      </c>
+      <c r="E181">
+        <v>0.039370172700451171</v>
+      </c>
+      <c r="F181">
+        <v>0.00067667719001972878</v>
+      </c>
+      <c r="G181">
+        <v>0.166814589972758</v>
+      </c>
+      <c r="H181">
+        <v>0.11158194583846204</v>
+      </c>
+      <c r="I181">
+        <v>0.64116363231707607</v>
+      </c>
+      <c r="J181">
+        <v>8</v>
+      </c>
+      <c r="K181">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B182">
+        <v>0.042500930144413036</v>
+      </c>
+      <c r="C182">
+        <v>2.6981998706388525e-05</v>
+      </c>
+      <c r="D182">
+        <v>0.037358314008426242</v>
+      </c>
+      <c r="E182">
+        <v>0.011055993609306248</v>
+      </c>
+      <c r="F182">
+        <v>0.066898306832829726</v>
+      </c>
+      <c r="G182">
+        <v>0.18022560414764441</v>
+      </c>
+      <c r="H182">
+        <v>0.24104599229036519</v>
+      </c>
+      <c r="I182">
+        <v>0.42088787696830876</v>
+      </c>
+      <c r="J182">
+        <v>8</v>
+      </c>
+      <c r="K182">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B183">
+        <v>1.4332789277993564e-08</v>
+      </c>
+      <c r="C183">
+        <v>3.9553159681314077e-14</v>
+      </c>
+      <c r="D183">
+        <v>0.0044608403112114418</v>
+      </c>
+      <c r="E183">
+        <v>0.018168809601229664</v>
+      </c>
+      <c r="F183">
+        <v>2.8767921511615805e-05</v>
+      </c>
+      <c r="G183">
+        <v>0.21249653797899126</v>
+      </c>
+      <c r="H183">
+        <v>0.56620445626951588</v>
+      </c>
+      <c r="I183">
+        <v>0.19864057358471132</v>
+      </c>
+      <c r="J183">
+        <v>7</v>
+      </c>
+      <c r="K183">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B184">
+        <v>8.4990865730735145e-05</v>
+      </c>
+      <c r="C184">
+        <v>9.1221942462401717e-12</v>
+      </c>
+      <c r="D184">
+        <v>0.075959718211904892</v>
+      </c>
+      <c r="E184">
+        <v>0.42808606825048584</v>
+      </c>
+      <c r="F184">
+        <v>4.3221262945368548e-05</v>
+      </c>
+      <c r="G184">
+        <v>0.20187962348151495</v>
+      </c>
+      <c r="H184">
+        <v>0.11627221093939513</v>
+      </c>
+      <c r="I184">
+        <v>0.17767416697890087</v>
+      </c>
+      <c r="J184">
+        <v>4</v>
+      </c>
+      <c r="K184">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B185">
+        <v>0.019651863667024649</v>
+      </c>
+      <c r="C185">
+        <v>1.5836910091650992e-05</v>
+      </c>
+      <c r="D185">
+        <v>0.046984648864210388</v>
+      </c>
+      <c r="E185">
+        <v>0.020814240666978408</v>
+      </c>
+      <c r="F185">
+        <v>0.0079434696736606809</v>
+      </c>
+      <c r="G185">
+        <v>0.17378308814161128</v>
+      </c>
+      <c r="H185">
+        <v>0.11583371323739491</v>
+      </c>
+      <c r="I185">
+        <v>0.61497313883902816</v>
+      </c>
+      <c r="J185">
+        <v>8</v>
+      </c>
+      <c r="K185">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B186">
+        <v>0.026253666844627425</v>
+      </c>
+      <c r="C186">
+        <v>0.0010958222974169613</v>
+      </c>
+      <c r="D186">
+        <v>0.068126289109071619</v>
+      </c>
+      <c r="E186">
+        <v>0.032475356625278722</v>
+      </c>
+      <c r="F186">
+        <v>0.0090570881797737493</v>
+      </c>
+      <c r="G186">
+        <v>0.33311264912780947</v>
+      </c>
+      <c r="H186">
+        <v>0.095416431184896844</v>
+      </c>
+      <c r="I186">
+        <v>0.43446269663112508</v>
+      </c>
+      <c r="J186">
+        <v>8</v>
+      </c>
+      <c r="K186">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B187">
+        <v>0.0044821505588865714</v>
+      </c>
+      <c r="C187">
+        <v>4.6658230071574365e-07</v>
+      </c>
+      <c r="D187">
+        <v>0.0046081663085139812</v>
+      </c>
+      <c r="E187">
+        <v>0.070792787363768053</v>
+      </c>
+      <c r="F187">
+        <v>0.09377996617809925</v>
+      </c>
+      <c r="G187">
+        <v>0.28931998172032591</v>
+      </c>
+      <c r="H187">
+        <v>0.37373583663105636</v>
+      </c>
+      <c r="I187">
+        <v>0.16328064465704925</v>
+      </c>
+      <c r="J187">
+        <v>7</v>
+      </c>
+      <c r="K187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B188">
+        <v>0.00062186546668335134</v>
+      </c>
+      <c r="C188">
+        <v>4.2886133452791008e-08</v>
+      </c>
+      <c r="D188">
+        <v>0.016490154510980234</v>
+      </c>
+      <c r="E188">
+        <v>0.012196724530235485</v>
+      </c>
+      <c r="F188">
+        <v>0.014447898829837488</v>
+      </c>
+      <c r="G188">
+        <v>0.19480858276791946</v>
+      </c>
+      <c r="H188">
+        <v>0.47489654374692936</v>
+      </c>
+      <c r="I188">
+        <v>0.28653818726128133</v>
+      </c>
+      <c r="J188">
+        <v>7</v>
+      </c>
+      <c r="K188">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="B189">
+        <v>0.019931608881830397</v>
+      </c>
+      <c r="C189">
+        <v>7.2398821111312401e-05</v>
+      </c>
+      <c r="D189">
+        <v>0.013013701645387225</v>
+      </c>
+      <c r="E189">
+        <v>0.17744278489544074</v>
+      </c>
+      <c r="F189">
+        <v>0.013252495995884284</v>
+      </c>
+      <c r="G189">
+        <v>0.3084711435119547</v>
+      </c>
+      <c r="H189">
+        <v>0.2026830906499241</v>
+      </c>
+      <c r="I189">
+        <v>0.2651327755984671</v>
+      </c>
+      <c r="J189">
+        <v>6</v>
+      </c>
+      <c r="K189">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="B190">
+        <v>0.00023245259823547889</v>
+      </c>
+      <c r="C190">
+        <v>1.0883365119633482e-05</v>
+      </c>
+      <c r="D190">
+        <v>0.02873789981195176</v>
+      </c>
+      <c r="E190">
+        <v>0.031278325578022938</v>
+      </c>
+      <c r="F190">
+        <v>0.0067963107612357921</v>
+      </c>
+      <c r="G190">
+        <v>0.31283073064855299</v>
+      </c>
+      <c r="H190">
+        <v>0.19149662769640541</v>
+      </c>
+      <c r="I190">
+        <v>0.42861676954047606</v>
+      </c>
+      <c r="J190">
+        <v>8</v>
+      </c>
+      <c r="K190">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="B191">
+        <v>0.0017166433522369808</v>
+      </c>
+      <c r="C191">
+        <v>0.00025721570743663774</v>
+      </c>
+      <c r="D191">
+        <v>0.053873130562749783</v>
+      </c>
+      <c r="E191">
+        <v>0.010707004697759676</v>
+      </c>
+      <c r="F191">
+        <v>0.0090485677964781911</v>
+      </c>
+      <c r="G191">
+        <v>0.1619845651490493</v>
+      </c>
+      <c r="H191">
+        <v>0.20399025535460028</v>
+      </c>
+      <c r="I191">
+        <v>0.55842261737968923</v>
+      </c>
+      <c r="J191">
+        <v>8</v>
+      </c>
+      <c r="K191">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="B192">
+        <v>0.0001736881049631479</v>
+      </c>
+      <c r="C192">
+        <v>3.6982447895201131e-05</v>
+      </c>
+      <c r="D192">
+        <v>0.032948402033872587</v>
+      </c>
+      <c r="E192">
+        <v>0.037771415953829615</v>
+      </c>
+      <c r="F192">
+        <v>0.019703040419665044</v>
+      </c>
+      <c r="G192">
+        <v>0.21482006972627052</v>
+      </c>
+      <c r="H192">
+        <v>0.2388049222079501</v>
+      </c>
+      <c r="I192">
+        <v>0.45574147910555379</v>
+      </c>
+      <c r="J192">
+        <v>8</v>
+      </c>
+      <c r="K192">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="B193">
+        <v>0.0012147777511076548</v>
+      </c>
+      <c r="C193">
+        <v>0.00027604460018551601</v>
+      </c>
+      <c r="D193">
+        <v>0.06531939101059403</v>
+      </c>
+      <c r="E193">
+        <v>0.087742291102305636</v>
+      </c>
+      <c r="F193">
+        <v>0.051748935687108769</v>
+      </c>
+      <c r="G193">
+        <v>0.19836901466558526</v>
+      </c>
+      <c r="H193">
+        <v>0.13517949492503165</v>
+      </c>
+      <c r="I193">
+        <v>0.46015005025808137</v>
+      </c>
+      <c r="J193">
+        <v>8</v>
+      </c>
+      <c r="K193">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B194">
+        <v>0.033211912591383147</v>
+      </c>
+      <c r="C194">
+        <v>0.00033724095207536754</v>
+      </c>
+      <c r="D194">
+        <v>0.06855220380716423</v>
+      </c>
+      <c r="E194">
+        <v>0.03503610752043481</v>
+      </c>
+      <c r="F194">
+        <v>0.038797746277919376</v>
+      </c>
+      <c r="G194">
+        <v>0.26896317434869421</v>
+      </c>
+      <c r="H194">
+        <v>0.1255196677071688</v>
+      </c>
+      <c r="I194">
+        <v>0.42958194679515999</v>
+      </c>
+      <c r="J194">
+        <v>8</v>
+      </c>
+      <c r="K194">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="B195">
+        <v>0.19931351603243605</v>
+      </c>
+      <c r="C195">
+        <v>0.020407090468911652</v>
+      </c>
+      <c r="D195">
+        <v>0.029213380142896782</v>
+      </c>
+      <c r="E195">
+        <v>0.07354615942340624</v>
+      </c>
+      <c r="F195">
+        <v>0.0070840714593317844</v>
+      </c>
+      <c r="G195">
+        <v>0.21465627119512265</v>
+      </c>
+      <c r="H195">
+        <v>0.17751933727815991</v>
+      </c>
+      <c r="I195">
+        <v>0.27826017399973485</v>
+      </c>
+      <c r="J195">
+        <v>8</v>
+      </c>
+      <c r="K195">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="B196">
+        <v>0.090416575060652926</v>
+      </c>
+      <c r="C196">
+        <v>0.00022546749178822671</v>
+      </c>
+      <c r="D196">
+        <v>0.028877013056610078</v>
+      </c>
+      <c r="E196">
+        <v>0.067774275843143716</v>
+      </c>
+      <c r="F196">
+        <v>0.015459813943746526</v>
+      </c>
+      <c r="G196">
+        <v>0.19473918867421447</v>
+      </c>
+      <c r="H196">
+        <v>0.19499797161137705</v>
+      </c>
+      <c r="I196">
+        <v>0.40750969431846712</v>
+      </c>
+      <c r="J196">
+        <v>8</v>
+      </c>
+      <c r="K196">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="B197">
+        <v>0.0076697653703041054</v>
+      </c>
+      <c r="C197">
+        <v>0.0019134337811952352</v>
+      </c>
+      <c r="D197">
+        <v>0.072048960083814603</v>
+      </c>
+      <c r="E197">
+        <v>0.10542671286256031</v>
+      </c>
+      <c r="F197">
+        <v>0.01581319315077177</v>
+      </c>
+      <c r="G197">
+        <v>0.2140803246348443</v>
+      </c>
+      <c r="H197">
+        <v>0.1470843409428533</v>
+      </c>
+      <c r="I197">
+        <v>0.43596326917365652</v>
+      </c>
+      <c r="J197">
+        <v>8</v>
+      </c>
+      <c r="K197">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="B198">
+        <v>0.025379409789584161</v>
+      </c>
+      <c r="C198">
+        <v>0.00036809455359801836</v>
+      </c>
+      <c r="D198">
+        <v>0.048770002375828819</v>
+      </c>
+      <c r="E198">
+        <v>0.037061376032005197</v>
+      </c>
+      <c r="F198">
+        <v>0.0113222501364678</v>
+      </c>
+      <c r="G198">
+        <v>0.29538860489877922</v>
+      </c>
+      <c r="H198">
+        <v>0.15914951340668321</v>
+      </c>
+      <c r="I198">
+        <v>0.42256074880705358</v>
+      </c>
+      <c r="J198">
+        <v>8</v>
+      </c>
+      <c r="K198">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B199">
+        <v>0.0015574187987252425</v>
+      </c>
+      <c r="C199">
+        <v>0.00028638474405473242</v>
+      </c>
+      <c r="D199">
+        <v>0.037007463170383399</v>
+      </c>
+      <c r="E199">
+        <v>0.036350028683626807</v>
+      </c>
+      <c r="F199">
+        <v>0.18377367811797471</v>
+      </c>
+      <c r="G199">
+        <v>0.20074071506852273</v>
+      </c>
+      <c r="H199">
+        <v>0.12486687834209932</v>
+      </c>
+      <c r="I199">
+        <v>0.41541743307461304</v>
+      </c>
+      <c r="J199">
+        <v>8</v>
+      </c>
+      <c r="K199">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="B200">
+        <v>0.0086683014524982192</v>
+      </c>
+      <c r="C200">
+        <v>0.000154456643143277</v>
+      </c>
+      <c r="D200">
+        <v>0.039159000853755753</v>
+      </c>
+      <c r="E200">
+        <v>0.080383185485260494</v>
+      </c>
+      <c r="F200">
+        <v>0.082188514575107965</v>
+      </c>
+      <c r="G200">
+        <v>0.23539090787310307</v>
+      </c>
+      <c r="H200">
+        <v>0.18492235356908235</v>
+      </c>
+      <c r="I200">
+        <v>0.36913327954804886</v>
+      </c>
+      <c r="J200">
+        <v>8</v>
+      </c>
+      <c r="K200">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="B201">
+        <v>0.0011445183985740203</v>
+      </c>
+      <c r="C201">
+        <v>1.4190161718065047e-06</v>
+      </c>
+      <c r="D201">
+        <v>0.018542032949004236</v>
+      </c>
+      <c r="E201">
+        <v>0.11337107286802033</v>
+      </c>
+      <c r="F201">
+        <v>0.0042248410344271643</v>
+      </c>
+      <c r="G201">
+        <v>0.19761547759469431</v>
+      </c>
+      <c r="H201">
+        <v>0.45468781601884545</v>
+      </c>
+      <c r="I201">
+        <v>0.21041282212026274</v>
+      </c>
+      <c r="J201">
+        <v>7</v>
+      </c>
+      <c r="K201">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B202">
+        <v>0.0014301404069343977</v>
+      </c>
+      <c r="C202">
+        <v>1.088177332335518e-06</v>
+      </c>
+      <c r="D202">
+        <v>0.06547831004291034</v>
+      </c>
+      <c r="E202">
+        <v>0.013794251241372305</v>
+      </c>
+      <c r="F202">
+        <v>0.015908174701030283</v>
+      </c>
+      <c r="G202">
+        <v>0.19673708529613798</v>
+      </c>
+      <c r="H202">
+        <v>0.38953160600237025</v>
+      </c>
+      <c r="I202">
+        <v>0.31711934413191201</v>
+      </c>
+      <c r="J202">
+        <v>7</v>
+      </c>
+      <c r="K202">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="B203">
+        <v>0.02175705293313511</v>
+      </c>
+      <c r="C203">
+        <v>1.6307765163200267e-08</v>
+      </c>
+      <c r="D203">
+        <v>0.07758242289313852</v>
+      </c>
+      <c r="E203">
+        <v>0.15194441867956401</v>
+      </c>
+      <c r="F203">
+        <v>0.0029898796966774592</v>
+      </c>
+      <c r="G203">
+        <v>0.32348511330553753</v>
+      </c>
+      <c r="H203">
+        <v>0.19506898563353187</v>
+      </c>
+      <c r="I203">
+        <v>0.2271721105506502</v>
+      </c>
+      <c r="J203">
+        <v>6</v>
+      </c>
+      <c r="K203">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="B204">
+        <v>2.8497672354490658e-05</v>
+      </c>
+      <c r="C204">
+        <v>8.0077732692450877e-10</v>
+      </c>
+      <c r="D204">
+        <v>0.0028855156799395538</v>
+      </c>
+      <c r="E204">
+        <v>0.051208017649509524</v>
+      </c>
+      <c r="F204">
+        <v>1.6669924007631509e-05</v>
+      </c>
+      <c r="G204">
+        <v>0.13065875991928508</v>
+      </c>
+      <c r="H204">
+        <v>0.23816714671769876</v>
+      </c>
+      <c r="I204">
+        <v>0.57703539163642759</v>
+      </c>
+      <c r="J204">
+        <v>8</v>
+      </c>
+      <c r="K204">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="B205">
+        <v>0.014336398976216773</v>
+      </c>
+      <c r="C205">
+        <v>0.015344954304460411</v>
+      </c>
+      <c r="D205">
+        <v>0.01070802832066579</v>
+      </c>
+      <c r="E205">
+        <v>0.019102309029507523</v>
+      </c>
+      <c r="F205">
+        <v>0.0028666328360882898</v>
+      </c>
+      <c r="G205">
+        <v>0.21673533815889859</v>
+      </c>
+      <c r="H205">
+        <v>0.038566498324374018</v>
+      </c>
+      <c r="I205">
+        <v>0.68233984004978854</v>
+      </c>
+      <c r="J205">
+        <v>8</v>
+      </c>
+      <c r="K205">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="B206">
+        <v>1.8512330791613012e-05</v>
+      </c>
+      <c r="C206">
+        <v>2.5862842778963711e-13</v>
+      </c>
+      <c r="D206">
+        <v>0.0087490867226531575</v>
+      </c>
+      <c r="E206">
+        <v>0.034417481620089077</v>
+      </c>
+      <c r="F206">
+        <v>0.0027758846835847471</v>
+      </c>
+      <c r="G206">
+        <v>0.41333762943454561</v>
+      </c>
+      <c r="H206">
+        <v>0.40682460942596277</v>
+      </c>
+      <c r="I206">
+        <v>0.13387679578211437</v>
+      </c>
+      <c r="J206">
+        <v>6</v>
+      </c>
+      <c r="K206">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="B207">
+        <v>0.011206249894410597</v>
+      </c>
+      <c r="C207">
+        <v>1.736351028875992e-05</v>
+      </c>
+      <c r="D207">
+        <v>0.05595096413462293</v>
+      </c>
+      <c r="E207">
+        <v>0.041497171785211569</v>
+      </c>
+      <c r="F207">
+        <v>0.0028873589894129648</v>
+      </c>
+      <c r="G207">
+        <v>0.19907780204845776</v>
+      </c>
+      <c r="H207">
+        <v>0.27498446693286033</v>
+      </c>
+      <c r="I207">
+        <v>0.41437862270473519</v>
+      </c>
+      <c r="J207">
+        <v>8</v>
+      </c>
+      <c r="K207">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="B208">
+        <v>5.2394899979875848e-05</v>
+      </c>
+      <c r="C208">
+        <v>5.4665476551620392e-10</v>
+      </c>
+      <c r="D208">
+        <v>0.012358245440453225</v>
+      </c>
+      <c r="E208">
+        <v>0.054498668625584307</v>
+      </c>
+      <c r="F208">
+        <v>0.00045664229882874251</v>
+      </c>
+      <c r="G208">
+        <v>0.17938132491754127</v>
+      </c>
+      <c r="H208">
+        <v>0.53594605562251507</v>
+      </c>
+      <c r="I208">
+        <v>0.2173066676484427</v>
+      </c>
+      <c r="J208">
+        <v>7</v>
+      </c>
+      <c r="K208">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="B209">
+        <v>0.012889533938733102</v>
+      </c>
+      <c r="C209">
+        <v>6.6255371434765637e-06</v>
+      </c>
+      <c r="D209">
+        <v>0.078874326743206158</v>
+      </c>
+      <c r="E209">
+        <v>0.010141359029092533</v>
+      </c>
+      <c r="F209">
+        <v>0.013259333342379036</v>
+      </c>
+      <c r="G209">
+        <v>0.15798012846199377</v>
+      </c>
+      <c r="H209">
+        <v>0.15556544357745836</v>
+      </c>
+      <c r="I209">
+        <v>0.57128324936999353</v>
+      </c>
+      <c r="J209">
+        <v>8</v>
+      </c>
+      <c r="K209">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B210">
+        <v>0.0085659995240778327</v>
+      </c>
+      <c r="C210">
+        <v>0.019878278480789244</v>
+      </c>
+      <c r="D210">
+        <v>0.058266067103971426</v>
+      </c>
+      <c r="E210">
+        <v>0.098090652778215867</v>
+      </c>
+      <c r="F210">
+        <v>0.0091885986840811208</v>
+      </c>
+      <c r="G210">
+        <v>0.13152880148686305</v>
+      </c>
+      <c r="H210">
+        <v>0.057586633713599872</v>
+      </c>
+      <c r="I210">
+        <v>0.6168949682284014</v>
+      </c>
+      <c r="J210">
+        <v>8</v>
+      </c>
+      <c r="K210">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B211">
+        <v>0.0034509418243736101</v>
+      </c>
+      <c r="C211">
+        <v>0.0061744579810923302</v>
+      </c>
+      <c r="D211">
+        <v>0.040360529559536146</v>
+      </c>
+      <c r="E211">
+        <v>0.035895142788198151</v>
+      </c>
+      <c r="F211">
+        <v>0.002033301301825692</v>
+      </c>
+      <c r="G211">
+        <v>0.17352282258192367</v>
+      </c>
+      <c r="H211">
+        <v>0.043875891993995365</v>
+      </c>
+      <c r="I211">
+        <v>0.69468691196905508</v>
+      </c>
+      <c r="J211">
+        <v>8</v>
+      </c>
+      <c r="K211">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B212">
+        <v>0.059865086020878047</v>
+      </c>
+      <c r="C212">
+        <v>0.019405272868574623</v>
+      </c>
+      <c r="D212">
+        <v>0.083354121426097147</v>
+      </c>
+      <c r="E212">
+        <v>0.18468053313306268</v>
+      </c>
+      <c r="F212">
+        <v>0.0039257334069988719</v>
+      </c>
+      <c r="G212">
+        <v>0.22718431674393527</v>
+      </c>
+      <c r="H212">
+        <v>0.085957295352712126</v>
+      </c>
+      <c r="I212">
+        <v>0.33562764104774134</v>
+      </c>
+      <c r="J212">
+        <v>8</v>
+      </c>
+      <c r="K212">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="B213">
+        <v>0.0083345132661578249</v>
+      </c>
+      <c r="C213">
+        <v>0.00065288273210546731</v>
+      </c>
+      <c r="D213">
+        <v>0.038141363736030075</v>
+      </c>
+      <c r="E213">
+        <v>0.051745826728623427</v>
+      </c>
+      <c r="F213">
+        <v>0.0081140268193960509</v>
+      </c>
+      <c r="G213">
+        <v>0.19769998876025863</v>
+      </c>
+      <c r="H213">
+        <v>0.049716964425880208</v>
+      </c>
+      <c r="I213">
+        <v>0.64559443353154844</v>
+      </c>
+      <c r="J213">
+        <v>8</v>
+      </c>
+      <c r="K213">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B214">
+        <v>0.0082480938054429499</v>
+      </c>
+      <c r="C214">
+        <v>0.0013606031444763258</v>
+      </c>
+      <c r="D214">
+        <v>0.023622425502628913</v>
+      </c>
+      <c r="E214">
+        <v>0.22236541780744634</v>
+      </c>
+      <c r="F214">
+        <v>0.070530755079121571</v>
+      </c>
+      <c r="G214">
+        <v>0.1860945499165983</v>
+      </c>
+      <c r="H214">
+        <v>0.091095291392770478</v>
+      </c>
+      <c r="I214">
+        <v>0.39668286335151509</v>
+      </c>
+      <c r="J214">
+        <v>8</v>
+      </c>
+      <c r="K214">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="B215">
+        <v>0.056651286232829029</v>
+      </c>
+      <c r="C215">
+        <v>0.0019702145793996694</v>
+      </c>
+      <c r="D215">
+        <v>0.035668006983504821</v>
+      </c>
+      <c r="E215">
+        <v>0.079503855511996263</v>
+      </c>
+      <c r="F215">
+        <v>0.061426445488508383</v>
+      </c>
+      <c r="G215">
+        <v>0.20537325097542711</v>
+      </c>
+      <c r="H215">
+        <v>0.13071013165779205</v>
+      </c>
+      <c r="I215">
+        <v>0.42869680857054265</v>
+      </c>
+      <c r="J215">
+        <v>8</v>
+      </c>
+      <c r="K215">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="B216">
+        <v>0.0016809717716972125</v>
+      </c>
+      <c r="C216">
+        <v>0.00060687295288564403</v>
+      </c>
+      <c r="D216">
+        <v>0.015137841293191524</v>
+      </c>
+      <c r="E216">
+        <v>0.13106617285772371</v>
+      </c>
+      <c r="F216">
+        <v>0.026559648953271453</v>
+      </c>
+      <c r="G216">
+        <v>0.14144474778225227</v>
+      </c>
+      <c r="H216">
+        <v>0.10167159478838102</v>
+      </c>
+      <c r="I216">
+        <v>0.58183214960059726</v>
+      </c>
+      <c r="J216">
+        <v>8</v>
+      </c>
+      <c r="K216">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="B217">
+        <v>0.0031519577297303442</v>
+      </c>
+      <c r="C217">
+        <v>0.012195392345388578</v>
+      </c>
+      <c r="D217">
+        <v>0.064164636576536191</v>
+      </c>
+      <c r="E217">
+        <v>0.093380929798653298</v>
+      </c>
+      <c r="F217">
+        <v>0.034099345388450629</v>
+      </c>
+      <c r="G217">
+        <v>0.23602492719956455</v>
+      </c>
+      <c r="H217">
+        <v>0.16049185971469246</v>
+      </c>
+      <c r="I217">
+        <v>0.39649095124698414</v>
+      </c>
+      <c r="J217">
+        <v>8</v>
+      </c>
+      <c r="K217">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="B218">
+        <v>0.039446155133826093</v>
+      </c>
+      <c r="C218">
+        <v>0.0098098881335279657</v>
+      </c>
+      <c r="D218">
+        <v>0.025568523161379378</v>
+      </c>
+      <c r="E218">
+        <v>0.15543429907738421</v>
+      </c>
+      <c r="F218">
+        <v>0.015416561919269531</v>
+      </c>
+      <c r="G218">
+        <v>0.22507695372677067</v>
+      </c>
+      <c r="H218">
+        <v>0.14843696621997768</v>
+      </c>
+      <c r="I218">
+        <v>0.38081065262786434</v>
+      </c>
+      <c r="J218">
+        <v>8</v>
+      </c>
+      <c r="K218">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="B219">
+        <v>0.0010141778329433898</v>
+      </c>
+      <c r="C219">
+        <v>5.4888224539472743e-05</v>
+      </c>
+      <c r="D219">
+        <v>0.032887793584818782</v>
+      </c>
+      <c r="E219">
+        <v>0.11111980055465366</v>
+      </c>
+      <c r="F219">
+        <v>0.23973779550354843</v>
+      </c>
+      <c r="G219">
+        <v>0.17569977749886476</v>
+      </c>
+      <c r="H219">
+        <v>0.12914152641111507</v>
+      </c>
+      <c r="I219">
+        <v>0.31034424038951647</v>
+      </c>
+      <c r="J219">
+        <v>8</v>
+      </c>
+      <c r="K219">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="B220">
+        <v>0.0014640239898220783</v>
+      </c>
+      <c r="C220">
+        <v>0.0011418676047205477</v>
+      </c>
+      <c r="D220">
+        <v>0.05541726524063887</v>
+      </c>
+      <c r="E220">
+        <v>0.019096137246624748</v>
+      </c>
+      <c r="F220">
+        <v>0.0056951446629633492</v>
+      </c>
+      <c r="G220">
+        <v>0.18780261410832699</v>
+      </c>
+      <c r="H220">
+        <v>0.084669471377382399</v>
+      </c>
+      <c r="I220">
+        <v>0.64471347576952109</v>
+      </c>
+      <c r="J220">
+        <v>8</v>
+      </c>
+      <c r="K220">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="B221">
+        <v>0.019282144402150547</v>
+      </c>
+      <c r="C221">
+        <v>0.0035442136453843896</v>
+      </c>
+      <c r="D221">
+        <v>0.013667681155039029</v>
+      </c>
+      <c r="E221">
+        <v>0.15466777722641703</v>
+      </c>
+      <c r="F221">
+        <v>0.0037228732520126558</v>
+      </c>
+      <c r="G221">
+        <v>0.26477735379026535</v>
+      </c>
+      <c r="H221">
+        <v>0.14971088941126476</v>
+      </c>
+      <c r="I221">
+        <v>0.39062706711746625</v>
+      </c>
+      <c r="J221">
+        <v>8</v>
+      </c>
+      <c r="K221">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B222">
+        <v>0.00054567584809537791</v>
+      </c>
+      <c r="C222">
+        <v>4.1415720807219666e-06</v>
+      </c>
+      <c r="D222">
+        <v>0.013527711909552828</v>
+      </c>
+      <c r="E222">
+        <v>0.075689739909887088</v>
+      </c>
+      <c r="F222">
+        <v>0.003241480382554114</v>
+      </c>
+      <c r="G222">
+        <v>0.28555036756830277</v>
+      </c>
+      <c r="H222">
+        <v>0.32426488405696197</v>
+      </c>
+      <c r="I222">
+        <v>0.29717599875256501</v>
+      </c>
+      <c r="J222">
+        <v>7</v>
+      </c>
+      <c r="K222">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="B223">
+        <v>0.0036219323993716924</v>
+      </c>
+      <c r="C223">
+        <v>0.00016522665876209937</v>
+      </c>
+      <c r="D223">
+        <v>0.017665061639414097</v>
+      </c>
+      <c r="E223">
+        <v>0.0026535657756929201</v>
+      </c>
+      <c r="F223">
+        <v>0.0045866222232650846</v>
+      </c>
+      <c r="G223">
+        <v>0.20675932329451416</v>
+      </c>
+      <c r="H223">
+        <v>0.33359120280945054</v>
+      </c>
+      <c r="I223">
+        <v>0.43095706519952942</v>
+      </c>
+      <c r="J223">
+        <v>8</v>
+      </c>
+      <c r="K223">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="B224">
+        <v>0.026668413211188749</v>
+      </c>
+      <c r="C224">
+        <v>0.00012985346096948053</v>
+      </c>
+      <c r="D224">
+        <v>0.036853998982774944</v>
+      </c>
+      <c r="E224">
+        <v>0.030446578488611827</v>
+      </c>
+      <c r="F224">
+        <v>0.012112157795089708</v>
+      </c>
+      <c r="G224">
+        <v>0.17855426330196461</v>
+      </c>
+      <c r="H224">
+        <v>0.38519708960590154</v>
+      </c>
+      <c r="I224">
+        <v>0.33003764515349915</v>
+      </c>
+      <c r="J224">
+        <v>7</v>
+      </c>
+      <c r="K224">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="B225">
+        <v>0.0013984310660476076</v>
+      </c>
+      <c r="C225">
+        <v>5.5678978262994338e-05</v>
+      </c>
+      <c r="D225">
+        <v>0.029838143681894677</v>
+      </c>
+      <c r="E225">
+        <v>0.094398422353452985</v>
+      </c>
+      <c r="F225">
+        <v>0.059834828458274363</v>
+      </c>
+      <c r="G225">
+        <v>0.18540245885081508</v>
+      </c>
+      <c r="H225">
+        <v>0.086191685936335832</v>
+      </c>
+      <c r="I225">
+        <v>0.54288035067491647</v>
+      </c>
+      <c r="J225">
+        <v>8</v>
+      </c>
+      <c r="K225">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B226">
+        <v>0.016294282496144452</v>
+      </c>
+      <c r="C226">
+        <v>0.00026000114969952024</v>
+      </c>
+      <c r="D226">
+        <v>0.05130668890527347</v>
+      </c>
+      <c r="E226">
+        <v>0.069861981706555026</v>
+      </c>
+      <c r="F226">
+        <v>0.011681433242993668</v>
+      </c>
+      <c r="G226">
+        <v>0.2191960157880517</v>
+      </c>
+      <c r="H226">
+        <v>0.20202192720382198</v>
+      </c>
+      <c r="I226">
+        <v>0.42937766950746009</v>
+      </c>
+      <c r="J226">
+        <v>8</v>
+      </c>
+      <c r="K226">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B227">
+        <v>0.23906986151392448</v>
+      </c>
+      <c r="C227">
+        <v>0.0003808237726056777</v>
+      </c>
+      <c r="D227">
+        <v>0.04189887868953817</v>
+      </c>
+      <c r="E227">
+        <v>0.059540973342520058</v>
+      </c>
+      <c r="F227">
+        <v>0.03164990469608836</v>
+      </c>
+      <c r="G227">
+        <v>0.20424058257095704</v>
+      </c>
+      <c r="H227">
+        <v>0.10820454251017822</v>
+      </c>
+      <c r="I227">
+        <v>0.31501443290418785</v>
+      </c>
+      <c r="J227">
+        <v>8</v>
+      </c>
+      <c r="K227">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="B228">
+        <v>0.0066447746665587804</v>
+      </c>
+      <c r="C228">
+        <v>0.0011073633662928423</v>
+      </c>
+      <c r="D228">
+        <v>0.025863144229774725</v>
+      </c>
+      <c r="E228">
+        <v>0.15903788668375907</v>
+      </c>
+      <c r="F228">
+        <v>0.018906042151777089</v>
+      </c>
+      <c r="G228">
+        <v>0.2406874763274936</v>
+      </c>
+      <c r="H228">
+        <v>0.1249318453775079</v>
+      </c>
+      <c r="I228">
+        <v>0.42282146719683605</v>
+      </c>
+      <c r="J228">
+        <v>8</v>
+      </c>
+      <c r="K228">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="B229">
+        <v>0.0013405517259310593</v>
+      </c>
+      <c r="C229">
+        <v>2.1810210364666068e-06</v>
+      </c>
+      <c r="D229">
+        <v>0.0097805371555769773</v>
+      </c>
+      <c r="E229">
+        <v>0.11073412268931347</v>
+      </c>
+      <c r="F229">
+        <v>0.00050342317143154303</v>
+      </c>
+      <c r="G229">
+        <v>0.22778742751725006</v>
+      </c>
+      <c r="H229">
+        <v>0.34351596774206328</v>
+      </c>
+      <c r="I229">
+        <v>0.30633578897739711</v>
+      </c>
+      <c r="J229">
+        <v>7</v>
+      </c>
+      <c r="K229">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>